--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(18-07-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(19-07-2002)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1CC8B2-866D-4EC3-99DA-43AD2293EC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9390EE79-49AD-45E8-9CC6-4BB42FB89592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="BalanceReport" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="397">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1233,6 +1234,12 @@
   </si>
   <si>
     <t>testSignetAccountInvalidAmount</t>
+  </si>
+  <si>
+    <t>WB222010803</t>
+  </si>
+  <si>
+    <t>WI222000650</t>
   </si>
 </sst>
 </file>
@@ -1719,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB40DDF-741D-4E62-9E3A-43C63EE95C74}">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3576,12 +3583,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDD6E72-6031-4802-B904-6A5DCC120EE9}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -3660,13 +3675,13 @@
       <c r="B2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -3729,13 +3744,13 @@
       <c r="B3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -3766,7 +3781,7 @@
         <v>87</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>96</v>
+        <v>395</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>97</v>
@@ -3798,13 +3813,13 @@
       <c r="B4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -3835,7 +3850,7 @@
         <v>87</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>101</v>
+        <v>396</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>102</v>
@@ -3867,13 +3882,13 @@
       <c r="B5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -3936,13 +3951,13 @@
       <c r="B6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -4005,13 +4020,13 @@
       <c r="B7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -4074,13 +4089,13 @@
       <c r="B8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -4137,6 +4152,12 @@
       <c r="W8" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{92A74E4F-278C-46C5-B56F-1DEE573A2B71}"/>
+    <hyperlink ref="D3:D8" r:id="rId2" display="santoshp@ideyalabs.com" xr:uid="{CC451CFC-3178-411D-8AF5-CDABD2D340D2}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{886819AD-D182-4E9F-BC94-32AA1035B8BD}"/>
+    <hyperlink ref="E3:E8" r:id="rId4" display="Admin@123" xr:uid="{CBF914E0-82B1-46E2-AFA0-E6B23CE0BEE0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6647,8 +6668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B0A0B3-8637-430C-83AB-3CD1E7890F66}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7351,8 +7372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,29 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(19-07-2002)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\web(21-07-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9390EE79-49AD-45E8-9CC6-4BB42FB89592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5B7F57-F838-4FFF-9077-44EEEF60DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
     <sheet name="accounting" sheetId="15" r:id="rId2"/>
-    <sheet name="Login" sheetId="3" r:id="rId3"/>
-    <sheet name="ForgotPassword" sheetId="4" r:id="rId4"/>
-    <sheet name="forgotEmail" sheetId="6" r:id="rId5"/>
-    <sheet name="AddSignetAccount" sheetId="9" r:id="rId6"/>
-    <sheet name="feeStructure" sheetId="10" r:id="rId7"/>
-    <sheet name="TransactionDetails" sheetId="13" r:id="rId8"/>
-    <sheet name="AccountLimits" sheetId="16" r:id="rId9"/>
-    <sheet name="transaction" sheetId="14" r:id="rId10"/>
-    <sheet name="featureControl" sheetId="11" r:id="rId11"/>
-    <sheet name="BalanceReport" sheetId="12" r:id="rId12"/>
+    <sheet name="profileApiBusiness" sheetId="17" r:id="rId3"/>
+    <sheet name="Login" sheetId="3" r:id="rId4"/>
+    <sheet name="ForgotPassword" sheetId="4" r:id="rId5"/>
+    <sheet name="forgotEmail" sheetId="6" r:id="rId6"/>
+    <sheet name="AddSignetAccount" sheetId="9" r:id="rId7"/>
+    <sheet name="feeStructure" sheetId="10" r:id="rId8"/>
+    <sheet name="TransactionDetails" sheetId="13" r:id="rId9"/>
+    <sheet name="AccountLimits" sheetId="16" r:id="rId10"/>
+    <sheet name="transaction" sheetId="14" r:id="rId11"/>
+    <sheet name="featureControl" sheetId="11" r:id="rId12"/>
+    <sheet name="BalanceReport" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="420">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1240,6 +1240,75 @@
   </si>
   <si>
     <t>WI222000650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create Api Business </t>
+  </si>
+  <si>
+    <t>headingInvitation</t>
+  </si>
+  <si>
+    <t>headingContact</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>doller</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>ecoSystem</t>
+  </si>
+  <si>
+    <t>businessLimit</t>
+  </si>
+  <si>
+    <t>ecoSystemLimit</t>
+  </si>
+  <si>
+    <t>API Invitation</t>
+  </si>
+  <si>
+    <t>API Business Contact Information</t>
+  </si>
+  <si>
+    <t>Manikanth</t>
+  </si>
+  <si>
+    <t>Reddy</t>
+  </si>
+  <si>
+    <t>manikanthv@ideyalabs.com</t>
+  </si>
+  <si>
+    <t>Business Fees</t>
+  </si>
+  <si>
+    <t>Ecosystem User Fees</t>
+  </si>
+  <si>
+    <t>Business Account Limits</t>
+  </si>
+  <si>
+    <t>Ecosystem User Account Limits</t>
+  </si>
+  <si>
+    <t>email1</t>
+  </si>
+  <si>
+    <t>Verify Business userList</t>
+  </si>
+  <si>
+    <t>Gride</t>
+  </si>
+  <si>
+    <t>Verify Business Details</t>
+  </si>
+  <si>
+    <t>Verify Api Business Business Details</t>
   </si>
 </sst>
 </file>
@@ -1730,28 +1799,28 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.88671875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" customWidth="1"/>
-    <col min="13" max="13" width="30.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.140625" customWidth="1"/>
-    <col min="19" max="20" width="15.7109375" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" customWidth="1"/>
+    <col min="13" max="13" width="30.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.109375" customWidth="1"/>
+    <col min="19" max="20" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1877,7 +1946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1926,7 +1995,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1975,7 +2044,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2013,7 +2082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -2051,7 +2120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>47</v>
       </c>
@@ -2102,7 +2171,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>52</v>
       </c>
@@ -2153,7 +2222,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -2204,7 +2273,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>56</v>
       </c>
@@ -2255,7 +2324,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -2306,7 +2375,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -2344,7 +2413,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>63</v>
       </c>
@@ -2382,7 +2451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>66</v>
       </c>
@@ -2420,7 +2489,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>66</v>
       </c>
@@ -2458,7 +2527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
@@ -2496,7 +2565,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
@@ -2534,7 +2603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -2614,6 +2683,265 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6996C0C-24E0-40BE-A97F-7A279690A8EE}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="56.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>372</v>
+      </c>
+      <c r="O2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="N6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DAABDA-3594-43D7-9AEC-0D8E440ACE4D}">
   <dimension ref="A1:X10"/>
   <sheetViews>
@@ -2621,24 +2949,24 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2710,7 +3038,7 @@
       </c>
       <c r="X1" s="15"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>338</v>
       </c>
@@ -2762,7 +3090,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="15"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>339</v>
       </c>
@@ -2814,7 +3142,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="15"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>340</v>
       </c>
@@ -2866,7 +3194,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="15"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>341</v>
       </c>
@@ -2918,7 +3246,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="15"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>342</v>
       </c>
@@ -2970,7 +3298,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="15"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>343</v>
       </c>
@@ -3030,7 +3358,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="15"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>346</v>
       </c>
@@ -3084,7 +3412,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="15"/>
     </row>
-    <row r="9" spans="1:24" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>348</v>
       </c>
@@ -3136,7 +3464,7 @@
       </c>
       <c r="X9" s="15"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -3185,7 +3513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B6D706-4369-43B1-B41D-E358306B83B4}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -3193,24 +3521,24 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3252,7 +3580,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>352</v>
       </c>
@@ -3298,7 +3626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9ECCE6-1FC9-48C7-BBB8-F3E55C223DFA}">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -3306,23 +3634,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3366,7 +3694,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>359</v>
       </c>
@@ -3401,7 +3729,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>361</v>
       </c>
@@ -3442,7 +3770,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>361</v>
       </c>
@@ -3486,7 +3814,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>361</v>
       </c>
@@ -3530,7 +3858,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>361</v>
       </c>
@@ -3583,23 +3911,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDD6E72-6031-4802-B904-6A5DCC120EE9}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.109375" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3668,7 +3996,7 @@
       </c>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -3737,7 +4065,7 @@
       </c>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>94</v>
       </c>
@@ -3806,7 +4134,7 @@
       </c>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
@@ -3875,7 +4203,7 @@
       </c>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>105</v>
       </c>
@@ -3944,7 +4272,7 @@
       </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>111</v>
       </c>
@@ -4013,7 +4341,7 @@
       </c>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>118</v>
       </c>
@@ -4082,7 +4410,7 @@
       </c>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>120</v>
       </c>
@@ -4163,6 +4491,302 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3A334-050A-4737-9B01-1B13EAAB8BDD}">
+  <dimension ref="A1:AB4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="47.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="9" max="9" width="57.5546875" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="13" max="13" width="28.21875" customWidth="1"/>
+    <col min="14" max="14" width="20.21875" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="25.44140625" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="19" customWidth="1"/>
+    <col min="22" max="22" width="21" customWidth="1"/>
+    <col min="23" max="23" width="30.88671875" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" customWidth="1"/>
+    <col min="25" max="25" width="12.21875" customWidth="1"/>
+    <col min="27" max="27" width="24.44140625" customWidth="1"/>
+    <col min="28" max="28" width="25.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>7893969587</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{3E2CC705-CEED-4452-921B-473A5D8A112D}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{AC5946EB-6483-4F45-97F6-8690C94CCA32}"/>
+    <hyperlink ref="P2" r:id="rId3" xr:uid="{72BBF56A-7D61-4DB8-BA14-D521E8C03F8E}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{3052154C-51BF-4321-A094-4965B0411679}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{F4B3D91C-FF47-48DA-95F4-7F938C33556C}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{90E4FA54-88FE-4E0D-A828-B86C3E8924D4}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{159BFCF1-C772-4A99-8EAE-0BE92E88CC57}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -4170,23 +4794,23 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="19.5546875" customWidth="1"/>
     <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4236,7 +4860,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>131</v>
       </c>
@@ -4278,7 +4902,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>134</v>
       </c>
@@ -4312,7 +4936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>134</v>
       </c>
@@ -4346,7 +4970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>134</v>
       </c>
@@ -4382,7 +5006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>134</v>
       </c>
@@ -4418,7 +5042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>145</v>
       </c>
@@ -4450,7 +5074,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>147</v>
       </c>
@@ -4488,7 +5112,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>147</v>
       </c>
@@ -4524,7 +5148,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>147</v>
       </c>
@@ -4560,7 +5184,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>147</v>
       </c>
@@ -4596,7 +5220,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>147</v>
       </c>
@@ -4632,7 +5256,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>147</v>
       </c>
@@ -4668,7 +5292,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>147</v>
       </c>
@@ -4718,7 +5342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C474AF-1560-47F8-90E0-FD2FFD96A555}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
@@ -4726,28 +5350,28 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" customWidth="1"/>
-    <col min="20" max="20" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" customWidth="1"/>
+    <col min="20" max="20" width="65.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4827,7 +5451,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>183</v>
       </c>
@@ -4887,7 +5511,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>190</v>
       </c>
@@ -4931,7 +5555,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>190</v>
       </c>
@@ -4977,7 +5601,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>190</v>
       </c>
@@ -5029,7 +5653,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>190</v>
       </c>
@@ -5081,7 +5705,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>190</v>
       </c>
@@ -5135,7 +5759,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>190</v>
       </c>
@@ -5191,7 +5815,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>190</v>
       </c>
@@ -5245,7 +5869,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>190</v>
       </c>
@@ -5299,7 +5923,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>211</v>
       </c>
@@ -5343,7 +5967,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>211</v>
       </c>
@@ -5385,7 +6009,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>215</v>
       </c>
@@ -5429,7 +6053,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>217</v>
       </c>
@@ -5500,7 +6124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D341FF-C706-4B03-BBF1-19B6EBC55B3F}">
   <dimension ref="A1:AC15"/>
   <sheetViews>
@@ -5508,27 +6132,27 @@
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="74.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="65.42578125" customWidth="1"/>
-    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="74.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="65.44140625" customWidth="1"/>
+    <col min="16" max="16" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="86" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.140625" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" customWidth="1"/>
-    <col min="24" max="24" width="26.42578125" customWidth="1"/>
-    <col min="25" max="25" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.109375" customWidth="1"/>
+    <col min="23" max="23" width="17.88671875" customWidth="1"/>
+    <col min="24" max="24" width="26.44140625" customWidth="1"/>
+    <col min="25" max="25" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5617,7 +6241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>230</v>
       </c>
@@ -5688,7 +6312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>230</v>
       </c>
@@ -5763,7 +6387,7 @@
       </c>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>241</v>
       </c>
@@ -5836,7 +6460,7 @@
       </c>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>241</v>
       </c>
@@ -5913,7 +6537,7 @@
       </c>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" ht="39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>241</v>
       </c>
@@ -5990,7 +6614,7 @@
       </c>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>241</v>
       </c>
@@ -6065,7 +6689,7 @@
       </c>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>241</v>
       </c>
@@ -6140,7 +6764,7 @@
       </c>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>241</v>
       </c>
@@ -6215,7 +6839,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>260</v>
       </c>
@@ -6292,7 +6916,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>260</v>
       </c>
@@ -6369,7 +6993,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>260</v>
       </c>
@@ -6446,7 +7070,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>262</v>
       </c>
@@ -6517,7 +7141,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>262</v>
       </c>
@@ -6582,7 +7206,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>266</v>
       </c>
@@ -6664,7 +7288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B0A0B3-8637-430C-83AB-3CD1E7890F66}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
@@ -6672,36 +7296,36 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="50.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="50.33203125" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="64.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
-    <col min="12" max="12" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="64.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="12" max="12" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.44140625" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" customWidth="1"/>
-    <col min="22" max="22" width="33.140625" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
-    <col min="24" max="24" width="32.42578125" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" customWidth="1"/>
-    <col min="27" max="27" width="16.5703125" customWidth="1"/>
-    <col min="28" max="28" width="34.7109375" customWidth="1"/>
-    <col min="29" max="29" width="27.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" customWidth="1"/>
+    <col min="22" max="22" width="33.109375" customWidth="1"/>
+    <col min="23" max="23" width="12.109375" customWidth="1"/>
+    <col min="24" max="24" width="32.44140625" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5546875" customWidth="1"/>
+    <col min="27" max="27" width="16.5546875" customWidth="1"/>
+    <col min="28" max="28" width="34.6640625" customWidth="1"/>
+    <col min="29" max="29" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6790,7 +7414,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>279</v>
       </c>
@@ -6868,7 +7492,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>394</v>
       </c>
@@ -6912,7 +7536,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>394</v>
       </c>
@@ -6954,7 +7578,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>289</v>
       </c>
@@ -7011,7 +7635,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>292</v>
       </c>
@@ -7076,7 +7700,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>292</v>
       </c>
@@ -7142,7 +7766,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>292</v>
       </c>
@@ -7208,7 +7832,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>292</v>
       </c>
@@ -7276,7 +7900,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>292</v>
       </c>
@@ -7368,7 +7992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -7376,19 +8000,19 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -7435,7 +8059,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -7467,7 +8091,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>301</v>
       </c>
@@ -7505,7 +8129,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>304</v>
       </c>
@@ -7540,7 +8164,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>306</v>
       </c>
@@ -7575,7 +8199,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>308</v>
       </c>
@@ -7610,7 +8234,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>310</v>
       </c>
@@ -7654,7 +8278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B863EE-0FB8-4125-A633-87E6E4517058}">
   <dimension ref="A1:R8"/>
   <sheetViews>
@@ -7662,22 +8286,22 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7731,7 +8355,7 @@
       </c>
       <c r="R1" s="15"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>317</v>
       </c>
@@ -7779,7 +8403,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>322</v>
       </c>
@@ -7827,7 +8451,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>324</v>
       </c>
@@ -7877,7 +8501,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>327</v>
       </c>
@@ -7927,7 +8551,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>330</v>
       </c>
@@ -7979,7 +8603,7 @@
       </c>
       <c r="R6" s="15"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>334</v>
       </c>
@@ -8029,7 +8653,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="15"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -8062,263 +8686,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6996C0C-24E0-40BE-A97F-7A279690A8EE}">
-  <dimension ref="A1:O6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="56.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>372</v>
-      </c>
-      <c r="O2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="B3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>237</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="B4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B5" t="s">
-        <v>374</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>237</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>237</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="N6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\web(21-07-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\080822_Web\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5B7F57-F838-4FFF-9077-44EEEF60DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC222CA9-7AC2-4D79-BDA1-A73EA08F479D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
     <sheet name="accounting" sheetId="15" r:id="rId2"/>
-    <sheet name="profileApiBusiness" sheetId="17" r:id="rId3"/>
+    <sheet name="profiles" sheetId="17" r:id="rId3"/>
     <sheet name="Login" sheetId="3" r:id="rId4"/>
     <sheet name="ForgotPassword" sheetId="4" r:id="rId5"/>
     <sheet name="forgotEmail" sheetId="6" r:id="rId6"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="441">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -340,9 +340,6 @@
     <t>WB221460650</t>
   </si>
   <si>
-    <t>Batch ID - WB221460650</t>
-  </si>
-  <si>
     <t>WTD4F596C654B9D4BF165EDEF40C2944A</t>
   </si>
   <si>
@@ -355,9 +352,6 @@
     <t>WI221580650</t>
   </si>
   <si>
-    <t>Batch ID - WI221580650</t>
-  </si>
-  <si>
     <t>WTD97EE2B3F82E868798ABBBB604523</t>
   </si>
   <si>
@@ -746,9 +740,6 @@
   </si>
   <si>
     <t>Please enter the phone number which has been associatedto your coyni admin account.</t>
-  </si>
-  <si>
-    <t>Please enter the first and last name which has beenassociated to your coyni admin account.</t>
   </si>
   <si>
     <t>Santosh</t>
@@ -1309,13 +1300,85 @@
   </si>
   <si>
     <t>Verify Api Business Business Details</t>
+  </si>
+  <si>
+    <t>(234) 567-0098</t>
+  </si>
+  <si>
+    <t>Edit Personal Fee Structure</t>
+  </si>
+  <si>
+    <t>Batch ID - WB222010803</t>
+  </si>
+  <si>
+    <t>Batch ID - WI222000650</t>
+  </si>
+  <si>
+    <t>Amount is required</t>
+  </si>
+  <si>
+    <t>Verify Individual SideBar View</t>
+  </si>
+  <si>
+    <t>profileHeading</t>
+  </si>
+  <si>
+    <t>searchText</t>
+  </si>
+  <si>
+    <t>expID</t>
+  </si>
+  <si>
+    <t>expUserName</t>
+  </si>
+  <si>
+    <t>expAccountID</t>
+  </si>
+  <si>
+    <t>Verify Individual User Details View</t>
+  </si>
+  <si>
+    <t>expUserHeading</t>
+  </si>
+  <si>
+    <t>User Details</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>expAccountStatus</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>C - 111</t>
+  </si>
+  <si>
+    <t>ID C-111</t>
+  </si>
+  <si>
+    <t>Santosh Kumar</t>
+  </si>
+  <si>
+    <t>Account ID: C-111</t>
+  </si>
+  <si>
+    <t>Verify Individual User Details Payment Methods</t>
+  </si>
+  <si>
+    <t>expPaymentMethodHeading</t>
+  </si>
+  <si>
+    <t>Payment Methods</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1437,6 +1500,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1474,7 +1543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1512,6 +1581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1799,28 +1869,28 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.33203125" customWidth="1"/>
-    <col min="13" max="13" width="30.5546875" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.109375" customWidth="1"/>
-    <col min="19" max="20" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" customWidth="1"/>
+    <col min="19" max="20" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1891,7 +1961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="64.5">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1946,7 +2016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="64.5">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1995,7 +2065,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="64.5">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2044,7 +2114,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="64.5">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2082,7 +2152,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="64.5">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -2120,7 +2190,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" s="15" t="s">
         <v>47</v>
       </c>
@@ -2171,7 +2241,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23">
       <c r="A8" s="15" t="s">
         <v>52</v>
       </c>
@@ -2222,7 +2292,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -2273,7 +2343,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23">
       <c r="A10" s="15" t="s">
         <v>56</v>
       </c>
@@ -2324,7 +2394,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -2375,7 +2445,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -2413,7 +2483,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23">
       <c r="A13" s="15" t="s">
         <v>63</v>
       </c>
@@ -2451,7 +2521,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23">
       <c r="A14" s="15" t="s">
         <v>66</v>
       </c>
@@ -2489,7 +2559,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23">
       <c r="A15" s="15" t="s">
         <v>66</v>
       </c>
@@ -2527,7 +2597,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23">
       <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
@@ -2565,7 +2635,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
@@ -2603,7 +2673,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -2686,29 +2756,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6996C0C-24E0-40BE-A97F-7A279690A8EE}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="56.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -2740,27 +2811,27 @@
         <v>9</v>
       </c>
       <c r="K1" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="N1" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="L1" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>300</v>
-      </c>
       <c r="O1" s="22" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="24" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
@@ -2778,7 +2849,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -2787,18 +2858,18 @@
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="O2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="24" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>25</v>
@@ -2816,7 +2887,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -2825,15 +2896,15 @@
         <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="24" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>25</v>
@@ -2851,7 +2922,7 @@
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
@@ -2860,15 +2931,15 @@
         <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>25</v>
@@ -2886,7 +2957,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
@@ -2895,15 +2966,15 @@
         <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>25</v>
@@ -2921,7 +2992,7 @@
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
@@ -2930,10 +3001,10 @@
         <v>32</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2949,24 +3020,24 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.33203125" customWidth="1"/>
-    <col min="15" max="15" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3019,7 +3090,7 @@
         <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>19</v>
@@ -3031,16 +3102,16 @@
         <v>21</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="15"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>48</v>
@@ -3090,9 +3161,9 @@
       <c r="W2" s="2"/>
       <c r="X2" s="15"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>53</v>
@@ -3142,9 +3213,9 @@
       <c r="W3" s="2"/>
       <c r="X3" s="15"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>55</v>
@@ -3194,9 +3265,9 @@
       <c r="W4" s="2"/>
       <c r="X4" s="15"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>57</v>
@@ -3246,9 +3317,9 @@
       <c r="W5" s="2"/>
       <c r="X5" s="15"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="15" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>59</v>
@@ -3298,9 +3369,9 @@
       <c r="W6" s="2"/>
       <c r="X6" s="15"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>67</v>
@@ -3341,10 +3412,10 @@
         <v>35</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="R7" s="2">
         <v>2</v>
@@ -3358,12 +3429,12 @@
       <c r="W7" s="2"/>
       <c r="X7" s="15"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>25</v>
@@ -3398,7 +3469,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="R8" s="2">
         <v>2</v>
@@ -3412,9 +3483,9 @@
       <c r="W8" s="2"/>
       <c r="X8" s="15"/>
     </row>
-    <row r="9" spans="1:24" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="102.75">
       <c r="A9" s="15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>64</v>
@@ -3460,11 +3531,11 @@
         <v>64</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="X9" s="15"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -3521,24 +3592,24 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3570,22 +3641,22 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
@@ -3603,7 +3674,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -3612,13 +3683,13 @@
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3631,26 +3702,26 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3682,24 +3753,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M1" t="s">
+        <v>354</v>
+      </c>
+      <c r="N1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
         <v>356</v>
       </c>
-      <c r="M1" t="s">
-        <v>357</v>
-      </c>
-      <c r="N1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>359</v>
-      </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
@@ -3717,7 +3788,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -3726,15 +3797,15 @@
         <v>32</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>25</v>
@@ -3752,7 +3823,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -3764,18 +3835,18 @@
         <v>50</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>69</v>
@@ -3793,7 +3864,7 @@
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
@@ -3805,21 +3876,21 @@
         <v>50</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>71</v>
@@ -3837,7 +3908,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
@@ -3849,21 +3920,21 @@
         <v>50</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>73</v>
@@ -3881,7 +3952,7 @@
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
@@ -3893,13 +3964,13 @@
         <v>50</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3912,22 +3983,22 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
-    <col min="15" max="15" width="20.109375" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3996,7 +4067,7 @@
       </c>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -4065,7 +4136,7 @@
       </c>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" s="2" t="s">
         <v>94</v>
       </c>
@@ -4109,13 +4180,13 @@
         <v>87</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>96</v>
@@ -4134,12 +4205,12 @@
       </c>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23">
       <c r="A4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -4178,19 +4249,19 @@
         <v>87</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>93</v>
@@ -4203,12 +4274,12 @@
       </c>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>25</v>
@@ -4247,19 +4318,19 @@
         <v>87</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="R5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>93</v>
@@ -4272,12 +4343,12 @@
       </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>25</v>
@@ -4313,22 +4384,22 @@
         <v>51</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="R6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>93</v>
@@ -4341,12 +4412,12 @@
       </c>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
@@ -4382,22 +4453,22 @@
         <v>51</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="R7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>93</v>
@@ -4410,12 +4481,12 @@
       </c>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>25</v>
@@ -4451,22 +4522,22 @@
         <v>51</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="R8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>93</v>
@@ -4492,42 +4563,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3A334-050A-4737-9B01-1B13EAAB8BDD}">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="47.109375" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="9" max="9" width="57.5546875" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1"/>
-    <col min="13" max="13" width="28.21875" customWidth="1"/>
-    <col min="14" max="14" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="47.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="57.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="25.44140625" customWidth="1"/>
-    <col min="17" max="17" width="13.77734375" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" customWidth="1"/>
-    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="25.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
     <col min="22" max="22" width="21" customWidth="1"/>
-    <col min="23" max="23" width="30.88671875" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" customWidth="1"/>
-    <col min="25" max="25" width="12.21875" customWidth="1"/>
-    <col min="27" max="27" width="24.44140625" customWidth="1"/>
-    <col min="28" max="28" width="25.44140625" customWidth="1"/>
+    <col min="23" max="23" width="30.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" customWidth="1"/>
+    <col min="27" max="27" width="24.42578125" customWidth="1"/>
+    <col min="28" max="28" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4562,40 +4633,40 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>17</v>
@@ -4604,7 +4675,7 @@
         <v>19</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>12</v>
@@ -4612,13 +4683,40 @@
       <c r="AB1" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AK1" s="22" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -4648,25 +4746,25 @@
         <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="13" t="s">
         <v>407</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>410</v>
       </c>
       <c r="Q2" s="2">
         <v>7893969587</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="S2" s="2">
         <v>1</v>
@@ -4675,21 +4773,21 @@
         <v>1</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="B3" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="B3" t="s">
-        <v>417</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
@@ -4719,10 +4817,10 @@
         <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -4737,12 +4835,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37">
       <c r="A4" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -4770,6 +4868,177 @@
       </c>
       <c r="K4" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE5" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="AF5" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE6" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="AF6" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>430</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE7" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="AF7" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>430</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>436</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>433</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4781,8 +5050,15 @@
     <hyperlink ref="E3" r:id="rId5" xr:uid="{F4B3D91C-FF47-48DA-95F4-7F938C33556C}"/>
     <hyperlink ref="D4" r:id="rId6" xr:uid="{90E4FA54-88FE-4E0D-A828-B86C3E8924D4}"/>
     <hyperlink ref="E4" r:id="rId7" xr:uid="{159BFCF1-C772-4A99-8EAE-0BE92E88CC57}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{DDE1F3EF-53DE-4DBD-B7BA-7DB8F557E005}"/>
+    <hyperlink ref="E5" r:id="rId9" xr:uid="{943E3037-F64E-4F4E-BD20-69AB742E6A9C}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{0E5836E1-2E61-4604-A674-C9C1AA91EC59}"/>
+    <hyperlink ref="E6" r:id="rId11" xr:uid="{4D69D9D1-CF3E-4D55-A2D5-8FA1483A1403}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{C6AC8335-81C4-43BD-99CC-C52A9174DE3C}"/>
+    <hyperlink ref="E7" r:id="rId13" xr:uid="{DF4A0E26-4C4C-4102-A7B4-FD4AE3DCE954}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -4794,23 +5070,23 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="13" max="13" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
     <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4842,30 +5118,30 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -4896,18 +5172,18 @@
         <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
@@ -4927,21 +5203,21 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>69</v>
@@ -4961,27 +5237,27 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>27</v>
@@ -4997,21 +5273,21 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>73</v>
@@ -5033,21 +5309,21 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
@@ -5068,18 +5344,18 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>25</v>
@@ -5102,22 +5378,22 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>69</v>
@@ -5137,10 +5413,10 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -5148,12 +5424,12 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>71</v>
@@ -5173,10 +5449,10 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -5184,12 +5460,12 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>73</v>
@@ -5209,10 +5485,10 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -5220,12 +5496,12 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>75</v>
@@ -5245,10 +5521,10 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -5256,15 +5532,15 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>26</v>
@@ -5281,10 +5557,10 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -5292,15 +5568,15 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>26</v>
@@ -5317,10 +5593,10 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -5350,28 +5626,28 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.44140625" customWidth="1"/>
-    <col min="20" max="20" width="65.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" customWidth="1"/>
+    <col min="20" max="20" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5397,7 +5673,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -5409,54 +5685,54 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y1" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>179</v>
-      </c>
       <c r="Z1" s="14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="53.4" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="51.75">
       <c r="A2" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -5479,19 +5755,19 @@
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="R2" s="13" t="s">
         <v>27</v>
@@ -5505,18 +5781,18 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
@@ -5529,13 +5805,13 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="2"/>
@@ -5544,29 +5820,29 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -5575,13 +5851,13 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
@@ -5590,29 +5866,29 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -5621,7 +5897,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2">
@@ -5629,36 +5905,36 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>73</v>
@@ -5673,7 +5949,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
@@ -5681,36 +5957,36 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="12"/>
       <c r="T6" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>75</v>
@@ -5725,7 +6001,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2">
@@ -5733,14 +6009,14 @@
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="13" t="s">
@@ -5748,26 +6024,26 @@
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>26</v>
@@ -5779,7 +6055,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2">
@@ -5787,43 +6063,43 @@
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="13" t="s">
         <v>27</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>26</v>
@@ -5835,7 +6111,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2">
@@ -5843,41 +6119,41 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>26</v>
@@ -5889,7 +6165,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2">
@@ -5897,38 +6173,38 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="A11" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>25</v>
@@ -5948,14 +6224,14 @@
         <v>112121</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -5967,12 +6243,12 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="A12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>69</v>
@@ -5989,15 +6265,15 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -6009,12 +6285,12 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="A13" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>25</v>
@@ -6035,14 +6311,14 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -6053,12 +6329,12 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26">
       <c r="A14" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>25</v>
@@ -6079,14 +6355,14 @@
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="13" t="s">
@@ -6101,7 +6377,7 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Z14" s="15"/>
     </row>
@@ -6128,31 +6404,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D341FF-C706-4B03-BBF1-19B6EBC55B3F}">
   <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="74.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="65.44140625" customWidth="1"/>
-    <col min="16" max="16" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="80.42578125" customWidth="1"/>
+    <col min="14" max="14" width="65.42578125" customWidth="1"/>
+    <col min="15" max="15" width="52.28515625" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="86" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.109375" customWidth="1"/>
-    <col min="23" max="23" width="17.88671875" customWidth="1"/>
-    <col min="24" max="24" width="26.44140625" customWidth="1"/>
-    <col min="25" max="25" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.140625" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" customWidth="1"/>
+    <col min="24" max="24" width="26.42578125" customWidth="1"/>
+    <col min="25" max="25" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6187,25 +6464,25 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>3</v>
@@ -6214,39 +6491,39 @@
         <v>4</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="16.5">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -6266,25 +6543,25 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="R2" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>26</v>
@@ -6293,16 +6570,16 @@
         <v>27</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V2" s="2">
         <v>123456</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -6312,12 +6589,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>69</v>
@@ -6337,25 +6614,25 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="R3" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="S3" s="13" t="s">
         <v>26</v>
@@ -6364,35 +6641,35 @@
         <v>27</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V3" s="2">
         <v>123456</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="X3" s="10"/>
       <c r="Y3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC3" s="2"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -6412,23 +6689,23 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="R4" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S4" s="13" t="s">
         <v>26</v>
@@ -6437,35 +6714,35 @@
         <v>27</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V4" s="2">
         <v>123456</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="X4" s="10"/>
       <c r="Y4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="1:29" ht="16.5">
+      <c r="A5" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="Z4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="AC4" s="2"/>
-    </row>
-    <row r="5" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>69</v>
@@ -6485,25 +6762,25 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="R5" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="S5" s="13" t="s">
         <v>26</v>
@@ -6512,37 +6789,37 @@
         <v>27</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V5" s="2">
         <v>123456</v>
       </c>
       <c r="W5" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB5" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="X5" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="39">
       <c r="A6" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>71</v>
@@ -6562,25 +6839,25 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="R6" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="S6" s="13" t="s">
         <v>26</v>
@@ -6589,37 +6866,37 @@
         <v>27</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V6" s="2">
         <v>123456</v>
       </c>
       <c r="W6" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB6" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="16.5">
       <c r="A7" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>73</v>
@@ -6639,23 +6916,23 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="S7" s="13" t="s">
         <v>26</v>
@@ -6664,37 +6941,37 @@
         <v>27</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V7" s="2">
         <v>123456</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="X7" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Y7" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="1:29" ht="16.5">
+      <c r="A8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC7" s="2"/>
-    </row>
-    <row r="8" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>75</v>
@@ -6714,22 +6991,22 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="13" t="s">
@@ -6739,40 +7016,40 @@
         <v>27</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V8" s="2">
         <v>123456</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AB8" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="1:29" ht="16.5">
+      <c r="A9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AC8" s="2"/>
-    </row>
-    <row r="9" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>26</v>
@@ -6789,25 +7066,25 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="S9" s="13" t="s">
         <v>26</v>
@@ -6816,35 +7093,35 @@
         <v>27</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V9" s="2">
         <v>123456</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
@@ -6864,25 +7141,25 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="R10" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="S10" s="13" t="s">
         <v>26</v>
@@ -6891,37 +7168,37 @@
         <v>27</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V10" s="2">
         <v>333333</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="16.5">
       <c r="A11" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>69</v>
@@ -6941,25 +7218,25 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="R11" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="S11" s="13" t="s">
         <v>26</v>
@@ -6968,37 +7245,37 @@
         <v>27</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V11" s="2">
         <v>123</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="16.5">
       <c r="A12" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>71</v>
@@ -7018,25 +7295,25 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="R12" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="S12" s="13" t="s">
         <v>26</v>
@@ -7045,37 +7322,37 @@
         <v>27</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V12" s="2">
         <v>1234567</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="16.5">
       <c r="A13" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>25</v>
@@ -7095,25 +7372,25 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="S13" s="13" t="s">
         <v>26</v>
@@ -7122,31 +7399,31 @@
         <v>27</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V13" s="2">
         <v>123456</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="X13" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" ht="16.5">
       <c r="A14" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>69</v>
@@ -7167,16 +7444,16 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -7187,31 +7464,31 @@
         <v>27</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V14" s="2">
         <v>123456</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="X14" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" ht="16.5">
       <c r="A15" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>25</v>
@@ -7231,25 +7508,25 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="R15" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="S15" s="13" t="s">
         <v>26</v>
@@ -7258,16 +7535,16 @@
         <v>27</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V15" s="2">
         <v>123456</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
@@ -7292,40 +7569,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B0A0B3-8637-430C-83AB-3CD1E7890F66}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="50.28515625" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="64.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" customWidth="1"/>
-    <col min="12" max="12" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.44140625" customWidth="1"/>
-    <col min="15" max="15" width="18.44140625" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="64.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" customWidth="1"/>
-    <col min="22" max="22" width="33.109375" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" customWidth="1"/>
-    <col min="24" max="24" width="32.44140625" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5546875" customWidth="1"/>
-    <col min="27" max="27" width="16.5546875" customWidth="1"/>
-    <col min="28" max="28" width="34.6640625" customWidth="1"/>
-    <col min="29" max="29" width="27.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="22" max="22" width="33.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" customWidth="1"/>
+    <col min="24" max="24" width="32.42578125" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" customWidth="1"/>
+    <col min="27" max="27" width="16.5703125" customWidth="1"/>
+    <col min="28" max="28" width="34.7109375" customWidth="1"/>
+    <col min="29" max="29" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7360,66 +7637,66 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:29" ht="47.25" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>277</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>280</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>25</v>
@@ -7449,37 +7726,37 @@
         <v>33</v>
       </c>
       <c r="L2" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="M2" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="N2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="R2" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="Q2" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="R2" s="15" t="s">
+      <c r="U2" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="S2" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="T2" s="15" t="s">
+      <c r="V2" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>290</v>
       </c>
       <c r="W2" s="15">
         <v>10</v>
@@ -7489,15 +7766,15 @@
       <c r="Z2" s="15"/>
       <c r="AA2" s="15"/>
       <c r="AB2" s="15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>25</v>
@@ -7530,18 +7807,18 @@
         <v>1</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Y3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>69</v>
@@ -7575,15 +7852,15 @@
       </c>
       <c r="W4" s="20"/>
       <c r="Y4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="45">
       <c r="A5" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>25</v>
@@ -7614,7 +7891,7 @@
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="16" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
@@ -7632,15 +7909,15 @@
       <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
       <c r="AC5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="45">
       <c r="A6" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>25</v>
@@ -7670,42 +7947,42 @@
         <v>33</v>
       </c>
       <c r="L6" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="P6" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="M6" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="N6" s="15" t="s">
+      <c r="Q6" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="R6" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="S6" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="T6" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="Q6" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="R6" s="15" t="s">
+      <c r="U6" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="S6" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>288</v>
-      </c>
       <c r="Y6" s="26" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="45">
       <c r="A7" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>69</v>
@@ -7735,43 +8012,43 @@
         <v>33</v>
       </c>
       <c r="L7" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="P7" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>284</v>
       </c>
       <c r="Q7" s="15"/>
       <c r="R7" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="U7" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="S7" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>288</v>
-      </c>
       <c r="Y7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="45">
       <c r="A8" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>71</v>
@@ -7801,43 +8078,43 @@
         <v>33</v>
       </c>
       <c r="L8" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="P8" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="M8" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="N8" s="15" t="s">
+      <c r="Q8" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="R8" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>285</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="45">
       <c r="A9" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>73</v>
@@ -7867,45 +8144,45 @@
         <v>33</v>
       </c>
       <c r="L9" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="P9" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="M9" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="N9" s="15" t="s">
+      <c r="Q9" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="R9" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="S9" s="15" t="s">
         <v>283</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="S9" s="15" t="s">
-        <v>286</v>
       </c>
       <c r="T9" s="15">
         <v>125</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="45">
       <c r="A10" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>75</v>
@@ -7935,35 +8212,35 @@
         <v>33</v>
       </c>
       <c r="L10" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="P10" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="M10" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="N10" s="15" t="s">
+      <c r="Q10" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="R10" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="S10" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="T10" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>287</v>
       </c>
       <c r="U10" s="17"/>
       <c r="Y10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -7996,23 +8273,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -8044,27 +8321,27 @@
         <v>9</v>
       </c>
       <c r="K1" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="N1" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="L1" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>300</v>
-      </c>
       <c r="O1" s="22" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
@@ -8082,7 +8359,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -8091,12 +8368,12 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>25</v>
@@ -8114,7 +8391,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -8123,18 +8400,18 @@
         <v>123456</v>
       </c>
       <c r="K3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>25</v>
@@ -8152,7 +8429,7 @@
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
@@ -8161,15 +8438,15 @@
         <v>123456</v>
       </c>
       <c r="M4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>25</v>
@@ -8187,7 +8464,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
@@ -8196,15 +8473,15 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>25</v>
@@ -8222,7 +8499,7 @@
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
@@ -8231,15 +8508,15 @@
         <v>123456</v>
       </c>
       <c r="M6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>25</v>
@@ -8257,7 +8534,7 @@
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
         <v>31</v>
@@ -8266,10 +8543,10 @@
         <v>123456</v>
       </c>
       <c r="K7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N7" t="s">
-        <v>307</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -8286,22 +8563,22 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8336,31 +8613,31 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="15"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="R1" s="15"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>318</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>25</v>
@@ -8390,25 +8667,25 @@
         <v>33</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>25</v>
@@ -8438,25 +8715,25 @@
         <v>33</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>25</v>
@@ -8486,27 +8763,27 @@
         <v>33</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>25</v>
@@ -8536,27 +8813,27 @@
         <v>33</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>25</v>
@@ -8586,29 +8863,29 @@
         <v>33</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N6" s="15"/>
       <c r="O6" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P6" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>332</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="R6" s="15"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>335</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>25</v>
@@ -8638,22 +8915,22 @@
         <v>33</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="15"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\080822_Web\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\080922-Web\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC222CA9-7AC2-4D79-BDA1-A73EA08F479D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A442FD-E245-4745-93FC-327D3C7DC6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -742,6 +742,9 @@
     <t>Please enter the phone number which has been associatedto your coyni admin account.</t>
   </si>
   <si>
+    <t>Please enter the first and last name which has beenassociated to your coyni admin account.</t>
+  </si>
+  <si>
     <t>Santosh</t>
   </si>
   <si>
@@ -1305,70 +1308,67 @@
     <t>(234) 567-0098</t>
   </si>
   <si>
-    <t>Edit Personal Fee Structure</t>
+    <t xml:space="preserve"> Two-Step Authentication</t>
+  </si>
+  <si>
+    <t>Batch ID - WI222000650</t>
   </si>
   <si>
     <t>Batch ID - WB222010803</t>
   </si>
   <si>
-    <t>Batch ID - WI222000650</t>
-  </si>
-  <si>
-    <t>Amount is required</t>
+    <t>profileHeading</t>
+  </si>
+  <si>
+    <t>searchText</t>
+  </si>
+  <si>
+    <t>expID</t>
+  </si>
+  <si>
+    <t>expUserName</t>
+  </si>
+  <si>
+    <t>expAccountID</t>
+  </si>
+  <si>
+    <t>expUserHeading</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>expAccountStatus</t>
+  </si>
+  <si>
+    <t>expPaymentMethodHeading</t>
   </si>
   <si>
     <t>Verify Individual SideBar View</t>
   </si>
   <si>
-    <t>profileHeading</t>
-  </si>
-  <si>
-    <t>searchText</t>
-  </si>
-  <si>
-    <t>expID</t>
-  </si>
-  <si>
-    <t>expUserName</t>
-  </si>
-  <si>
-    <t>expAccountID</t>
+    <t>C - 111</t>
+  </si>
+  <si>
+    <t>ID C-111</t>
+  </si>
+  <si>
+    <t>Santosh Kumar</t>
+  </si>
+  <si>
+    <t>Account ID: C-111</t>
   </si>
   <si>
     <t>Verify Individual User Details View</t>
   </si>
   <si>
-    <t>expUserHeading</t>
-  </si>
-  <si>
     <t>User Details</t>
   </si>
   <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>expAccountStatus</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>C - 111</t>
-  </si>
-  <si>
-    <t>ID C-111</t>
-  </si>
-  <si>
-    <t>Santosh Kumar</t>
-  </si>
-  <si>
-    <t>Account ID: C-111</t>
-  </si>
-  <si>
     <t>Verify Individual User Details Payment Methods</t>
-  </si>
-  <si>
-    <t>expPaymentMethodHeading</t>
   </si>
   <si>
     <t>Payment Methods</t>
@@ -2756,8 +2756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6996C0C-24E0-40BE-A97F-7A279690A8EE}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2774,8 +2774,7 @@
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.85546875" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2811,27 +2810,27 @@
         <v>9</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M1" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>296</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
@@ -2849,7 +2848,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>419</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -2858,18 +2857,18 @@
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="24" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>25</v>
@@ -2887,7 +2886,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>419</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -2896,15 +2895,15 @@
         <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>25</v>
@@ -2922,7 +2921,7 @@
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>419</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
@@ -2931,15 +2930,15 @@
         <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>25</v>
@@ -2957,7 +2956,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>419</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
@@ -2966,15 +2965,15 @@
         <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>25</v>
@@ -2992,7 +2991,7 @@
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>419</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
@@ -3001,10 +3000,10 @@
         <v>32</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3090,7 +3089,7 @@
         <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>19</v>
@@ -3102,7 +3101,7 @@
         <v>21</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
@@ -3111,7 +3110,7 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>48</v>
@@ -3163,7 +3162,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>53</v>
@@ -3215,7 +3214,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>55</v>
@@ -3267,7 +3266,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>57</v>
@@ -3319,7 +3318,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>59</v>
@@ -3371,7 +3370,7 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>67</v>
@@ -3412,10 +3411,10 @@
         <v>35</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R7" s="2">
         <v>2</v>
@@ -3431,10 +3430,10 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>25</v>
@@ -3469,7 +3468,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R8" s="2">
         <v>2</v>
@@ -3485,7 +3484,7 @@
     </row>
     <row r="9" spans="1:24" ht="102.75">
       <c r="A9" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>64</v>
@@ -3531,7 +3530,7 @@
         <v>64</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="X9" s="15"/>
     </row>
@@ -3589,7 +3588,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3641,19 +3640,19 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
         <v>130</v>
@@ -3674,7 +3673,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>234</v>
+        <v>419</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -3683,13 +3682,13 @@
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3702,7 +3701,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+      <selection activeCell="H3" sqref="H3:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3753,21 +3752,21 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s">
         <v>130</v>
@@ -3788,7 +3787,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>419</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -3797,12 +3796,12 @@
         <v>32</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
         <v>130</v>
@@ -3823,7 +3822,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>419</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -3835,15 +3834,15 @@
         <v>50</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B4" t="s">
         <v>130</v>
@@ -3864,7 +3863,7 @@
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>419</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
@@ -3876,18 +3875,18 @@
         <v>50</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>360</v>
-      </c>
       <c r="N4" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>130</v>
@@ -3908,7 +3907,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>419</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
@@ -3920,18 +3919,18 @@
         <v>50</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>360</v>
-      </c>
       <c r="N5" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s">
         <v>130</v>
@@ -3952,7 +3951,7 @@
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>419</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
@@ -3964,13 +3963,13 @@
         <v>50</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>360</v>
-      </c>
       <c r="N6" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -3983,7 +3982,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4180,10 +4179,10 @@
         <v>87</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>97</v>
@@ -4249,7 +4248,7 @@
         <v>87</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>420</v>
@@ -4565,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3A334-050A-4737-9B01-1B13EAAB8BDD}">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4633,10 +4632,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>222</v>
@@ -4645,28 +4644,28 @@
         <v>223</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>219</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>17</v>
@@ -4675,7 +4674,7 @@
         <v>19</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>12</v>
@@ -4684,39 +4683,39 @@
         <v>76</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="AK1" s="22" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="24" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -4746,25 +4745,25 @@
         <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q2" s="2">
         <v>7893969587</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="S2" s="2">
         <v>1</v>
@@ -4773,21 +4772,21 @@
         <v>1</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="24" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
@@ -4817,10 +4816,10 @@
         <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -4837,10 +4836,10 @@
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="24" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -4872,10 +4871,10 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>25</v>
@@ -4908,24 +4907,24 @@
         <v>72</v>
       </c>
       <c r="AD5" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE5" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF5" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="AE5" s="27" t="s">
+      <c r="AG5" t="s">
         <v>435</v>
-      </c>
-      <c r="AF5" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>25</v>
@@ -4958,33 +4957,33 @@
         <v>72</v>
       </c>
       <c r="AD6" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE6" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF6" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="AE6" s="27" t="s">
+      <c r="AG6" t="s">
         <v>435</v>
       </c>
-      <c r="AF6" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>437</v>
       </c>
-      <c r="AH6" t="s">
-        <v>430</v>
-      </c>
       <c r="AI6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AJ6" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
@@ -5017,25 +5016,25 @@
         <v>72</v>
       </c>
       <c r="AD7" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE7" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF7" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="AE7" s="27" t="s">
+      <c r="AG7" t="s">
         <v>435</v>
       </c>
-      <c r="AF7" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>437</v>
       </c>
-      <c r="AH7" t="s">
-        <v>430</v>
-      </c>
       <c r="AI7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AJ7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="AK7" t="s">
         <v>440</v>
@@ -5043,22 +5042,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{3E2CC705-CEED-4452-921B-473A5D8A112D}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{AC5946EB-6483-4F45-97F6-8690C94CCA32}"/>
-    <hyperlink ref="P2" r:id="rId3" xr:uid="{72BBF56A-7D61-4DB8-BA14-D521E8C03F8E}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{3052154C-51BF-4321-A094-4965B0411679}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{F4B3D91C-FF47-48DA-95F4-7F938C33556C}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{90E4FA54-88FE-4E0D-A828-B86C3E8924D4}"/>
-    <hyperlink ref="E4" r:id="rId7" xr:uid="{159BFCF1-C772-4A99-8EAE-0BE92E88CC57}"/>
-    <hyperlink ref="D5" r:id="rId8" xr:uid="{DDE1F3EF-53DE-4DBD-B7BA-7DB8F557E005}"/>
-    <hyperlink ref="E5" r:id="rId9" xr:uid="{943E3037-F64E-4F4E-BD20-69AB742E6A9C}"/>
-    <hyperlink ref="D6" r:id="rId10" xr:uid="{0E5836E1-2E61-4604-A674-C9C1AA91EC59}"/>
-    <hyperlink ref="E6" r:id="rId11" xr:uid="{4D69D9D1-CF3E-4D55-A2D5-8FA1483A1403}"/>
-    <hyperlink ref="D7" r:id="rId12" xr:uid="{C6AC8335-81C4-43BD-99CC-C52A9174DE3C}"/>
-    <hyperlink ref="E7" r:id="rId13" xr:uid="{DF4A0E26-4C4C-4102-A7B4-FD4AE3DCE954}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{4AE398B1-A8DD-4AAF-9C2F-0AFB3695F2EA}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{8EFE2F55-CB6C-4C6C-B674-A1678B5F9C97}"/>
+    <hyperlink ref="P2" r:id="rId3" xr:uid="{24A5F969-A4AF-44EB-9B7B-2080FDA84173}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{A3675C81-6CF2-4ADC-8F7C-F329E0C16CCE}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{165EA1E9-E27F-458E-BA8E-0EC0C1FBEE81}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{89FC2EDD-1F12-4B89-B133-6601B4CC71E2}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{9CCDA6C8-F1C2-4C9D-AFEF-8AA78569BF56}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{2E5144B5-F0E5-410D-A58A-EC41606DF792}"/>
+    <hyperlink ref="E5" r:id="rId9" xr:uid="{D7241736-A256-4F5A-80B4-496268C0FD20}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{051FA55B-1196-49BC-803D-E8EFB24FA6EF}"/>
+    <hyperlink ref="E6" r:id="rId11" xr:uid="{8F2DF61D-1340-47C7-A580-463CCD2FE8DD}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{AB716087-C345-4325-BFA7-23C9C1FE83EB}"/>
+    <hyperlink ref="E7" r:id="rId13" xr:uid="{E35B4D54-50AC-4384-93D1-E2D22159B4E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -5622,8 +5620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C474AF-1560-47F8-90E0-FD2FFD96A555}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5724,7 +5722,7 @@
         <v>177</v>
       </c>
       <c r="Z1" s="14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="51.75">
@@ -6404,8 +6402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D341FF-C706-4B03-BBF1-19B6EBC55B3F}">
   <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O15"/>
+    <sheetView topLeftCell="S1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6416,9 +6414,8 @@
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="80.42578125" customWidth="1"/>
+    <col min="13" max="13" width="74.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="65.42578125" customWidth="1"/>
-    <col min="15" max="15" width="52.28515625" customWidth="1"/>
     <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="86" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="40.140625" customWidth="1"/>
@@ -6549,19 +6546,19 @@
         <v>230</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>229</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>26</v>
@@ -6570,16 +6567,16 @@
         <v>27</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V2" s="2">
         <v>123456</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -6620,19 +6617,19 @@
         <v>230</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>229</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S3" s="13" t="s">
         <v>26</v>
@@ -6641,35 +6638,35 @@
         <v>27</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V3" s="2">
         <v>123456</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X3" s="10"/>
       <c r="Y3" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>135</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -6696,16 +6693,16 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>229</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S4" s="13" t="s">
         <v>26</v>
@@ -6714,35 +6711,35 @@
         <v>27</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V4" s="2">
         <v>123456</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X4" s="10"/>
       <c r="Y4" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>135</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:29" ht="16.5">
       <c r="A5" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>69</v>
@@ -6768,19 +6765,19 @@
         <v>230</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>229</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S5" s="13" t="s">
         <v>26</v>
@@ -6789,37 +6786,37 @@
         <v>27</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V5" s="2">
         <v>123456</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X5" s="19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>135</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:29" ht="39">
       <c r="A6" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>71</v>
@@ -6845,19 +6842,19 @@
         <v>230</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>229</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S6" s="13" t="s">
         <v>26</v>
@@ -6866,37 +6863,37 @@
         <v>27</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V6" s="2">
         <v>123456</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z6" s="11" t="s">
         <v>135</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="16.5">
       <c r="A7" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>73</v>
@@ -6922,17 +6919,17 @@
         <v>230</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>229</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="S7" s="13" t="s">
         <v>26</v>
@@ -6941,37 +6938,37 @@
         <v>27</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V7" s="2">
         <v>123456</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X7" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z7" s="11" t="s">
         <v>135</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="1:29" ht="16.5">
       <c r="A8" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>75</v>
@@ -6997,16 +6994,16 @@
         <v>230</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>229</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="13" t="s">
@@ -7016,37 +7013,37 @@
         <v>27</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V8" s="2">
         <v>123456</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z8" s="11" t="s">
         <v>135</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="1:29" ht="16.5">
       <c r="A9" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>162</v>
@@ -7072,19 +7069,19 @@
         <v>230</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>229</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="S9" s="13" t="s">
         <v>26</v>
@@ -7093,35 +7090,35 @@
         <v>27</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V9" s="2">
         <v>123456</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
     <row r="10" spans="1:29" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
@@ -7147,19 +7144,19 @@
         <v>230</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>229</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S10" s="13" t="s">
         <v>26</v>
@@ -7168,25 +7165,25 @@
         <v>27</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V10" s="2">
         <v>333333</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>148</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2" t="s">
@@ -7195,10 +7192,10 @@
     </row>
     <row r="11" spans="1:29" ht="16.5">
       <c r="A11" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>69</v>
@@ -7224,19 +7221,19 @@
         <v>230</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>229</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S11" s="13" t="s">
         <v>26</v>
@@ -7245,25 +7242,25 @@
         <v>27</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V11" s="2">
         <v>123</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y11" s="2" t="s">
         <v>148</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2" t="s">
@@ -7272,10 +7269,10 @@
     </row>
     <row r="12" spans="1:29" ht="16.5">
       <c r="A12" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>71</v>
@@ -7301,19 +7298,19 @@
         <v>230</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>229</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S12" s="13" t="s">
         <v>26</v>
@@ -7322,25 +7319,25 @@
         <v>27</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V12" s="2">
         <v>1234567</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y12" s="2" t="s">
         <v>148</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2" t="s">
@@ -7349,10 +7346,10 @@
     </row>
     <row r="13" spans="1:29" ht="16.5">
       <c r="A13" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>25</v>
@@ -7378,19 +7375,19 @@
         <v>230</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>229</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S13" s="13" t="s">
         <v>26</v>
@@ -7399,20 +7396,20 @@
         <v>27</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V13" s="2">
         <v>123456</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X13" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -7420,10 +7417,10 @@
     </row>
     <row r="14" spans="1:29" ht="16.5">
       <c r="A14" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>69</v>
@@ -7447,10 +7444,10 @@
         <v>230</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>229</v>
@@ -7464,20 +7461,20 @@
         <v>27</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V14" s="2">
         <v>123456</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X14" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
@@ -7485,7 +7482,7 @@
     </row>
     <row r="15" spans="1:29" ht="16.5">
       <c r="A15" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>228</v>
@@ -7514,19 +7511,19 @@
         <v>230</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>229</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S15" s="13" t="s">
         <v>26</v>
@@ -7535,16 +7532,16 @@
         <v>27</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V15" s="2">
         <v>123456</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
@@ -7569,8 +7566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B0A0B3-8637-430C-83AB-3CD1E7890F66}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7637,43 +7634,43 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>126</v>
@@ -7685,18 +7682,18 @@
         <v>128</v>
       </c>
       <c r="AB1" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="47.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>25</v>
@@ -7726,37 +7723,37 @@
         <v>33</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="W2" s="15">
         <v>10</v>
@@ -7766,15 +7763,15 @@
       <c r="Z2" s="15"/>
       <c r="AA2" s="15"/>
       <c r="AB2" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" t="s">
         <v>391</v>
-      </c>
-      <c r="B3" t="s">
-        <v>390</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>25</v>
@@ -7807,18 +7804,18 @@
         <v>1</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Y3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" t="s">
         <v>391</v>
-      </c>
-      <c r="B4" t="s">
-        <v>390</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>69</v>
@@ -7852,15 +7849,15 @@
       </c>
       <c r="W4" s="20"/>
       <c r="Y4" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="45">
       <c r="A5" s="24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>25</v>
@@ -7891,7 +7888,7 @@
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
@@ -7909,15 +7906,15 @@
       <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
       <c r="AC5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="45">
       <c r="A6" s="24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>25</v>
@@ -7947,42 +7944,42 @@
         <v>33</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="U6" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y6" s="26" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="45">
       <c r="A7" s="24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>69</v>
@@ -8012,43 +8009,43 @@
         <v>33</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q7" s="15"/>
       <c r="R7" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="U7" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="45">
       <c r="A8" s="24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>71</v>
@@ -8078,43 +8075,43 @@
         <v>33</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="45">
       <c r="A9" s="24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>73</v>
@@ -8144,45 +8141,45 @@
         <v>33</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T9" s="15">
         <v>125</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="45">
       <c r="A10" s="24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>75</v>
@@ -8212,35 +8209,35 @@
         <v>33</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R10" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T10" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="U10" s="17"/>
       <c r="Y10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -8273,8 +8270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8321,19 +8318,19 @@
         <v>9</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M1" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>296</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -8359,7 +8356,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -8370,10 +8367,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>25</v>
@@ -8400,18 +8397,18 @@
         <v>123456</v>
       </c>
       <c r="K3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>25</v>
@@ -8438,15 +8435,15 @@
         <v>123456</v>
       </c>
       <c r="M4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>25</v>
@@ -8473,15 +8470,15 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>418</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>25</v>
@@ -8508,15 +8505,15 @@
         <v>123456</v>
       </c>
       <c r="M6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>25</v>
@@ -8543,10 +8540,10 @@
         <v>123456</v>
       </c>
       <c r="K7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N7" t="s">
-        <v>418</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -8613,31 +8610,31 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>25</v>
@@ -8667,13 +8664,13 @@
         <v>33</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -8682,10 +8679,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>25</v>
@@ -8715,13 +8712,13 @@
         <v>33</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -8730,10 +8727,10 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>25</v>
@@ -8763,16 +8760,16 @@
         <v>33</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -8780,10 +8777,10 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>25</v>
@@ -8813,27 +8810,27 @@
         <v>33</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="15"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>25</v>
@@ -8863,29 +8860,29 @@
         <v>33</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N6" s="15"/>
       <c r="O6" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R6" s="15"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>25</v>
@@ -8915,17 +8912,17 @@
         <v>33</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="15"/>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,27 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\080922-Web\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin Test Data And Test Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A442FD-E245-4745-93FC-327D3C7DC6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A9CA68-268E-4104-A211-03530D6512E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
     <sheet name="accounting" sheetId="15" r:id="rId2"/>
     <sheet name="profiles" sheetId="17" r:id="rId3"/>
-    <sheet name="Login" sheetId="3" r:id="rId4"/>
-    <sheet name="ForgotPassword" sheetId="4" r:id="rId5"/>
-    <sheet name="forgotEmail" sheetId="6" r:id="rId6"/>
-    <sheet name="AddSignetAccount" sheetId="9" r:id="rId7"/>
-    <sheet name="feeStructure" sheetId="10" r:id="rId8"/>
-    <sheet name="TransactionDetails" sheetId="13" r:id="rId9"/>
-    <sheet name="AccountLimits" sheetId="16" r:id="rId10"/>
-    <sheet name="transaction" sheetId="14" r:id="rId11"/>
-    <sheet name="featureControl" sheetId="11" r:id="rId12"/>
-    <sheet name="BalanceReport" sheetId="12" r:id="rId13"/>
+    <sheet name="changePassword" sheetId="18" r:id="rId4"/>
+    <sheet name="userDetails" sheetId="19" r:id="rId5"/>
+    <sheet name="Login" sheetId="3" r:id="rId6"/>
+    <sheet name="ForgotPassword" sheetId="4" r:id="rId7"/>
+    <sheet name="forgotEmail" sheetId="6" r:id="rId8"/>
+    <sheet name="AddSignetAccount" sheetId="9" r:id="rId9"/>
+    <sheet name="feeStructure" sheetId="10" r:id="rId10"/>
+    <sheet name="TransactionDetails" sheetId="13" r:id="rId11"/>
+    <sheet name="AccountLimits" sheetId="16" r:id="rId12"/>
+    <sheet name="transaction" sheetId="14" r:id="rId13"/>
+    <sheet name="featureControl" sheetId="11" r:id="rId14"/>
+    <sheet name="BalanceReport" sheetId="12" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="498">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1372,13 +1374,193 @@
   </si>
   <si>
     <t>Payment Methods</t>
+  </si>
+  <si>
+    <t>currentPassword</t>
+  </si>
+  <si>
+    <t>newPassword</t>
+  </si>
+  <si>
+    <t>successContent</t>
+  </si>
+  <si>
+    <t>createHeading</t>
+  </si>
+  <si>
+    <t>test Change Password</t>
+  </si>
+  <si>
+    <t>Admin@999</t>
+  </si>
+  <si>
+    <t>As a security measure, you will be logged out of your
+account once you successfully change your password.</t>
+  </si>
+  <si>
+    <t>Your Password Was Updated Successfully!</t>
+  </si>
+  <si>
+    <t>Create a Coyni Account</t>
+  </si>
+  <si>
+    <t>test Change Password invalid information</t>
+  </si>
+  <si>
+    <t>Admin@1234</t>
+  </si>
+  <si>
+    <t>Admin@1235</t>
+  </si>
+  <si>
+    <t>Passwords do not match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm Password is required
+</t>
+  </si>
+  <si>
+    <t>Admin@321</t>
+  </si>
+  <si>
+    <t>New password is required</t>
+  </si>
+  <si>
+    <t>New password should not match with Old password</t>
+  </si>
+  <si>
+    <t>accountProfileHeading</t>
+  </si>
+  <si>
+    <t>cropYourImageHeading</t>
+  </si>
+  <si>
+    <t>folderName</t>
+  </si>
+  <si>
+    <t>fileName</t>
+  </si>
+  <si>
+    <t>test upload image</t>
+  </si>
+  <si>
+    <t>Upload Image</t>
+  </si>
+  <si>
+    <t>Account Profile Image</t>
+  </si>
+  <si>
+    <t>Crop Your Image</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>demo.jpg</t>
+  </si>
+  <si>
+    <t>testTransactionFiltersList</t>
+  </si>
+  <si>
+    <t>User Type,Business,Personal,coyni Admin,API Business,API User,
+Pay/Request,Type,
+Buy Token,Withdraw,Reserve Release,Paid Order,Merchant Payout,Sent,
+Sub Type,Received,Debit Card,
+Credit Card,External Bank Account,Signet,Instant Pay,
+Gift Card,Failed Bank Withdraw,Canceled Bank Withdraw,Transaction Status,Completed,Failed,
+In Progress,
+Pending,Canceled</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>testTransactionDetailsWithChargeBack</t>
+  </si>
+  <si>
+    <t>Personal ChargeBack</t>
+  </si>
+  <si>
+    <t>Open New Chargeback</t>
+  </si>
+  <si>
+    <t>08/25/2022</t>
+  </si>
+  <si>
+    <t>08/28/2022</t>
+  </si>
+  <si>
+    <t>STATUS,CUSTOMER NAME,ACCOUNT ID,RECEIVED,DUE DATE,CREATED,CBK AMOUNT</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Mark As Won</t>
+  </si>
+  <si>
+    <t>Are you sure you want to mark this dispute case as Won? You will not be able to make any more changes to the status once you do so.</t>
+  </si>
+  <si>
+    <t>Test Test</t>
+  </si>
+  <si>
+    <t>chargeBackHeading</t>
+  </si>
+  <si>
+    <t>caseNumber</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>tableData</t>
+  </si>
+  <si>
+    <t>wonHeading</t>
+  </si>
+  <si>
+    <t>nameOfUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin login Page With Invalid Email </t>
+  </si>
+  <si>
+    <t>Invalid Email which is not present In DB</t>
+  </si>
+  <si>
+    <t>Santoshp@ideyalabs.in</t>
+  </si>
+  <si>
+    <t>Error!</t>
+  </si>
+  <si>
+    <t>User data not found in the system.</t>
+  </si>
+  <si>
+    <t>User has not completed with registration steps in GreenBox system</t>
+  </si>
+  <si>
+    <t>demo@gmail.com</t>
+  </si>
+  <si>
+    <t>User has not completed with registration steps in GreenBox system, kindly finish and login.</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>toastMessage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1506,6 +1688,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1543,7 +1731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1582,6 +1770,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1869,28 +2062,28 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.88671875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" customWidth="1"/>
-    <col min="13" max="13" width="30.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.140625" customWidth="1"/>
-    <col min="19" max="20" width="15.7109375" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" customWidth="1"/>
+    <col min="13" max="13" width="30.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.109375" customWidth="1"/>
+    <col min="19" max="20" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1961,7 +2154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="64.5">
+    <row r="2" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -2016,7 +2209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="64.5">
+    <row r="3" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -2065,7 +2258,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="64.5">
+    <row r="4" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2114,7 +2307,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="64.5">
+    <row r="5" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2152,7 +2345,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="64.5">
+    <row r="6" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -2190,7 +2383,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>47</v>
       </c>
@@ -2241,7 +2434,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>52</v>
       </c>
@@ -2292,7 +2485,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -2343,7 +2536,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>56</v>
       </c>
@@ -2394,7 +2587,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -2445,7 +2638,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -2483,7 +2676,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>63</v>
       </c>
@@ -2521,7 +2714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>66</v>
       </c>
@@ -2559,7 +2752,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>66</v>
       </c>
@@ -2597,7 +2790,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
@@ -2635,7 +2828,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
@@ -2673,7 +2866,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -2753,6 +2946,792 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3">
+        <v>123456</v>
+      </c>
+      <c r="K3" t="s">
+        <v>300</v>
+      </c>
+      <c r="O3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>123456</v>
+      </c>
+      <c r="M4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>123456</v>
+      </c>
+      <c r="N5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <v>123456</v>
+      </c>
+      <c r="M6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>123456</v>
+      </c>
+      <c r="K7" t="s">
+        <v>300</v>
+      </c>
+      <c r="N7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B863EE-0FB8-4125-A633-87E6E4517058}">
+  <dimension ref="A1:Z8"/>
+  <sheetViews>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="74.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="118.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="S8">
+        <v>12346</v>
+      </c>
+      <c r="T8" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="U8" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="V8" t="s">
+        <v>476</v>
+      </c>
+      <c r="W8" t="s">
+        <v>477</v>
+      </c>
+      <c r="X8" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="mailto:Admin@123" xr:uid="{BCED27DA-E541-4C48-A5CA-0A8E19B5AA4D}"/>
+    <hyperlink ref="E3" r:id="rId2" display="mailto:Admin@123" xr:uid="{E5534BD4-274C-4760-81C7-9C1F86A5C2FD}"/>
+    <hyperlink ref="E4" r:id="rId3" display="mailto:Admin@123" xr:uid="{BD62625C-DE7D-42A6-A285-DE3D6E023F9A}"/>
+    <hyperlink ref="E5" r:id="rId4" display="mailto:Admin@123" xr:uid="{81426189-CAF7-4E73-9F20-FF64496DF61F}"/>
+    <hyperlink ref="E6" r:id="rId5" display="mailto:Admin@123" xr:uid="{BC258B07-3EEB-4093-93D6-DA7F739715BD}"/>
+    <hyperlink ref="E7" r:id="rId6" display="mailto:Admin@123" xr:uid="{85E4F3A0-EA66-4E0B-84EF-BC73B01D0BE9}"/>
+    <hyperlink ref="D2" r:id="rId7" xr:uid="{0D0B6B8C-96BC-4A2E-8164-17E3FD588FEB}"/>
+    <hyperlink ref="D3:D7" r:id="rId8" display="santoshp@ideyalabs.com" xr:uid="{550B8CED-42E5-4BEA-B50B-AF10C5F01B3E}"/>
+    <hyperlink ref="E8" r:id="rId9" display="mailto:Admin@123" xr:uid="{0A21B33C-30A1-417D-BFEC-EE296D71EC9B}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{E01405C8-F1D8-4319-900C-836E2B13A1AF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6996C0C-24E0-40BE-A97F-7A279690A8EE}">
   <dimension ref="A1:O6"/>
   <sheetViews>
@@ -2760,25 +3739,25 @@
       <selection activeCell="H3" sqref="H3:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="56.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -2825,7 +3804,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>376</v>
       </c>
@@ -2863,7 +3842,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>377</v>
       </c>
@@ -2898,7 +3877,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>378</v>
       </c>
@@ -2933,7 +3912,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>374</v>
       </c>
@@ -2968,7 +3947,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>375</v>
       </c>
@@ -3011,32 +3990,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DAABDA-3594-43D7-9AEC-0D8E440ACE4D}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3106,9 +4095,11 @@
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="15"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="X1" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>336</v>
       </c>
@@ -3160,7 +4151,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="15"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>337</v>
       </c>
@@ -3212,7 +4203,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="15"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>338</v>
       </c>
@@ -3264,7 +4255,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="15"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>339</v>
       </c>
@@ -3316,7 +4307,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="15"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>340</v>
       </c>
@@ -3368,7 +4359,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="15"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>341</v>
       </c>
@@ -3428,7 +4419,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="15"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>344</v>
       </c>
@@ -3482,7 +4473,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="15"/>
     </row>
-    <row r="9" spans="1:24" ht="102.75">
+    <row r="9" spans="1:24" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>346</v>
       </c>
@@ -3534,18 +4525,40 @@
       </c>
       <c r="X9" s="15"/>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
+    <row r="10" spans="1:24" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
@@ -3558,7 +4571,9 @@
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
+      <c r="X10" s="16" t="s">
+        <v>469</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3578,12 +4593,14 @@
     <hyperlink ref="E8" r:id="rId14" display="mailto:Admin@123" xr:uid="{4A73FCCF-5B32-4542-B996-7CF4ED3FB255}"/>
     <hyperlink ref="D9" r:id="rId15" display="mailto:santoshp@ideyalabs.com" xr:uid="{EEB48B13-AE97-468E-A5A5-9ED935193044}"/>
     <hyperlink ref="E9" r:id="rId16" display="mailto:Admin@123" xr:uid="{B2284CF0-FC17-40C8-A9CF-DFD486D66F4E}"/>
+    <hyperlink ref="D10" r:id="rId17" display="mailto:santoshp@ideyalabs.com" xr:uid="{7CD22074-39FC-4095-9535-D86B3AA4717A}"/>
+    <hyperlink ref="E10" r:id="rId18" display="mailto:Admin@123" xr:uid="{DCA208E3-1F26-448C-9F7C-FA63F742FCDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B6D706-4369-43B1-B41D-E358306B83B4}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -3591,24 +4608,24 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3650,7 +4667,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>350</v>
       </c>
@@ -3696,7 +4713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9ECCE6-1FC9-48C7-BBB8-F3E55C223DFA}">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -3704,23 +4721,23 @@
       <selection activeCell="H3" sqref="H3:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3764,7 +4781,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>357</v>
       </c>
@@ -3799,7 +4816,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>359</v>
       </c>
@@ -3840,7 +4857,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>359</v>
       </c>
@@ -3884,7 +4901,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>359</v>
       </c>
@@ -3928,7 +4945,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>359</v>
       </c>
@@ -3985,19 +5002,19 @@
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.109375" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4066,7 +5083,7 @@
       </c>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -4135,7 +5152,7 @@
       </c>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>94</v>
       </c>
@@ -4204,7 +5221,7 @@
       </c>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>98</v>
       </c>
@@ -4273,7 +5290,7 @@
       </c>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>103</v>
       </c>
@@ -4342,7 +5359,7 @@
       </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -4411,7 +5428,7 @@
       </c>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>116</v>
       </c>
@@ -4480,7 +5497,7 @@
       </c>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>118</v>
       </c>
@@ -4564,40 +5581,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3A334-050A-4737-9B01-1B13EAAB8BDD}">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="47.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="57.5703125" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" customWidth="1"/>
-    <col min="13" max="13" width="28.28515625" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="47.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="9" max="9" width="57.5546875" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="13" max="13" width="28.33203125" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="25.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="25.44140625" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
     <col min="22" max="22" width="21" customWidth="1"/>
-    <col min="23" max="23" width="30.85546875" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" customWidth="1"/>
-    <col min="27" max="27" width="24.42578125" customWidth="1"/>
-    <col min="28" max="28" width="25.42578125" customWidth="1"/>
+    <col min="23" max="23" width="30.88671875" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" customWidth="1"/>
+    <col min="27" max="27" width="24.44140625" customWidth="1"/>
+    <col min="28" max="28" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4710,7 +5727,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>395</v>
       </c>
@@ -4781,7 +5798,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>414</v>
       </c>
@@ -4834,7 +5851,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>416</v>
       </c>
@@ -4869,7 +5886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>431</v>
       </c>
@@ -4919,7 +5936,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>436</v>
       </c>
@@ -4978,7 +5995,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>439</v>
       </c>
@@ -5061,30 +6078,505 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
-  <dimension ref="A1:P14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B5757B-1D64-4665-A795-38990E29E9FE}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" customWidth="1"/>
-    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="49.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L2" t="s">
+        <v>446</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="O2" t="s">
+        <v>448</v>
+      </c>
+      <c r="P2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>446</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>451</v>
+      </c>
+      <c r="L4" t="s">
+        <v>452</v>
+      </c>
+      <c r="M4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>451</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="M6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{2AC077E5-37D0-4766-ADDB-1B338979CF2D}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{28730DAE-451E-4056-932E-331C142D8306}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{A08E1913-13F7-48A5-BE6C-957E4F387918}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{E11209F2-6A71-476E-ABA7-9C98D4F93D10}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{61BCD2C3-0FE4-45F2-B33B-D0B703CC47DC}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{6071F8DD-0AB2-418A-A3F6-D1B8A5F08556}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{38A9D038-8E27-4DB0-B9AA-48D104870A0B}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{CDDBBC93-AB18-48DB-8BD6-BD5DB55D7AF5}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{6D4AE43B-1850-4D70-A4E6-611571069584}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{B270F226-9075-4A2B-A429-F8DE59CAFE67}"/>
+    <hyperlink ref="D6" r:id="rId11" xr:uid="{0DFB2FC0-0E63-482B-BACD-B454EA527BAA}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{C1F0477F-6B25-432F-8647-E5EAFAF9629E}"/>
+    <hyperlink ref="L6" r:id="rId13" xr:uid="{DB74C80E-3532-4617-A493-030E61DAC555}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C521355-FD3D-4E65-938C-9AA1EB49CB44}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="mailto:santoshp@ideyalabs.com" xr:uid="{56D48AEB-07DB-4D1A-AB8D-FD37DB4DF9F6}"/>
+    <hyperlink ref="E2" r:id="rId2" display="mailto:Admin@123" xr:uid="{F35E9FF1-B242-4B71-A4FB-8FFB9A1948EE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
+  <dimension ref="A1:R16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="81.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5133,8 +6625,14 @@
       <c r="P1" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -5176,7 +6674,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
@@ -5210,7 +6708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>132</v>
       </c>
@@ -5244,7 +6742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>132</v>
       </c>
@@ -5280,7 +6778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>132</v>
       </c>
@@ -5316,7 +6814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>143</v>
       </c>
@@ -5348,7 +6846,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>145</v>
       </c>
@@ -5386,7 +6884,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>145</v>
       </c>
@@ -5422,7 +6920,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>145</v>
       </c>
@@ -5458,7 +6956,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>145</v>
       </c>
@@ -5494,7 +6992,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>145</v>
       </c>
@@ -5530,7 +7028,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>145</v>
       </c>
@@ -5566,7 +7064,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>145</v>
       </c>
@@ -5601,6 +7099,58 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="R15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="R16" t="s">
+        <v>495</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5611,12 +7161,14 @@
     <hyperlink ref="D4" r:id="rId5" xr:uid="{589E5191-A442-4A2B-BFDC-0FCA4DCF4C5C}"/>
     <hyperlink ref="D5:D14" r:id="rId6" display="Santoshp@ideyalabs.com" xr:uid="{D90A91FE-D341-457E-A2FD-4376200009F5}"/>
     <hyperlink ref="D5" r:id="rId7" xr:uid="{9806349F-234E-4086-B757-45348812667D}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{14A2AA38-F240-4D89-A35E-DD435F9E70F4}"/>
+    <hyperlink ref="D16" r:id="rId9" xr:uid="{A3E7C781-3868-4B19-8733-80163AA97B47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C474AF-1560-47F8-90E0-FD2FFD96A555}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
@@ -5624,28 +7176,28 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" customWidth="1"/>
-    <col min="20" max="20" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" customWidth="1"/>
+    <col min="20" max="20" width="65.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5725,7 +7277,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="51.75">
+    <row r="2" spans="1:26" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>181</v>
       </c>
@@ -5785,7 +7337,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>188</v>
       </c>
@@ -5829,7 +7381,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>188</v>
       </c>
@@ -5875,7 +7427,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>188</v>
       </c>
@@ -5927,7 +7479,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>188</v>
       </c>
@@ -5979,7 +7531,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>188</v>
       </c>
@@ -6033,7 +7585,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>188</v>
       </c>
@@ -6089,7 +7641,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>188</v>
       </c>
@@ -6143,7 +7695,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>188</v>
       </c>
@@ -6197,7 +7749,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>209</v>
       </c>
@@ -6241,7 +7793,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>209</v>
       </c>
@@ -6283,7 +7835,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>213</v>
       </c>
@@ -6327,7 +7879,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>215</v>
       </c>
@@ -6398,7 +7950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D341FF-C706-4B03-BBF1-19B6EBC55B3F}">
   <dimension ref="A1:AC15"/>
   <sheetViews>
@@ -6406,27 +7958,27 @@
       <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="74.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="65.42578125" customWidth="1"/>
-    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="74.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="65.44140625" customWidth="1"/>
+    <col min="16" max="16" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="86" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.140625" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" customWidth="1"/>
-    <col min="24" max="24" width="26.42578125" customWidth="1"/>
-    <col min="25" max="25" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.109375" customWidth="1"/>
+    <col min="23" max="23" width="17.88671875" customWidth="1"/>
+    <col min="24" max="24" width="26.44140625" customWidth="1"/>
+    <col min="25" max="25" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6515,7 +8067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.5">
+    <row r="2" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>228</v>
       </c>
@@ -6586,7 +8138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.5">
+    <row r="3" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>228</v>
       </c>
@@ -6661,7 +8213,7 @@
       </c>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>239</v>
       </c>
@@ -6734,7 +8286,7 @@
       </c>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" ht="16.5">
+    <row r="5" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>239</v>
       </c>
@@ -6811,7 +8363,7 @@
       </c>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" ht="39">
+    <row r="6" spans="1:29" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>239</v>
       </c>
@@ -6888,7 +8440,7 @@
       </c>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="16.5">
+    <row r="7" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>239</v>
       </c>
@@ -6963,7 +8515,7 @@
       </c>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="1:29" ht="16.5">
+    <row r="8" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>239</v>
       </c>
@@ -7038,7 +8590,7 @@
       </c>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" ht="16.5">
+    <row r="9" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>239</v>
       </c>
@@ -7113,7 +8665,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" ht="16.5">
+    <row r="10" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>258</v>
       </c>
@@ -7190,7 +8742,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="16.5">
+    <row r="11" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>258</v>
       </c>
@@ -7267,7 +8819,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="16.5">
+    <row r="12" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>258</v>
       </c>
@@ -7344,7 +8896,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="16.5">
+    <row r="13" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>260</v>
       </c>
@@ -7415,7 +8967,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:29" ht="16.5">
+    <row r="14" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>260</v>
       </c>
@@ -7480,7 +9032,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" ht="16.5">
+    <row r="15" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>264</v>
       </c>
@@ -7562,7 +9114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B0A0B3-8637-430C-83AB-3CD1E7890F66}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
@@ -7570,36 +9122,36 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="50.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="50.33203125" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="64.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
-    <col min="12" max="12" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="64.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="12" max="12" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.44140625" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" customWidth="1"/>
-    <col min="22" max="22" width="33.140625" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
-    <col min="24" max="24" width="32.42578125" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" customWidth="1"/>
-    <col min="27" max="27" width="16.5703125" customWidth="1"/>
-    <col min="28" max="28" width="34.7109375" customWidth="1"/>
-    <col min="29" max="29" width="27.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" customWidth="1"/>
+    <col min="22" max="22" width="33.109375" customWidth="1"/>
+    <col min="23" max="23" width="12.109375" customWidth="1"/>
+    <col min="24" max="24" width="32.44140625" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5546875" customWidth="1"/>
+    <col min="27" max="27" width="16.5546875" customWidth="1"/>
+    <col min="28" max="28" width="34.6640625" customWidth="1"/>
+    <col min="29" max="29" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7688,7 +9240,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="47.25" customHeight="1">
+    <row r="2" spans="1:29" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>277</v>
       </c>
@@ -7766,7 +9318,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>392</v>
       </c>
@@ -7810,7 +9362,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>392</v>
       </c>
@@ -7852,7 +9404,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45">
+    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>287</v>
       </c>
@@ -7909,7 +9461,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>290</v>
       </c>
@@ -7974,7 +9526,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>290</v>
       </c>
@@ -8040,7 +9592,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>290</v>
       </c>
@@ -8106,7 +9658,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>290</v>
       </c>
@@ -8174,7 +9726,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="45">
+    <row r="10" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>290</v>
       </c>
@@ -8264,700 +9816,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
-  <dimension ref="A1:O7"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3">
-        <v>123456</v>
-      </c>
-      <c r="K3" t="s">
-        <v>300</v>
-      </c>
-      <c r="O3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4">
-        <v>123456</v>
-      </c>
-      <c r="M4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5">
-        <v>123456</v>
-      </c>
-      <c r="N5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6">
-        <v>123456</v>
-      </c>
-      <c r="M6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7">
-        <v>123456</v>
-      </c>
-      <c r="K7" t="s">
-        <v>300</v>
-      </c>
-      <c r="N7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B863EE-0FB8-4125-A633-87E6E4517058}">
-  <dimension ref="A1:R8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="R1" s="15"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="15"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="15"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="15"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="15"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="R6" s="15"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="15"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="mailto:Admin@123" xr:uid="{BCED27DA-E541-4C48-A5CA-0A8E19B5AA4D}"/>
-    <hyperlink ref="E3" r:id="rId2" display="mailto:Admin@123" xr:uid="{E5534BD4-274C-4760-81C7-9C1F86A5C2FD}"/>
-    <hyperlink ref="E4" r:id="rId3" display="mailto:Admin@123" xr:uid="{BD62625C-DE7D-42A6-A285-DE3D6E023F9A}"/>
-    <hyperlink ref="E5" r:id="rId4" display="mailto:Admin@123" xr:uid="{81426189-CAF7-4E73-9F20-FF64496DF61F}"/>
-    <hyperlink ref="E6" r:id="rId5" display="mailto:Admin@123" xr:uid="{BC258B07-3EEB-4093-93D6-DA7F739715BD}"/>
-    <hyperlink ref="E7" r:id="rId6" display="mailto:Admin@123" xr:uid="{85E4F3A0-EA66-4E0B-84EF-BC73B01D0BE9}"/>
-    <hyperlink ref="D2" r:id="rId7" xr:uid="{0D0B6B8C-96BC-4A2E-8164-17E3FD588FEB}"/>
-    <hyperlink ref="D3:D7" r:id="rId8" display="santoshp@ideyalabs.com" xr:uid="{550B8CED-42E5-4BEA-B50B-AF10C5F01B3E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin Test Data And Test Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(25-08-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A9CA68-268E-4104-A211-03530D6512E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96829E49-174C-4E9C-BD9D-4B023A6F0A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="501">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1554,6 +1554,15 @@
   </si>
   <si>
     <t>toastMessage</t>
+  </si>
+  <si>
+    <t>Defaults include Date / Time, Reference ID, Type, Sub Type, Processing Fee, Status, User Type, Description, Amount</t>
+  </si>
+  <si>
+    <t>testFiltersWithClearListOfData</t>
+  </si>
+  <si>
+    <t>Test Filters</t>
   </si>
 </sst>
 </file>
@@ -2058,32 +2067,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB40DDF-741D-4E62-9E3A-43C63EE95C74}">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.33203125" customWidth="1"/>
-    <col min="13" max="13" width="30.5546875" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.109375" customWidth="1"/>
-    <col min="19" max="20" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" customWidth="1"/>
+    <col min="19" max="20" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2154,7 +2163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -2209,7 +2218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -2258,7 +2267,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2307,7 +2316,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2345,7 +2354,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -2383,7 +2392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>47</v>
       </c>
@@ -2434,7 +2443,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>52</v>
       </c>
@@ -2485,7 +2494,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -2536,7 +2545,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>56</v>
       </c>
@@ -2587,7 +2596,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -2638,7 +2647,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -2676,7 +2685,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>63</v>
       </c>
@@ -2714,7 +2723,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>66</v>
       </c>
@@ -2752,7 +2761,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>66</v>
       </c>
@@ -2790,7 +2799,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
@@ -2828,7 +2837,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
@@ -2866,7 +2875,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -2953,19 +2962,19 @@
       <selection activeCell="H3" sqref="H3:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -3012,7 +3021,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -3044,7 +3053,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>299</v>
       </c>
@@ -3082,7 +3091,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>302</v>
       </c>
@@ -3117,7 +3126,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -3152,7 +3161,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -3187,7 +3196,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>308</v>
       </c>
@@ -3233,42 +3242,41 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B863EE-0FB8-4125-A633-87E6E4517058}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="62.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="74.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="118.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3312,43 +3320,46 @@
         <v>311</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>315</v>
       </c>
@@ -3391,12 +3402,13 @@
       <c r="N2" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="O2" s="15"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="15"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R2" s="2"/>
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>320</v>
       </c>
@@ -3439,12 +3451,13 @@
       <c r="N3" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="15"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="15"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R3" s="2"/>
+      <c r="S3" s="15"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>322</v>
       </c>
@@ -3487,14 +3500,15 @@
       <c r="N4" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="15"/>
+      <c r="P4" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="15"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R4" s="2"/>
+      <c r="S4" s="15"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>325</v>
       </c>
@@ -3537,14 +3551,15 @@
       <c r="N5" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="15" t="s">
+      <c r="O5" s="15"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="15"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R5" s="2"/>
+      <c r="S5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>328</v>
       </c>
@@ -3585,18 +3600,19 @@
         <v>318</v>
       </c>
       <c r="N6" s="15"/>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="15"/>
+      <c r="P6" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="Q6" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="R6" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="R6" s="15"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="S6" s="15"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>332</v>
       </c>
@@ -3637,16 +3653,17 @@
         <v>318</v>
       </c>
       <c r="N7" s="15"/>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="Q7" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="15"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R7" s="2"/>
+      <c r="S7" s="15"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>471</v>
       </c>
@@ -3686,32 +3703,71 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="15"/>
+      <c r="S8" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>12346</v>
       </c>
-      <c r="T8" s="29" t="s">
+      <c r="U8" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="U8" s="29" t="s">
+      <c r="V8" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>476</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>477</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>478</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>479</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3726,6 +3782,8 @@
     <hyperlink ref="D3:D7" r:id="rId8" display="santoshp@ideyalabs.com" xr:uid="{550B8CED-42E5-4BEA-B50B-AF10C5F01B3E}"/>
     <hyperlink ref="E8" r:id="rId9" display="mailto:Admin@123" xr:uid="{0A21B33C-30A1-417D-BFEC-EE296D71EC9B}"/>
     <hyperlink ref="D8" r:id="rId10" xr:uid="{E01405C8-F1D8-4319-900C-836E2B13A1AF}"/>
+    <hyperlink ref="E9" r:id="rId11" display="mailto:Admin@123" xr:uid="{1404ABE7-A731-455E-83FE-0DE67FA4D0B0}"/>
+    <hyperlink ref="D9" r:id="rId12" xr:uid="{1C63676F-6B3D-4063-840F-4B86F2B119A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3739,25 +3797,25 @@
       <selection activeCell="H3" sqref="H3:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="56.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -3804,7 +3862,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>376</v>
       </c>
@@ -3842,7 +3900,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>377</v>
       </c>
@@ -3877,7 +3935,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>378</v>
       </c>
@@ -3912,7 +3970,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>374</v>
       </c>
@@ -3947,7 +4005,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>375</v>
       </c>
@@ -3992,40 +4050,41 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DAABDA-3594-43D7-9AEC-0D8E440ACE4D}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="105.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4098,8 +4157,11 @@
       <c r="X1" s="15" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>336</v>
       </c>
@@ -4150,8 +4212,11 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="15"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>337</v>
       </c>
@@ -4203,7 +4268,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="15"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>338</v>
       </c>
@@ -4255,7 +4320,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="15"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>339</v>
       </c>
@@ -4307,7 +4372,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="15"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>340</v>
       </c>
@@ -4359,7 +4424,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="15"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>341</v>
       </c>
@@ -4419,7 +4484,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="15"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>344</v>
       </c>
@@ -4473,7 +4538,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="15"/>
     </row>
-    <row r="9" spans="1:24" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>346</v>
       </c>
@@ -4525,7 +4590,7 @@
       </c>
       <c r="X9" s="15"/>
     </row>
-    <row r="10" spans="1:24" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>468</v>
       </c>
@@ -4608,24 +4673,24 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4667,7 +4732,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>350</v>
       </c>
@@ -4721,23 +4786,23 @@
       <selection activeCell="H3" sqref="H3:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4781,7 +4846,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>357</v>
       </c>
@@ -4816,7 +4881,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>359</v>
       </c>
@@ -4857,7 +4922,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>359</v>
       </c>
@@ -4901,7 +4966,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>359</v>
       </c>
@@ -4945,7 +5010,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>359</v>
       </c>
@@ -5002,19 +5067,19 @@
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
-    <col min="15" max="15" width="20.109375" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5083,7 +5148,7 @@
       </c>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -5152,7 +5217,7 @@
       </c>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>94</v>
       </c>
@@ -5221,7 +5286,7 @@
       </c>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>98</v>
       </c>
@@ -5290,7 +5355,7 @@
       </c>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>103</v>
       </c>
@@ -5359,7 +5424,7 @@
       </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -5428,7 +5493,7 @@
       </c>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>116</v>
       </c>
@@ -5497,7 +5562,7 @@
       </c>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>118</v>
       </c>
@@ -5581,40 +5646,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3A334-050A-4737-9B01-1B13EAAB8BDD}">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="47.109375" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="9" max="9" width="57.5546875" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1"/>
-    <col min="13" max="13" width="28.33203125" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="25.44140625" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" customWidth="1"/>
-    <col min="20" max="20" width="11.44140625" customWidth="1"/>
-    <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="21" customWidth="1"/>
-    <col min="23" max="23" width="30.88671875" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" customWidth="1"/>
-    <col min="27" max="27" width="24.44140625" customWidth="1"/>
-    <col min="28" max="28" width="25.44140625" customWidth="1"/>
+    <col min="1" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5727,7 +5803,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>395</v>
       </c>
@@ -5798,7 +5874,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>414</v>
       </c>
@@ -5851,7 +5927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>416</v>
       </c>
@@ -5886,7 +5962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>431</v>
       </c>
@@ -5936,7 +6012,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>436</v>
       </c>
@@ -5995,7 +6071,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>439</v>
       </c>
@@ -6085,27 +6161,27 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="49.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6156,7 +6232,7 @@
       </c>
       <c r="Q1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>445</v>
       </c>
@@ -6203,7 +6279,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>445</v>
       </c>
@@ -6241,7 +6317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>450</v>
       </c>
@@ -6282,7 +6358,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>450</v>
       </c>
@@ -6320,7 +6396,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>450</v>
       </c>
@@ -6358,7 +6434,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>450</v>
       </c>
@@ -6424,26 +6500,26 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6490,7 +6566,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>462</v>
       </c>
@@ -6550,33 +6626,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="81.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6632,7 +6708,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -6674,7 +6750,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
@@ -6708,7 +6784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>132</v>
       </c>
@@ -6742,7 +6818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>132</v>
       </c>
@@ -6778,7 +6854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>132</v>
       </c>
@@ -6814,7 +6890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>143</v>
       </c>
@@ -6846,7 +6922,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>145</v>
       </c>
@@ -6884,7 +6960,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>145</v>
       </c>
@@ -6920,7 +6996,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>145</v>
       </c>
@@ -6956,7 +7032,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>145</v>
       </c>
@@ -6992,7 +7068,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>145</v>
       </c>
@@ -7028,7 +7104,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>145</v>
       </c>
@@ -7064,7 +7140,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>145</v>
       </c>
@@ -7100,7 +7176,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>488</v>
       </c>
@@ -7126,7 +7202,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>488</v>
       </c>
@@ -7176,28 +7252,28 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.44140625" customWidth="1"/>
-    <col min="20" max="20" width="65.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" customWidth="1"/>
+    <col min="20" max="20" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7277,7 +7353,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>181</v>
       </c>
@@ -7337,7 +7413,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>188</v>
       </c>
@@ -7381,7 +7457,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>188</v>
       </c>
@@ -7427,7 +7503,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>188</v>
       </c>
@@ -7479,7 +7555,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>188</v>
       </c>
@@ -7531,7 +7607,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>188</v>
       </c>
@@ -7585,7 +7661,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>188</v>
       </c>
@@ -7641,7 +7717,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>188</v>
       </c>
@@ -7695,7 +7771,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>188</v>
       </c>
@@ -7749,7 +7825,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>209</v>
       </c>
@@ -7793,7 +7869,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>209</v>
       </c>
@@ -7835,7 +7911,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>213</v>
       </c>
@@ -7879,7 +7955,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>215</v>
       </c>
@@ -7958,27 +8034,27 @@
       <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="74.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="65.44140625" customWidth="1"/>
-    <col min="16" max="16" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="65.42578125" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="86" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.109375" customWidth="1"/>
-    <col min="23" max="23" width="17.88671875" customWidth="1"/>
-    <col min="24" max="24" width="26.44140625" customWidth="1"/>
-    <col min="25" max="25" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.140625" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" customWidth="1"/>
+    <col min="24" max="24" width="26.42578125" customWidth="1"/>
+    <col min="25" max="25" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8067,7 +8143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>228</v>
       </c>
@@ -8138,7 +8214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>228</v>
       </c>
@@ -8213,7 +8289,7 @@
       </c>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>239</v>
       </c>
@@ -8286,7 +8362,7 @@
       </c>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>239</v>
       </c>
@@ -8363,7 +8439,7 @@
       </c>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>239</v>
       </c>
@@ -8440,7 +8516,7 @@
       </c>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>239</v>
       </c>
@@ -8515,7 +8591,7 @@
       </c>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>239</v>
       </c>
@@ -8590,7 +8666,7 @@
       </c>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>239</v>
       </c>
@@ -8665,7 +8741,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>258</v>
       </c>
@@ -8742,7 +8818,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>258</v>
       </c>
@@ -8819,7 +8895,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>258</v>
       </c>
@@ -8896,7 +8972,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>260</v>
       </c>
@@ -8967,7 +9043,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>260</v>
       </c>
@@ -9032,7 +9108,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>264</v>
       </c>
@@ -9122,36 +9198,36 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="50.28515625" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="64.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" customWidth="1"/>
-    <col min="12" max="12" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.44140625" customWidth="1"/>
-    <col min="15" max="15" width="18.44140625" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="64.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" customWidth="1"/>
-    <col min="22" max="22" width="33.109375" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" customWidth="1"/>
-    <col min="24" max="24" width="32.44140625" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5546875" customWidth="1"/>
-    <col min="27" max="27" width="16.5546875" customWidth="1"/>
-    <col min="28" max="28" width="34.6640625" customWidth="1"/>
-    <col min="29" max="29" width="27.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="22" max="22" width="33.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" customWidth="1"/>
+    <col min="24" max="24" width="32.42578125" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" customWidth="1"/>
+    <col min="27" max="27" width="16.5703125" customWidth="1"/>
+    <col min="28" max="28" width="34.7109375" customWidth="1"/>
+    <col min="29" max="29" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -9240,7 +9316,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>277</v>
       </c>
@@ -9318,7 +9394,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>392</v>
       </c>
@@ -9362,7 +9438,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>392</v>
       </c>
@@ -9404,7 +9480,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>287</v>
       </c>
@@ -9461,7 +9537,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>290</v>
       </c>
@@ -9526,7 +9602,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>290</v>
       </c>
@@ -9592,7 +9668,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>290</v>
       </c>
@@ -9658,7 +9734,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>290</v>
       </c>
@@ -9726,7 +9802,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>290</v>
       </c>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(25-08-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(06-09-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96829E49-174C-4E9C-BD9D-4B023A6F0A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D5CCB2-1670-4B5F-9ADA-A4987857703C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="profiles" sheetId="17" r:id="rId3"/>
     <sheet name="changePassword" sheetId="18" r:id="rId4"/>
     <sheet name="userDetails" sheetId="19" r:id="rId5"/>
-    <sheet name="Login" sheetId="3" r:id="rId6"/>
-    <sheet name="ForgotPassword" sheetId="4" r:id="rId7"/>
-    <sheet name="forgotEmail" sheetId="6" r:id="rId8"/>
-    <sheet name="AddSignetAccount" sheetId="9" r:id="rId9"/>
-    <sheet name="feeStructure" sheetId="10" r:id="rId10"/>
-    <sheet name="TransactionDetails" sheetId="13" r:id="rId11"/>
-    <sheet name="AccountLimits" sheetId="16" r:id="rId12"/>
-    <sheet name="transaction" sheetId="14" r:id="rId13"/>
-    <sheet name="featureControl" sheetId="11" r:id="rId14"/>
-    <sheet name="BalanceReport" sheetId="12" r:id="rId15"/>
+    <sheet name="checkOut" sheetId="20" r:id="rId6"/>
+    <sheet name="Login" sheetId="3" r:id="rId7"/>
+    <sheet name="ForgotPassword" sheetId="4" r:id="rId8"/>
+    <sheet name="forgotEmail" sheetId="6" r:id="rId9"/>
+    <sheet name="AddSignetAccount" sheetId="9" r:id="rId10"/>
+    <sheet name="feeStructure" sheetId="10" r:id="rId11"/>
+    <sheet name="TransactionDetails" sheetId="13" r:id="rId12"/>
+    <sheet name="AccountLimits" sheetId="16" r:id="rId13"/>
+    <sheet name="transaction" sheetId="14" r:id="rId14"/>
+    <sheet name="featureControl" sheetId="11" r:id="rId15"/>
+    <sheet name="BalanceReport" sheetId="12" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="524">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1563,6 +1564,75 @@
   </si>
   <si>
     <t>Test Filters</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>verify Payout transactionList</t>
+  </si>
+  <si>
+    <t>Payout history</t>
+  </si>
+  <si>
+    <t>testApplyFiltersCountWithDB</t>
+  </si>
+  <si>
+    <t>Test Apply  Filters Data</t>
+  </si>
+  <si>
+    <t>select count(*) from "transaction" t where txn_type =3 and txn_status =2</t>
+  </si>
+  <si>
+    <t>test remove image</t>
+  </si>
+  <si>
+    <t>Remove Image</t>
+  </si>
+  <si>
+    <t>removeHeading</t>
+  </si>
+  <si>
+    <t>Remove Profile Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Are you sure you want to remove your profile image?We will replace it with your initials as a default.</t>
+  </si>
+  <si>
+    <t>Success!</t>
+  </si>
+  <si>
+    <t>Your user profile image has been successfully changed.</t>
+  </si>
+  <si>
+    <t>test checkOut Transaction</t>
+  </si>
+  <si>
+    <t>Verify Transaction</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>publicKey</t>
+  </si>
+  <si>
+    <t>secretKey</t>
+  </si>
+  <si>
+    <t>https://members-qa.coyni.com/</t>
+  </si>
+  <si>
+    <t>SOT6543123457</t>
+  </si>
+  <si>
+    <t>B2qFl1blYHQC0t32hN1XL6020HkjX45xBWxhZAEid2kzlq5OTovykpAVtoLbpxmcD1pHfkKM0WmtUp4+uNrTrY0YAeZ2qsCAkt/A</t>
+  </si>
+  <si>
+    <t>56FDt1vEXNx2Kglpe5H3N8U1/vToyhV0IJuXdYWFrCZkz70pmk5+ilHWBDha0XZni1WbTor3aklh902O0UvFJld+LKBfMp4T+fig</t>
   </si>
 </sst>
 </file>
@@ -2065,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB40DDF-741D-4E62-9E3A-43C63EE95C74}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2911,6 +2981,44 @@
       </c>
       <c r="R18" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2948,13 +3056,719 @@
     <hyperlink ref="E16" r:id="rId31" display="mailto:Admin@123" xr:uid="{340B244A-160A-4F2C-8F7B-F6F5C21BF71C}"/>
     <hyperlink ref="E17" r:id="rId32" display="mailto:Admin@123" xr:uid="{F99D165F-9091-4B8D-AF3E-F19FBF3AD65E}"/>
     <hyperlink ref="E18" r:id="rId33" display="mailto:Admin@123" xr:uid="{20FFD9A3-021A-49CD-A72B-0BABF0767018}"/>
+    <hyperlink ref="D19" r:id="rId34" display="mailto:santoshp@ideyalabs.com" xr:uid="{96854FF3-BBDC-45E1-9360-4FA4A3173679}"/>
+    <hyperlink ref="E19" r:id="rId35" display="mailto:Admin@123" xr:uid="{65E718DF-8B26-49E5-BE1D-69ACA2024ACE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B0A0B3-8637-430C-83AB-3CD1E7890F66}">
+  <dimension ref="A1:AC10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="50.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="64.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="22" max="22" width="33.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" customWidth="1"/>
+    <col min="24" max="24" width="32.42578125" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" customWidth="1"/>
+    <col min="27" max="27" width="16.5703125" customWidth="1"/>
+    <col min="28" max="28" width="34.7109375" customWidth="1"/>
+    <col min="29" max="29" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="W2" s="15">
+        <v>10</v>
+      </c>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="20"/>
+      <c r="Y4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="U6" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y6" s="26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="U7" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="U8" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="T9" s="15">
+        <v>125</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="U10" s="17"/>
+      <c r="Y10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{430C5452-F53A-4973-BDD2-B2BE4EC955FF}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{32A192AD-BA70-4C4E-82AE-65D22638C1A2}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{9F4B51DC-3458-443D-B112-E2813680EF96}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{79E69B3B-6478-4C99-9576-F8A6BEC12B47}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{F09D3C98-11D3-4B6A-8254-44CDCBBAA02C}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{7CE8992D-011C-421E-8230-B603516A018B}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{85945128-527B-44B3-B11B-9D639DC42935}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{F3D55BD7-C510-4158-B12C-04A26EBFD3EF}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{5AC512C4-9F9A-423E-80A1-D03B2E06ECB5}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{A071DDC1-47D3-4AF6-8812-DC32234654BC}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{2CBA17D0-049B-4BDB-B866-F20978A25B6A}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{A1366089-F97F-41D6-9D72-32187AAB6680}"/>
+    <hyperlink ref="E8" r:id="rId13" xr:uid="{1A47879C-D37E-4663-A720-AF320CE83ECE}"/>
+    <hyperlink ref="D8" r:id="rId14" xr:uid="{A8D56F55-F77A-4FED-BD3E-C14B46720BE7}"/>
+    <hyperlink ref="E9" r:id="rId15" xr:uid="{DAE0B0E3-973C-4BE5-8A18-70E33E71DF3E}"/>
+    <hyperlink ref="D9" r:id="rId16" xr:uid="{05560F9E-C680-4AEC-88E9-E410405556D5}"/>
+    <hyperlink ref="E10" r:id="rId17" xr:uid="{526D75CC-548E-49B6-B29D-748AB9D3636E}"/>
+    <hyperlink ref="D10" r:id="rId18" xr:uid="{55D37A6D-9E7B-4DF6-B7CE-B71678E12DD1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -3240,12 +4054,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B863EE-0FB8-4125-A633-87E6E4517058}">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3262,21 +4076,21 @@
     <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" customWidth="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="74.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="118.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="61.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3320,46 +4134,49 @@
         <v>311</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>315</v>
       </c>
@@ -3402,13 +4219,12 @@
       <c r="N2" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="O2" s="15"/>
+      <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="15"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>320</v>
       </c>
@@ -3451,13 +4267,12 @@
       <c r="N3" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="O3" s="15"/>
+      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="15"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>322</v>
       </c>
@@ -3500,15 +4315,14 @@
       <c r="N4" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>324</v>
       </c>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="15"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>325</v>
       </c>
@@ -3551,15 +4365,14 @@
       <c r="N5" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="15" t="s">
+      <c r="O5" s="2"/>
+      <c r="P5" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>328</v>
       </c>
@@ -3600,19 +4413,18 @@
         <v>318</v>
       </c>
       <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="O6" s="15" t="s">
+        <v>324</v>
+      </c>
       <c r="P6" s="15" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="R6" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="S6" s="15"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>332</v>
       </c>
@@ -3653,17 +4465,16 @@
         <v>318</v>
       </c>
       <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="O7" s="15" t="s">
+        <v>324</v>
+      </c>
       <c r="P7" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q7" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="15"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>471</v>
       </c>
@@ -3703,36 +4514,35 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15" t="s">
+      <c r="R8" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="T8">
+      <c r="S8">
         <v>12346</v>
       </c>
+      <c r="T8" s="29" t="s">
+        <v>474</v>
+      </c>
       <c r="U8" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="V8" s="29" t="s">
         <v>475</v>
       </c>
+      <c r="V8" t="s">
+        <v>476</v>
+      </c>
       <c r="W8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="X8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Y8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z8" t="s">
-        <v>479</v>
-      </c>
-      <c r="AA8" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>499</v>
       </c>
@@ -3766,8 +4576,46 @@
       <c r="K9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O9" t="s">
-        <v>67</v>
+      <c r="AA9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -3784,12 +4632,14 @@
     <hyperlink ref="D8" r:id="rId10" xr:uid="{E01405C8-F1D8-4319-900C-836E2B13A1AF}"/>
     <hyperlink ref="E9" r:id="rId11" display="mailto:Admin@123" xr:uid="{1404ABE7-A731-455E-83FE-0DE67FA4D0B0}"/>
     <hyperlink ref="D9" r:id="rId12" xr:uid="{1C63676F-6B3D-4063-840F-4B86F2B119A4}"/>
+    <hyperlink ref="E10" r:id="rId13" display="mailto:Admin@123" xr:uid="{7CE97BAD-1B7F-4E13-BAD5-557715C04AD9}"/>
+    <hyperlink ref="D10" r:id="rId14" xr:uid="{9BAADA99-DBBD-4BC8-8217-6C3B06445CD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6996C0C-24E0-40BE-A97F-7A279690A8EE}">
   <dimension ref="A1:O6"/>
   <sheetViews>
@@ -4048,7 +4898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DAABDA-3594-43D7-9AEC-0D8E440ACE4D}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
@@ -4665,7 +5515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B6D706-4369-43B1-B41D-E358306B83B4}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -4778,7 +5628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9ECCE6-1FC9-48C7-BBB8-F3E55C223DFA}">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -6494,10 +7344,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C521355-FD3D-4E65-938C-9AA1EB49CB44}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6517,9 +7367,11 @@
     <col min="13" max="13" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6565,8 +7417,20 @@
       <c r="O1" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>462</v>
       </c>
@@ -6611,23 +7475,148 @@
       </c>
       <c r="O2" s="15" t="s">
         <v>467</v>
+      </c>
+      <c r="R2" t="s">
+        <v>512</v>
+      </c>
+      <c r="S2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="mailto:santoshp@ideyalabs.com" xr:uid="{56D48AEB-07DB-4D1A-AB8D-FD37DB4DF9F6}"/>
     <hyperlink ref="E2" r:id="rId2" display="mailto:Admin@123" xr:uid="{F35E9FF1-B242-4B71-A4FB-8FFB9A1948EE}"/>
+    <hyperlink ref="D3" r:id="rId3" display="mailto:santoshp@ideyalabs.com" xr:uid="{189C12D3-C300-4F82-B462-B2E11831800B}"/>
+    <hyperlink ref="E3" r:id="rId4" display="mailto:Admin@123" xr:uid="{861FAEC2-8A05-42B2-BC4D-CFBC5F76D40F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFB9E42-5696-4F0E-9E81-9692429FA356}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="111.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="E2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E514FC88-A5B1-4E65-87FF-7CADA1E00A73}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7244,7 +8233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C474AF-1560-47F8-90E0-FD2FFD96A555}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
@@ -8026,7 +9015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D341FF-C706-4B03-BBF1-19B6EBC55B3F}">
   <dimension ref="A1:AC15"/>
   <sheetViews>
@@ -9188,708 +10177,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B0A0B3-8637-430C-83AB-3CD1E7890F66}">
-  <dimension ref="A1:AC10"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="50.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="64.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
-    <col min="12" max="12" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" customWidth="1"/>
-    <col min="22" max="22" width="33.140625" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
-    <col min="24" max="24" width="32.42578125" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" customWidth="1"/>
-    <col min="27" max="27" width="16.5703125" customWidth="1"/>
-    <col min="28" max="28" width="34.7109375" customWidth="1"/>
-    <col min="29" max="29" width="27.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="W2" s="15">
-        <v>10</v>
-      </c>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="B3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="B4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="W4" s="20"/>
-      <c r="Y4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="S9" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="T9" s="15">
-        <v>125</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="U10" s="17"/>
-      <c r="Y10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{430C5452-F53A-4973-BDD2-B2BE4EC955FF}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{32A192AD-BA70-4C4E-82AE-65D22638C1A2}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{9F4B51DC-3458-443D-B112-E2813680EF96}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{79E69B3B-6478-4C99-9576-F8A6BEC12B47}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{F09D3C98-11D3-4B6A-8254-44CDCBBAA02C}"/>
-    <hyperlink ref="D3" r:id="rId6" xr:uid="{7CE8992D-011C-421E-8230-B603516A018B}"/>
-    <hyperlink ref="E4" r:id="rId7" xr:uid="{85945128-527B-44B3-B11B-9D639DC42935}"/>
-    <hyperlink ref="D4" r:id="rId8" xr:uid="{F3D55BD7-C510-4158-B12C-04A26EBFD3EF}"/>
-    <hyperlink ref="E6" r:id="rId9" xr:uid="{5AC512C4-9F9A-423E-80A1-D03B2E06ECB5}"/>
-    <hyperlink ref="D6" r:id="rId10" xr:uid="{A071DDC1-47D3-4AF6-8812-DC32234654BC}"/>
-    <hyperlink ref="E7" r:id="rId11" xr:uid="{2CBA17D0-049B-4BDB-B866-F20978A25B6A}"/>
-    <hyperlink ref="D7" r:id="rId12" xr:uid="{A1366089-F97F-41D6-9D72-32187AAB6680}"/>
-    <hyperlink ref="E8" r:id="rId13" xr:uid="{1A47879C-D37E-4663-A720-AF320CE83ECE}"/>
-    <hyperlink ref="D8" r:id="rId14" xr:uid="{A8D56F55-F77A-4FED-BD3E-C14B46720BE7}"/>
-    <hyperlink ref="E9" r:id="rId15" xr:uid="{DAE0B0E3-973C-4BE5-8A18-70E33E71DF3E}"/>
-    <hyperlink ref="D9" r:id="rId16" xr:uid="{05560F9E-C680-4AEC-88E9-E410405556D5}"/>
-    <hyperlink ref="E10" r:id="rId17" xr:uid="{526D75CC-548E-49B6-B29D-748AB9D3636E}"/>
-    <hyperlink ref="D10" r:id="rId18" xr:uid="{55D37A6D-9E7B-4DF6-B7CE-B71678E12DD1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
-</worksheet>
 </file>
--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(06-09-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(06-09-2022)[2]\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D5CCB2-1670-4B5F-9ADA-A4987857703C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682ED003-2860-4257-8A7C-E22E7665AD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="557">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1623,23 +1623,122 @@
     <t>secretKey</t>
   </si>
   <si>
-    <t>https://members-qa.coyni.com/</t>
-  </si>
-  <si>
-    <t>SOT6543123457</t>
-  </si>
-  <si>
     <t>B2qFl1blYHQC0t32hN1XL6020HkjX45xBWxhZAEid2kzlq5OTovykpAVtoLbpxmcD1pHfkKM0WmtUp4+uNrTrY0YAeZ2qsCAkt/A</t>
   </si>
   <si>
     <t>56FDt1vEXNx2Kglpe5H3N8U1/vToyhV0IJuXdYWFrCZkz70pmk5+ilHWBDha0XZni1WbTor3aklh902O0UvFJld+LKBfMp4T+fig</t>
+  </si>
+  <si>
+    <t>https://checkout-qa.coyni.com</t>
+  </si>
+  <si>
+    <t>ravi@outlook.com</t>
+  </si>
+  <si>
+    <t>Identity Verification</t>
+  </si>
+  <si>
+    <t>You successfully paid</t>
+  </si>
+  <si>
+    <t>SOT654876244672</t>
+  </si>
+  <si>
+    <t>test checkOut Transaction invalid PopUp</t>
+  </si>
+  <si>
+    <t>Verify PopUp</t>
+  </si>
+  <si>
+    <t>test checkOut Cancel Transaction</t>
+  </si>
+  <si>
+    <t>Cancel Transaction</t>
+  </si>
+  <si>
+    <t>cancelHeading</t>
+  </si>
+  <si>
+    <t>checkOutContent</t>
+  </si>
+  <si>
+    <t>Are you sure you want to cancel checkout transaction ?</t>
+  </si>
+  <si>
+    <t>Checkout is cancelled.</t>
+  </si>
+  <si>
+    <t>SOT654070044672</t>
+  </si>
+  <si>
+    <t>insufficient</t>
+  </si>
+  <si>
+    <t>cvv</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>insufficient fonds</t>
+  </si>
+  <si>
+    <t>abcd5@gmail.com</t>
+  </si>
+  <si>
+    <t>SOT6548249876831233324</t>
+  </si>
+  <si>
+    <t>nameOnCard</t>
+  </si>
+  <si>
+    <t>cardNumber</t>
+  </si>
+  <si>
+    <t>cardType</t>
+  </si>
+  <si>
+    <t>cardExpiry</t>
+  </si>
+  <si>
+    <t>cvvNumber</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>MASTERCARD</t>
+  </si>
+  <si>
+    <t>Hitech city</t>
+  </si>
+  <si>
+    <t>Gowra</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Manikanth Reddy</t>
+  </si>
+  <si>
+    <t>0125</t>
+  </si>
+  <si>
+    <t>5274 7577 4777 5065</t>
+  </si>
+  <si>
+    <t>preamount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1773,6 +1872,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1810,7 +1915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1854,6 +1959,8 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7540,24 +7647,39 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFB9E42-5696-4F0E-9E81-9692429FA356}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="111.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="109" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7579,8 +7701,77 @@
       <c r="G1" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>514</v>
       </c>
@@ -7591,23 +7782,157 @@
         <v>25</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F2" t="s">
         <v>520</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>521</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>525</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>549</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="W2" s="31">
+        <v>151</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>12345</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="AD2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="B3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F3" t="s">
+        <v>520</v>
+      </c>
+      <c r="G3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="B4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="E4" t="s">
+        <v>535</v>
+      </c>
+      <c r="F4" t="s">
+        <v>520</v>
+      </c>
+      <c r="G4" t="s">
+        <v>521</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>523</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>524</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>530</v>
+      </c>
+      <c r="N4" t="s">
+        <v>533</v>
+      </c>
+      <c r="O4" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{E514FC88-A5B1-4E65-87FF-7CADA1E00A73}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{3AC1157B-CBFE-4A3A-97F2-CD1BA069B9E6}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{D6C2FFC5-EEDC-4E5E-8437-BA3012C285EE}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{A4D159C9-78DA-46E9-AAA2-6DE96443BDF7}"/>
+    <hyperlink ref="H4" r:id="rId5" xr:uid="{FD28FB94-76D7-4821-9E85-BA88C8C348FE}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{D01AE455-D8CC-4FA6-BD42-D57F16011A5B}"/>
+    <hyperlink ref="H2" r:id="rId7" xr:uid="{372C5DDD-5BB6-4E59-A318-BC1678609099}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(06-09-2022)[2]\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(13-09-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682ED003-2860-4257-8A7C-E22E7665AD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF15A03A-6749-4920-9C95-18C02806D19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -21,14 +21,16 @@
     <sheet name="checkOut" sheetId="20" r:id="rId6"/>
     <sheet name="Login" sheetId="3" r:id="rId7"/>
     <sheet name="ForgotPassword" sheetId="4" r:id="rId8"/>
-    <sheet name="forgotEmail" sheetId="6" r:id="rId9"/>
-    <sheet name="AddSignetAccount" sheetId="9" r:id="rId10"/>
-    <sheet name="feeStructure" sheetId="10" r:id="rId11"/>
-    <sheet name="TransactionDetails" sheetId="13" r:id="rId12"/>
-    <sheet name="AccountLimits" sheetId="16" r:id="rId13"/>
-    <sheet name="transaction" sheetId="14" r:id="rId14"/>
-    <sheet name="featureControl" sheetId="11" r:id="rId15"/>
-    <sheet name="BalanceReport" sheetId="12" r:id="rId16"/>
+    <sheet name="gobalSearch" sheetId="21" r:id="rId9"/>
+    <sheet name="forgotEmail" sheetId="6" r:id="rId10"/>
+    <sheet name="AddSignetAccount" sheetId="9" r:id="rId11"/>
+    <sheet name="feeStructure" sheetId="10" r:id="rId12"/>
+    <sheet name="TransactionDetails" sheetId="13" r:id="rId13"/>
+    <sheet name="AccountLimits" sheetId="16" r:id="rId14"/>
+    <sheet name="transaction" sheetId="14" r:id="rId15"/>
+    <sheet name="featureControl" sheetId="11" r:id="rId16"/>
+    <sheet name="BalanceReport" sheetId="12" r:id="rId17"/>
+    <sheet name="Disputes" sheetId="22" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="584">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1417,10 +1419,6 @@
     <t>Passwords do not match</t>
   </si>
   <si>
-    <t xml:space="preserve">Confirm Password is required
-</t>
-  </si>
-  <si>
     <t>Admin@321</t>
   </si>
   <si>
@@ -1452,9 +1450,6 @@
   </si>
   <si>
     <t>Crop Your Image</t>
-  </si>
-  <si>
-    <t>images</t>
   </si>
   <si>
     <t>demo.jpg</t>
@@ -1485,12 +1480,6 @@
     <t>Open New Chargeback</t>
   </si>
   <si>
-    <t>08/25/2022</t>
-  </si>
-  <si>
-    <t>08/28/2022</t>
-  </si>
-  <si>
     <t>STATUS,CUSTOMER NAME,ACCOUNT ID,RECEIVED,DUE DATE,CREATED,CBK AMOUNT</t>
   </si>
   <si>
@@ -1596,9 +1585,6 @@
     <t>Remove Profile Image</t>
   </si>
   <si>
-    <t xml:space="preserve"> Are you sure you want to remove your profile image?We will replace it with your initials as a default.</t>
-  </si>
-  <si>
     <t>Success!</t>
   </si>
   <si>
@@ -1632,18 +1618,12 @@
     <t>https://checkout-qa.coyni.com</t>
   </si>
   <si>
-    <t>ravi@outlook.com</t>
-  </si>
-  <si>
     <t>Identity Verification</t>
   </si>
   <si>
     <t>You successfully paid</t>
   </si>
   <si>
-    <t>SOT654876244672</t>
-  </si>
-  <si>
     <t>test checkOut Transaction invalid PopUp</t>
   </si>
   <si>
@@ -1732,13 +1712,115 @@
   </si>
   <si>
     <t>preamount</t>
+  </si>
+  <si>
+    <t>SO23456543245678765123</t>
+  </si>
+  <si>
+    <t>test checkOut module with out adding products</t>
+  </si>
+  <si>
+    <t>Amount is required</t>
+  </si>
+  <si>
+    <t>Empty confirm password</t>
+  </si>
+  <si>
+    <t>Confirm Password is required</t>
+  </si>
+  <si>
+    <t>testGobalSearch</t>
+  </si>
+  <si>
+    <t>Profile ID</t>
+  </si>
+  <si>
+    <t>testGobalSearchWithProfileDetails</t>
+  </si>
+  <si>
+    <t>Profile Details</t>
+  </si>
+  <si>
+    <t>profileDetails</t>
+  </si>
+  <si>
+    <t>test106@gmail.com</t>
+  </si>
+  <si>
+    <t>testGobalSearchWithReferenceID</t>
+  </si>
+  <si>
+    <t>BUT642BC2A2186D577CA521A2C9645C8F</t>
+  </si>
+  <si>
+    <t>09/13/2022</t>
+  </si>
+  <si>
+    <t>09/14/2022</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Are you sure you want to remove your profile image?We will replace it with your initials as a default.</t>
+  </si>
+  <si>
+    <t>customerCountQuery</t>
+  </si>
+  <si>
+    <t>customerBalanceQuery</t>
+  </si>
+  <si>
+    <t>personalBalanceCount</t>
+  </si>
+  <si>
+    <t>businessBalanceQuery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select count(*) from users u where  account_status ='Active'  </t>
+  </si>
+  <si>
+    <t>SELECT sum( total_balance) FROM wallet where wallet_type =0</t>
+  </si>
+  <si>
+    <t>select sum(total_balance)  from users u  inner join wallet w on u.id=w.user_id where u.account_type =1</t>
+  </si>
+  <si>
+    <t>select sum(total_balance)  from users u  inner join wallet w on u.id=w.user_id where u.account_type in (2,6,4)</t>
+  </si>
+  <si>
+    <t>VerifyCountAndBalance</t>
+  </si>
+  <si>
+    <t>filterHeadings</t>
+  </si>
+  <si>
+    <t>caseNum</t>
+  </si>
+  <si>
+    <t>disputesExportsStatusCaseID</t>
+  </si>
+  <si>
+    <t>Verify filters headings</t>
+  </si>
+  <si>
+    <t>Case Number,Customer Name,Account ID,Received Date,Due Date,Created Date,Card First 6,Card Last 4</t>
+  </si>
+  <si>
+    <t>Verify case num filter won dispaly</t>
+  </si>
+  <si>
+    <t>Verify export status case num dispaly</t>
+  </si>
+  <si>
+    <t>Won,12346</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1878,6 +1960,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1915,7 +2003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1961,6 +2049,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3092,10 +3192,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>25</v>
@@ -3172,11 +3272,1175 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D341FF-C706-4B03-BBF1-19B6EBC55B3F}">
+  <dimension ref="A1:AC15"/>
+  <sheetViews>
+    <sheetView topLeftCell="S1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="65.42578125" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="86" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.140625" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" customWidth="1"/>
+    <col min="24" max="24" width="26.42578125" customWidth="1"/>
+    <col min="25" max="25" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V3" s="2">
+        <v>123456</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V4" s="2">
+        <v>123456</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V5" s="2">
+        <v>123456</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC5" s="2"/>
+    </row>
+    <row r="6" spans="1:29" ht="39" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC6" s="2"/>
+    </row>
+    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V7" s="2">
+        <v>123456</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="X7" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="X8" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V9" s="2">
+        <v>123456</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V10" s="2">
+        <v>333333</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V11" s="2">
+        <v>123</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1234567</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="X13" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+    </row>
+    <row r="14" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V14" s="2">
+        <v>123456</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="X14" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+    </row>
+    <row r="15" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V15" s="2">
+        <v>123456</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="X15" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E3168F23-BB22-441E-BE39-6AB195ABA385}"/>
+    <hyperlink ref="D3:D15" r:id="rId2" display="Santoshp@ideyalabs.com" xr:uid="{BFF184B9-64B8-4CF8-AB68-F3F9D9C5E528}"/>
+    <hyperlink ref="S2" r:id="rId3" xr:uid="{E3DF655E-0800-4E81-9F4A-F1675585BC9C}"/>
+    <hyperlink ref="S3:S15" r:id="rId4" display="Santoshp@ideyalabs.com" xr:uid="{0F22233D-4069-4DD3-9CEE-46D40E3AC408}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B0A0B3-8637-430C-83AB-3CD1E7890F66}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3458,7 +4722,7 @@
       </c>
       <c r="W4" s="20"/>
       <c r="Y4" t="s">
-        <v>383</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.25">
@@ -3773,9 +5037,7 @@
       <c r="S9" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="T9" s="15">
-        <v>125</v>
-      </c>
+      <c r="T9" s="15"/>
       <c r="U9" s="17" t="s">
         <v>286</v>
       </c>
@@ -3875,7 +5137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -4161,12 +5423,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B863EE-0FB8-4125-A633-87E6E4517058}">
   <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4250,34 +5512,34 @@
         <v>314</v>
       </c>
       <c r="R1" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>178</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>16</v>
@@ -4583,10 +5845,10 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>25</v>
@@ -4622,39 +5884,39 @@
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="S8">
         <v>12346</v>
       </c>
       <c r="T8" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="U8" s="29" t="s">
+        <v>564</v>
+      </c>
+      <c r="V8" t="s">
+        <v>472</v>
+      </c>
+      <c r="W8" t="s">
+        <v>473</v>
+      </c>
+      <c r="X8" t="s">
         <v>474</v>
       </c>
-      <c r="U8" s="29" t="s">
+      <c r="Y8" t="s">
         <v>475</v>
       </c>
-      <c r="V8" t="s">
+      <c r="Z8" t="s">
         <v>476</v>
-      </c>
-      <c r="W8" t="s">
-        <v>477</v>
-      </c>
-      <c r="X8" t="s">
-        <v>478</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>479</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>25</v>
@@ -4684,15 +5946,15 @@
         <v>33</v>
       </c>
       <c r="AA9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>25</v>
@@ -4722,7 +5984,7 @@
         <v>33</v>
       </c>
       <c r="AB10" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4746,7 +6008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6996C0C-24E0-40BE-A97F-7A279690A8EE}">
   <dimension ref="A1:O6"/>
   <sheetViews>
@@ -5005,7 +6267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DAABDA-3594-43D7-9AEC-0D8E440ACE4D}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
@@ -5112,7 +6374,7 @@
         <v>16</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>178</v>
@@ -5170,7 +6432,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="15"/>
       <c r="Y2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5549,7 +6811,7 @@
     </row>
     <row r="10" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>64</v>
@@ -5594,7 +6856,7 @@
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
       <c r="X10" s="16" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -5622,7 +6884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B6D706-4369-43B1-B41D-E358306B83B4}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -5735,12 +6997,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9ECCE6-1FC9-48C7-BBB8-F3E55C223DFA}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5751,15 +7013,19 @@
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" customWidth="1"/>
+    <col min="16" max="16" width="33.140625" customWidth="1"/>
+    <col min="17" max="17" width="33.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5796,16 +7062,28 @@
       <c r="L1" t="s">
         <v>354</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="22" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>357</v>
+        <v>575</v>
       </c>
       <c r="B2" t="s">
         <v>130</v>
@@ -5826,7 +7104,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>419</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -5834,13 +7112,23 @@
       <c r="J2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K2" s="6"/>
+      <c r="O2" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
         <v>130</v>
@@ -5861,7 +7149,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>419</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -5870,16 +7158,14 @@
         <v>32</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="33"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>359</v>
       </c>
@@ -5887,7 +7173,7 @@
         <v>130</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -5902,7 +7188,7 @@
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>419</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
@@ -5914,16 +7200,13 @@
         <v>50</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>359</v>
       </c>
@@ -5931,7 +7214,7 @@
         <v>130</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -5946,7 +7229,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>419</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
@@ -5964,10 +7247,10 @@
         <v>361</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>359</v>
       </c>
@@ -5975,7 +7258,7 @@
         <v>130</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -5990,7 +7273,7 @@
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>419</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
@@ -6008,10 +7291,280 @@
         <v>361</v>
       </c>
       <c r="N6" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>365</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7608AE-4E83-4A59-A303-21D2C67D6F9E}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35">
+        <v>12346</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35">
+        <v>12346</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="mailto:santoshp@ideyalabs.com" xr:uid="{D8142083-A2AC-4CA1-969E-3A847814A02A}"/>
+    <hyperlink ref="E2" r:id="rId2" display="mailto:Admin@123" xr:uid="{A6C76653-F138-4D91-A2DD-DB2DB59B3651}"/>
+    <hyperlink ref="D3" r:id="rId3" display="mailto:santoshp@ideyalabs.com" xr:uid="{E9181E14-5E7D-4609-BBA6-1C62CF8B3FCA}"/>
+    <hyperlink ref="E3" r:id="rId4" display="mailto:Admin@123" xr:uid="{A078E4AC-2FB0-4E82-ACB2-2843AE63D96F}"/>
+    <hyperlink ref="D4" r:id="rId5" display="mailto:santoshp@ideyalabs.com" xr:uid="{14E9D234-28F9-45C7-90B0-A7AFAF91B064}"/>
+    <hyperlink ref="E4" r:id="rId6" display="mailto:Admin@123" xr:uid="{8E11D7EC-539F-416A-9C0F-2B1D8BB166D9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7115,13 +8668,13 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -7315,12 +8868,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>450</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>69</v>
@@ -7349,8 +8902,8 @@
       <c r="K5" t="s">
         <v>451</v>
       </c>
-      <c r="M5" s="26" t="s">
-        <v>454</v>
+      <c r="M5" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -7385,10 +8938,10 @@
         <v>27</v>
       </c>
       <c r="L6" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="M6" t="s">
         <v>455</v>
-      </c>
-      <c r="M6" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -7426,7 +8979,7 @@
         <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -7435,15 +8988,15 @@
     <hyperlink ref="D2" r:id="rId2" xr:uid="{28730DAE-451E-4056-932E-331C142D8306}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{A08E1913-13F7-48A5-BE6C-957E4F387918}"/>
     <hyperlink ref="E4" r:id="rId4" xr:uid="{E11209F2-6A71-476E-ABA7-9C98D4F93D10}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{61BCD2C3-0FE4-45F2-B33B-D0B703CC47DC}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{6071F8DD-0AB2-418A-A3F6-D1B8A5F08556}"/>
-    <hyperlink ref="E7" r:id="rId7" xr:uid="{38A9D038-8E27-4DB0-B9AA-48D104870A0B}"/>
-    <hyperlink ref="D3" r:id="rId8" xr:uid="{CDDBBC93-AB18-48DB-8BD6-BD5DB55D7AF5}"/>
-    <hyperlink ref="D4" r:id="rId9" xr:uid="{6D4AE43B-1850-4D70-A4E6-611571069584}"/>
-    <hyperlink ref="D5" r:id="rId10" xr:uid="{B270F226-9075-4A2B-A429-F8DE59CAFE67}"/>
-    <hyperlink ref="D6" r:id="rId11" xr:uid="{0DFB2FC0-0E63-482B-BACD-B454EA527BAA}"/>
-    <hyperlink ref="D7" r:id="rId12" xr:uid="{C1F0477F-6B25-432F-8647-E5EAFAF9629E}"/>
-    <hyperlink ref="L6" r:id="rId13" xr:uid="{DB74C80E-3532-4617-A493-030E61DAC555}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{6071F8DD-0AB2-418A-A3F6-D1B8A5F08556}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{38A9D038-8E27-4DB0-B9AA-48D104870A0B}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{CDDBBC93-AB18-48DB-8BD6-BD5DB55D7AF5}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{6D4AE43B-1850-4D70-A4E6-611571069584}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{0DFB2FC0-0E63-482B-BACD-B454EA527BAA}"/>
+    <hyperlink ref="D7" r:id="rId10" xr:uid="{C1F0477F-6B25-432F-8647-E5EAFAF9629E}"/>
+    <hyperlink ref="L6" r:id="rId11" xr:uid="{DB74C80E-3532-4617-A493-030E61DAC555}"/>
+    <hyperlink ref="E5" r:id="rId12" xr:uid="{6C64FE84-8DEF-4E93-B32D-F4DD9447C021}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{CC6B220E-F8B1-43B6-A2D2-3E62AC6398D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7454,7 +9007,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7513,25 +9066,25 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>178</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>10</v>
@@ -7539,10 +9092,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" t="s">
         <v>462</v>
-      </c>
-      <c r="B2" t="s">
-        <v>463</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
@@ -7572,30 +9125,30 @@
         <v>33</v>
       </c>
       <c r="L2" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N2" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="O2" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="N2" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>467</v>
-      </c>
       <c r="R2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="S2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>25</v>
@@ -7625,13 +9178,13 @@
         <v>33</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="Q3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -7647,10 +9200,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFB9E42-5696-4F0E-9E81-9692429FA356}">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7690,16 +9243,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -7717,37 +9270,37 @@
         <v>443</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>178</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>334</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>270</v>
@@ -7765,78 +9318,78 @@
         <v>273</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E2" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="F2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="U2" s="31" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="W2" s="31">
         <v>151</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>284</v>
@@ -7848,7 +9401,7 @@
         <v>285</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AD2">
         <v>1.01</v>
@@ -7856,69 +9409,89 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B3" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E3" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="F3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E4" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F4" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K4" s="20" t="s">
         <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="N4" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="O4" t="s">
-        <v>534</v>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="B5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G5" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -7927,12 +9500,13 @@
     <hyperlink ref="I2" r:id="rId2" xr:uid="{3AC1157B-CBFE-4A3A-97F2-CD1BA069B9E6}"/>
     <hyperlink ref="D3" r:id="rId3" xr:uid="{D6C2FFC5-EEDC-4E5E-8437-BA3012C285EE}"/>
     <hyperlink ref="D4" r:id="rId4" xr:uid="{A4D159C9-78DA-46E9-AAA2-6DE96443BDF7}"/>
-    <hyperlink ref="H4" r:id="rId5" xr:uid="{FD28FB94-76D7-4821-9E85-BA88C8C348FE}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{D01AE455-D8CC-4FA6-BD42-D57F16011A5B}"/>
-    <hyperlink ref="H2" r:id="rId7" xr:uid="{372C5DDD-5BB6-4E59-A318-BC1678609099}"/>
+    <hyperlink ref="I4" r:id="rId5" xr:uid="{D01AE455-D8CC-4FA6-BD42-D57F16011A5B}"/>
+    <hyperlink ref="H2" r:id="rId6" xr:uid="{372C5DDD-5BB6-4E59-A318-BC1678609099}"/>
+    <hyperlink ref="H4" r:id="rId7" xr:uid="{FB91854F-486D-427A-88C7-1F44420EB6D5}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{796B7C4B-5468-4CB8-AB33-9A2C92038486}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -8016,10 +9590,10 @@
         <v>128</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -8492,16 +10066,16 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>27</v>
@@ -8510,24 +10084,24 @@
         <v>28</v>
       </c>
       <c r="Q15" s="30" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="R15" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>27</v>
@@ -8536,10 +10110,10 @@
         <v>28</v>
       </c>
       <c r="Q16" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="R16" t="s">
         <v>491</v>
-      </c>
-      <c r="R16" t="s">
-        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -8562,8 +10136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C474AF-1560-47F8-90E0-FD2FFD96A555}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9163,7 +10737,7 @@
       <c r="K11" s="2">
         <v>112121</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="9" t="s">
         <v>148</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -9337,39 +10911,37 @@
     <hyperlink ref="D7:D14" r:id="rId12" display="Santoshp@ideyalabs.com" xr:uid="{825E4587-EEF3-49C5-A0DC-7C972BBF1E33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D341FF-C706-4B03-BBF1-19B6EBC55B3F}">
-  <dimension ref="A1:AC15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77806F8-4095-4D16-96F4-6911E0B4577F}">
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="74.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="65.42578125" customWidth="1"/>
-    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="86" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.140625" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" customWidth="1"/>
-    <col min="24" max="24" width="26.42578125" customWidth="1"/>
-    <col min="25" max="25" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -9388,10 +10960,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -9403,1103 +10975,140 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>218</v>
+        <v>82</v>
+      </c>
+      <c r="M1" t="s">
+        <v>559</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="V2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="2" t="s">
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>69</v>
+      <c r="L2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="V3" s="2">
-        <v>123456</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC3" s="2"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="V4" s="2">
-        <v>123456</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC4" s="2"/>
-    </row>
-    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="V5" s="2">
-        <v>123456</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC5" s="2"/>
-    </row>
-    <row r="6" spans="1:29" ht="39" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="V6" s="2">
-        <v>123456</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC6" s="2"/>
-    </row>
-    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="V7" s="2">
-        <v>123456</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="X7" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC7" s="2"/>
-    </row>
-    <row r="8" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="V8" s="2">
-        <v>123456</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="X8" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC8" s="2"/>
-    </row>
-    <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="V9" s="2">
-        <v>123456</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-    </row>
-    <row r="10" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="V10" s="2">
-        <v>333333</v>
-      </c>
-      <c r="W10" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="X10" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="V11" s="2">
-        <v>123</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="X11" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="V12" s="2">
-        <v>1234567</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="X12" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="V13" s="2">
-        <v>123456</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="X13" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-    </row>
-    <row r="14" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="V14" s="2">
-        <v>123456</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="X14" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-    </row>
-    <row r="15" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="V15" s="2">
-        <v>123456</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="X15" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="2"/>
+      <c r="E4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" t="s">
+        <v>562</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{E3168F23-BB22-441E-BE39-6AB195ABA385}"/>
-    <hyperlink ref="D3:D15" r:id="rId2" display="Santoshp@ideyalabs.com" xr:uid="{BFF184B9-64B8-4CF8-AB68-F3F9D9C5E528}"/>
-    <hyperlink ref="S2" r:id="rId3" xr:uid="{E3DF655E-0800-4E81-9F4A-F1675585BC9C}"/>
-    <hyperlink ref="S3:S15" r:id="rId4" display="Santoshp@ideyalabs.com" xr:uid="{0F22233D-4069-4DD3-9CEE-46D40E3AC408}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{47A8E0C1-C045-410B-870A-6113AA235D59}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{995B17B2-19C4-4940-B846-AE79A09D03ED}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{25A957EB-4F77-45D7-A75A-30E825B6985A}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{E5910FB0-36E0-4AD3-BAC7-06236F498B91}"/>
+    <hyperlink ref="M3" r:id="rId5" xr:uid="{C49D242B-2EF9-40FF-B1F8-8653F1F4387D}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{6B3C10D3-8DD9-4A3E-B426-A83A0A2F8221}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{EB1D00DE-69F3-42BF-9D29-33A8F2724E26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(13-09-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF15A03A-6749-4920-9C95-18C02806D19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DD5CEF-F898-4306-974B-1E6378BBFB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="585">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1814,6 +1814,9 @@
   </si>
   <si>
     <t>Won,12346</t>
+  </si>
+  <si>
+    <t>ID,CREATED DATE,CREATED BY,START DATE,END DATE,STATUS</t>
   </si>
 </sst>
 </file>
@@ -5141,8 +5144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5154,7 +5157,14 @@
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="60.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -6012,8 +6022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6996C0C-24E0-40BE-A97F-7A279690A8EE}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6104,7 +6114,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>419</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -6116,7 +6126,7 @@
         <v>370</v>
       </c>
       <c r="O2" t="s">
-        <v>301</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -6142,7 +6152,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>419</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -6177,7 +6187,7 @@
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>419</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
@@ -6212,7 +6222,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>419</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
@@ -6247,7 +6257,7 @@
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>419</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
@@ -7348,7 +7358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7608AE-4E83-4A59-A303-21D2C67D6F9E}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -9202,8 +9212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFB9E42-5696-4F0E-9E81-9692429FA356}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(13-09-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DD5CEF-F898-4306-974B-1E6378BBFB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7858DA17-4E92-4710-A08B-888271DA8295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="589">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1817,6 +1817,18 @@
   </si>
   <si>
     <t>ID,CREATED DATE,CREATED BY,START DATE,END DATE,STATUS</t>
+  </si>
+  <si>
+    <t>testTransactionSearch</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>TransactionDetailsearch</t>
+  </si>
+  <si>
+    <t>123WTDF25BFFC3D0EA7A35BBD6DFC05187C</t>
   </si>
 </sst>
 </file>
@@ -5144,8 +5156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5435,10 +5447,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B863EE-0FB8-4125-A633-87E6E4517058}">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5466,10 +5478,11 @@
     <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="118.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5554,8 +5567,11 @@
       <c r="AB1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>315</v>
       </c>
@@ -5603,7 +5619,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>320</v>
       </c>
@@ -5651,7 +5667,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>322</v>
       </c>
@@ -5701,7 +5717,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="15"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>325</v>
       </c>
@@ -5751,7 +5767,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="15"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>328</v>
       </c>
@@ -5803,7 +5819,7 @@
       </c>
       <c r="R6" s="15"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>332</v>
       </c>
@@ -5853,7 +5869,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="15"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>469</v>
       </c>
@@ -5921,7 +5937,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>495</v>
       </c>
@@ -5959,7 +5975,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>500</v>
       </c>
@@ -5995,6 +6011,44 @@
       </c>
       <c r="AB10" t="s">
         <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC11" s="20" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -6013,6 +6067,8 @@
     <hyperlink ref="D9" r:id="rId12" xr:uid="{1C63676F-6B3D-4063-840F-4B86F2B119A4}"/>
     <hyperlink ref="E10" r:id="rId13" display="mailto:Admin@123" xr:uid="{7CE97BAD-1B7F-4E13-BAD5-557715C04AD9}"/>
     <hyperlink ref="D10" r:id="rId14" xr:uid="{9BAADA99-DBBD-4BC8-8217-6C3B06445CD3}"/>
+    <hyperlink ref="E11" r:id="rId15" display="mailto:Admin@123" xr:uid="{48F8AFC8-BAC2-492B-A439-914C2CAD005C}"/>
+    <hyperlink ref="D11" r:id="rId16" xr:uid="{D63201AC-F410-4738-993C-609ED0E5EF91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(13-09-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Code-push\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7858DA17-4E92-4710-A08B-888271DA8295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FA974A-A685-4875-9528-3635DA255AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="601">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1830,12 +1830,48 @@
   <si>
     <t>123WTDF25BFFC3D0EA7A35BBD6DFC05187C</t>
   </si>
+  <si>
+    <t>c7EQIL+fKrIgB011d4jr5rSLukj3batBhm3FI9BXbrIsaVzMPN599yqZe6PJmTrXlijrE8hjGQJkGXmXNK6ZPLy8CyYiouYVscS/</t>
+  </si>
+  <si>
+    <t>2A9bASSolc3zJc5YmXKpNY8M/1RGMlQ0CgcB8fI7qR7TfHjCwurmjH/4ff+LjlDDh5g5zQMJAk11G3Ojvl0ffXHiR3aEZkEgEhkk</t>
+  </si>
+  <si>
+    <t>mantri@outlook.com</t>
+  </si>
+  <si>
+    <t>verify fee struture status active to sheduled</t>
+  </si>
+  <si>
+    <t>Your new Fee Structure has been scheduled.</t>
+  </si>
+  <si>
+    <t>verify accountLimits status active to sheduled</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Your new Account Limits have been scheduled</t>
+  </si>
+  <si>
+    <t>debitAmnt</t>
+  </si>
+  <si>
+    <t>selectDate</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>10/11/2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1981,6 +2017,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2018,7 +2060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2076,6 +2118,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5154,10 +5198,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5177,9 +5221,13 @@
     <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -5225,8 +5273,20 @@
       <c r="O1" s="22" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -5258,7 +5318,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>299</v>
       </c>
@@ -5296,7 +5356,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>302</v>
       </c>
@@ -5331,7 +5391,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -5366,7 +5426,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -5401,7 +5461,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>308</v>
       </c>
@@ -5438,6 +5498,106 @@
       <c r="N7" t="s">
         <v>305</v>
       </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="15">
+        <v>123456</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="T8" s="15"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="15">
+        <v>123456</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="S9" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="T9" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5449,7 +5609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B863EE-0FB8-4125-A633-87E6E4517058}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
@@ -9268,8 +9428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFB9E42-5696-4F0E-9E81-9692429FA356}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9407,13 +9567,13 @@
         <v>535</v>
       </c>
       <c r="F2" t="s">
-        <v>515</v>
+        <v>589</v>
       </c>
       <c r="G2" t="s">
-        <v>516</v>
+        <v>590</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>27</v>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Code-push\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FA974A-A685-4875-9528-3635DA255AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A120C4-A7C6-45F3-835A-EB4E7FFA097A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="601">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -5200,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5506,8 +5506,8 @@
       <c r="B8" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="C8" s="15">
-        <v>1</v>
+      <c r="C8" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>26</v>
@@ -5556,8 +5556,8 @@
       <c r="B9" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="C9" s="15">
-        <v>1</v>
+      <c r="C9" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>26</v>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Code-push\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A120C4-A7C6-45F3-835A-EB4E7FFA097A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97113A7-FE7A-418F-B6B2-4D4191B0098E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="603">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1865,6 +1865,12 @@
   </si>
   <si>
     <t>10/11/2022</t>
+  </si>
+  <si>
+    <t>Edit Personal Fee Structure</t>
+  </si>
+  <si>
+    <t>Edit Merchant Fee Structure</t>
   </si>
 </sst>
 </file>
@@ -5200,8 +5206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5219,7 +5225,7 @@
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="60.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -5423,7 +5429,7 @@
         <v>123456</v>
       </c>
       <c r="N5" t="s">
-        <v>305</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -5496,7 +5502,7 @@
         <v>300</v>
       </c>
       <c r="N7" t="s">
-        <v>305</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Code-push\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97113A7-FE7A-418F-B6B2-4D4191B0098E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BF1A66-03A5-41E3-9536-969749D8DFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="600">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1753,12 +1753,6 @@
     <t>BUT642BC2A2186D577CA521A2C9645C8F</t>
   </si>
   <si>
-    <t>09/13/2022</t>
-  </si>
-  <si>
-    <t>09/14/2022</t>
-  </si>
-  <si>
     <t>Images</t>
   </si>
   <si>
@@ -1862,9 +1856,6 @@
   </si>
   <si>
     <t>success</t>
-  </si>
-  <si>
-    <t>10/11/2022</t>
   </si>
   <si>
     <t>Edit Personal Fee Structure</t>
@@ -2024,10 +2015,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF202124"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF8C00"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2108,7 +2099,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
@@ -2125,7 +2115,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5204,10 +5195,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5234,286 +5225,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="14" t="s">
         <v>296</v>
       </c>
       <c r="P1" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>597</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>599</v>
       </c>
       <c r="S1" s="14" t="s">
         <v>10</v>
       </c>
+      <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="15">
         <v>123456</v>
       </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="15">
         <v>123456</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="O3" t="s">
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15" t="s">
         <v>301</v>
       </c>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="15">
         <v>123456</v>
       </c>
-      <c r="M4" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
         <v>303</v>
       </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="15">
         <v>123456</v>
       </c>
-      <c r="N5" t="s">
-        <v>601</v>
-      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="36" t="s">
+        <v>598</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="15">
         <v>123456</v>
       </c>
-      <c r="M6" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15" t="s">
         <v>307</v>
       </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="15">
         <v>123456</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="N7" t="s">
-        <v>602</v>
-      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>25</v>
+        <v>590</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>26</v>
@@ -5544,26 +5589,26 @@
       <c r="P8" s="15">
         <v>10</v>
       </c>
-      <c r="Q8" s="38" t="s">
-        <v>600</v>
+      <c r="Q8" s="37">
+        <v>44845</v>
       </c>
       <c r="R8" s="15" t="s">
         <v>507</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="T8" s="15"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>25</v>
+        <v>592</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>26</v>
@@ -5594,16 +5639,38 @@
       <c r="P9" s="15">
         <v>10</v>
       </c>
-      <c r="Q9" s="38" t="s">
-        <v>600</v>
-      </c>
-      <c r="R9" s="37" t="s">
-        <v>595</v>
-      </c>
-      <c r="S9" s="37" t="s">
-        <v>596</v>
+      <c r="Q9" s="37">
+        <v>44845</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>594</v>
       </c>
       <c r="T9" s="15"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5613,10 +5680,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B863EE-0FB8-4125-A633-87E6E4517058}">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5648,7 +5715,7 @@
     <col min="29" max="29" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5734,18 +5801,19 @@
         <v>16</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+      <c r="AD1" s="15"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>315</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>25</v>
+      <c r="C2" s="15">
+        <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>49</v>
@@ -5765,8 +5833,8 @@
       <c r="I2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>32</v>
+      <c r="J2" s="15">
+        <v>123456</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>33</v>
@@ -5784,16 +5852,28 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="15"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>320</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>25</v>
+      <c r="C3" s="15">
+        <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>49</v>
@@ -5813,8 +5893,8 @@
       <c r="I3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>32</v>
+      <c r="J3" s="15">
+        <v>123456</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>33</v>
@@ -5832,16 +5912,28 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="15"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>322</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>25</v>
+      <c r="C4" s="15">
+        <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>49</v>
@@ -5861,8 +5953,8 @@
       <c r="I4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="17" t="s">
-        <v>32</v>
+      <c r="J4" s="15">
+        <v>123456</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>33</v>
@@ -5882,16 +5974,28 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="15"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>325</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>25</v>
+      <c r="C5" s="15">
+        <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>49</v>
@@ -5911,8 +6015,8 @@
       <c r="I5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>32</v>
+      <c r="J5" s="15">
+        <v>123456</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>33</v>
@@ -5932,16 +6036,28 @@
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="15"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>328</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>25</v>
+      <c r="C6" s="15">
+        <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>49</v>
@@ -5961,8 +6077,8 @@
       <c r="I6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>32</v>
+      <c r="J6" s="15">
+        <v>123456</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>33</v>
@@ -5984,16 +6100,28 @@
         <v>331</v>
       </c>
       <c r="R6" s="15"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>332</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>25</v>
+      <c r="C7" s="15">
+        <v>1</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>49</v>
@@ -6013,8 +6141,8 @@
       <c r="I7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>32</v>
+      <c r="J7" s="15">
+        <v>123456</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>33</v>
@@ -6034,16 +6162,28 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="15"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>469</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>25</v>
+      <c r="C8" s="15">
+        <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>49</v>
@@ -6063,8 +6203,8 @@
       <c r="I8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>32</v>
+      <c r="J8" s="15">
+        <v>123456</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>33</v>
@@ -6078,40 +6218,44 @@
       <c r="R8" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="15">
         <v>12346</v>
       </c>
-      <c r="T8" s="29" t="s">
-        <v>563</v>
-      </c>
-      <c r="U8" s="29" t="s">
-        <v>564</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="T8" s="38">
+        <v>44817</v>
+      </c>
+      <c r="U8" s="38">
+        <v>44818</v>
+      </c>
+      <c r="V8" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" s="15" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>495</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>25</v>
+      <c r="C9" s="15">
+        <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>49</v>
@@ -6131,25 +6275,43 @@
       <c r="I9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="17" t="s">
-        <v>32</v>
+      <c r="J9" s="15">
+        <v>123456</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>500</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>25</v>
+      <c r="C10" s="15">
+        <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>49</v>
@@ -6169,25 +6331,43 @@
       <c r="I10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="17" t="s">
-        <v>32</v>
+      <c r="J10" s="15">
+        <v>123456</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>25</v>
+      <c r="C11" s="15">
+        <v>1</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>49</v>
@@ -6207,34 +6387,88 @@
       <c r="I11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="17" t="s">
-        <v>32</v>
+      <c r="J11" s="15">
+        <v>123456</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AC11" s="20" t="s">
-        <v>588</v>
-      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="AD11" s="15"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="mailto:Admin@123" xr:uid="{BCED27DA-E541-4C48-A5CA-0A8E19B5AA4D}"/>
-    <hyperlink ref="E3" r:id="rId2" display="mailto:Admin@123" xr:uid="{E5534BD4-274C-4760-81C7-9C1F86A5C2FD}"/>
-    <hyperlink ref="E4" r:id="rId3" display="mailto:Admin@123" xr:uid="{BD62625C-DE7D-42A6-A285-DE3D6E023F9A}"/>
-    <hyperlink ref="E5" r:id="rId4" display="mailto:Admin@123" xr:uid="{81426189-CAF7-4E73-9F20-FF64496DF61F}"/>
-    <hyperlink ref="E6" r:id="rId5" display="mailto:Admin@123" xr:uid="{BC258B07-3EEB-4093-93D6-DA7F739715BD}"/>
-    <hyperlink ref="E7" r:id="rId6" display="mailto:Admin@123" xr:uid="{85E4F3A0-EA66-4E0B-84EF-BC73B01D0BE9}"/>
-    <hyperlink ref="D2" r:id="rId7" xr:uid="{0D0B6B8C-96BC-4A2E-8164-17E3FD588FEB}"/>
-    <hyperlink ref="D3:D7" r:id="rId8" display="santoshp@ideyalabs.com" xr:uid="{550B8CED-42E5-4BEA-B50B-AF10C5F01B3E}"/>
-    <hyperlink ref="E8" r:id="rId9" display="mailto:Admin@123" xr:uid="{0A21B33C-30A1-417D-BFEC-EE296D71EC9B}"/>
-    <hyperlink ref="D8" r:id="rId10" xr:uid="{E01405C8-F1D8-4319-900C-836E2B13A1AF}"/>
-    <hyperlink ref="E9" r:id="rId11" display="mailto:Admin@123" xr:uid="{1404ABE7-A731-455E-83FE-0DE67FA4D0B0}"/>
-    <hyperlink ref="D9" r:id="rId12" xr:uid="{1C63676F-6B3D-4063-840F-4B86F2B119A4}"/>
-    <hyperlink ref="E10" r:id="rId13" display="mailto:Admin@123" xr:uid="{7CE97BAD-1B7F-4E13-BAD5-557715C04AD9}"/>
-    <hyperlink ref="D10" r:id="rId14" xr:uid="{9BAADA99-DBBD-4BC8-8217-6C3B06445CD3}"/>
-    <hyperlink ref="E11" r:id="rId15" display="mailto:Admin@123" xr:uid="{48F8AFC8-BAC2-492B-A439-914C2CAD005C}"/>
-    <hyperlink ref="D11" r:id="rId16" xr:uid="{D63201AC-F410-4738-993C-609ED0E5EF91}"/>
+    <hyperlink ref="D2" r:id="rId1" display="mailto:santoshp@ideyalabs.com" xr:uid="{B0EE9C8C-12F2-462A-97A1-6456DEB6F158}"/>
+    <hyperlink ref="E2" r:id="rId2" display="mailto:Admin@123" xr:uid="{93192846-752B-44CF-A509-59566956BD47}"/>
+    <hyperlink ref="D3" r:id="rId3" display="mailto:santoshp@ideyalabs.com" xr:uid="{776F2A65-C869-4890-9F0A-FBEB1F92970C}"/>
+    <hyperlink ref="E3" r:id="rId4" display="mailto:Admin@123" xr:uid="{F7E00B02-BECE-48AF-962E-8DB03352AF8C}"/>
+    <hyperlink ref="D4" r:id="rId5" display="mailto:santoshp@ideyalabs.com" xr:uid="{C624C523-2117-44F7-96B7-7C6BD4E128CD}"/>
+    <hyperlink ref="E4" r:id="rId6" display="mailto:Admin@123" xr:uid="{04197203-3CB9-4CEF-A70C-6A421854777F}"/>
+    <hyperlink ref="D5" r:id="rId7" display="mailto:santoshp@ideyalabs.com" xr:uid="{A165554B-45BE-4E6B-A58A-5C3EA49B6CA5}"/>
+    <hyperlink ref="E5" r:id="rId8" display="mailto:Admin@123" xr:uid="{62B649C8-7168-41B4-9A42-433C64E71C67}"/>
+    <hyperlink ref="D6" r:id="rId9" display="mailto:santoshp@ideyalabs.com" xr:uid="{E650DABA-C313-4742-9203-9CAF5C5B30FA}"/>
+    <hyperlink ref="E6" r:id="rId10" display="mailto:Admin@123" xr:uid="{607F7894-CC37-4998-BFE7-30D53D4D40E4}"/>
+    <hyperlink ref="D7" r:id="rId11" display="mailto:santoshp@ideyalabs.com" xr:uid="{E3D85CC1-708F-49BA-9AB7-6C71635568F5}"/>
+    <hyperlink ref="E7" r:id="rId12" display="mailto:Admin@123" xr:uid="{4A9E37B8-3C7B-4B24-B792-99D606902A75}"/>
+    <hyperlink ref="D8" r:id="rId13" display="mailto:santoshp@ideyalabs.com" xr:uid="{60BC22BD-501C-43E5-997C-E1A1F63D83B3}"/>
+    <hyperlink ref="E8" r:id="rId14" display="mailto:Admin@123" xr:uid="{BA6DE7E5-9982-4375-9309-9F5B167AB3E0}"/>
+    <hyperlink ref="D9" r:id="rId15" display="mailto:santoshp@ideyalabs.com" xr:uid="{AF0744C9-C322-4E51-A1C5-06C9043800D4}"/>
+    <hyperlink ref="E9" r:id="rId16" display="mailto:Admin@123" xr:uid="{79F35763-6567-4C7F-BD07-93F4E3B317EA}"/>
+    <hyperlink ref="D10" r:id="rId17" display="mailto:santoshp@ideyalabs.com" xr:uid="{A3AC3E78-3C4A-488F-9E74-1AD2D33138A4}"/>
+    <hyperlink ref="E10" r:id="rId18" display="mailto:Admin@123" xr:uid="{0240F218-A80B-4F4D-B556-8DCE2AD801FC}"/>
+    <hyperlink ref="D11" r:id="rId19" display="mailto:santoshp@ideyalabs.com" xr:uid="{46DA26FE-3A90-4EF2-9718-72B70A0A42B2}"/>
+    <hyperlink ref="E11" r:id="rId20" display="mailto:Admin@123" xr:uid="{767D52C7-5016-47C3-9249-DABA5375F2B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6244,7 +6478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6996C0C-24E0-40BE-A97F-7A279690A8EE}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -6262,7 +6496,8 @@
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6348,7 +6583,7 @@
         <v>370</v>
       </c>
       <c r="O2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -6383,7 +6618,7 @@
         <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -7301,21 +7536,21 @@
         <v>356</v>
       </c>
       <c r="O1" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q1" s="22" t="s">
         <v>567</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>568</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>569</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B2" t="s">
         <v>130</v>
@@ -7345,17 +7580,17 @@
         <v>32</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q2" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="R2" s="32" t="s">
         <v>572</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>573</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -7392,10 +7627,10 @@
       <c r="K3" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="33"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="32"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -7578,10 +7813,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7608AE-4E83-4A59-A303-21D2C67D6F9E}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7601,7 +7836,7 @@
     <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7636,22 +7871,23 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>579</v>
-      </c>
       <c r="B2" s="15" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -7680,19 +7916,20 @@
       <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="M2" s="35"/>
+      <c r="L2" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="M2" s="34"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -7721,19 +7958,20 @@
       <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35">
+      <c r="L3" s="34"/>
+      <c r="M3" s="34">
         <v>12346</v>
       </c>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -7762,16 +8000,17 @@
       <c r="K4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35">
+      <c r="L4" s="34"/>
+      <c r="M4" s="34">
         <v>12346</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -7787,15 +8026,34 @@
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="mailto:santoshp@ideyalabs.com" xr:uid="{D8142083-A2AC-4CA1-969E-3A847814A02A}"/>
-    <hyperlink ref="E2" r:id="rId2" display="mailto:Admin@123" xr:uid="{A6C76653-F138-4D91-A2DD-DB2DB59B3651}"/>
-    <hyperlink ref="D3" r:id="rId3" display="mailto:santoshp@ideyalabs.com" xr:uid="{E9181E14-5E7D-4609-BBA6-1C62CF8B3FCA}"/>
-    <hyperlink ref="E3" r:id="rId4" display="mailto:Admin@123" xr:uid="{A078E4AC-2FB0-4E82-ACB2-2843AE63D96F}"/>
-    <hyperlink ref="D4" r:id="rId5" display="mailto:santoshp@ideyalabs.com" xr:uid="{14E9D234-28F9-45C7-90B0-A7AFAF91B064}"/>
-    <hyperlink ref="E4" r:id="rId6" display="mailto:Admin@123" xr:uid="{8E11D7EC-539F-416A-9C0F-2B1D8BB166D9}"/>
+    <hyperlink ref="D2" r:id="rId1" display="mailto:santoshp@ideyalabs.com" xr:uid="{8E38F616-1BA4-4BCC-B627-DB9CF76698B0}"/>
+    <hyperlink ref="E2" r:id="rId2" display="mailto:Admin@123" xr:uid="{8765459C-FF87-43D9-9F14-0CF33CCB4D78}"/>
+    <hyperlink ref="D3" r:id="rId3" display="mailto:santoshp@ideyalabs.com" xr:uid="{D1F0AC55-866E-422A-9B3B-6A2F6F0C3CB9}"/>
+    <hyperlink ref="E3" r:id="rId4" display="mailto:Admin@123" xr:uid="{718CCB56-0571-43F4-8038-782BC675FAE3}"/>
+    <hyperlink ref="D4" r:id="rId5" display="mailto:santoshp@ideyalabs.com" xr:uid="{1556E6B5-EC05-404C-986C-4B23893AAC42}"/>
+    <hyperlink ref="E4" r:id="rId6" display="mailto:Admin@123" xr:uid="{D8B7528E-2389-4EFF-9988-878740C81CBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9363,7 +9621,7 @@
         <v>464</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>465</v>
@@ -9413,7 +9671,7 @@
         <v>463</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="Q3" t="s">
         <v>506</v>
@@ -9573,13 +9831,13 @@
         <v>535</v>
       </c>
       <c r="F2" t="s">
+        <v>587</v>
+      </c>
+      <c r="G2" t="s">
+        <v>588</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>589</v>
-      </c>
-      <c r="G2" t="s">
-        <v>590</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>591</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>27</v>
@@ -9608,13 +9866,13 @@
       <c r="T2" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="30" t="s">
         <v>542</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="31" t="s">
         <v>547</v>
       </c>
-      <c r="W2" s="31">
+      <c r="W2" s="30">
         <v>151</v>
       </c>
       <c r="X2" s="2" t="s">
@@ -10315,7 +10573,7 @@
       <c r="F15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" s="30" t="s">
+      <c r="Q15" s="29" t="s">
         <v>487</v>
       </c>
       <c r="R15" t="s">
@@ -10341,7 +10599,7 @@
       <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="30" t="s">
+      <c r="Q16" s="29" t="s">
         <v>487</v>
       </c>
       <c r="R16" t="s">

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Code-push\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BF1A66-03A5-41E3-9536-969749D8DFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88BEE53-A752-444F-B7FC-129C2D539945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="601">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1862,6 +1862,9 @@
   </si>
   <si>
     <t>Edit Merchant Fee Structure</t>
+  </si>
+  <si>
+    <t>heading1</t>
   </si>
 </sst>
 </file>
@@ -5197,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5291,8 +5294,8 @@
       <c r="B2" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="15">
-        <v>1</v>
+      <c r="C2" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>26</v>
@@ -5333,8 +5336,8 @@
       <c r="B3" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="15">
-        <v>1</v>
+      <c r="C3" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>26</v>
@@ -5379,8 +5382,8 @@
       <c r="B4" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="15">
-        <v>1</v>
+      <c r="C4" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>26</v>
@@ -5423,8 +5426,8 @@
       <c r="B5" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C5" s="15">
-        <v>1</v>
+      <c r="C5" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>26</v>
@@ -5467,8 +5470,8 @@
       <c r="B6" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="15">
-        <v>1</v>
+      <c r="C6" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>26</v>
@@ -5511,8 +5514,8 @@
       <c r="B7" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="15">
-        <v>1</v>
+      <c r="C7" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>26</v>
@@ -5557,8 +5560,8 @@
       <c r="B8" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="C8" s="15">
-        <v>1</v>
+      <c r="C8" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>26</v>
@@ -5607,8 +5610,8 @@
       <c r="B9" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="C9" s="15">
-        <v>1</v>
+      <c r="C9" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>26</v>
@@ -5683,7 +5686,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5812,8 +5815,8 @@
       <c r="B2" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="15">
-        <v>1</v>
+      <c r="C2" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>49</v>
@@ -5872,8 +5875,8 @@
       <c r="B3" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="15">
-        <v>1</v>
+      <c r="C3" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>49</v>
@@ -5932,8 +5935,8 @@
       <c r="B4" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="15">
-        <v>1</v>
+      <c r="C4" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>49</v>
@@ -5994,8 +5997,8 @@
       <c r="B5" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="15">
-        <v>1</v>
+      <c r="C5" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>49</v>
@@ -6056,8 +6059,8 @@
       <c r="B6" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="15">
-        <v>1</v>
+      <c r="C6" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>49</v>
@@ -6120,8 +6123,8 @@
       <c r="B7" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C7" s="15">
-        <v>1</v>
+      <c r="C7" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>49</v>
@@ -6182,8 +6185,8 @@
       <c r="B8" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="C8" s="15">
-        <v>1</v>
+      <c r="C8" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>49</v>
@@ -6254,8 +6257,8 @@
       <c r="B9" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="C9" s="15">
-        <v>1</v>
+      <c r="C9" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>49</v>
@@ -6310,8 +6313,8 @@
       <c r="B10" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="C10" s="15">
-        <v>1</v>
+      <c r="C10" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>49</v>
@@ -6366,8 +6369,8 @@
       <c r="B11" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="C11" s="15">
-        <v>1</v>
+      <c r="C11" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>49</v>
@@ -6478,8 +6481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6996C0C-24E0-40BE-A97F-7A279690A8EE}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6738,7 +6741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DAABDA-3594-43D7-9AEC-0D8E440ACE4D}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
@@ -8644,9 +8647,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3A334-050A-4737-9B01-1B13EAAB8BDD}">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
@@ -8688,9 +8691,10 @@
     <col min="35" max="35" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8802,8 +8806,11 @@
       <c r="AK1" s="22" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL1" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>395</v>
       </c>
@@ -8874,7 +8881,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>414</v>
       </c>
@@ -8927,7 +8934,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>416</v>
       </c>
@@ -8962,7 +8969,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>431</v>
       </c>
@@ -9012,7 +9019,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>436</v>
       </c>
@@ -9071,7 +9078,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>439</v>
       </c>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Code-push\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88BEE53-A752-444F-B7FC-129C2D539945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B906E39-3200-4C6F-AF81-826AAD3F9A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="602">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1865,6 +1865,9 @@
   </si>
   <si>
     <t>heading1</t>
+  </si>
+  <si>
+    <t>Add New Token Wallet</t>
   </si>
 </sst>
 </file>
@@ -5685,7 +5688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B863EE-0FB8-4125-A633-87E6E4517058}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -7819,7 +7822,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7892,8 +7895,8 @@
       <c r="B2" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>49</v>
@@ -7934,8 +7937,8 @@
       <c r="B3" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>49</v>
@@ -7976,8 +7979,8 @@
       <c r="B4" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>49</v>
@@ -8650,7 +8653,7 @@
   <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AK14" sqref="AK14"/>
+      <selection activeCell="AJ24" sqref="AJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8691,7 +8694,7 @@
     <col min="35" max="35" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -8932,6 +8935,9 @@
       </c>
       <c r="AB3" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="AL3" s="10" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -9157,6 +9163,7 @@
     <hyperlink ref="E7" r:id="rId13" xr:uid="{E35B4D54-50AC-4384-93D1-E2D22159B4E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,32 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Code-push\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ideyaLabs\git\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B906E39-3200-4C6F-AF81-826AAD3F9A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0135CDE-C416-4648-A579-841B1603027D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
     <sheet name="accounting" sheetId="15" r:id="rId2"/>
     <sheet name="profiles" sheetId="17" r:id="rId3"/>
-    <sheet name="changePassword" sheetId="18" r:id="rId4"/>
-    <sheet name="userDetails" sheetId="19" r:id="rId5"/>
-    <sheet name="checkOut" sheetId="20" r:id="rId6"/>
-    <sheet name="Login" sheetId="3" r:id="rId7"/>
-    <sheet name="ForgotPassword" sheetId="4" r:id="rId8"/>
-    <sheet name="gobalSearch" sheetId="21" r:id="rId9"/>
-    <sheet name="forgotEmail" sheetId="6" r:id="rId10"/>
-    <sheet name="AddSignetAccount" sheetId="9" r:id="rId11"/>
-    <sheet name="feeStructure" sheetId="10" r:id="rId12"/>
-    <sheet name="TransactionDetails" sheetId="13" r:id="rId13"/>
-    <sheet name="AccountLimits" sheetId="16" r:id="rId14"/>
-    <sheet name="transaction" sheetId="14" r:id="rId15"/>
-    <sheet name="featureControl" sheetId="11" r:id="rId16"/>
-    <sheet name="BalanceReport" sheetId="12" r:id="rId17"/>
-    <sheet name="Disputes" sheetId="22" r:id="rId18"/>
+    <sheet name="underWritings" sheetId="23" r:id="rId4"/>
+    <sheet name="changePassword" sheetId="18" r:id="rId5"/>
+    <sheet name="userDetails" sheetId="19" r:id="rId6"/>
+    <sheet name="checkOut" sheetId="20" r:id="rId7"/>
+    <sheet name="Login" sheetId="3" r:id="rId8"/>
+    <sheet name="ForgotPassword" sheetId="4" r:id="rId9"/>
+    <sheet name="gobalSearch" sheetId="21" r:id="rId10"/>
+    <sheet name="forgotEmail" sheetId="6" r:id="rId11"/>
+    <sheet name="AddSignetAccount" sheetId="9" r:id="rId12"/>
+    <sheet name="feeStructure" sheetId="10" r:id="rId13"/>
+    <sheet name="TransactionDetails" sheetId="13" r:id="rId14"/>
+    <sheet name="AccountLimits" sheetId="16" r:id="rId15"/>
+    <sheet name="transaction" sheetId="14" r:id="rId16"/>
+    <sheet name="featureControl" sheetId="11" r:id="rId17"/>
+    <sheet name="BalanceReport" sheetId="12" r:id="rId18"/>
+    <sheet name="Disputes" sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="689">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1868,6 +1869,267 @@
   </si>
   <si>
     <t>Add New Token Wallet</t>
+  </si>
+  <si>
+    <t>queryToday</t>
+  </si>
+  <si>
+    <t>queryYesterday</t>
+  </si>
+  <si>
+    <t>queryLast7Days</t>
+  </si>
+  <si>
+    <t>queryMonthToDate</t>
+  </si>
+  <si>
+    <t>queryLastMonth</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>expId</t>
+  </si>
+  <si>
+    <t>Verify Individual Token Account Test Transactions List</t>
+  </si>
+  <si>
+    <t>select count(*)  from "transaction" t  where created_by ='111'</t>
+  </si>
+  <si>
+    <t>Token Transactions</t>
+  </si>
+  <si>
+    <t>rgba(216, 226, 240)</t>
+  </si>
+  <si>
+    <t>Cold Shoulder</t>
+  </si>
+  <si>
+    <t>Verify Individual Token Account Test Transactions Sent Details List</t>
+  </si>
+  <si>
+    <t>select count(*) from transaction t where created_by ='111' and txn_type =12 and</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 8 and created_at between '2022-08-14 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 8 and created_at between '2022-08-13 00:00:00' and '2022-08-15 00:00:00'</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 8 and created_at between '2022-08-09 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =12 and</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 8 and created_at between '2022-08-01 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 8 and created_at between '2022-07-16 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>Tokens Sent Transactions</t>
+  </si>
+  <si>
+    <t>Verify Individual Token Account Test Transactions Purchased Details List</t>
+  </si>
+  <si>
+    <t>select count(*) from transaction t where created_by ='111' and txn_type =2 and</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 3 and created_at between '2022-08-14 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 3 and created_at between '2022-08-13 00:00:00' and '2022-08-15 00:00:00'</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 3 and created_at between '2022-08-09 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =2 and</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 3 and created_at between '2022-08-01 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 3 and created_at between '2022-07-16 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>Tokens Purchased Transactions</t>
+  </si>
+  <si>
+    <t>Verify Individual Token Account Test Transactions Withdraw Details List</t>
+  </si>
+  <si>
+    <t>select count(*) from transaction t where created_by ='111' and txn_type =3 and</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 1 and created_at between '2022-08-14 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 1 and created_at between '2022-08-13 00:00:00' and '2022-08-15 00:00:00'</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 1 and created_at between '2022-08-09 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =3 and</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 1 and created_at between '2022-08-01 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 1 and created_at between '2022-07-16 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>Tokens Withdrawn Transactions</t>
+  </si>
+  <si>
+    <t>Verify Individual Token Account Test Transactions Recieve Details List</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 9 and created_at between '2022-08-14 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 9 and created_at between '2022-08-13 00:00:00' and '2022-08-15 00:00:00'</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 9 and created_at between '2022-08-09 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 9 and created_at between '2022-08-01 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>txn_sub_type = 9 and created_at between '2022-07-16 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>Tokens Received Transactions</t>
+  </si>
+  <si>
+    <t>Verify Individual Token Account Activity Details</t>
+  </si>
+  <si>
+    <t>Verify Individual Preference and Controls View</t>
+  </si>
+  <si>
+    <t>Verify Individual Preference Disable Controls</t>
+  </si>
+  <si>
+    <t>Verify Individual Preference Enable Controls</t>
+  </si>
+  <si>
+    <t>Verify Individual Preference and Controls Navigation</t>
+  </si>
+  <si>
+    <t>Verify Individual Agreements Privacy Policy</t>
+  </si>
+  <si>
+    <t>Verify Individual Agreements Terms of Service</t>
+  </si>
+  <si>
+    <t>Verify Individual Account Limits</t>
+  </si>
+  <si>
+    <t>Verify Individual Activity Log View</t>
+  </si>
+  <si>
+    <t>Verify Merchant Side Bar View</t>
+  </si>
+  <si>
+    <t>Merchants</t>
+  </si>
+  <si>
+    <t>M - 192</t>
+  </si>
+  <si>
+    <t>urlCustomer</t>
+  </si>
+  <si>
+    <t>urlAdmin</t>
+  </si>
+  <si>
+    <t>createAccountHeading</t>
+  </si>
+  <si>
+    <t>emailCustm</t>
+  </si>
+  <si>
+    <t>custPassword</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>SSNNumber</t>
+  </si>
+  <si>
+    <t>assigneEmail</t>
+  </si>
+  <si>
+    <t>assingepassword</t>
+  </si>
+  <si>
+    <t>toastTitle</t>
+  </si>
+  <si>
+    <t>Verify Under Writings With Required Documents</t>
+  </si>
+  <si>
+    <t>https://members-auto.coyni.com/choose-account</t>
+  </si>
+  <si>
+    <t>https://admin-auto.coyni.com/login</t>
+  </si>
+  <si>
+    <t>Create a Personal Account</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>jane.doen@gmail.com</t>
+  </si>
+  <si>
+    <t>Cust@123</t>
+  </si>
+  <si>
+    <t>1923 Lake Forest Rd</t>
+  </si>
+  <si>
+    <t>Road No2</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Verify Under Writings</t>
+  </si>
+  <si>
+    <t>(214) 555 - 1212</t>
+  </si>
+  <si>
+    <t>Prajwalc@ideyalabs.com</t>
+  </si>
+  <si>
+    <t>Admin@123``</t>
+  </si>
+  <si>
+    <t>You have successfully added to your request</t>
+  </si>
+  <si>
+    <t>Verify Under Writings Assigne Direct Approve</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2123,6 +2385,20 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3334,6 +3610,204 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77806F8-4095-4D16-96F4-6911E0B4577F}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" t="s">
+        <v>559</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{47A8E0C1-C045-410B-870A-6113AA235D59}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{995B17B2-19C4-4940-B846-AE79A09D03ED}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{25A957EB-4F77-45D7-A75A-30E825B6985A}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{E5910FB0-36E0-4AD3-BAC7-06236F498B91}"/>
+    <hyperlink ref="M3" r:id="rId5" xr:uid="{C49D242B-2EF9-40FF-B1F8-8653F1F4387D}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{6B3C10D3-8DD9-4A3E-B426-A83A0A2F8221}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{EB1D00DE-69F3-42BF-9D29-33A8F2724E26}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D341FF-C706-4B03-BBF1-19B6EBC55B3F}">
   <dimension ref="A1:AC15"/>
   <sheetViews>
@@ -4497,7 +4971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B0A0B3-8637-430C-83AB-3CD1E7890F66}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
@@ -5199,7 +5673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:T10"/>
   <sheetViews>
@@ -5684,7 +6158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B863EE-0FB8-4125-A633-87E6E4517058}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
@@ -6480,7 +6954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6996C0C-24E0-40BE-A97F-7A279690A8EE}">
   <dimension ref="A1:O6"/>
   <sheetViews>
@@ -6740,7 +7214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DAABDA-3594-43D7-9AEC-0D8E440ACE4D}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
@@ -7357,7 +7831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B6D706-4369-43B1-B41D-E358306B83B4}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -7470,7 +7944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9ECCE6-1FC9-48C7-BBB8-F3E55C223DFA}">
   <dimension ref="A1:R7"/>
   <sheetViews>
@@ -7817,7 +8291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7608AE-4E83-4A59-A303-21D2C67D6F9E}">
   <dimension ref="A1:P6"/>
   <sheetViews>
@@ -8650,10 +9124,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3A334-050A-4737-9B01-1B13EAAB8BDD}">
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AY26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AJ24" sqref="AJ24"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AK9" sqref="AK9:AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8694,10 +9168,19 @@
     <col min="35" max="35" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.42578125" customWidth="1"/>
+    <col min="41" max="41" width="26.42578125" customWidth="1"/>
+    <col min="42" max="42" width="23.42578125" customWidth="1"/>
+    <col min="43" max="43" width="21" customWidth="1"/>
+    <col min="44" max="44" width="27.140625" customWidth="1"/>
+    <col min="45" max="45" width="23.7109375" customWidth="1"/>
+    <col min="48" max="48" width="18.42578125" customWidth="1"/>
+    <col min="49" max="49" width="12.85546875" customWidth="1"/>
+    <col min="50" max="50" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8810,10 +9293,46 @@
         <v>430</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>395</v>
       </c>
@@ -8884,7 +9403,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>414</v>
       </c>
@@ -8936,11 +9455,11 @@
       <c r="AB3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AX3" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>416</v>
       </c>
@@ -8975,7 +9494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>431</v>
       </c>
@@ -9025,7 +9544,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>436</v>
       </c>
@@ -9084,7 +9603,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>439</v>
       </c>
@@ -9146,7 +9665,1712 @@
         <v>440</v>
       </c>
     </row>
+    <row r="8" spans="1:51" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="39" t="s">
+        <v>610</v>
+      </c>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="AT8" s="15">
+        <v>260</v>
+      </c>
+      <c r="AU8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV8" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW8" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="15"/>
+    </row>
+    <row r="9" spans="1:51" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>614</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>614</v>
+      </c>
+      <c r="C9" s="41">
+        <v>1</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="41">
+        <v>123456</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="40"/>
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="40"/>
+      <c r="AM9" s="44"/>
+      <c r="AN9" s="39" t="s">
+        <v>615</v>
+      </c>
+      <c r="AO9" s="39" t="s">
+        <v>615</v>
+      </c>
+      <c r="AP9" s="39" t="s">
+        <v>615</v>
+      </c>
+      <c r="AQ9" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="AR9" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="AS9" s="40" t="s">
+        <v>622</v>
+      </c>
+      <c r="AT9" s="40"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="40"/>
+      <c r="AY9" s="40"/>
+    </row>
+    <row r="10" spans="1:51" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="40"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="39" t="s">
+        <v>616</v>
+      </c>
+      <c r="AO10" s="39" t="s">
+        <v>617</v>
+      </c>
+      <c r="AP10" s="39" t="s">
+        <v>618</v>
+      </c>
+      <c r="AQ10" s="39" t="s">
+        <v>620</v>
+      </c>
+      <c r="AR10" s="39" t="s">
+        <v>621</v>
+      </c>
+      <c r="AS10" s="40"/>
+      <c r="AT10" s="40"/>
+      <c r="AU10" s="45"/>
+      <c r="AV10" s="45"/>
+      <c r="AW10" s="45"/>
+      <c r="AX10" s="40"/>
+      <c r="AY10" s="40"/>
+    </row>
+    <row r="11" spans="1:51" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="C11" s="41">
+        <v>1</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="41">
+        <v>123456</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="39" t="s">
+        <v>624</v>
+      </c>
+      <c r="AO11" s="39" t="s">
+        <v>624</v>
+      </c>
+      <c r="AP11" s="39" t="s">
+        <v>624</v>
+      </c>
+      <c r="AQ11" s="39" t="s">
+        <v>628</v>
+      </c>
+      <c r="AR11" s="39" t="s">
+        <v>628</v>
+      </c>
+      <c r="AS11" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="AT11" s="40"/>
+      <c r="AU11" s="45"/>
+      <c r="AV11" s="45"/>
+      <c r="AW11" s="45"/>
+      <c r="AX11" s="40"/>
+      <c r="AY11" s="40"/>
+    </row>
+    <row r="12" spans="1:51" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="39" t="s">
+        <v>625</v>
+      </c>
+      <c r="AO12" s="39" t="s">
+        <v>626</v>
+      </c>
+      <c r="AP12" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="AQ12" s="39" t="s">
+        <v>629</v>
+      </c>
+      <c r="AR12" s="39" t="s">
+        <v>630</v>
+      </c>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="40"/>
+      <c r="AU12" s="45"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="40"/>
+      <c r="AY12" s="40"/>
+    </row>
+    <row r="13" spans="1:51" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="C13" s="41">
+        <v>1</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="41">
+        <v>123456</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AO13" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AP13" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AQ13" s="39" t="s">
+        <v>637</v>
+      </c>
+      <c r="AR13" s="39" t="s">
+        <v>637</v>
+      </c>
+      <c r="AS13" s="40" t="s">
+        <v>640</v>
+      </c>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="45"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="40"/>
+    </row>
+    <row r="14" spans="1:51" ht="180" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AO14" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AP14" s="39" t="s">
+        <v>636</v>
+      </c>
+      <c r="AQ14" s="39" t="s">
+        <v>638</v>
+      </c>
+      <c r="AR14" s="39" t="s">
+        <v>639</v>
+      </c>
+      <c r="AS14" s="40"/>
+      <c r="AT14" s="40"/>
+      <c r="AU14" s="45"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="40"/>
+      <c r="AY14" s="40"/>
+    </row>
+    <row r="15" spans="1:51" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>641</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>641</v>
+      </c>
+      <c r="C15" s="41">
+        <v>1</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="41">
+        <v>123456</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="43"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="39" t="s">
+        <v>615</v>
+      </c>
+      <c r="AO15" s="39" t="s">
+        <v>615</v>
+      </c>
+      <c r="AP15" s="39" t="s">
+        <v>615</v>
+      </c>
+      <c r="AQ15" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="AR15" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="AS15" s="40" t="s">
+        <v>647</v>
+      </c>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="45"/>
+      <c r="AV15" s="45"/>
+      <c r="AW15" s="45"/>
+      <c r="AX15" s="40"/>
+      <c r="AY15" s="40"/>
+    </row>
+    <row r="16" spans="1:51" ht="180" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="43"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="44"/>
+      <c r="AN16" s="39" t="s">
+        <v>642</v>
+      </c>
+      <c r="AO16" s="39" t="s">
+        <v>643</v>
+      </c>
+      <c r="AP16" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="AQ16" s="39" t="s">
+        <v>645</v>
+      </c>
+      <c r="AR16" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="AS16" s="40"/>
+      <c r="AT16" s="40"/>
+      <c r="AU16" s="45"/>
+      <c r="AV16" s="45"/>
+      <c r="AW16" s="45"/>
+      <c r="AX16" s="40"/>
+      <c r="AY16" s="40"/>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="39"/>
+      <c r="AN17" s="39"/>
+      <c r="AO17" s="39"/>
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="39"/>
+      <c r="AR17" s="39"/>
+      <c r="AS17" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="15"/>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
+      <c r="AS18" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="AT18" s="15"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="15"/>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="39"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="39"/>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="39"/>
+      <c r="AS19" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="16"/>
+      <c r="AV19" s="16"/>
+      <c r="AW19" s="16"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="39"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="39"/>
+      <c r="AQ20" s="39"/>
+      <c r="AR20" s="39"/>
+      <c r="AS20" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16"/>
+      <c r="AW20" s="16"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="16"/>
+      <c r="AV21" s="16"/>
+      <c r="AW21" s="16"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="AT22" s="15"/>
+      <c r="AU22" s="16"/>
+      <c r="AV22" s="16"/>
+      <c r="AW22" s="16"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="15"/>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39"/>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="16"/>
+      <c r="AV23" s="16"/>
+      <c r="AW23" s="16"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="16"/>
+      <c r="AV24" s="16"/>
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="15"/>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="AT25" s="15"/>
+      <c r="AU25" s="16"/>
+      <c r="AV25" s="16"/>
+      <c r="AW25" s="16"/>
+      <c r="AX25" s="15">
+        <v>192</v>
+      </c>
+      <c r="AY25" s="15"/>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="AE26" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="39"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="39"/>
+      <c r="AP26" s="39"/>
+      <c r="AQ26" s="39"/>
+      <c r="AR26" s="39"/>
+      <c r="AS26" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="AT26" s="15"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="16"/>
+      <c r="AW26" s="16"/>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="15"/>
+    </row>
   </sheetData>
+  <mergeCells count="184">
+    <mergeCell ref="AV15:AV16"/>
+    <mergeCell ref="AW15:AW16"/>
+    <mergeCell ref="AX15:AX16"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AK15:AK16"/>
+    <mergeCell ref="AL15:AL16"/>
+    <mergeCell ref="AM15:AM16"/>
+    <mergeCell ref="AS15:AS16"/>
+    <mergeCell ref="AT15:AT16"/>
+    <mergeCell ref="AU15:AU16"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="AI15:AI16"/>
+    <mergeCell ref="AJ15:AJ16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="AV13:AV14"/>
+    <mergeCell ref="AW13:AW14"/>
+    <mergeCell ref="AX13:AX14"/>
+    <mergeCell ref="AY13:AY14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AS13:AS14"/>
+    <mergeCell ref="AT13:AT14"/>
+    <mergeCell ref="AU13:AU14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="AV11:AV12"/>
+    <mergeCell ref="AW11:AW12"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AY11:AY12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="AT11:AT12"/>
+    <mergeCell ref="AU11:AU12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="AI11:AI12"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="AV9:AV10"/>
+    <mergeCell ref="AW9:AW10"/>
+    <mergeCell ref="AX9:AX10"/>
+    <mergeCell ref="AY9:AY10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AT9:AT10"/>
+    <mergeCell ref="AU9:AU10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{4AE398B1-A8DD-4AAF-9C2F-0AFB3695F2EA}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{8EFE2F55-CB6C-4C6C-B674-A1678B5F9C97}"/>
@@ -9161,13 +11385,526 @@
     <hyperlink ref="E6" r:id="rId11" xr:uid="{8F2DF61D-1340-47C7-A580-463CCD2FE8DD}"/>
     <hyperlink ref="D7" r:id="rId12" xr:uid="{AB716087-C345-4325-BFA7-23C9C1FE83EB}"/>
     <hyperlink ref="E7" r:id="rId13" xr:uid="{E35B4D54-50AC-4384-93D1-E2D22159B4E4}"/>
+    <hyperlink ref="D8" r:id="rId14" display="mailto:santoshp@ideyalabs.com" xr:uid="{30206500-BED9-4CA8-9A14-BD12B0B7E3B8}"/>
+    <hyperlink ref="E8" r:id="rId15" display="mailto:Admin@123" xr:uid="{ACD2A16E-94C8-4186-9FAB-6FD71D6D5439}"/>
+    <hyperlink ref="D9" r:id="rId16" display="mailto:santoshp@ideyalabs.com" xr:uid="{B1929C29-1456-4963-A7D8-60F746D067F4}"/>
+    <hyperlink ref="E9" r:id="rId17" display="mailto:Admin@123" xr:uid="{91A4F1F5-A850-4ACF-AF7C-0853B1239A80}"/>
+    <hyperlink ref="D11" r:id="rId18" display="mailto:santoshp@ideyalabs.com" xr:uid="{7ACD8C18-1121-436C-A060-7E0C9E7D867E}"/>
+    <hyperlink ref="E11" r:id="rId19" display="mailto:Admin@123" xr:uid="{1D9E68EA-4163-4D61-B79F-D50908648ADD}"/>
+    <hyperlink ref="D13" r:id="rId20" display="mailto:santoshp@ideyalabs.com" xr:uid="{59146F99-A6BE-4A26-829F-9DF60B0F7380}"/>
+    <hyperlink ref="E13" r:id="rId21" display="mailto:Admin@123" xr:uid="{1D460765-9FB7-4567-9146-0B1AF590206D}"/>
+    <hyperlink ref="D15" r:id="rId22" display="mailto:santoshp@ideyalabs.com" xr:uid="{F1D2438F-281C-491D-992A-31C6BADFAAA8}"/>
+    <hyperlink ref="E15" r:id="rId23" display="mailto:Admin@123" xr:uid="{72C13A36-C244-4191-A683-3655C6095CC5}"/>
+    <hyperlink ref="D17" r:id="rId24" display="mailto:santoshp@ideyalabs.com" xr:uid="{3A3BE15D-3102-479B-AE69-161FFD9625B6}"/>
+    <hyperlink ref="E17" r:id="rId25" display="mailto:Admin@123" xr:uid="{9B1F04E4-1381-4539-8107-C5C93031C40B}"/>
+    <hyperlink ref="D18" r:id="rId26" display="mailto:santoshp@ideyalabs.com" xr:uid="{8EAC3168-EED5-464A-92A8-8F700F20B3C5}"/>
+    <hyperlink ref="E18" r:id="rId27" display="mailto:Admin@123" xr:uid="{1C83410A-1A9E-4A06-9C51-962194C00418}"/>
+    <hyperlink ref="D19" r:id="rId28" display="mailto:santoshp@ideyalabs.com" xr:uid="{3421B2C6-F6FD-4342-A173-A53B9F4C6E2B}"/>
+    <hyperlink ref="E19" r:id="rId29" display="mailto:Admin@123" xr:uid="{5D41C261-9076-4627-A2C5-2F8BAB96EE3D}"/>
+    <hyperlink ref="D20" r:id="rId30" display="mailto:santoshp@ideyalabs.com" xr:uid="{5671D880-195A-4E14-AD56-3EFD243652D1}"/>
+    <hyperlink ref="E20" r:id="rId31" display="mailto:Admin@123" xr:uid="{BE56CA08-9362-47B2-A642-AF940BA167DB}"/>
+    <hyperlink ref="D21" r:id="rId32" display="mailto:santoshp@ideyalabs.com" xr:uid="{79F50813-3207-457A-9154-58E34E5D5C12}"/>
+    <hyperlink ref="E21" r:id="rId33" display="mailto:Admin@123" xr:uid="{5F2B9C9C-245E-4746-96DD-D9ED2B02BEE5}"/>
+    <hyperlink ref="D22" r:id="rId34" display="mailto:santoshp@ideyalabs.com" xr:uid="{EC6949DA-326F-4280-B557-DF8FD94C5D0B}"/>
+    <hyperlink ref="E22" r:id="rId35" display="mailto:Admin@123" xr:uid="{967EA15B-A39A-4A0B-9840-193A28F66BE6}"/>
+    <hyperlink ref="D23" r:id="rId36" display="mailto:santoshp@ideyalabs.com" xr:uid="{01FC3A9B-F7AE-45C4-9A06-166EAD070C38}"/>
+    <hyperlink ref="E23" r:id="rId37" display="mailto:Admin@123" xr:uid="{B9AED570-2150-442C-8CD5-236563C60B0B}"/>
+    <hyperlink ref="D24" r:id="rId38" display="mailto:santoshp@ideyalabs.com" xr:uid="{1C00177E-1DA4-454F-B745-6BA840AAE05D}"/>
+    <hyperlink ref="E24" r:id="rId39" display="mailto:Admin@123" xr:uid="{73A1935D-FBD9-4539-AE95-DC0287FD551F}"/>
+    <hyperlink ref="D25" r:id="rId40" display="mailto:santoshp@ideyalabs.com" xr:uid="{8D842269-932B-4F6D-92AE-756A46CE70A1}"/>
+    <hyperlink ref="E25" r:id="rId41" display="mailto:Admin@123" xr:uid="{0F3BEAF5-DDF4-4785-8924-FD8CA82BE673}"/>
+    <hyperlink ref="D26" r:id="rId42" display="mailto:santoshp@ideyalabs.com" xr:uid="{DC309509-5AEA-4B69-A218-C7773BFC722A}"/>
+    <hyperlink ref="E26" r:id="rId43" display="mailto:Admin@123" xr:uid="{BD069C64-C2ED-4707-B284-46D7B4CB45F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBCCE70-8886-44A0-B994-06CEF8321F97}">
+  <dimension ref="A1:AJ5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="AJ1" s="15"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>2145551212</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="V2" s="15">
+        <v>123456</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z2" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA2" s="46">
+        <v>31547</v>
+      </c>
+      <c r="AB2" s="15">
+        <v>1233</v>
+      </c>
+      <c r="AC2" s="18">
+        <v>76052</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="15">
+        <v>123456</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="V3" s="15">
+        <v>123456</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z3" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA3" s="46">
+        <v>35026</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>1233</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>76052</v>
+      </c>
+      <c r="AD3" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="AE3" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="AH3" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="AI3" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="AJ3" s="15"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="15">
+        <v>123456</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="V4" s="15">
+        <v>123456</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z4" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA4" s="46">
+        <v>35025</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>1233</v>
+      </c>
+      <c r="AC4" s="18">
+        <v>76052</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="AI4" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="AJ4" s="15"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{3A353F43-D3BB-4CB3-B2C2-34736E9EAFB6}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{60A700CF-AF41-499F-8E9D-760280CC41F5}"/>
+    <hyperlink ref="R2" r:id="rId3" display="mailto:jane.doen@gmail.com" xr:uid="{29E1FC61-90D9-4AE9-85EA-1F623255384D}"/>
+    <hyperlink ref="S2" r:id="rId4" display="mailto:Cust@123" xr:uid="{2B8F6CCC-09B4-43A4-BFD4-AF4369709553}"/>
+    <hyperlink ref="T2" r:id="rId5" display="mailto:Cust@123" xr:uid="{D43B13B9-2D46-4C01-95EF-81ABF1B846F4}"/>
+    <hyperlink ref="U2" r:id="rId6" display="mailto:Cust@123" xr:uid="{80C900F7-BB04-440C-8918-1620C1F95B48}"/>
+    <hyperlink ref="D3" r:id="rId7" display="mailto:Santoshp@ideyalabs.com" xr:uid="{ECB12E28-F45B-4623-94DF-5690BAE04D13}"/>
+    <hyperlink ref="L3" r:id="rId8" xr:uid="{D8D4E6C2-C935-4D67-A757-C132ABB4D6D5}"/>
+    <hyperlink ref="M3" r:id="rId9" xr:uid="{39C04CAA-E9B8-4346-BC43-AA87A5C91124}"/>
+    <hyperlink ref="R3" r:id="rId10" display="mailto:jane.doen@gmail.com" xr:uid="{FD112883-BEA1-4BB8-88AC-1FCB13185A9C}"/>
+    <hyperlink ref="S3" r:id="rId11" display="mailto:Cust@123" xr:uid="{C0F6B868-57CA-4C15-8C69-26C6014BB1FF}"/>
+    <hyperlink ref="T3" r:id="rId12" display="mailto:Cust@123" xr:uid="{51CA9364-E3FB-458D-A464-3B2828343559}"/>
+    <hyperlink ref="U3" r:id="rId13" display="mailto:Cust@123" xr:uid="{C927EA4C-CD49-4D74-857D-A9149B594E1C}"/>
+    <hyperlink ref="AF3" r:id="rId14" display="mailto:Prajwalc@ideyalabs.com" xr:uid="{0BE6A37D-F91A-446F-A0D1-69AF4EEDD520}"/>
+    <hyperlink ref="AG3" r:id="rId15" display="mailto:Admin@123%60%60" xr:uid="{6DDD4350-2BEA-43CE-BE5C-EB9614F3CA69}"/>
+    <hyperlink ref="D4" r:id="rId16" display="mailto:Santoshp@ideyalabs.com" xr:uid="{718992E1-491E-4782-BA76-8431535F9F06}"/>
+    <hyperlink ref="L4" r:id="rId17" xr:uid="{50B39DE0-1042-4504-BCA6-B854D9F42AC4}"/>
+    <hyperlink ref="M4" r:id="rId18" xr:uid="{A41C7B53-EB7E-4ECF-AAB9-9F2A277A5BC7}"/>
+    <hyperlink ref="R4" r:id="rId19" display="mailto:jane.doen@gmail.com" xr:uid="{A0F40DB5-D566-4F6D-8940-D4A9C8E0DC31}"/>
+    <hyperlink ref="S4" r:id="rId20" display="mailto:Cust@123" xr:uid="{060A5CB7-0EDD-41A3-8BE1-6962BD5937A6}"/>
+    <hyperlink ref="T4" r:id="rId21" display="mailto:Cust@123" xr:uid="{F4AFF7A6-0357-44E6-BC5F-09619EFB9A67}"/>
+    <hyperlink ref="U4" r:id="rId22" display="mailto:Cust@123" xr:uid="{3CC698D2-BA3A-4CCE-AF2E-FA2F57DBA17E}"/>
+    <hyperlink ref="AF4" r:id="rId23" display="mailto:Prajwalc@ideyalabs.com" xr:uid="{6F399244-DD03-4AD5-B707-9A2AEA8C3B61}"/>
+    <hyperlink ref="AG4" r:id="rId24" display="mailto:Admin@123%60%60" xr:uid="{58D3D292-B662-41DA-B7BA-2BBF369401EA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B5757B-1D64-4665-A795-38990E29E9FE}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -9506,7 +12243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C521355-FD3D-4E65-938C-9AA1EB49CB44}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -9702,7 +12439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFB9E42-5696-4F0E-9E81-9692429FA356}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
@@ -10014,7 +12751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
   <dimension ref="A1:R16"/>
   <sheetViews>
@@ -10636,7 +13373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C474AF-1560-47F8-90E0-FD2FFD96A555}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
@@ -11417,202 +14154,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77806F8-4095-4D16-96F4-6911E0B4577F}">
-  <dimension ref="A1:N4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" t="s">
-        <v>559</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>555</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>556</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>558</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>558</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="13"/>
-      <c r="N4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{47A8E0C1-C045-410B-870A-6113AA235D59}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{995B17B2-19C4-4940-B846-AE79A09D03ED}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{25A957EB-4F77-45D7-A75A-30E825B6985A}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{E5910FB0-36E0-4AD3-BAC7-06236F498B91}"/>
-    <hyperlink ref="M3" r:id="rId5" xr:uid="{C49D242B-2EF9-40FF-B1F8-8653F1F4387D}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{6B3C10D3-8DD9-4A3E-B426-A83A0A2F8221}"/>
-    <hyperlink ref="D4" r:id="rId7" xr:uid="{EB1D00DE-69F3-42BF-9D29-33A8F2724E26}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -1,37 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ideyaLabs\git\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\101222_Web\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0135CDE-C416-4648-A579-841B1603027D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991A89D2-4E65-4C81-BE8A-68DD7B453F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
     <sheet name="accounting" sheetId="15" r:id="rId2"/>
     <sheet name="profiles" sheetId="17" r:id="rId3"/>
-    <sheet name="underWritings" sheetId="23" r:id="rId4"/>
-    <sheet name="changePassword" sheetId="18" r:id="rId5"/>
-    <sheet name="userDetails" sheetId="19" r:id="rId6"/>
-    <sheet name="checkOut" sheetId="20" r:id="rId7"/>
-    <sheet name="Login" sheetId="3" r:id="rId8"/>
-    <sheet name="ForgotPassword" sheetId="4" r:id="rId9"/>
-    <sheet name="gobalSearch" sheetId="21" r:id="rId10"/>
-    <sheet name="forgotEmail" sheetId="6" r:id="rId11"/>
-    <sheet name="AddSignetAccount" sheetId="9" r:id="rId12"/>
-    <sheet name="feeStructure" sheetId="10" r:id="rId13"/>
-    <sheet name="TransactionDetails" sheetId="13" r:id="rId14"/>
-    <sheet name="AccountLimits" sheetId="16" r:id="rId15"/>
-    <sheet name="transaction" sheetId="14" r:id="rId16"/>
-    <sheet name="featureControl" sheetId="11" r:id="rId17"/>
-    <sheet name="BalanceReport" sheetId="12" r:id="rId18"/>
-    <sheet name="Disputes" sheetId="22" r:id="rId19"/>
+    <sheet name="profilesIndividuals" sheetId="24" r:id="rId4"/>
+    <sheet name="underWritings" sheetId="23" r:id="rId5"/>
+    <sheet name="changePassword" sheetId="18" r:id="rId6"/>
+    <sheet name="userDetails" sheetId="19" r:id="rId7"/>
+    <sheet name="checkOut" sheetId="20" r:id="rId8"/>
+    <sheet name="Login" sheetId="3" r:id="rId9"/>
+    <sheet name="ForgotPassword" sheetId="4" r:id="rId10"/>
+    <sheet name="gobalSearch" sheetId="21" r:id="rId11"/>
+    <sheet name="forgotEmail" sheetId="6" r:id="rId12"/>
+    <sheet name="AddSignetAccount" sheetId="9" r:id="rId13"/>
+    <sheet name="feeStructure" sheetId="10" r:id="rId14"/>
+    <sheet name="TransactionDetails" sheetId="13" r:id="rId15"/>
+    <sheet name="AccountLimits" sheetId="16" r:id="rId16"/>
+    <sheet name="transaction" sheetId="14" r:id="rId17"/>
+    <sheet name="featureControl" sheetId="11" r:id="rId18"/>
+    <sheet name="BalanceReport" sheetId="12" r:id="rId19"/>
+    <sheet name="Disputes" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="722">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2131,12 +2132,131 @@
   <si>
     <t>Verify Under Writings Assigne Direct Approve</t>
   </si>
+  <si>
+    <t>merchantHeading</t>
+  </si>
+  <si>
+    <t>Verify Individual User Details View With ID</t>
+  </si>
+  <si>
+    <t>Verify Individual User Details View With Name</t>
+  </si>
+  <si>
+    <t>Taraka Ma</t>
+  </si>
+  <si>
+    <t>ID C-253</t>
+  </si>
+  <si>
+    <t>Account ID: C-253</t>
+  </si>
+  <si>
+    <t>Verify Individual User Details View With Email</t>
+  </si>
+  <si>
+    <t>test102@gmail.com</t>
+  </si>
+  <si>
+    <t>ID C-115</t>
+  </si>
+  <si>
+    <t>Account ID: C-115</t>
+  </si>
+  <si>
+    <t>Verify Individual User Details View With Invalid data</t>
+  </si>
+  <si>
+    <t>Verify Individual User Details View With Invalid</t>
+  </si>
+  <si>
+    <t>skadjkad</t>
+  </si>
+  <si>
+    <t>select count(*) from transaction t where created_by ='111' and txn_type =12 and
+txn_sub_type = 8 and created_at between '2022-08-14 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from transaction t where created_by ='111' and txn_type =12 and
+txn_sub_type = 8 and created_at between '2022-08-13 00:00:00' and '2022-08-15 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from transaction t where created_by ='111' and txn_type =12 and
+txn_sub_type = 8 and created_at between '2022-08-09 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =12 and
+txn_sub_type = 8 and created_at between '2022-08-01 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =12 and
+txn_sub_type = 8 and created_at between '2022-07-16 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from transaction t where created_by ='111' and txn_type =2 and
+txn_sub_type = 3 and created_at between '2022-08-14 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from transaction t where created_by ='111' and txn_type =2 and
+txn_sub_type = 3 and created_at between '2022-08-13 00:00:00' and '2022-08-15 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from transaction t where created_by ='111' and txn_type =2 and
+txn_sub_type = 3 and created_at between '2022-08-09 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =2 and
+txn_sub_type = 3 and created_at between '2022-08-01 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =2 and
+txn_sub_type = 3 and created_at between '2022-07-16 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from transaction t where created_by ='111' and txn_type =3 and
+txn_sub_type = 1 and created_at between '2022-08-14 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from transaction t where created_by ='111' and txn_type =3 and
+txn_sub_type = 1 and created_at between '2022-08-13 00:00:00' and '2022-08-15 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from transaction t where created_by ='111' and txn_type =3 and
+txn_sub_type = 1 and created_at between '2022-08-09 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =3 and
+txn_sub_type = 1 and created_at between '2022-08-01 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =3 and
+txn_sub_type = 1 and created_at between '2022-07-16 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from transaction t where created_by ='111' and txn_type =12 and
+txn_sub_type = 9 and created_at between '2022-08-14 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from transaction t where created_by ='111' and txn_type =12 and
+txn_sub_type = 9 and created_at between '2022-08-13 00:00:00' and '2022-08-15 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from transaction t where created_by ='111' and txn_type =12 and
+txn_sub_type = 9 and created_at between '2022-08-09 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =12 and
+txn_sub_type = 9 and created_at between '2022-08-01 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =12 and
+txn_sub_type = 9 and created_at between '2022-07-16 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2325,7 +2445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2388,17 +2508,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2686,7 +2809,7 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
@@ -2707,7 +2830,7 @@
     <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2778,7 +2901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="64.5">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -2833,7 +2956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="64.5">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -2882,7 +3005,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="64.5">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2931,7 +3054,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="64.5">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2969,7 +3092,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="64.5">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -3007,7 +3130,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="A7" s="15" t="s">
         <v>47</v>
       </c>
@@ -3058,7 +3181,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="A8" s="15" t="s">
         <v>52</v>
       </c>
@@ -3109,7 +3232,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -3160,7 +3283,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23">
       <c r="A10" s="15" t="s">
         <v>56</v>
       </c>
@@ -3211,7 +3334,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -3262,7 +3385,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -3300,7 +3423,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23">
       <c r="A13" s="15" t="s">
         <v>63</v>
       </c>
@@ -3338,7 +3461,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="15" t="s">
         <v>66</v>
       </c>
@@ -3376,7 +3499,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23">
       <c r="A15" s="15" t="s">
         <v>66</v>
       </c>
@@ -3414,7 +3537,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
@@ -3452,7 +3575,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
@@ -3490,7 +3613,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -3528,7 +3651,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="15" t="s">
         <v>498</v>
       </c>
@@ -3610,6 +3733,789 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C474AF-1560-47F8-90E0-FD2FFD96A555}">
+  <dimension ref="A1:Z14"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" customWidth="1"/>
+    <col min="20" max="20" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="51.75">
+      <c r="A2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>123456</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>123456</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
+        <v>123456</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>123456</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>112121</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
+        <v>123456</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z14" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R2" r:id="rId1" display="mailto:Admin@123" xr:uid="{F500828E-E5E6-45FB-AB96-AD5DB4DA6009}"/>
+    <hyperlink ref="S2" r:id="rId2" display="mailto:Admin@123" xr:uid="{D2130272-C6F7-4775-89B3-650BC3E3540C}"/>
+    <hyperlink ref="D5" r:id="rId3" display="mailto:addhhf@gmail.com" xr:uid="{5D36A2E3-71E4-4F7C-8037-CAC5CF605DF3}"/>
+    <hyperlink ref="R7" r:id="rId4" display="mailto:Admin@123" xr:uid="{6E7CB388-0108-48D3-A71F-BE3441718AEC}"/>
+    <hyperlink ref="R8" r:id="rId5" display="mailto:Admin@123" xr:uid="{B1E8FE67-6CF2-42E6-A5FB-D17A64C509E5}"/>
+    <hyperlink ref="S8" r:id="rId6" display="mailto:Admin@143" xr:uid="{D0094D76-4028-4056-8CBD-42948F77C50F}"/>
+    <hyperlink ref="R9" r:id="rId7" display="mailto:Admin@" xr:uid="{C5E65C9D-1A5A-4910-87B4-20213E88CC3B}"/>
+    <hyperlink ref="R14" r:id="rId8" display="mailto:Admin@123" xr:uid="{8E977B3E-C74A-4F33-864B-691DB184C49A}"/>
+    <hyperlink ref="S14" r:id="rId9" display="mailto:Admin@123" xr:uid="{E2E5A99A-0C13-4B90-9671-9826AF55810C}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{CA105243-6A12-42D1-9F94-EB97EF784AF1}"/>
+    <hyperlink ref="D6" r:id="rId11" xr:uid="{2A3AD066-07FA-49D2-890C-BE9868C3A5C7}"/>
+    <hyperlink ref="D7:D14" r:id="rId12" display="Santoshp@ideyalabs.com" xr:uid="{825E4587-EEF3-49C5-A0DC-7C972BBF1E33}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77806F8-4095-4D16-96F4-6911E0B4577F}">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -3617,7 +4523,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -3634,7 +4540,7 @@
     <col min="14" max="14" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3678,7 +4584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="24" t="s">
         <v>555</v>
       </c>
@@ -3716,7 +4622,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="24" t="s">
         <v>557</v>
       </c>
@@ -3754,7 +4660,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="24" t="s">
         <v>561</v>
       </c>
@@ -3807,7 +4713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D341FF-C706-4B03-BBF1-19B6EBC55B3F}">
   <dimension ref="A1:AC15"/>
   <sheetViews>
@@ -3815,7 +4721,7 @@
       <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
@@ -3835,7 +4741,7 @@
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3924,7 +4830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>228</v>
       </c>
@@ -3995,7 +4901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>228</v>
       </c>
@@ -4070,7 +4976,7 @@
       </c>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" s="2" t="s">
         <v>239</v>
       </c>
@@ -4143,7 +5049,7 @@
       </c>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>239</v>
       </c>
@@ -4220,7 +5126,7 @@
       </c>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" ht="39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="39">
       <c r="A6" s="2" t="s">
         <v>239</v>
       </c>
@@ -4297,7 +5203,7 @@
       </c>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="16.5">
       <c r="A7" s="2" t="s">
         <v>239</v>
       </c>
@@ -4372,7 +5278,7 @@
       </c>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="16.5">
       <c r="A8" s="2" t="s">
         <v>239</v>
       </c>
@@ -4447,7 +5353,7 @@
       </c>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="16.5">
       <c r="A9" s="2" t="s">
         <v>239</v>
       </c>
@@ -4522,7 +5428,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="16.5">
       <c r="A10" s="2" t="s">
         <v>258</v>
       </c>
@@ -4599,7 +5505,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="16.5">
       <c r="A11" s="2" t="s">
         <v>258</v>
       </c>
@@ -4676,7 +5582,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="16.5">
       <c r="A12" s="2" t="s">
         <v>258</v>
       </c>
@@ -4753,7 +5659,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="16.5">
       <c r="A13" s="2" t="s">
         <v>260</v>
       </c>
@@ -4824,7 +5730,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="16.5">
       <c r="A14" s="2" t="s">
         <v>260</v>
       </c>
@@ -4889,7 +5795,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="16.5">
       <c r="A15" s="2" t="s">
         <v>264</v>
       </c>
@@ -4971,7 +5877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B0A0B3-8637-430C-83AB-3CD1E7890F66}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
@@ -4979,7 +5885,7 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
@@ -5008,7 +5914,7 @@
     <col min="29" max="29" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5097,7 +6003,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="47.25" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>277</v>
       </c>
@@ -5175,7 +6081,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" s="24" t="s">
         <v>392</v>
       </c>
@@ -5219,7 +6125,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" s="24" t="s">
         <v>392</v>
       </c>
@@ -5261,7 +6167,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="45">
       <c r="A5" s="24" t="s">
         <v>287</v>
       </c>
@@ -5318,7 +6224,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="45">
       <c r="A6" s="24" t="s">
         <v>290</v>
       </c>
@@ -5383,7 +6289,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="45">
       <c r="A7" s="24" t="s">
         <v>290</v>
       </c>
@@ -5449,7 +6355,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="45">
       <c r="A8" s="24" t="s">
         <v>290</v>
       </c>
@@ -5515,7 +6421,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="45">
       <c r="A9" s="24" t="s">
         <v>290</v>
       </c>
@@ -5581,7 +6487,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="45">
       <c r="A10" s="24" t="s">
         <v>290</v>
       </c>
@@ -5673,7 +6579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:T10"/>
   <sheetViews>
@@ -5681,7 +6587,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -5704,7 +6610,7 @@
     <col min="19" max="19" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5764,7 +6670,7 @@
       </c>
       <c r="T1" s="15"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="15" t="s">
         <v>129</v>
       </c>
@@ -5806,7 +6712,7 @@
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="15" t="s">
         <v>299</v>
       </c>
@@ -5852,7 +6758,7 @@
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="15" t="s">
         <v>302</v>
       </c>
@@ -5896,7 +6802,7 @@
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="15" t="s">
         <v>304</v>
       </c>
@@ -5940,7 +6846,7 @@
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="15" t="s">
         <v>306</v>
       </c>
@@ -5984,7 +6890,7 @@
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="15" t="s">
         <v>308</v>
       </c>
@@ -6030,7 +6936,7 @@
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="15" t="s">
         <v>590</v>
       </c>
@@ -6080,7 +6986,7 @@
       </c>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="15" t="s">
         <v>592</v>
       </c>
@@ -6130,7 +7036,7 @@
       </c>
       <c r="T9" s="15"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -6158,7 +7064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B863EE-0FB8-4125-A633-87E6E4517058}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
@@ -6166,7 +7072,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
@@ -6195,7 +7101,7 @@
     <col min="29" max="29" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6285,7 +7191,7 @@
       </c>
       <c r="AD1" s="15"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="15" t="s">
         <v>315</v>
       </c>
@@ -6345,7 +7251,7 @@
       <c r="AC2" s="15"/>
       <c r="AD2" s="15"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="15" t="s">
         <v>320</v>
       </c>
@@ -6405,7 +7311,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="15" t="s">
         <v>322</v>
       </c>
@@ -6467,7 +7373,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="15" t="s">
         <v>325</v>
       </c>
@@ -6529,7 +7435,7 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" s="15" t="s">
         <v>328</v>
       </c>
@@ -6593,7 +7499,7 @@
       <c r="AC6" s="15"/>
       <c r="AD6" s="15"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" s="15" t="s">
         <v>332</v>
       </c>
@@ -6655,7 +7561,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" s="15" t="s">
         <v>469</v>
       </c>
@@ -6727,7 +7633,7 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" s="15" t="s">
         <v>495</v>
       </c>
@@ -6783,7 +7689,7 @@
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" s="15" t="s">
         <v>500</v>
       </c>
@@ -6839,7 +7745,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" s="15" t="s">
         <v>583</v>
       </c>
@@ -6895,7 +7801,7 @@
       </c>
       <c r="AD11" s="15"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -6954,7 +7860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6996C0C-24E0-40BE-A97F-7A279690A8EE}">
   <dimension ref="A1:O6"/>
   <sheetViews>
@@ -6962,7 +7868,7 @@
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
@@ -6981,7 +7887,7 @@
     <col min="15" max="15" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -7028,7 +7934,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="24" t="s">
         <v>376</v>
       </c>
@@ -7066,7 +7972,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="24" t="s">
         <v>377</v>
       </c>
@@ -7101,7 +8007,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="24" t="s">
         <v>378</v>
       </c>
@@ -7136,7 +8042,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>374</v>
       </c>
@@ -7171,7 +8077,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>375</v>
       </c>
@@ -7214,7 +8120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DAABDA-3594-43D7-9AEC-0D8E440ACE4D}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
@@ -7222,7 +8128,7 @@
       <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -7250,7 +8156,7 @@
     <col min="25" max="25" width="105.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7327,7 +8233,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" s="15" t="s">
         <v>336</v>
       </c>
@@ -7382,7 +8288,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="15" t="s">
         <v>337</v>
       </c>
@@ -7434,7 +8340,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="15"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="15" t="s">
         <v>338</v>
       </c>
@@ -7486,7 +8392,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="15"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="15" t="s">
         <v>339</v>
       </c>
@@ -7538,7 +8444,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="15"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="15" t="s">
         <v>340</v>
       </c>
@@ -7590,7 +8496,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="15"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="15" t="s">
         <v>341</v>
       </c>
@@ -7650,7 +8556,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="15"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="15" t="s">
         <v>344</v>
       </c>
@@ -7704,7 +8610,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="15"/>
     </row>
-    <row r="9" spans="1:25" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="102.75">
       <c r="A9" s="15" t="s">
         <v>346</v>
       </c>
@@ -7756,7 +8662,7 @@
       </c>
       <c r="X9" s="15"/>
     </row>
-    <row r="10" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="409.5">
       <c r="A10" s="24" t="s">
         <v>466</v>
       </c>
@@ -7831,7 +8737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B6D706-4369-43B1-B41D-E358306B83B4}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -7839,7 +8745,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -7856,7 +8762,7 @@
     <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7898,7 +8804,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>350</v>
       </c>
@@ -7944,7 +8850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9ECCE6-1FC9-48C7-BBB8-F3E55C223DFA}">
   <dimension ref="A1:R7"/>
   <sheetViews>
@@ -7952,7 +8858,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -7972,7 +8878,7 @@
     <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8028,7 +8934,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="74.25" customHeight="1">
       <c r="A2" t="s">
         <v>573</v>
       </c>
@@ -8073,7 +8979,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>357</v>
       </c>
@@ -8112,7 +9018,7 @@
       <c r="Q3" s="33"/>
       <c r="R3" s="32"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>359</v>
       </c>
@@ -8153,7 +9059,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>359</v>
       </c>
@@ -8197,7 +9103,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>359</v>
       </c>
@@ -8241,7 +9147,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>359</v>
       </c>
@@ -8291,7 +9197,590 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDD6E72-6031-4802-B904-6A5DCC120EE9}">
+  <dimension ref="A1:W8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{92A74E4F-278C-46C5-B56F-1DEE573A2B71}"/>
+    <hyperlink ref="D3:D8" r:id="rId2" display="santoshp@ideyalabs.com" xr:uid="{CC451CFC-3178-411D-8AF5-CDABD2D340D2}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{886819AD-D182-4E9F-BC94-32AA1035B8BD}"/>
+    <hyperlink ref="E3:E8" r:id="rId4" display="Admin@123" xr:uid="{CBF914E0-82B1-46E2-AFA0-E6B23CE0BEE0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7608AE-4E83-4A59-A303-21D2C67D6F9E}">
   <dimension ref="A1:P6"/>
   <sheetViews>
@@ -8299,7 +9788,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -8316,7 +9805,7 @@
     <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8362,7 +9851,7 @@
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
     </row>
-    <row r="2" spans="1:16" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="114.75">
       <c r="A2" s="15" t="s">
         <v>577</v>
       </c>
@@ -8404,7 +9893,7 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="15" t="s">
         <v>579</v>
       </c>
@@ -8446,7 +9935,7 @@
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="15" t="s">
         <v>580</v>
       </c>
@@ -8490,7 +9979,7 @@
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -8508,7 +9997,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -8539,598 +10028,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDD6E72-6031-4802-B904-6A5DCC120EE9}">
-  <dimension ref="A1:W8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W8" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{92A74E4F-278C-46C5-B56F-1DEE573A2B71}"/>
-    <hyperlink ref="D3:D8" r:id="rId2" display="santoshp@ideyalabs.com" xr:uid="{CC451CFC-3178-411D-8AF5-CDABD2D340D2}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{886819AD-D182-4E9F-BC94-32AA1035B8BD}"/>
-    <hyperlink ref="E3:E8" r:id="rId4" display="Admin@123" xr:uid="{CBF914E0-82B1-46E2-AFA0-E6B23CE0BEE0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3A334-050A-4737-9B01-1B13EAAB8BDD}">
   <dimension ref="A1:AY26"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9:AK10"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -9180,7 +10086,7 @@
     <col min="50" max="50" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9332,7 +10238,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51">
       <c r="A2" s="24" t="s">
         <v>395</v>
       </c>
@@ -9403,7 +10309,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51">
       <c r="A3" s="24" t="s">
         <v>414</v>
       </c>
@@ -9459,7 +10365,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51">
       <c r="A4" s="24" t="s">
         <v>416</v>
       </c>
@@ -9494,7 +10400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
         <v>431</v>
       </c>
@@ -9544,7 +10450,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
         <v>436</v>
       </c>
@@ -9603,7 +10509,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
         <v>439</v>
       </c>
@@ -9665,7 +10571,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" ht="105">
       <c r="A8" s="15" t="s">
         <v>609</v>
       </c>
@@ -9756,72 +10662,72 @@
       <c r="AX8" s="15"/>
       <c r="AY8" s="15"/>
     </row>
-    <row r="9" spans="1:51" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:51" ht="60">
+      <c r="A9" s="45" t="s">
         <v>614</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="45" t="s">
         <v>614</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="48">
         <v>1</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="41" t="s">
+      <c r="E9" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="48">
         <v>123456</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40" t="s">
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40" t="s">
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40"/>
-      <c r="AM9" s="44"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="46"/>
       <c r="AN9" s="39" t="s">
         <v>615</v>
       </c>
@@ -9837,56 +10743,56 @@
       <c r="AR9" s="39" t="s">
         <v>619</v>
       </c>
-      <c r="AS9" s="40" t="s">
+      <c r="AS9" s="45" t="s">
         <v>622</v>
       </c>
-      <c r="AT9" s="40"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="40"/>
-      <c r="AY9" s="40"/>
-    </row>
-    <row r="10" spans="1:51" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="40"/>
-      <c r="AJ10" s="40"/>
-      <c r="AK10" s="40"/>
-      <c r="AL10" s="40"/>
-      <c r="AM10" s="44"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="44"/>
+      <c r="AV9" s="44"/>
+      <c r="AW9" s="44"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="45"/>
+    </row>
+    <row r="10" spans="1:51" ht="75">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="45"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="45"/>
+      <c r="AM10" s="46"/>
       <c r="AN10" s="39" t="s">
         <v>616</v>
       </c>
@@ -9902,80 +10808,80 @@
       <c r="AR10" s="39" t="s">
         <v>621</v>
       </c>
-      <c r="AS10" s="40"/>
-      <c r="AT10" s="40"/>
-      <c r="AU10" s="45"/>
-      <c r="AV10" s="45"/>
-      <c r="AW10" s="45"/>
-      <c r="AX10" s="40"/>
-      <c r="AY10" s="40"/>
-    </row>
-    <row r="11" spans="1:51" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="AS10" s="45"/>
+      <c r="AT10" s="45"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="44"/>
+      <c r="AX10" s="45"/>
+      <c r="AY10" s="45"/>
+    </row>
+    <row r="11" spans="1:51" ht="60">
+      <c r="A11" s="45" t="s">
         <v>623</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="45" t="s">
         <v>623</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="48">
         <v>1</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="41" t="s">
+      <c r="E11" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="48">
         <v>123456</v>
       </c>
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40" t="s">
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40" t="s">
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="40"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="40"/>
-      <c r="AK11" s="40"/>
-      <c r="AL11" s="40"/>
-      <c r="AM11" s="44"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="46"/>
       <c r="AN11" s="39" t="s">
         <v>624</v>
       </c>
@@ -9991,56 +10897,56 @@
       <c r="AR11" s="39" t="s">
         <v>628</v>
       </c>
-      <c r="AS11" s="40" t="s">
+      <c r="AS11" s="45" t="s">
         <v>631</v>
       </c>
-      <c r="AT11" s="40"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="45"/>
-      <c r="AX11" s="40"/>
-      <c r="AY11" s="40"/>
-    </row>
-    <row r="12" spans="1:51" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="43"/>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="40"/>
-      <c r="AL12" s="40"/>
-      <c r="AM12" s="44"/>
+      <c r="AT11" s="45"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="44"/>
+      <c r="AX11" s="45"/>
+      <c r="AY11" s="45"/>
+    </row>
+    <row r="12" spans="1:51" ht="75">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="46"/>
       <c r="AN12" s="39" t="s">
         <v>625</v>
       </c>
@@ -10056,80 +10962,80 @@
       <c r="AR12" s="39" t="s">
         <v>630</v>
       </c>
-      <c r="AS12" s="40"/>
-      <c r="AT12" s="40"/>
-      <c r="AU12" s="45"/>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="40"/>
-      <c r="AY12" s="40"/>
-    </row>
-    <row r="13" spans="1:51" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="AS12" s="45"/>
+      <c r="AT12" s="45"/>
+      <c r="AU12" s="44"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+    </row>
+    <row r="13" spans="1:51" ht="60">
+      <c r="A13" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="48">
         <v>1</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="41" t="s">
+      <c r="E13" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="48">
         <v>123456</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40" t="s">
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40" t="s">
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="40"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="40"/>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="40"/>
-      <c r="AM13" s="44"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="46"/>
       <c r="AN13" s="39" t="s">
         <v>633</v>
       </c>
@@ -10145,56 +11051,56 @@
       <c r="AR13" s="39" t="s">
         <v>637</v>
       </c>
-      <c r="AS13" s="40" t="s">
+      <c r="AS13" s="45" t="s">
         <v>640</v>
       </c>
-      <c r="AT13" s="40"/>
-      <c r="AU13" s="45"/>
-      <c r="AV13" s="45"/>
-      <c r="AW13" s="45"/>
-      <c r="AX13" s="40"/>
-      <c r="AY13" s="40"/>
-    </row>
-    <row r="14" spans="1:51" ht="180" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="43"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="44"/>
+      <c r="AT13" s="45"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="44"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="45"/>
+    </row>
+    <row r="14" spans="1:51" ht="75">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="46"/>
       <c r="AN14" s="39" t="s">
         <v>634</v>
       </c>
@@ -10210,80 +11116,80 @@
       <c r="AR14" s="39" t="s">
         <v>639</v>
       </c>
-      <c r="AS14" s="40"/>
-      <c r="AT14" s="40"/>
-      <c r="AU14" s="45"/>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="45"/>
-      <c r="AX14" s="40"/>
-      <c r="AY14" s="40"/>
-    </row>
-    <row r="15" spans="1:51" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="AS14" s="45"/>
+      <c r="AT14" s="45"/>
+      <c r="AU14" s="44"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+    </row>
+    <row r="15" spans="1:51" ht="60">
+      <c r="A15" s="45" t="s">
         <v>641</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="45" t="s">
         <v>641</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="48">
         <v>1</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="41" t="s">
+      <c r="E15" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="48">
         <v>123456</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="K15" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40" t="s">
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40" t="s">
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="AF15" s="43"/>
-      <c r="AG15" s="43"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
-      <c r="AM15" s="44"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="45"/>
+      <c r="AL15" s="45"/>
+      <c r="AM15" s="46"/>
       <c r="AN15" s="39" t="s">
         <v>615</v>
       </c>
@@ -10299,56 +11205,56 @@
       <c r="AR15" s="39" t="s">
         <v>619</v>
       </c>
-      <c r="AS15" s="40" t="s">
+      <c r="AS15" s="45" t="s">
         <v>647</v>
       </c>
-      <c r="AT15" s="40"/>
-      <c r="AU15" s="45"/>
-      <c r="AV15" s="45"/>
-      <c r="AW15" s="45"/>
-      <c r="AX15" s="40"/>
-      <c r="AY15" s="40"/>
-    </row>
-    <row r="16" spans="1:51" ht="180" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="43"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="44"/>
+      <c r="AT15" s="45"/>
+      <c r="AU15" s="44"/>
+      <c r="AV15" s="44"/>
+      <c r="AW15" s="44"/>
+      <c r="AX15" s="45"/>
+      <c r="AY15" s="45"/>
+    </row>
+    <row r="16" spans="1:51" ht="75">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="46"/>
       <c r="AN16" s="39" t="s">
         <v>642</v>
       </c>
@@ -10364,15 +11270,15 @@
       <c r="AR16" s="39" t="s">
         <v>646</v>
       </c>
-      <c r="AS16" s="40"/>
-      <c r="AT16" s="40"/>
-      <c r="AU16" s="45"/>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="45"/>
-      <c r="AX16" s="40"/>
-      <c r="AY16" s="40"/>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AS16" s="45"/>
+      <c r="AT16" s="45"/>
+      <c r="AU16" s="44"/>
+      <c r="AV16" s="44"/>
+      <c r="AW16" s="44"/>
+      <c r="AX16" s="45"/>
+      <c r="AY16" s="45"/>
+    </row>
+    <row r="17" spans="1:51">
       <c r="A17" s="15" t="s">
         <v>648</v>
       </c>
@@ -10453,7 +11359,7 @@
       <c r="AX17" s="15"/>
       <c r="AY17" s="15"/>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51">
       <c r="A18" s="15" t="s">
         <v>649</v>
       </c>
@@ -10534,7 +11440,7 @@
       <c r="AX18" s="15"/>
       <c r="AY18" s="15"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51">
       <c r="A19" s="15" t="s">
         <v>650</v>
       </c>
@@ -10615,7 +11521,7 @@
       <c r="AX19" s="15"/>
       <c r="AY19" s="15"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51">
       <c r="A20" s="15" t="s">
         <v>651</v>
       </c>
@@ -10696,7 +11602,7 @@
       <c r="AX20" s="15"/>
       <c r="AY20" s="15"/>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51">
       <c r="A21" s="15" t="s">
         <v>652</v>
       </c>
@@ -10777,7 +11683,7 @@
       <c r="AX21" s="15"/>
       <c r="AY21" s="15"/>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51">
       <c r="A22" s="15" t="s">
         <v>653</v>
       </c>
@@ -10858,7 +11764,7 @@
       <c r="AX22" s="15"/>
       <c r="AY22" s="15"/>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51">
       <c r="A23" s="15" t="s">
         <v>654</v>
       </c>
@@ -10939,7 +11845,7 @@
       <c r="AX23" s="15"/>
       <c r="AY23" s="15"/>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51">
       <c r="A24" s="15" t="s">
         <v>655</v>
       </c>
@@ -11020,7 +11926,7 @@
       <c r="AX24" s="15"/>
       <c r="AY24" s="15"/>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51">
       <c r="A25" s="15" t="s">
         <v>656</v>
       </c>
@@ -11103,7 +12009,7 @@
       </c>
       <c r="AY25" s="15"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51">
       <c r="A26" s="15" t="s">
         <v>657</v>
       </c>
@@ -11186,49 +12092,108 @@
     </row>
   </sheetData>
   <mergeCells count="184">
-    <mergeCell ref="AV15:AV16"/>
-    <mergeCell ref="AW15:AW16"/>
-    <mergeCell ref="AX15:AX16"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="AK15:AK16"/>
-    <mergeCell ref="AL15:AL16"/>
-    <mergeCell ref="AM15:AM16"/>
-    <mergeCell ref="AS15:AS16"/>
-    <mergeCell ref="AT15:AT16"/>
-    <mergeCell ref="AU15:AU16"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="AI15:AI16"/>
-    <mergeCell ref="AJ15:AJ16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="AV13:AV14"/>
-    <mergeCell ref="AW13:AW14"/>
-    <mergeCell ref="AX13:AX14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="AV9:AV10"/>
+    <mergeCell ref="AW9:AW10"/>
+    <mergeCell ref="AX9:AX10"/>
+    <mergeCell ref="AY9:AY10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AT9:AT10"/>
+    <mergeCell ref="AU9:AU10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="AI11:AI12"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="AV11:AV12"/>
+    <mergeCell ref="AW11:AW12"/>
+    <mergeCell ref="AX11:AX12"/>
+    <mergeCell ref="AY11:AY12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="AT11:AT12"/>
+    <mergeCell ref="AU11:AU12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AH11:AH12"/>
     <mergeCell ref="AY13:AY14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -11253,6 +12218,15 @@
     <mergeCell ref="AA13:AA14"/>
     <mergeCell ref="AB13:AB14"/>
     <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="AV13:AV14"/>
+    <mergeCell ref="AW13:AW14"/>
+    <mergeCell ref="AX13:AX14"/>
     <mergeCell ref="AD13:AD14"/>
     <mergeCell ref="S13:S14"/>
     <mergeCell ref="T13:T14"/>
@@ -11268,108 +12242,40 @@
     <mergeCell ref="R13:R14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="AV11:AV12"/>
-    <mergeCell ref="AW11:AW12"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AY11:AY12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="AS11:AS12"/>
-    <mergeCell ref="AT11:AT12"/>
-    <mergeCell ref="AU11:AU12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AG11:AG12"/>
-    <mergeCell ref="AH11:AH12"/>
-    <mergeCell ref="AI11:AI12"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="AV9:AV10"/>
-    <mergeCell ref="AW9:AW10"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="AY9:AY10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AT9:AT10"/>
-    <mergeCell ref="AU9:AU10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="AI15:AI16"/>
+    <mergeCell ref="AJ15:AJ16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AV15:AV16"/>
+    <mergeCell ref="AW15:AW16"/>
+    <mergeCell ref="AX15:AX16"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AK15:AK16"/>
+    <mergeCell ref="AL15:AL16"/>
+    <mergeCell ref="AM15:AM16"/>
+    <mergeCell ref="AS15:AS16"/>
+    <mergeCell ref="AT15:AT16"/>
+    <mergeCell ref="AU15:AU16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{4AE398B1-A8DD-4AAF-9C2F-0AFB3695F2EA}"/>
@@ -11422,16 +12328,1549 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F404E78-86F3-4010-B1D5-D6F63F40004D}">
+  <dimension ref="A1:AX23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="52.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="47.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="57.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="25.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="19" customWidth="1"/>
+    <col min="22" max="22" width="21" customWidth="1"/>
+    <col min="23" max="23" width="30.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" customWidth="1"/>
+    <col min="27" max="27" width="24.42578125" customWidth="1"/>
+    <col min="28" max="28" width="25.42578125" customWidth="1"/>
+    <col min="31" max="31" width="21.140625" customWidth="1"/>
+    <col min="39" max="44" width="42.28515625" customWidth="1"/>
+    <col min="45" max="45" width="30.140625" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AL1" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50">
+      <c r="A2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF2" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="AG2" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50">
+      <c r="A3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF3" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="AG3" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>435</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>437</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50">
+      <c r="A4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>692</v>
+      </c>
+      <c r="AF4" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="AG4" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>694</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>437</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>692</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE5" s="41" t="s">
+        <v>696</v>
+      </c>
+      <c r="AF5" s="42" t="s">
+        <v>697</v>
+      </c>
+      <c r="AG5" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>698</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>437</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>476</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50">
+      <c r="A6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" t="s">
+        <v>695</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE6" s="41">
+        <v>2345661212</v>
+      </c>
+      <c r="AF6" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="AG6" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>435</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50">
+      <c r="A7" t="s">
+        <v>699</v>
+      </c>
+      <c r="B7" t="s">
+        <v>700</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE7" s="41" t="s">
+        <v>701</v>
+      </c>
+      <c r="AF7" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="AG7" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>435</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50">
+      <c r="A8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF8" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="AG8" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>435</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>437</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>438</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" ht="30">
+      <c r="A9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AM9" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" t="s">
+        <v>611</v>
+      </c>
+      <c r="AT9">
+        <v>260</v>
+      </c>
+      <c r="AU9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV9" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW9" s="26" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" ht="60">
+      <c r="A10" t="s">
+        <v>614</v>
+      </c>
+      <c r="B10" t="s">
+        <v>614</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="33" t="s">
+        <v>702</v>
+      </c>
+      <c r="AO10" s="33" t="s">
+        <v>703</v>
+      </c>
+      <c r="AP10" s="33" t="s">
+        <v>704</v>
+      </c>
+      <c r="AQ10" s="33" t="s">
+        <v>705</v>
+      </c>
+      <c r="AR10" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>622</v>
+      </c>
+      <c r="AU10" s="26"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="26"/>
+    </row>
+    <row r="11" spans="1:50" ht="60">
+      <c r="A11" t="s">
+        <v>623</v>
+      </c>
+      <c r="B11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="AO11" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="AP11" s="33" t="s">
+        <v>709</v>
+      </c>
+      <c r="AQ11" s="33" t="s">
+        <v>710</v>
+      </c>
+      <c r="AR11" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>631</v>
+      </c>
+      <c r="AU11" s="26"/>
+      <c r="AV11" s="26"/>
+      <c r="AW11" s="26"/>
+    </row>
+    <row r="12" spans="1:50" ht="60">
+      <c r="A12" t="s">
+        <v>632</v>
+      </c>
+      <c r="B12" t="s">
+        <v>632</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="AO12" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="AP12" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="AQ12" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="AR12" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>640</v>
+      </c>
+      <c r="AU12" s="26"/>
+      <c r="AV12" s="26"/>
+      <c r="AW12" s="26"/>
+    </row>
+    <row r="13" spans="1:50" ht="60">
+      <c r="A13" t="s">
+        <v>641</v>
+      </c>
+      <c r="B13" t="s">
+        <v>641</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="AO13" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="AP13" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="AQ13" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="AR13" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>647</v>
+      </c>
+      <c r="AU13" s="26"/>
+      <c r="AV13" s="26"/>
+      <c r="AW13" s="26"/>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="A14" t="s">
+        <v>648</v>
+      </c>
+      <c r="B14" t="s">
+        <v>648</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="33"/>
+      <c r="AP14" s="33"/>
+      <c r="AQ14" s="33"/>
+      <c r="AR14" s="33"/>
+      <c r="AS14" t="s">
+        <v>611</v>
+      </c>
+      <c r="AU14" s="26"/>
+      <c r="AV14" s="26"/>
+      <c r="AW14" s="26"/>
+    </row>
+    <row r="15" spans="1:50">
+      <c r="A15" t="s">
+        <v>649</v>
+      </c>
+      <c r="B15" t="s">
+        <v>649</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="33"/>
+      <c r="AR15" s="33"/>
+      <c r="AS15" t="s">
+        <v>611</v>
+      </c>
+      <c r="AU15" s="26"/>
+      <c r="AV15" s="26"/>
+      <c r="AW15" s="26"/>
+    </row>
+    <row r="16" spans="1:50">
+      <c r="A16" t="s">
+        <v>650</v>
+      </c>
+      <c r="B16" t="s">
+        <v>650</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="33"/>
+      <c r="AQ16" s="33"/>
+      <c r="AR16" s="33"/>
+      <c r="AS16" t="s">
+        <v>611</v>
+      </c>
+      <c r="AU16" s="26"/>
+      <c r="AV16" s="26"/>
+      <c r="AW16" s="26"/>
+    </row>
+    <row r="17" spans="1:50">
+      <c r="A17" t="s">
+        <v>651</v>
+      </c>
+      <c r="B17" t="s">
+        <v>651</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="33"/>
+      <c r="AQ17" s="33"/>
+      <c r="AR17" s="33"/>
+      <c r="AS17" t="s">
+        <v>611</v>
+      </c>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="26"/>
+    </row>
+    <row r="18" spans="1:50">
+      <c r="A18" t="s">
+        <v>652</v>
+      </c>
+      <c r="B18" t="s">
+        <v>652</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="33"/>
+      <c r="AO18" s="33"/>
+      <c r="AP18" s="33"/>
+      <c r="AQ18" s="33"/>
+      <c r="AR18" s="33"/>
+      <c r="AS18" t="s">
+        <v>611</v>
+      </c>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="26"/>
+      <c r="AW18" s="26"/>
+    </row>
+    <row r="19" spans="1:50">
+      <c r="A19" t="s">
+        <v>653</v>
+      </c>
+      <c r="B19" t="s">
+        <v>653</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="33"/>
+      <c r="AP19" s="33"/>
+      <c r="AQ19" s="33"/>
+      <c r="AR19" s="33"/>
+      <c r="AS19" t="s">
+        <v>611</v>
+      </c>
+      <c r="AU19" s="26"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26"/>
+    </row>
+    <row r="20" spans="1:50">
+      <c r="A20" t="s">
+        <v>654</v>
+      </c>
+      <c r="B20" t="s">
+        <v>654</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="33"/>
+      <c r="AO20" s="33"/>
+      <c r="AP20" s="33"/>
+      <c r="AQ20" s="33"/>
+      <c r="AR20" s="33"/>
+      <c r="AS20" t="s">
+        <v>611</v>
+      </c>
+      <c r="AU20" s="26"/>
+      <c r="AV20" s="26"/>
+      <c r="AW20" s="26"/>
+    </row>
+    <row r="21" spans="1:50">
+      <c r="A21" t="s">
+        <v>655</v>
+      </c>
+      <c r="B21" t="s">
+        <v>655</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
+      <c r="AM21" s="33"/>
+      <c r="AN21" s="33"/>
+      <c r="AO21" s="33"/>
+      <c r="AP21" s="33"/>
+      <c r="AQ21" s="33"/>
+      <c r="AR21" s="33"/>
+      <c r="AS21" t="s">
+        <v>611</v>
+      </c>
+      <c r="AU21" s="26"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+    </row>
+    <row r="22" spans="1:50">
+      <c r="A22" t="s">
+        <v>656</v>
+      </c>
+      <c r="B22" t="s">
+        <v>656</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="42"/>
+      <c r="AM22" s="33"/>
+      <c r="AN22" s="33"/>
+      <c r="AO22" s="33"/>
+      <c r="AP22" s="33"/>
+      <c r="AQ22" s="33"/>
+      <c r="AR22" s="33"/>
+      <c r="AS22" t="s">
+        <v>611</v>
+      </c>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50">
+      <c r="A23" t="s">
+        <v>657</v>
+      </c>
+      <c r="B23" t="s">
+        <v>657</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>658</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>659</v>
+      </c>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
+      <c r="AM23" s="33"/>
+      <c r="AN23" s="33"/>
+      <c r="AO23" s="33"/>
+      <c r="AP23" s="33"/>
+      <c r="AQ23" s="33"/>
+      <c r="AR23" s="33"/>
+      <c r="AS23" t="s">
+        <v>611</v>
+      </c>
+      <c r="AU23" s="26"/>
+      <c r="AV23" s="26"/>
+      <c r="AW23" s="26"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{34BEFE6E-55ED-49AB-B35F-4F74C1DB8E7B}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{D8BF30D0-8E6D-4605-8FFB-C950FDC643B7}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{7F9BE08F-6A55-4817-916F-0D9E6B65AE7E}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{EB69A24A-0E23-4A60-9471-B93343199E3B}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{E43F2FC4-4552-4184-856B-962B5AE8897A}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{FB479231-C89F-4A5C-96A0-5889E127EC8F}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{D78E9C91-B1BE-478A-8BAE-FDD80E3AC041}"/>
+    <hyperlink ref="E4" r:id="rId8" xr:uid="{055890F2-8A4C-472B-A299-325B67E69CCE}"/>
+    <hyperlink ref="D5" r:id="rId9" xr:uid="{78448594-B922-425D-840D-AB1963828827}"/>
+    <hyperlink ref="E5" r:id="rId10" xr:uid="{104EB418-6C68-4342-8DB2-C8AC93505EE9}"/>
+    <hyperlink ref="AE5" r:id="rId11" xr:uid="{D79559B8-E52D-4865-8232-C2043B554841}"/>
+    <hyperlink ref="D6" r:id="rId12" xr:uid="{848A9BB7-CBB1-44CC-A49C-E3EE522B0D4B}"/>
+    <hyperlink ref="E6" r:id="rId13" xr:uid="{B5777304-8566-4776-B8A8-AC532F04636F}"/>
+    <hyperlink ref="AE6" r:id="rId14" display="test102@gmail.com" xr:uid="{0B194302-FE1A-455C-B0AD-724AEB7986CF}"/>
+    <hyperlink ref="D7" r:id="rId15" xr:uid="{ECE66585-5642-455D-A50B-994289897E00}"/>
+    <hyperlink ref="E7" r:id="rId16" xr:uid="{FACD8C64-462F-4E13-AAD4-24B5FF8431EB}"/>
+    <hyperlink ref="AE7" r:id="rId17" display="test102@gmail.com" xr:uid="{1E011ED9-7354-44D5-90E4-8385C9394A25}"/>
+    <hyperlink ref="D9" r:id="rId18" xr:uid="{6F23A3C9-DCD7-4206-8191-985B9569BB35}"/>
+    <hyperlink ref="E9" r:id="rId19" xr:uid="{F586C162-4E11-4AEC-8038-C7FDE66FFAAA}"/>
+    <hyperlink ref="D10" r:id="rId20" xr:uid="{A46CBA4E-300F-48C3-ABDE-6E0B92B92070}"/>
+    <hyperlink ref="E10" r:id="rId21" xr:uid="{1183F154-C503-4C90-B7FD-5F5AF84120B1}"/>
+    <hyperlink ref="D11" r:id="rId22" xr:uid="{80F00516-465A-4162-ACF4-208B55C14879}"/>
+    <hyperlink ref="E11" r:id="rId23" xr:uid="{4FDAE5BB-B165-4526-A557-8BD158D80D9E}"/>
+    <hyperlink ref="D12" r:id="rId24" xr:uid="{8ED9BBC9-357A-44E4-AC3E-AFBB85976550}"/>
+    <hyperlink ref="E12" r:id="rId25" xr:uid="{5A5B383E-4260-4400-A47E-A08EAEF75917}"/>
+    <hyperlink ref="D13" r:id="rId26" xr:uid="{5D9B1FEA-F322-4CB8-A6A7-6F865E3B9A42}"/>
+    <hyperlink ref="E13" r:id="rId27" xr:uid="{BC4815BE-395C-46A5-BC2C-41E30E4E561B}"/>
+    <hyperlink ref="D14" r:id="rId28" xr:uid="{C5929B8D-3953-449E-9062-3B7C894A6717}"/>
+    <hyperlink ref="E14" r:id="rId29" xr:uid="{59B4A5D4-0ACA-4886-A251-394BE4441A71}"/>
+    <hyperlink ref="D15" r:id="rId30" xr:uid="{B3E746A0-91AA-49C7-BD80-1659194A5D61}"/>
+    <hyperlink ref="E15" r:id="rId31" xr:uid="{B6919218-110F-4F6A-B121-4DE1ADE3DBCD}"/>
+    <hyperlink ref="D16" r:id="rId32" xr:uid="{FC0576B8-ED82-4AAD-A98F-FE2E170AF477}"/>
+    <hyperlink ref="E16" r:id="rId33" xr:uid="{056F2DED-3220-4203-972C-A47D4164D29A}"/>
+    <hyperlink ref="D17" r:id="rId34" xr:uid="{EA1B3906-8A95-4683-98A9-86D24CA40525}"/>
+    <hyperlink ref="E17" r:id="rId35" xr:uid="{82DFD843-F2C0-4ED4-A789-98F6C4CD2073}"/>
+    <hyperlink ref="D18" r:id="rId36" xr:uid="{FD6A7250-8043-4BDD-AF54-3D15384942D4}"/>
+    <hyperlink ref="E18" r:id="rId37" xr:uid="{17765C67-130A-4D76-90A5-FD745E4EF2D3}"/>
+    <hyperlink ref="D19" r:id="rId38" xr:uid="{7F5C339F-A5F6-496E-A417-76D772618A7E}"/>
+    <hyperlink ref="E19" r:id="rId39" xr:uid="{55D3C479-C5B9-4DE2-A0B1-C97F57DD6AF6}"/>
+    <hyperlink ref="D20" r:id="rId40" xr:uid="{270E8B39-715A-4743-9D53-341BEC764485}"/>
+    <hyperlink ref="E20" r:id="rId41" xr:uid="{7EF03997-88FB-4FD0-9B8B-83D853CBCB23}"/>
+    <hyperlink ref="D21" r:id="rId42" xr:uid="{E1FD8B2B-562B-4A3F-8507-790C9AAFB5B9}"/>
+    <hyperlink ref="E21" r:id="rId43" xr:uid="{AEECB1EE-AEF0-451D-A5C8-B2597C8F424B}"/>
+    <hyperlink ref="D22" r:id="rId44" xr:uid="{0368BC7F-FF5D-4E1E-A1EC-748F04CC4E79}"/>
+    <hyperlink ref="E22" r:id="rId45" xr:uid="{8DEDB351-2171-4040-BFDE-F2521541CCB8}"/>
+    <hyperlink ref="D23" r:id="rId46" xr:uid="{B8FC85DF-67AD-46E7-99FD-F4242A9A4A92}"/>
+    <hyperlink ref="E23" r:id="rId47" xr:uid="{3111E954-4C5D-4DF9-AAC3-8A3B24E67B30}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBCCE70-8886-44A0-B994-06CEF8321F97}">
   <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11539,7 +13978,7 @@
       </c>
       <c r="AJ1" s="15"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36">
       <c r="A2" s="15" t="s">
         <v>672</v>
       </c>
@@ -11602,7 +14041,7 @@
       <c r="Z2" s="27" t="s">
         <v>682</v>
       </c>
-      <c r="AA2" s="46">
+      <c r="AA2" s="43">
         <v>31547</v>
       </c>
       <c r="AB2" s="15">
@@ -11623,7 +14062,7 @@
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36">
       <c r="A3" s="15" t="s">
         <v>683</v>
       </c>
@@ -11700,7 +14139,7 @@
       <c r="Z3" s="27" t="s">
         <v>682</v>
       </c>
-      <c r="AA3" s="46">
+      <c r="AA3" s="43">
         <v>35026</v>
       </c>
       <c r="AB3" s="15">
@@ -11729,7 +14168,7 @@
       </c>
       <c r="AJ3" s="15"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36">
       <c r="A4" s="15" t="s">
         <v>688</v>
       </c>
@@ -11806,7 +14245,7 @@
       <c r="Z4" s="27" t="s">
         <v>682</v>
       </c>
-      <c r="AA4" s="46">
+      <c r="AA4" s="43">
         <v>35025</v>
       </c>
       <c r="AB4" s="15">
@@ -11835,7 +14274,7 @@
       </c>
       <c r="AJ4" s="15"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -11904,7 +14343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B5757B-1D64-4665-A795-38990E29E9FE}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -11912,7 +14351,7 @@
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
@@ -11932,7 +14371,7 @@
     <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -11983,7 +14422,7 @@
       </c>
       <c r="Q1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="30">
       <c r="A2" s="28" t="s">
         <v>445</v>
       </c>
@@ -12030,7 +14469,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="28" t="s">
         <v>445</v>
       </c>
@@ -12068,7 +14507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="28" t="s">
         <v>450</v>
       </c>
@@ -12109,7 +14548,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="28" t="s">
         <v>450</v>
       </c>
@@ -12147,7 +14586,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="28" t="s">
         <v>450</v>
       </c>
@@ -12185,7 +14624,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="28" t="s">
         <v>450</v>
       </c>
@@ -12243,7 +14682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C521355-FD3D-4E65-938C-9AA1EB49CB44}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -12251,7 +14690,7 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -12272,7 +14711,7 @@
     <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -12331,7 +14770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="28" t="s">
         <v>461</v>
       </c>
@@ -12384,7 +14823,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="45">
       <c r="A3" s="28" t="s">
         <v>503</v>
       </c>
@@ -12439,7 +14878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFB9E42-5696-4F0E-9E81-9692429FA356}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
@@ -12447,7 +14886,7 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -12473,7 +14912,7 @@
     <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12565,7 +15004,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="24" t="s">
         <v>509</v>
       </c>
@@ -12648,7 +15087,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="24" t="s">
         <v>520</v>
       </c>
@@ -12671,7 +15110,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="24" t="s">
         <v>522</v>
       </c>
@@ -12715,7 +15154,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="24" t="s">
         <v>551</v>
       </c>
@@ -12751,7 +15190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
   <dimension ref="A1:R16"/>
   <sheetViews>
@@ -12759,7 +15198,7 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
@@ -12781,7 +15220,7 @@
     <col min="18" max="18" width="81.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12837,7 +15276,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -12879,7 +15318,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="26.25">
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
@@ -12913,7 +15352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="26.25">
       <c r="A4" s="2" t="s">
         <v>132</v>
       </c>
@@ -12947,7 +15386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="26.25">
       <c r="A5" s="2" t="s">
         <v>132</v>
       </c>
@@ -12983,7 +15422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="26.25">
       <c r="A6" s="2" t="s">
         <v>132</v>
       </c>
@@ -13019,7 +15458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
         <v>143</v>
       </c>
@@ -13051,7 +15490,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
         <v>145</v>
       </c>
@@ -13089,7 +15528,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
         <v>145</v>
       </c>
@@ -13125,7 +15564,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
         <v>145</v>
       </c>
@@ -13161,7 +15600,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
         <v>145</v>
       </c>
@@ -13197,7 +15636,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
         <v>145</v>
       </c>
@@ -13233,7 +15672,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
         <v>145</v>
       </c>
@@ -13269,7 +15708,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
         <v>145</v>
       </c>
@@ -13305,7 +15744,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="24" t="s">
         <v>484</v>
       </c>
@@ -13331,7 +15770,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="24" t="s">
         <v>484</v>
       </c>
@@ -13371,787 +15810,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C474AF-1560-47F8-90E0-FD2FFD96A555}">
-  <dimension ref="A1:Z14"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" customWidth="1"/>
-    <col min="20" max="20" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="35.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2">
-        <v>123456</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2">
-        <v>123456</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2">
-        <v>123456</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2">
-        <v>123456</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2">
-        <v>123456</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
-        <v>123456</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2">
-        <v>112121</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2">
-        <v>123456</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2">
-        <v>123456</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z14" s="15"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" display="mailto:Admin@123" xr:uid="{F500828E-E5E6-45FB-AB96-AD5DB4DA6009}"/>
-    <hyperlink ref="S2" r:id="rId2" display="mailto:Admin@123" xr:uid="{D2130272-C6F7-4775-89B3-650BC3E3540C}"/>
-    <hyperlink ref="D5" r:id="rId3" display="mailto:addhhf@gmail.com" xr:uid="{5D36A2E3-71E4-4F7C-8037-CAC5CF605DF3}"/>
-    <hyperlink ref="R7" r:id="rId4" display="mailto:Admin@123" xr:uid="{6E7CB388-0108-48D3-A71F-BE3441718AEC}"/>
-    <hyperlink ref="R8" r:id="rId5" display="mailto:Admin@123" xr:uid="{B1E8FE67-6CF2-42E6-A5FB-D17A64C509E5}"/>
-    <hyperlink ref="S8" r:id="rId6" display="mailto:Admin@143" xr:uid="{D0094D76-4028-4056-8CBD-42948F77C50F}"/>
-    <hyperlink ref="R9" r:id="rId7" display="mailto:Admin@" xr:uid="{C5E65C9D-1A5A-4910-87B4-20213E88CC3B}"/>
-    <hyperlink ref="R14" r:id="rId8" display="mailto:Admin@123" xr:uid="{8E977B3E-C74A-4F33-864B-691DB184C49A}"/>
-    <hyperlink ref="S14" r:id="rId9" display="mailto:Admin@123" xr:uid="{E2E5A99A-0C13-4B90-9671-9826AF55810C}"/>
-    <hyperlink ref="D2" r:id="rId10" xr:uid="{CA105243-6A12-42D1-9F94-EB97EF784AF1}"/>
-    <hyperlink ref="D6" r:id="rId11" xr:uid="{2A3AD066-07FA-49D2-890C-BE9868C3A5C7}"/>
-    <hyperlink ref="D7:D14" r:id="rId12" display="Santoshp@ideyalabs.com" xr:uid="{825E4587-EEF3-49C5-A0DC-7C972BBF1E33}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
-</worksheet>
 </file>
--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\101222_Web\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991A89D2-4E65-4C81-BE8A-68DD7B453F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7389C3B-2398-4970-8D6E-003E5895A892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="723">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2250,6 +2250,9 @@
   <si>
     <t>select count(*) from "transaction" t where created_by ='111' and txn_type =12 and
 txn_sub_type = 9 and created_at between '2022-07-16 00:00:00' and '2022-08-16 00:00:00'</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -12331,8 +12334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F404E78-86F3-4010-B1D5-D6F63F40004D}">
   <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12960,6 +12963,9 @@
       </c>
       <c r="K9" s="40" t="s">
         <v>33</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>722</v>
       </c>
       <c r="AC9" t="s">
         <v>72</v>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\2022\101222_Web\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Admin-Profile\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7389C3B-2398-4970-8D6E-003E5895A892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C601D010-50BA-464A-BC09-6E795C2BB2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="697">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1911,100 +1911,22 @@
     <t>Verify Individual Token Account Test Transactions Sent Details List</t>
   </si>
   <si>
-    <t>select count(*) from transaction t where created_by ='111' and txn_type =12 and</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 8 and created_at between '2022-08-14 00:00:00' and '2022-08-16 00:00:00'</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 8 and created_at between '2022-08-13 00:00:00' and '2022-08-15 00:00:00'</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 8 and created_at between '2022-08-09 00:00:00' and '2022-08-16 00:00:00'</t>
-  </si>
-  <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =12 and</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 8 and created_at between '2022-08-01 00:00:00' and '2022-08-16 00:00:00'</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 8 and created_at between '2022-07-16 00:00:00' and '2022-08-16 00:00:00'</t>
-  </si>
-  <si>
     <t>Tokens Sent Transactions</t>
   </si>
   <si>
     <t>Verify Individual Token Account Test Transactions Purchased Details List</t>
   </si>
   <si>
-    <t>select count(*) from transaction t where created_by ='111' and txn_type =2 and</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 3 and created_at between '2022-08-14 00:00:00' and '2022-08-16 00:00:00'</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 3 and created_at between '2022-08-13 00:00:00' and '2022-08-15 00:00:00'</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 3 and created_at between '2022-08-09 00:00:00' and '2022-08-16 00:00:00'</t>
-  </si>
-  <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =2 and</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 3 and created_at between '2022-08-01 00:00:00' and '2022-08-16 00:00:00'</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 3 and created_at between '2022-07-16 00:00:00' and '2022-08-16 00:00:00'</t>
-  </si>
-  <si>
     <t>Tokens Purchased Transactions</t>
   </si>
   <si>
     <t>Verify Individual Token Account Test Transactions Withdraw Details List</t>
   </si>
   <si>
-    <t>select count(*) from transaction t where created_by ='111' and txn_type =3 and</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 1 and created_at between '2022-08-14 00:00:00' and '2022-08-16 00:00:00'</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 1 and created_at between '2022-08-13 00:00:00' and '2022-08-15 00:00:00'</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 1 and created_at between '2022-08-09 00:00:00' and '2022-08-16 00:00:00'</t>
-  </si>
-  <si>
-    <t>select count(*) from "transaction" t where created_by ='111' and txn_type =3 and</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 1 and created_at between '2022-08-01 00:00:00' and '2022-08-16 00:00:00'</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 1 and created_at between '2022-07-16 00:00:00' and '2022-08-16 00:00:00'</t>
-  </si>
-  <si>
     <t>Tokens Withdrawn Transactions</t>
   </si>
   <si>
     <t>Verify Individual Token Account Test Transactions Recieve Details List</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 9 and created_at between '2022-08-14 00:00:00' and '2022-08-16 00:00:00'</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 9 and created_at between '2022-08-13 00:00:00' and '2022-08-15 00:00:00'</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 9 and created_at between '2022-08-09 00:00:00' and '2022-08-16 00:00:00'</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 9 and created_at between '2022-08-01 00:00:00' and '2022-08-16 00:00:00'</t>
-  </si>
-  <si>
-    <t>txn_sub_type = 9 and created_at between '2022-07-16 00:00:00' and '2022-08-16 00:00:00'</t>
   </si>
   <si>
     <t>Tokens Received Transactions</t>
@@ -2252,14 +2174,14 @@
 txn_sub_type = 9 and created_at between '2022-07-16 00:00:00' and '2022-08-16 00:00:00'</t>
   </si>
   <si>
-    <t>s</t>
+    <t>2345661212</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2448,7 +2370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2508,23 +2430,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2808,11 +2715,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB40DDF-741D-4E62-9E3A-43C63EE95C74}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
@@ -2833,7 +2740,7 @@
     <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2904,7 +2811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="64.5">
+    <row r="2" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -2959,7 +2866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="64.5">
+    <row r="3" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -3008,7 +2915,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="64.5">
+    <row r="4" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -3057,7 +2964,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="64.5">
+    <row r="5" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -3095,7 +3002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="64.5">
+    <row r="6" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -3133,7 +3040,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>47</v>
       </c>
@@ -3184,7 +3091,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>52</v>
       </c>
@@ -3235,7 +3142,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -3286,7 +3193,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>56</v>
       </c>
@@ -3337,7 +3244,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -3388,7 +3295,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -3426,7 +3333,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>63</v>
       </c>
@@ -3464,7 +3371,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>66</v>
       </c>
@@ -3502,7 +3409,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>66</v>
       </c>
@@ -3540,7 +3447,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
@@ -3578,7 +3485,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
@@ -3616,7 +3523,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -3654,7 +3561,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>498</v>
       </c>
@@ -3743,7 +3650,7 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
@@ -3764,7 +3671,7 @@
     <col min="26" max="26" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3844,7 +3751,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="51.75">
+    <row r="2" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>181</v>
       </c>
@@ -3904,7 +3811,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>188</v>
       </c>
@@ -3948,7 +3855,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>188</v>
       </c>
@@ -3994,7 +3901,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>188</v>
       </c>
@@ -4046,7 +3953,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>188</v>
       </c>
@@ -4098,7 +4005,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>188</v>
       </c>
@@ -4152,7 +4059,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>188</v>
       </c>
@@ -4208,7 +4115,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>188</v>
       </c>
@@ -4262,7 +4169,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>188</v>
       </c>
@@ -4316,7 +4223,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>209</v>
       </c>
@@ -4360,7 +4267,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>209</v>
       </c>
@@ -4402,7 +4309,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>213</v>
       </c>
@@ -4446,7 +4353,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>215</v>
       </c>
@@ -4526,7 +4433,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -4543,7 +4450,7 @@
     <col min="14" max="14" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4587,7 +4494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>555</v>
       </c>
@@ -4625,7 +4532,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>557</v>
       </c>
@@ -4663,7 +4570,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>561</v>
       </c>
@@ -4724,7 +4631,7 @@
       <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
@@ -4744,7 +4651,7 @@
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4833,7 +4740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.5">
+    <row r="2" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>228</v>
       </c>
@@ -4904,7 +4811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.5">
+    <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>228</v>
       </c>
@@ -4979,7 +4886,7 @@
       </c>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>239</v>
       </c>
@@ -5052,7 +4959,7 @@
       </c>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" ht="16.5">
+    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>239</v>
       </c>
@@ -5129,7 +5036,7 @@
       </c>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" ht="39">
+    <row r="6" spans="1:29" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>239</v>
       </c>
@@ -5206,7 +5113,7 @@
       </c>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="16.5">
+    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>239</v>
       </c>
@@ -5281,7 +5188,7 @@
       </c>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="1:29" ht="16.5">
+    <row r="8" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>239</v>
       </c>
@@ -5356,7 +5263,7 @@
       </c>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" ht="16.5">
+    <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>239</v>
       </c>
@@ -5431,7 +5338,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" ht="16.5">
+    <row r="10" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>258</v>
       </c>
@@ -5508,7 +5415,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="16.5">
+    <row r="11" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>258</v>
       </c>
@@ -5585,7 +5492,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="16.5">
+    <row r="12" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>258</v>
       </c>
@@ -5662,7 +5569,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="16.5">
+    <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>260</v>
       </c>
@@ -5733,7 +5640,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:29" ht="16.5">
+    <row r="14" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>260</v>
       </c>
@@ -5798,7 +5705,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" ht="16.5">
+    <row r="15" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>264</v>
       </c>
@@ -5888,7 +5795,7 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
@@ -5917,7 +5824,7 @@
     <col min="29" max="29" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6006,7 +5913,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="47.25" customHeight="1">
+    <row r="2" spans="1:29" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>277</v>
       </c>
@@ -6084,7 +5991,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>392</v>
       </c>
@@ -6128,7 +6035,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>392</v>
       </c>
@@ -6170,7 +6077,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45">
+    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>287</v>
       </c>
@@ -6227,7 +6134,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45">
+    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>290</v>
       </c>
@@ -6292,7 +6199,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45">
+    <row r="7" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>290</v>
       </c>
@@ -6358,7 +6265,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45">
+    <row r="8" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>290</v>
       </c>
@@ -6424,7 +6331,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45">
+    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>290</v>
       </c>
@@ -6490,7 +6397,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="45">
+    <row r="10" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>290</v>
       </c>
@@ -6590,7 +6497,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -6613,7 +6520,7 @@
     <col min="19" max="19" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6673,7 +6580,7 @@
       </c>
       <c r="T1" s="15"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>129</v>
       </c>
@@ -6715,7 +6622,7 @@
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>299</v>
       </c>
@@ -6761,7 +6668,7 @@
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>302</v>
       </c>
@@ -6805,7 +6712,7 @@
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>304</v>
       </c>
@@ -6849,7 +6756,7 @@
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>306</v>
       </c>
@@ -6893,7 +6800,7 @@
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>308</v>
       </c>
@@ -6939,7 +6846,7 @@
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>590</v>
       </c>
@@ -6989,7 +6896,7 @@
       </c>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>592</v>
       </c>
@@ -7039,7 +6946,7 @@
       </c>
       <c r="T9" s="15"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -7075,7 +6982,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
@@ -7104,7 +7011,7 @@
     <col min="29" max="29" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7194,7 +7101,7 @@
       </c>
       <c r="AD1" s="15"/>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>315</v>
       </c>
@@ -7254,7 +7161,7 @@
       <c r="AC2" s="15"/>
       <c r="AD2" s="15"/>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>320</v>
       </c>
@@ -7314,7 +7221,7 @@
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>322</v>
       </c>
@@ -7376,7 +7283,7 @@
       <c r="AC4" s="15"/>
       <c r="AD4" s="15"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>325</v>
       </c>
@@ -7438,7 +7345,7 @@
       <c r="AC5" s="15"/>
       <c r="AD5" s="15"/>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>328</v>
       </c>
@@ -7502,7 +7409,7 @@
       <c r="AC6" s="15"/>
       <c r="AD6" s="15"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>332</v>
       </c>
@@ -7564,7 +7471,7 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>469</v>
       </c>
@@ -7636,7 +7543,7 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>495</v>
       </c>
@@ -7692,7 +7599,7 @@
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>500</v>
       </c>
@@ -7748,7 +7655,7 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>583</v>
       </c>
@@ -7804,7 +7711,7 @@
       </c>
       <c r="AD11" s="15"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -7871,7 +7778,7 @@
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
@@ -7890,7 +7797,7 @@
     <col min="15" max="15" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -7937,7 +7844,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>376</v>
       </c>
@@ -7975,7 +7882,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>377</v>
       </c>
@@ -8010,7 +7917,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>378</v>
       </c>
@@ -8045,7 +7952,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>374</v>
       </c>
@@ -8080,7 +7987,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>375</v>
       </c>
@@ -8131,7 +8038,7 @@
       <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -8159,7 +8066,7 @@
     <col min="25" max="25" width="105.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8236,7 +8143,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>336</v>
       </c>
@@ -8291,7 +8198,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>337</v>
       </c>
@@ -8343,7 +8250,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="15"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>338</v>
       </c>
@@ -8395,7 +8302,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="15"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>339</v>
       </c>
@@ -8447,7 +8354,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="15"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>340</v>
       </c>
@@ -8499,7 +8406,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="15"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>341</v>
       </c>
@@ -8559,7 +8466,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="15"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>344</v>
       </c>
@@ -8613,7 +8520,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="15"/>
     </row>
-    <row r="9" spans="1:25" ht="102.75">
+    <row r="9" spans="1:25" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>346</v>
       </c>
@@ -8665,7 +8572,7 @@
       </c>
       <c r="X9" s="15"/>
     </row>
-    <row r="10" spans="1:25" ht="409.5">
+    <row r="10" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>466</v>
       </c>
@@ -8748,7 +8655,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -8765,7 +8672,7 @@
     <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8807,7 +8714,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>350</v>
       </c>
@@ -8861,7 +8768,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -8881,7 +8788,7 @@
     <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8937,7 +8844,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="74.25" customHeight="1">
+    <row r="2" spans="1:18" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>573</v>
       </c>
@@ -8982,7 +8889,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>357</v>
       </c>
@@ -9021,7 +8928,7 @@
       <c r="Q3" s="33"/>
       <c r="R3" s="32"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>359</v>
       </c>
@@ -9062,7 +8969,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>359</v>
       </c>
@@ -9106,7 +9013,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>359</v>
       </c>
@@ -9150,7 +9057,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>359</v>
       </c>
@@ -9208,7 +9115,7 @@
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -9220,7 +9127,7 @@
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9289,7 +9196,7 @@
       </c>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -9358,7 +9265,7 @@
       </c>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>94</v>
       </c>
@@ -9427,7 +9334,7 @@
       </c>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>98</v>
       </c>
@@ -9496,7 +9403,7 @@
       </c>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>103</v>
       </c>
@@ -9565,7 +9472,7 @@
       </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -9634,7 +9541,7 @@
       </c>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>116</v>
       </c>
@@ -9703,7 +9610,7 @@
       </c>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>118</v>
       </c>
@@ -9791,7 +9698,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -9808,7 +9715,7 @@
     <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9854,7 +9761,7 @@
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
     </row>
-    <row r="2" spans="1:16" ht="114.75">
+    <row r="2" spans="1:16" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>577</v>
       </c>
@@ -9896,7 +9803,7 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>579</v>
       </c>
@@ -9938,7 +9845,7 @@
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>580</v>
       </c>
@@ -9982,7 +9889,7 @@
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -10000,7 +9907,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -10033,13 +9940,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3A334-050A-4737-9B01-1B13EAAB8BDD}">
-  <dimension ref="A1:AY26"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AN9" sqref="AN9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -10077,19 +9984,10 @@
     <col min="35" max="35" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="28.42578125" customWidth="1"/>
-    <col min="41" max="41" width="26.42578125" customWidth="1"/>
-    <col min="42" max="42" width="23.42578125" customWidth="1"/>
-    <col min="43" max="43" width="21" customWidth="1"/>
-    <col min="44" max="44" width="27.140625" customWidth="1"/>
-    <col min="45" max="45" width="23.7109375" customWidth="1"/>
-    <col min="48" max="48" width="18.42578125" customWidth="1"/>
-    <col min="49" max="49" width="12.85546875" customWidth="1"/>
-    <col min="50" max="50" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10202,46 +10100,10 @@
         <v>430</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="AX1" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>395</v>
       </c>
@@ -10296,11 +10158,11 @@
       <c r="R2" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="S2" s="2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2">
-        <v>1</v>
+      <c r="S2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>410</v>
@@ -10312,7 +10174,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>414</v>
       </c>
@@ -10364,11 +10226,11 @@
       <c r="AB3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AL3" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>416</v>
       </c>
@@ -10403,7 +10265,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>431</v>
       </c>
@@ -10453,7 +10315,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>436</v>
       </c>
@@ -10512,7 +10374,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>439</v>
       </c>
@@ -10574,1712 +10436,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="105">
-      <c r="A8" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="39" t="s">
-        <v>610</v>
-      </c>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="39"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="AT8" s="15">
-        <v>260</v>
-      </c>
-      <c r="AU8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="AV8" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="AW8" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="AX8" s="15"/>
-      <c r="AY8" s="15"/>
-    </row>
-    <row r="9" spans="1:51" ht="60">
-      <c r="A9" s="45" t="s">
-        <v>614</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>614</v>
-      </c>
-      <c r="C9" s="48">
-        <v>1</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="48">
-        <v>123456</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="46"/>
-      <c r="AN9" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="AO9" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="AP9" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="AQ9" s="39" t="s">
-        <v>619</v>
-      </c>
-      <c r="AR9" s="39" t="s">
-        <v>619</v>
-      </c>
-      <c r="AS9" s="45" t="s">
-        <v>622</v>
-      </c>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="44"/>
-      <c r="AV9" s="44"/>
-      <c r="AW9" s="44"/>
-      <c r="AX9" s="45"/>
-      <c r="AY9" s="45"/>
-    </row>
-    <row r="10" spans="1:51" ht="75">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="47"/>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="46"/>
-      <c r="AN10" s="39" t="s">
-        <v>616</v>
-      </c>
-      <c r="AO10" s="39" t="s">
-        <v>617</v>
-      </c>
-      <c r="AP10" s="39" t="s">
-        <v>618</v>
-      </c>
-      <c r="AQ10" s="39" t="s">
-        <v>620</v>
-      </c>
-      <c r="AR10" s="39" t="s">
-        <v>621</v>
-      </c>
-      <c r="AS10" s="45"/>
-      <c r="AT10" s="45"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="45"/>
-      <c r="AY10" s="45"/>
-    </row>
-    <row r="11" spans="1:51" ht="60">
-      <c r="A11" s="45" t="s">
-        <v>623</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>623</v>
-      </c>
-      <c r="C11" s="48">
-        <v>1</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="48">
-        <v>123456</v>
-      </c>
-      <c r="K11" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="46"/>
-      <c r="AN11" s="39" t="s">
-        <v>624</v>
-      </c>
-      <c r="AO11" s="39" t="s">
-        <v>624</v>
-      </c>
-      <c r="AP11" s="39" t="s">
-        <v>624</v>
-      </c>
-      <c r="AQ11" s="39" t="s">
-        <v>628</v>
-      </c>
-      <c r="AR11" s="39" t="s">
-        <v>628</v>
-      </c>
-      <c r="AS11" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="44"/>
-      <c r="AV11" s="44"/>
-      <c r="AW11" s="44"/>
-      <c r="AX11" s="45"/>
-      <c r="AY11" s="45"/>
-    </row>
-    <row r="12" spans="1:51" ht="75">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="39" t="s">
-        <v>625</v>
-      </c>
-      <c r="AO12" s="39" t="s">
-        <v>626</v>
-      </c>
-      <c r="AP12" s="39" t="s">
-        <v>627</v>
-      </c>
-      <c r="AQ12" s="39" t="s">
-        <v>629</v>
-      </c>
-      <c r="AR12" s="39" t="s">
-        <v>630</v>
-      </c>
-      <c r="AS12" s="45"/>
-      <c r="AT12" s="45"/>
-      <c r="AU12" s="44"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-    </row>
-    <row r="13" spans="1:51" ht="60">
-      <c r="A13" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="C13" s="48">
-        <v>1</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="48">
-        <v>123456</v>
-      </c>
-      <c r="K13" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="45"/>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="46"/>
-      <c r="AN13" s="39" t="s">
-        <v>633</v>
-      </c>
-      <c r="AO13" s="39" t="s">
-        <v>633</v>
-      </c>
-      <c r="AP13" s="39" t="s">
-        <v>633</v>
-      </c>
-      <c r="AQ13" s="39" t="s">
-        <v>637</v>
-      </c>
-      <c r="AR13" s="39" t="s">
-        <v>637</v>
-      </c>
-      <c r="AS13" s="45" t="s">
-        <v>640</v>
-      </c>
-      <c r="AT13" s="45"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="44"/>
-      <c r="AX13" s="45"/>
-      <c r="AY13" s="45"/>
-    </row>
-    <row r="14" spans="1:51" ht="75">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="45"/>
-      <c r="AK14" s="45"/>
-      <c r="AL14" s="45"/>
-      <c r="AM14" s="46"/>
-      <c r="AN14" s="39" t="s">
-        <v>634</v>
-      </c>
-      <c r="AO14" s="39" t="s">
-        <v>635</v>
-      </c>
-      <c r="AP14" s="39" t="s">
-        <v>636</v>
-      </c>
-      <c r="AQ14" s="39" t="s">
-        <v>638</v>
-      </c>
-      <c r="AR14" s="39" t="s">
-        <v>639</v>
-      </c>
-      <c r="AS14" s="45"/>
-      <c r="AT14" s="45"/>
-      <c r="AU14" s="44"/>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="45"/>
-      <c r="AY14" s="45"/>
-    </row>
-    <row r="15" spans="1:51" ht="60">
-      <c r="A15" s="45" t="s">
-        <v>641</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>641</v>
-      </c>
-      <c r="C15" s="48">
-        <v>1</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="48">
-        <v>123456</v>
-      </c>
-      <c r="K15" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD15" s="45"/>
-      <c r="AE15" s="45" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="45"/>
-      <c r="AJ15" s="45"/>
-      <c r="AK15" s="45"/>
-      <c r="AL15" s="45"/>
-      <c r="AM15" s="46"/>
-      <c r="AN15" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="AO15" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="AP15" s="39" t="s">
-        <v>615</v>
-      </c>
-      <c r="AQ15" s="39" t="s">
-        <v>619</v>
-      </c>
-      <c r="AR15" s="39" t="s">
-        <v>619</v>
-      </c>
-      <c r="AS15" s="45" t="s">
-        <v>647</v>
-      </c>
-      <c r="AT15" s="45"/>
-      <c r="AU15" s="44"/>
-      <c r="AV15" s="44"/>
-      <c r="AW15" s="44"/>
-      <c r="AX15" s="45"/>
-      <c r="AY15" s="45"/>
-    </row>
-    <row r="16" spans="1:51" ht="75">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="47"/>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="45"/>
-      <c r="AK16" s="45"/>
-      <c r="AL16" s="45"/>
-      <c r="AM16" s="46"/>
-      <c r="AN16" s="39" t="s">
-        <v>642</v>
-      </c>
-      <c r="AO16" s="39" t="s">
-        <v>643</v>
-      </c>
-      <c r="AP16" s="39" t="s">
-        <v>644</v>
-      </c>
-      <c r="AQ16" s="39" t="s">
-        <v>645</v>
-      </c>
-      <c r="AR16" s="39" t="s">
-        <v>646</v>
-      </c>
-      <c r="AS16" s="45"/>
-      <c r="AT16" s="45"/>
-      <c r="AU16" s="44"/>
-      <c r="AV16" s="44"/>
-      <c r="AW16" s="44"/>
-      <c r="AX16" s="45"/>
-      <c r="AY16" s="45"/>
-    </row>
-    <row r="17" spans="1:51">
-      <c r="A17" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="15"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="AT17" s="15"/>
-      <c r="AU17" s="16"/>
-      <c r="AV17" s="16"/>
-      <c r="AW17" s="16"/>
-      <c r="AX17" s="15"/>
-      <c r="AY17" s="15"/>
-    </row>
-    <row r="18" spans="1:51">
-      <c r="A18" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="39"/>
-      <c r="AS18" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="AT18" s="15"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="16"/>
-      <c r="AW18" s="16"/>
-      <c r="AX18" s="15"/>
-      <c r="AY18" s="15"/>
-    </row>
-    <row r="19" spans="1:51">
-      <c r="A19" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="39"/>
-      <c r="AN19" s="39"/>
-      <c r="AO19" s="39"/>
-      <c r="AP19" s="39"/>
-      <c r="AQ19" s="39"/>
-      <c r="AR19" s="39"/>
-      <c r="AS19" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="AT19" s="15"/>
-      <c r="AU19" s="16"/>
-      <c r="AV19" s="16"/>
-      <c r="AW19" s="16"/>
-      <c r="AX19" s="15"/>
-      <c r="AY19" s="15"/>
-    </row>
-    <row r="20" spans="1:51">
-      <c r="A20" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="39"/>
-      <c r="AN20" s="39"/>
-      <c r="AO20" s="39"/>
-      <c r="AP20" s="39"/>
-      <c r="AQ20" s="39"/>
-      <c r="AR20" s="39"/>
-      <c r="AS20" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="AT20" s="15"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="16"/>
-      <c r="AW20" s="16"/>
-      <c r="AX20" s="15"/>
-      <c r="AY20" s="15"/>
-    </row>
-    <row r="21" spans="1:51">
-      <c r="A21" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="39"/>
-      <c r="AP21" s="39"/>
-      <c r="AQ21" s="39"/>
-      <c r="AR21" s="39"/>
-      <c r="AS21" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="AT21" s="15"/>
-      <c r="AU21" s="16"/>
-      <c r="AV21" s="16"/>
-      <c r="AW21" s="16"/>
-      <c r="AX21" s="15"/>
-      <c r="AY21" s="15"/>
-    </row>
-    <row r="22" spans="1:51">
-      <c r="A22" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
-      <c r="AM22" s="39"/>
-      <c r="AN22" s="39"/>
-      <c r="AO22" s="39"/>
-      <c r="AP22" s="39"/>
-      <c r="AQ22" s="39"/>
-      <c r="AR22" s="39"/>
-      <c r="AS22" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="AT22" s="15"/>
-      <c r="AU22" s="16"/>
-      <c r="AV22" s="16"/>
-      <c r="AW22" s="16"/>
-      <c r="AX22" s="15"/>
-      <c r="AY22" s="15"/>
-    </row>
-    <row r="23" spans="1:51">
-      <c r="A23" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="15"/>
-      <c r="AL23" s="15"/>
-      <c r="AM23" s="39"/>
-      <c r="AN23" s="39"/>
-      <c r="AO23" s="39"/>
-      <c r="AP23" s="39"/>
-      <c r="AQ23" s="39"/>
-      <c r="AR23" s="39"/>
-      <c r="AS23" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="AT23" s="15"/>
-      <c r="AU23" s="16"/>
-      <c r="AV23" s="16"/>
-      <c r="AW23" s="16"/>
-      <c r="AX23" s="15"/>
-      <c r="AY23" s="15"/>
-    </row>
-    <row r="24" spans="1:51">
-      <c r="A24" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="15"/>
-      <c r="AM24" s="39"/>
-      <c r="AN24" s="39"/>
-      <c r="AO24" s="39"/>
-      <c r="AP24" s="39"/>
-      <c r="AQ24" s="39"/>
-      <c r="AR24" s="39"/>
-      <c r="AS24" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="AT24" s="15"/>
-      <c r="AU24" s="16"/>
-      <c r="AV24" s="16"/>
-      <c r="AW24" s="16"/>
-      <c r="AX24" s="15"/>
-      <c r="AY24" s="15"/>
-    </row>
-    <row r="25" spans="1:51">
-      <c r="A25" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="15"/>
-      <c r="AL25" s="15"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39"/>
-      <c r="AP25" s="39"/>
-      <c r="AQ25" s="39"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="AT25" s="15"/>
-      <c r="AU25" s="16"/>
-      <c r="AV25" s="16"/>
-      <c r="AW25" s="16"/>
-      <c r="AX25" s="15">
-        <v>192</v>
-      </c>
-      <c r="AY25" s="15"/>
-    </row>
-    <row r="26" spans="1:51">
-      <c r="A26" s="15" t="s">
-        <v>657</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>657</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15" t="s">
-        <v>658</v>
-      </c>
-      <c r="AE26" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="15"/>
-      <c r="AL26" s="15"/>
-      <c r="AM26" s="39"/>
-      <c r="AN26" s="39"/>
-      <c r="AO26" s="39"/>
-      <c r="AP26" s="39"/>
-      <c r="AQ26" s="39"/>
-      <c r="AR26" s="39"/>
-      <c r="AS26" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="AT26" s="15"/>
-      <c r="AU26" s="16"/>
-      <c r="AV26" s="16"/>
-      <c r="AW26" s="16"/>
-      <c r="AX26" s="15"/>
-      <c r="AY26" s="15"/>
-    </row>
   </sheetData>
-  <mergeCells count="184">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="AV9:AV10"/>
-    <mergeCell ref="AW9:AW10"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="AY9:AY10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AT9:AT10"/>
-    <mergeCell ref="AU9:AU10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="AI11:AI12"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="AV11:AV12"/>
-    <mergeCell ref="AW11:AW12"/>
-    <mergeCell ref="AX11:AX12"/>
-    <mergeCell ref="AY11:AY12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="AS11:AS12"/>
-    <mergeCell ref="AT11:AT12"/>
-    <mergeCell ref="AU11:AU12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AG11:AG12"/>
-    <mergeCell ref="AH11:AH12"/>
-    <mergeCell ref="AY13:AY14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="AS13:AS14"/>
-    <mergeCell ref="AT13:AT14"/>
-    <mergeCell ref="AU13:AU14"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="AV13:AV14"/>
-    <mergeCell ref="AW13:AW14"/>
-    <mergeCell ref="AX13:AX14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="AI15:AI16"/>
-    <mergeCell ref="AJ15:AJ16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AV15:AV16"/>
-    <mergeCell ref="AW15:AW16"/>
-    <mergeCell ref="AX15:AX16"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="AK15:AK16"/>
-    <mergeCell ref="AL15:AL16"/>
-    <mergeCell ref="AM15:AM16"/>
-    <mergeCell ref="AS15:AS16"/>
-    <mergeCell ref="AT15:AT16"/>
-    <mergeCell ref="AU15:AU16"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{4AE398B1-A8DD-4AAF-9C2F-0AFB3695F2EA}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{8EFE2F55-CB6C-4C6C-B674-A1678B5F9C97}"/>
@@ -12294,51 +10451,21 @@
     <hyperlink ref="E6" r:id="rId11" xr:uid="{8F2DF61D-1340-47C7-A580-463CCD2FE8DD}"/>
     <hyperlink ref="D7" r:id="rId12" xr:uid="{AB716087-C345-4325-BFA7-23C9C1FE83EB}"/>
     <hyperlink ref="E7" r:id="rId13" xr:uid="{E35B4D54-50AC-4384-93D1-E2D22159B4E4}"/>
-    <hyperlink ref="D8" r:id="rId14" display="mailto:santoshp@ideyalabs.com" xr:uid="{30206500-BED9-4CA8-9A14-BD12B0B7E3B8}"/>
-    <hyperlink ref="E8" r:id="rId15" display="mailto:Admin@123" xr:uid="{ACD2A16E-94C8-4186-9FAB-6FD71D6D5439}"/>
-    <hyperlink ref="D9" r:id="rId16" display="mailto:santoshp@ideyalabs.com" xr:uid="{B1929C29-1456-4963-A7D8-60F746D067F4}"/>
-    <hyperlink ref="E9" r:id="rId17" display="mailto:Admin@123" xr:uid="{91A4F1F5-A850-4ACF-AF7C-0853B1239A80}"/>
-    <hyperlink ref="D11" r:id="rId18" display="mailto:santoshp@ideyalabs.com" xr:uid="{7ACD8C18-1121-436C-A060-7E0C9E7D867E}"/>
-    <hyperlink ref="E11" r:id="rId19" display="mailto:Admin@123" xr:uid="{1D9E68EA-4163-4D61-B79F-D50908648ADD}"/>
-    <hyperlink ref="D13" r:id="rId20" display="mailto:santoshp@ideyalabs.com" xr:uid="{59146F99-A6BE-4A26-829F-9DF60B0F7380}"/>
-    <hyperlink ref="E13" r:id="rId21" display="mailto:Admin@123" xr:uid="{1D460765-9FB7-4567-9146-0B1AF590206D}"/>
-    <hyperlink ref="D15" r:id="rId22" display="mailto:santoshp@ideyalabs.com" xr:uid="{F1D2438F-281C-491D-992A-31C6BADFAAA8}"/>
-    <hyperlink ref="E15" r:id="rId23" display="mailto:Admin@123" xr:uid="{72C13A36-C244-4191-A683-3655C6095CC5}"/>
-    <hyperlink ref="D17" r:id="rId24" display="mailto:santoshp@ideyalabs.com" xr:uid="{3A3BE15D-3102-479B-AE69-161FFD9625B6}"/>
-    <hyperlink ref="E17" r:id="rId25" display="mailto:Admin@123" xr:uid="{9B1F04E4-1381-4539-8107-C5C93031C40B}"/>
-    <hyperlink ref="D18" r:id="rId26" display="mailto:santoshp@ideyalabs.com" xr:uid="{8EAC3168-EED5-464A-92A8-8F700F20B3C5}"/>
-    <hyperlink ref="E18" r:id="rId27" display="mailto:Admin@123" xr:uid="{1C83410A-1A9E-4A06-9C51-962194C00418}"/>
-    <hyperlink ref="D19" r:id="rId28" display="mailto:santoshp@ideyalabs.com" xr:uid="{3421B2C6-F6FD-4342-A173-A53B9F4C6E2B}"/>
-    <hyperlink ref="E19" r:id="rId29" display="mailto:Admin@123" xr:uid="{5D41C261-9076-4627-A2C5-2F8BAB96EE3D}"/>
-    <hyperlink ref="D20" r:id="rId30" display="mailto:santoshp@ideyalabs.com" xr:uid="{5671D880-195A-4E14-AD56-3EFD243652D1}"/>
-    <hyperlink ref="E20" r:id="rId31" display="mailto:Admin@123" xr:uid="{BE56CA08-9362-47B2-A642-AF940BA167DB}"/>
-    <hyperlink ref="D21" r:id="rId32" display="mailto:santoshp@ideyalabs.com" xr:uid="{79F50813-3207-457A-9154-58E34E5D5C12}"/>
-    <hyperlink ref="E21" r:id="rId33" display="mailto:Admin@123" xr:uid="{5F2B9C9C-245E-4746-96DD-D9ED2B02BEE5}"/>
-    <hyperlink ref="D22" r:id="rId34" display="mailto:santoshp@ideyalabs.com" xr:uid="{EC6949DA-326F-4280-B557-DF8FD94C5D0B}"/>
-    <hyperlink ref="E22" r:id="rId35" display="mailto:Admin@123" xr:uid="{967EA15B-A39A-4A0B-9840-193A28F66BE6}"/>
-    <hyperlink ref="D23" r:id="rId36" display="mailto:santoshp@ideyalabs.com" xr:uid="{01FC3A9B-F7AE-45C4-9A06-166EAD070C38}"/>
-    <hyperlink ref="E23" r:id="rId37" display="mailto:Admin@123" xr:uid="{B9AED570-2150-442C-8CD5-236563C60B0B}"/>
-    <hyperlink ref="D24" r:id="rId38" display="mailto:santoshp@ideyalabs.com" xr:uid="{1C00177E-1DA4-454F-B745-6BA840AAE05D}"/>
-    <hyperlink ref="E24" r:id="rId39" display="mailto:Admin@123" xr:uid="{73A1935D-FBD9-4539-AE95-DC0287FD551F}"/>
-    <hyperlink ref="D25" r:id="rId40" display="mailto:santoshp@ideyalabs.com" xr:uid="{8D842269-932B-4F6D-92AE-756A46CE70A1}"/>
-    <hyperlink ref="E25" r:id="rId41" display="mailto:Admin@123" xr:uid="{0F3BEAF5-DDF4-4785-8924-FD8CA82BE673}"/>
-    <hyperlink ref="D26" r:id="rId42" display="mailto:santoshp@ideyalabs.com" xr:uid="{DC309509-5AEA-4B69-A218-C7773BFC722A}"/>
-    <hyperlink ref="E26" r:id="rId43" display="mailto:Admin@123" xr:uid="{BD069C64-C2ED-4707-B284-46D7B4CB45F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F404E78-86F3-4010-B1D5-D6F63F40004D}">
-  <dimension ref="A1:AX23"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.85546875" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
@@ -12350,28 +10477,22 @@
     <col min="8" max="8" width="23.42578125" customWidth="1"/>
     <col min="9" max="9" width="57.5703125" customWidth="1"/>
     <col min="11" max="11" width="23.85546875" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" customWidth="1"/>
-    <col min="13" max="13" width="28.28515625" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="25.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1"/>
-    <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="21" customWidth="1"/>
-    <col min="23" max="23" width="30.85546875" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" customWidth="1"/>
-    <col min="27" max="27" width="24.42578125" customWidth="1"/>
-    <col min="28" max="28" width="25.42578125" customWidth="1"/>
-    <col min="31" max="31" width="21.140625" customWidth="1"/>
-    <col min="39" max="44" width="42.28515625" customWidth="1"/>
-    <col min="45" max="45" width="30.140625" customWidth="1"/>
-    <col min="49" max="49" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="42.28515625" customWidth="1"/>
+    <col min="28" max="28" width="30.140625" customWidth="1"/>
+    <col min="32" max="32" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12406,124 +10527,73 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>397</v>
+        <v>663</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>222</v>
+        <v>423</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>223</v>
+        <v>424</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>219</v>
+        <v>426</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>401</v>
+        <v>429</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>430</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>402</v>
+        <v>16</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>403</v>
+        <v>602</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>17</v>
+        <v>603</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>19</v>
+        <v>604</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>334</v>
+        <v>605</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>12</v>
+        <v>606</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>422</v>
+        <v>607</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>689</v>
+        <v>13</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>423</v>
+        <v>14</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>424</v>
+        <v>15</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="AL1" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX1" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>431</v>
       </c>
@@ -12533,342 +10603,342 @@
       <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="40" t="s">
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="L2" t="s">
         <v>72</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="N2" t="s">
         <v>432</v>
       </c>
-      <c r="AF2" s="42" t="s">
+      <c r="O2" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="AG2" s="42" t="s">
+      <c r="P2" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="Q2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>436</v>
       </c>
       <c r="B3" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="40" t="s">
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="L3" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="N3" t="s">
         <v>432</v>
       </c>
-      <c r="AF3" s="42" t="s">
+      <c r="O3" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="AG3" s="42" t="s">
+      <c r="P3" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="Q3" t="s">
         <v>435</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="R3" t="s">
         <v>437</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="S3" t="s">
         <v>434</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="T3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>436</v>
       </c>
       <c r="B4" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="40" t="s">
+      <c r="E4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="L4" t="s">
         <v>72</v>
       </c>
-      <c r="AE4" t="s">
-        <v>692</v>
-      </c>
-      <c r="AF4" s="42" t="s">
-        <v>693</v>
-      </c>
-      <c r="AG4" s="42" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>694</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="N4" t="s">
+        <v>666</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>667</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>668</v>
+      </c>
+      <c r="R4" t="s">
         <v>437</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>692</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="S4" t="s">
+        <v>666</v>
+      </c>
+      <c r="T4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>436</v>
       </c>
       <c r="B5" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="40" t="s">
+      <c r="E5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="AE5" s="41" t="s">
-        <v>696</v>
-      </c>
-      <c r="AF5" s="42" t="s">
-        <v>697</v>
-      </c>
-      <c r="AG5" s="42" t="s">
+      <c r="N5" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>671</v>
+      </c>
+      <c r="P5" s="27" t="s">
         <v>476</v>
       </c>
-      <c r="AH5" t="s">
-        <v>698</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="Q5" t="s">
+        <v>672</v>
+      </c>
+      <c r="R5" t="s">
         <v>437</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="S5" t="s">
         <v>476</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="T5" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>436</v>
       </c>
       <c r="B6" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="40" t="s">
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="L6" t="s">
         <v>72</v>
       </c>
-      <c r="AE6" s="41">
-        <v>2345661212</v>
-      </c>
-      <c r="AF6" s="42" t="s">
+      <c r="N6" s="40" t="s">
+        <v>696</v>
+      </c>
+      <c r="O6" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="AG6" s="42" t="s">
+      <c r="P6" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="Q6" t="s">
         <v>435</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="R6" t="s">
         <v>437</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="S6" t="s">
         <v>434</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="T6" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="B7" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="40" t="s">
+      <c r="E7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="L7" t="s">
         <v>72</v>
       </c>
-      <c r="AE7" s="41" t="s">
-        <v>701</v>
-      </c>
-      <c r="AF7" s="42" t="s">
+      <c r="N7" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="O7" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="AG7" s="42" t="s">
+      <c r="P7" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="Q7" t="s">
         <v>435</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="R7" t="s">
         <v>437</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="S7" t="s">
         <v>434</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="T7" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>439</v>
       </c>
@@ -12878,59 +10948,59 @@
       <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="40" t="s">
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="L8" t="s">
         <v>72</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="N8" t="s">
         <v>432</v>
       </c>
-      <c r="AF8" s="42" t="s">
+      <c r="O8" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="AG8" s="42" t="s">
+      <c r="P8" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="Q8" t="s">
         <v>435</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="R8" t="s">
         <v>437</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="S8" t="s">
         <v>434</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="T8" t="s">
         <v>438</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="U8" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="30">
+    <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>609</v>
       </c>
@@ -12940,66 +11010,63 @@
       <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="40" t="s">
+      <c r="E9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" t="s">
+        <v>432</v>
+      </c>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="V9" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
       <c r="AB9" t="s">
-        <v>722</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AM9" s="33" t="s">
-        <v>610</v>
-      </c>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33"/>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" t="s">
         <v>611</v>
       </c>
-      <c r="AT9">
+      <c r="AC9">
         <v>260</v>
       </c>
-      <c r="AU9" s="26" t="s">
+      <c r="AD9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AV9" s="26" t="s">
+      <c r="AE9" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="AW9" s="26" t="s">
+      <c r="AF9" s="26" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="60">
+    <row r="10" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>614</v>
       </c>
@@ -13009,808 +11076,808 @@
       <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="40" t="s">
+      <c r="E10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="L10" t="s">
         <v>72</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="N10" t="s">
         <v>432</v>
       </c>
-      <c r="AF10" s="42"/>
-      <c r="AG10" s="42"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="33" t="s">
-        <v>702</v>
-      </c>
-      <c r="AO10" s="33" t="s">
-        <v>703</v>
-      </c>
-      <c r="AP10" s="33" t="s">
-        <v>704</v>
-      </c>
-      <c r="AQ10" s="33" t="s">
-        <v>705</v>
-      </c>
-      <c r="AR10" s="33" t="s">
-        <v>706</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>622</v>
-      </c>
-      <c r="AU10" s="26"/>
-      <c r="AV10" s="26"/>
-      <c r="AW10" s="26"/>
-    </row>
-    <row r="11" spans="1:50" ht="60">
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33" t="s">
+        <v>676</v>
+      </c>
+      <c r="X10" s="33" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y10" s="33" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z10" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA10" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>615</v>
+      </c>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+    </row>
+    <row r="11" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B11" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="40" t="s">
+      <c r="E11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="L11" t="s">
         <v>72</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="N11" t="s">
         <v>432</v>
       </c>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33" t="s">
-        <v>707</v>
-      </c>
-      <c r="AO11" s="33" t="s">
-        <v>708</v>
-      </c>
-      <c r="AP11" s="33" t="s">
-        <v>709</v>
-      </c>
-      <c r="AQ11" s="33" t="s">
-        <v>710</v>
-      </c>
-      <c r="AR11" s="33" t="s">
-        <v>711</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>631</v>
-      </c>
-      <c r="AU11" s="26"/>
-      <c r="AV11" s="26"/>
-      <c r="AW11" s="26"/>
-    </row>
-    <row r="12" spans="1:50" ht="60">
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y11" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="Z11" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="AA11" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>617</v>
+      </c>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+    </row>
+    <row r="12" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="B12" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="40" t="s">
+      <c r="E12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="L12" t="s">
         <v>72</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="N12" t="s">
         <v>432</v>
       </c>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="33" t="s">
-        <v>712</v>
-      </c>
-      <c r="AO12" s="33" t="s">
-        <v>713</v>
-      </c>
-      <c r="AP12" s="33" t="s">
-        <v>714</v>
-      </c>
-      <c r="AQ12" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="AR12" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>640</v>
-      </c>
-      <c r="AU12" s="26"/>
-      <c r="AV12" s="26"/>
-      <c r="AW12" s="26"/>
-    </row>
-    <row r="13" spans="1:50" ht="60">
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="X12" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y12" s="33" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z12" s="33" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA12" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>619</v>
+      </c>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+    </row>
+    <row r="13" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="B13" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="40" t="s">
+      <c r="E13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="40" t="s">
+      <c r="K13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="L13" t="s">
         <v>72</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="N13" t="s">
         <v>432</v>
       </c>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="42"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33" t="s">
-        <v>717</v>
-      </c>
-      <c r="AO13" s="33" t="s">
-        <v>718</v>
-      </c>
-      <c r="AP13" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="AQ13" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="AR13" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>647</v>
-      </c>
-      <c r="AU13" s="26"/>
-      <c r="AV13" s="26"/>
-      <c r="AW13" s="26"/>
-    </row>
-    <row r="14" spans="1:50">
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="X13" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y13" s="33" t="s">
+        <v>693</v>
+      </c>
+      <c r="Z13" s="33" t="s">
+        <v>694</v>
+      </c>
+      <c r="AA13" s="33" t="s">
+        <v>695</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>621</v>
+      </c>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="B14" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="40" t="s">
+      <c r="E14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="L14" t="s">
         <v>72</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="N14" t="s">
         <v>432</v>
       </c>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" t="s">
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" t="s">
         <v>611</v>
       </c>
-      <c r="AU14" s="26"/>
-      <c r="AV14" s="26"/>
-      <c r="AW14" s="26"/>
-    </row>
-    <row r="15" spans="1:50">
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="B15" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="40" t="s">
+      <c r="E15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="L15" t="s">
         <v>72</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="N15" t="s">
         <v>432</v>
       </c>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="42"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="33"/>
-      <c r="AR15" s="33"/>
-      <c r="AS15" t="s">
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" t="s">
         <v>611</v>
       </c>
-      <c r="AU15" s="26"/>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="26"/>
-    </row>
-    <row r="16" spans="1:50">
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="B16" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="40" t="s">
+      <c r="E16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="40" t="s">
+      <c r="K16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="L16" t="s">
         <v>72</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="N16" t="s">
         <v>432</v>
       </c>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="42"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="33"/>
-      <c r="AR16" s="33"/>
-      <c r="AS16" t="s">
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" t="s">
         <v>611</v>
       </c>
-      <c r="AU16" s="26"/>
-      <c r="AV16" s="26"/>
-      <c r="AW16" s="26"/>
-    </row>
-    <row r="17" spans="1:50">
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="B17" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="40" t="s">
+      <c r="E17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="K17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="L17" t="s">
         <v>72</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="N17" t="s">
         <v>432</v>
       </c>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
-      <c r="AM17" s="33"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="33"/>
-      <c r="AQ17" s="33"/>
-      <c r="AR17" s="33"/>
-      <c r="AS17" t="s">
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" t="s">
         <v>611</v>
       </c>
-      <c r="AU17" s="26"/>
-      <c r="AV17" s="26"/>
-      <c r="AW17" s="26"/>
-    </row>
-    <row r="18" spans="1:50">
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="B18" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="40" t="s">
+      <c r="E18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="L18" t="s">
         <v>72</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="N18" t="s">
         <v>432</v>
       </c>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="42"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="33"/>
-      <c r="AO18" s="33"/>
-      <c r="AP18" s="33"/>
-      <c r="AQ18" s="33"/>
-      <c r="AR18" s="33"/>
-      <c r="AS18" t="s">
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" t="s">
         <v>611</v>
       </c>
-      <c r="AU18" s="26"/>
-      <c r="AV18" s="26"/>
-      <c r="AW18" s="26"/>
-    </row>
-    <row r="19" spans="1:50">
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="B19" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="40" t="s">
+      <c r="E19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="L19" t="s">
         <v>72</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="N19" t="s">
         <v>432</v>
       </c>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="42"/>
-      <c r="AM19" s="33"/>
-      <c r="AN19" s="33"/>
-      <c r="AO19" s="33"/>
-      <c r="AP19" s="33"/>
-      <c r="AQ19" s="33"/>
-      <c r="AR19" s="33"/>
-      <c r="AS19" t="s">
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" t="s">
         <v>611</v>
       </c>
-      <c r="AU19" s="26"/>
-      <c r="AV19" s="26"/>
-      <c r="AW19" s="26"/>
-    </row>
-    <row r="20" spans="1:50">
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="B20" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="40" t="s">
+      <c r="E20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="40" t="s">
+      <c r="K20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="L20" t="s">
         <v>72</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="N20" t="s">
         <v>432</v>
       </c>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
-      <c r="AM20" s="33"/>
-      <c r="AN20" s="33"/>
-      <c r="AO20" s="33"/>
-      <c r="AP20" s="33"/>
-      <c r="AQ20" s="33"/>
-      <c r="AR20" s="33"/>
-      <c r="AS20" t="s">
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" t="s">
         <v>611</v>
       </c>
-      <c r="AU20" s="26"/>
-      <c r="AV20" s="26"/>
-      <c r="AW20" s="26"/>
-    </row>
-    <row r="21" spans="1:50">
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="B21" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="40" t="s">
+      <c r="E21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="L21" t="s">
         <v>72</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="N21" t="s">
         <v>432</v>
       </c>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="42"/>
-      <c r="AM21" s="33"/>
-      <c r="AN21" s="33"/>
-      <c r="AO21" s="33"/>
-      <c r="AP21" s="33"/>
-      <c r="AQ21" s="33"/>
-      <c r="AR21" s="33"/>
-      <c r="AS21" t="s">
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" t="s">
         <v>611</v>
       </c>
-      <c r="AU21" s="26"/>
-      <c r="AV21" s="26"/>
-      <c r="AW21" s="26"/>
-    </row>
-    <row r="22" spans="1:50">
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="B22" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="40" t="s">
+      <c r="E22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="L22" t="s">
         <v>72</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="N22" t="s">
         <v>432</v>
       </c>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="33"/>
-      <c r="AO22" s="33"/>
-      <c r="AP22" s="33"/>
-      <c r="AQ22" s="33"/>
-      <c r="AR22" s="33"/>
-      <c r="AS22" t="s">
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" t="s">
         <v>611</v>
       </c>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22">
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22">
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="B23" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="40" t="s">
+      <c r="E23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AD23" t="s">
-        <v>658</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>659</v>
-      </c>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AM23" s="33"/>
-      <c r="AN23" s="33"/>
-      <c r="AO23" s="33"/>
-      <c r="AP23" s="33"/>
-      <c r="AQ23" s="33"/>
-      <c r="AR23" s="33"/>
-      <c r="AS23" t="s">
+      <c r="M23" t="s">
+        <v>632</v>
+      </c>
+      <c r="N23" t="s">
+        <v>633</v>
+      </c>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" t="s">
         <v>611</v>
       </c>
-      <c r="AU23" s="26"/>
-      <c r="AV23" s="26"/>
-      <c r="AW23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13824,13 +11891,13 @@
     <hyperlink ref="E4" r:id="rId8" xr:uid="{055890F2-8A4C-472B-A299-325B67E69CCE}"/>
     <hyperlink ref="D5" r:id="rId9" xr:uid="{78448594-B922-425D-840D-AB1963828827}"/>
     <hyperlink ref="E5" r:id="rId10" xr:uid="{104EB418-6C68-4342-8DB2-C8AC93505EE9}"/>
-    <hyperlink ref="AE5" r:id="rId11" xr:uid="{D79559B8-E52D-4865-8232-C2043B554841}"/>
+    <hyperlink ref="N5" r:id="rId11" xr:uid="{D79559B8-E52D-4865-8232-C2043B554841}"/>
     <hyperlink ref="D6" r:id="rId12" xr:uid="{848A9BB7-CBB1-44CC-A49C-E3EE522B0D4B}"/>
     <hyperlink ref="E6" r:id="rId13" xr:uid="{B5777304-8566-4776-B8A8-AC532F04636F}"/>
-    <hyperlink ref="AE6" r:id="rId14" display="test102@gmail.com" xr:uid="{0B194302-FE1A-455C-B0AD-724AEB7986CF}"/>
+    <hyperlink ref="N6" r:id="rId14" display="test102@gmail.com" xr:uid="{0B194302-FE1A-455C-B0AD-724AEB7986CF}"/>
     <hyperlink ref="D7" r:id="rId15" xr:uid="{ECE66585-5642-455D-A50B-994289897E00}"/>
     <hyperlink ref="E7" r:id="rId16" xr:uid="{FACD8C64-462F-4E13-AAD4-24B5FF8431EB}"/>
-    <hyperlink ref="AE7" r:id="rId17" display="test102@gmail.com" xr:uid="{1E011ED9-7354-44D5-90E4-8385C9394A25}"/>
+    <hyperlink ref="N7" r:id="rId17" display="test102@gmail.com" xr:uid="{1E011ED9-7354-44D5-90E4-8385C9394A25}"/>
     <hyperlink ref="D9" r:id="rId18" xr:uid="{6F23A3C9-DCD7-4206-8191-985B9569BB35}"/>
     <hyperlink ref="E9" r:id="rId19" xr:uid="{F586C162-4E11-4AEC-8038-C7FDE66FFAAA}"/>
     <hyperlink ref="D10" r:id="rId20" xr:uid="{A46CBA4E-300F-48C3-ABDE-6E0B92B92070}"/>
@@ -13874,9 +11941,9 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13911,13 +11978,13 @@
         <v>295</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>660</v>
+        <v>634</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>662</v>
+        <v>636</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>222</v>
@@ -13929,10 +11996,10 @@
         <v>219</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>175</v>
@@ -13944,10 +12011,10 @@
         <v>9</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>272</v>
@@ -13956,10 +12023,10 @@
         <v>273</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>274</v>
@@ -13971,25 +12038,25 @@
         <v>460</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>669</v>
+        <v>643</v>
       </c>
       <c r="AG1" s="14" t="s">
-        <v>670</v>
+        <v>644</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="AI1" s="15" t="s">
         <v>493</v>
       </c>
       <c r="AJ1" s="15"/>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
       <c r="C2" s="15">
         <v>1</v>
@@ -14003,51 +12070,51 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="13" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="Q2" s="18">
         <v>2145551212</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="V2" s="15">
         <v>123456</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>284</v>
       </c>
       <c r="Z2" s="27" t="s">
-        <v>682</v>
-      </c>
-      <c r="AA2" s="43">
+        <v>656</v>
+      </c>
+      <c r="AA2" s="39">
         <v>31547</v>
       </c>
       <c r="AB2" s="15">
@@ -14068,12 +12135,12 @@
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="C3" s="15">
         <v>1</v>
@@ -14101,51 +12168,51 @@
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="13" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="V3" s="15">
         <v>123456</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="Y3" s="15" t="s">
         <v>284</v>
       </c>
       <c r="Z3" s="27" t="s">
-        <v>682</v>
-      </c>
-      <c r="AA3" s="43">
+        <v>656</v>
+      </c>
+      <c r="AA3" s="39">
         <v>35026</v>
       </c>
       <c r="AB3" s="15">
@@ -14161,25 +12228,25 @@
         <v>465</v>
       </c>
       <c r="AF3" s="13" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
       <c r="AG3" s="13" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
       <c r="AH3" s="15" t="s">
         <v>473</v>
       </c>
       <c r="AI3" s="15" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="AJ3" s="15"/>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="C4" s="15">
         <v>1</v>
@@ -14207,51 +12274,51 @@
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="13" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="V4" s="15">
         <v>123456</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="Y4" s="15" t="s">
         <v>284</v>
       </c>
       <c r="Z4" s="27" t="s">
-        <v>682</v>
-      </c>
-      <c r="AA4" s="43">
+        <v>656</v>
+      </c>
+      <c r="AA4" s="39">
         <v>35025</v>
       </c>
       <c r="AB4" s="15">
@@ -14267,20 +12334,20 @@
         <v>465</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
       <c r="AG4" s="13" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
       <c r="AH4" s="15" t="s">
         <v>473</v>
       </c>
       <c r="AI4" s="15" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="AJ4" s="15"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -14357,7 +12424,7 @@
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
@@ -14377,7 +12444,7 @@
     <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -14428,7 +12495,7 @@
       </c>
       <c r="Q1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="30">
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>445</v>
       </c>
@@ -14475,7 +12542,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>445</v>
       </c>
@@ -14513,7 +12580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>450</v>
       </c>
@@ -14554,7 +12621,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>450</v>
       </c>
@@ -14592,7 +12659,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>450</v>
       </c>
@@ -14630,7 +12697,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>450</v>
       </c>
@@ -14696,7 +12763,7 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -14717,7 +12784,7 @@
     <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -14776,7 +12843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>461</v>
       </c>
@@ -14829,7 +12896,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="45">
+    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>503</v>
       </c>
@@ -14892,7 +12959,7 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -14918,7 +12985,7 @@
     <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15010,7 +13077,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>509</v>
       </c>
@@ -15093,7 +13160,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>520</v>
       </c>
@@ -15116,7 +13183,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>522</v>
       </c>
@@ -15160,7 +13227,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>551</v>
       </c>
@@ -15204,7 +13271,7 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
@@ -15226,7 +13293,7 @@
     <col min="18" max="18" width="81.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15282,7 +13349,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -15324,7 +13391,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="26.25">
+    <row r="3" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
@@ -15358,7 +13425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="26.25">
+    <row r="4" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>132</v>
       </c>
@@ -15392,7 +13459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="26.25">
+    <row r="5" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>132</v>
       </c>
@@ -15428,7 +13495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="26.25">
+    <row r="6" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>132</v>
       </c>
@@ -15464,7 +13531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>143</v>
       </c>
@@ -15496,7 +13563,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>145</v>
       </c>
@@ -15534,7 +13601,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>145</v>
       </c>
@@ -15570,7 +13637,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>145</v>
       </c>
@@ -15606,7 +13673,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>145</v>
       </c>
@@ -15642,7 +13709,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>145</v>
       </c>
@@ -15678,7 +13745,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>145</v>
       </c>
@@ -15714,7 +13781,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>145</v>
       </c>
@@ -15750,7 +13817,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>484</v>
       </c>
@@ -15776,7 +13843,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>484</v>
       </c>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Admin-Profile\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(19-10-2022)Crome\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C601D010-50BA-464A-BC09-6E795C2BB2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A608A3A-E8A2-4855-8EBE-D715D9F62431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="703">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -314,18 +314,9 @@
     <t>testTotalWithdraw</t>
   </si>
   <si>
-    <t>Total Withdraw</t>
-  </si>
-  <si>
     <t>Withdraw List</t>
   </si>
   <si>
-    <t>WS221530650</t>
-  </si>
-  <si>
-    <t>Batch ID - WS221530650</t>
-  </si>
-  <si>
     <t>WTD7C1A0CD3F0D4F6927667C103D784B8</t>
   </si>
   <si>
@@ -344,12 +335,6 @@
     <t>Total Withdraw Export</t>
   </si>
   <si>
-    <t>WB221460650</t>
-  </si>
-  <si>
-    <t>WTD4F596C654B9D4BF165EDEF40C2944A</t>
-  </si>
-  <si>
     <t>testTotalWithdrawInstantPay</t>
   </si>
   <si>
@@ -374,9 +359,6 @@
     <t>WG221580650</t>
   </si>
   <si>
-    <t>Batch ID - WG221580650</t>
-  </si>
-  <si>
     <t>WTD212D9F3703881DADCEA2D00C01C2E0</t>
   </si>
   <si>
@@ -395,9 +377,6 @@
     <t>BB221580650</t>
   </si>
   <si>
-    <t>Batch ID - BB221580650</t>
-  </si>
-  <si>
     <t>BUT306977BC990B23CE45FE90BDB62196</t>
   </si>
   <si>
@@ -417,9 +396,6 @@
   </si>
   <si>
     <t>BDC221580650</t>
-  </si>
-  <si>
-    <t>Batch ID - BDC221580650</t>
   </si>
   <si>
     <t>BUT76118452645716A7D2D2A31B59A25D</t>
@@ -1237,12 +1213,6 @@
     <t>testSignetAccountInvalidAmount</t>
   </si>
   <si>
-    <t>WB222010803</t>
-  </si>
-  <si>
-    <t>WI222000650</t>
-  </si>
-  <si>
     <t xml:space="preserve">create Api Business </t>
   </si>
   <si>
@@ -1316,12 +1286,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Two-Step Authentication</t>
-  </si>
-  <si>
-    <t>Batch ID - WI222000650</t>
-  </si>
-  <si>
-    <t>Batch ID - WB222010803</t>
   </si>
   <si>
     <t>profileHeading</t>
@@ -1746,13 +1710,7 @@
     <t>profileDetails</t>
   </si>
   <si>
-    <t>test106@gmail.com</t>
-  </si>
-  <si>
     <t>testGobalSearchWithReferenceID</t>
-  </si>
-  <si>
-    <t>BUT642BC2A2186D577CA521A2C9645C8F</t>
   </si>
   <si>
     <t>Images</t>
@@ -2175,6 +2133,66 @@
   </si>
   <si>
     <t>2345661212</t>
+  </si>
+  <si>
+    <t>securityKey</t>
+  </si>
+  <si>
+    <t>WTDB1D5B41FA9785E069C9485489A69BF</t>
+  </si>
+  <si>
+    <t>WTDE4F7805CF0C68F6EE0FE772E3DF5B9</t>
+  </si>
+  <si>
+    <t>W - 0000019724</t>
+  </si>
+  <si>
+    <t>Total Withdraw Signet Account</t>
+  </si>
+  <si>
+    <t>WB222920600</t>
+  </si>
+  <si>
+    <t>Batch ID - WB222920600</t>
+  </si>
+  <si>
+    <t>WB222861024</t>
+  </si>
+  <si>
+    <t>Batch ID - WB222861024</t>
+  </si>
+  <si>
+    <t>WI222920600</t>
+  </si>
+  <si>
+    <t>Batch ID - WI222920600</t>
+  </si>
+  <si>
+    <t>WG222911408</t>
+  </si>
+  <si>
+    <t>Batch ID - WG222911408</t>
+  </si>
+  <si>
+    <t>BB222910600</t>
+  </si>
+  <si>
+    <t>Batch ID - BB222910600</t>
+  </si>
+  <si>
+    <t>BS222920600</t>
+  </si>
+  <si>
+    <t>Batch ID - BS222920600</t>
+  </si>
+  <si>
+    <t>BDC222920600</t>
+  </si>
+  <si>
+    <t>Batch ID - BDC222920600</t>
+  </si>
+  <si>
+    <t>jhgvdhbsdjkjcxnhjb j</t>
   </si>
 </sst>
 </file>
@@ -2713,10 +2731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB40DDF-741D-4E62-9E3A-43C63EE95C74}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,9 +2756,10 @@
     <col min="18" max="18" width="26.140625" customWidth="1"/>
     <col min="19" max="20" width="15.7109375" customWidth="1"/>
     <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2810,8 +2829,11 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="X1" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -2865,8 +2887,11 @@
       <c r="W2" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="X2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -2914,8 +2939,11 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="X3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2963,8 +2991,11 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="X4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -3001,8 +3032,11 @@
       <c r="M5" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="X5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -3039,8 +3073,11 @@
       <c r="M6" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>47</v>
       </c>
@@ -3090,8 +3127,11 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>52</v>
       </c>
@@ -3141,8 +3181,11 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -3192,8 +3235,11 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>56</v>
       </c>
@@ -3243,8 +3289,11 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -3294,8 +3343,11 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -3332,8 +3384,11 @@
       <c r="M12" s="15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>63</v>
       </c>
@@ -3370,8 +3425,11 @@
       <c r="M13" s="15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>66</v>
       </c>
@@ -3408,8 +3466,11 @@
       <c r="R14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>66</v>
       </c>
@@ -3446,8 +3507,11 @@
       <c r="R15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
@@ -3484,8 +3548,11 @@
       <c r="R16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
@@ -3522,8 +3589,11 @@
       <c r="R17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X17" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -3560,13 +3630,16 @@
       <c r="R18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X18" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>25</v>
@@ -3597,6 +3670,9 @@
       </c>
       <c r="M19" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3646,7 +3722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C474AF-1560-47F8-90E0-FD2FFD96A555}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -3697,7 +3773,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -3709,54 +3785,54 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="Z1" s="14" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -3779,19 +3855,19 @@
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="R2" s="13" t="s">
         <v>27</v>
@@ -3805,18 +3881,18 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
@@ -3829,13 +3905,13 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="2"/>
@@ -3844,29 +3920,29 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -3875,13 +3951,13 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
@@ -3890,29 +3966,29 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -3921,7 +3997,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2">
@@ -3929,36 +4005,36 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>73</v>
@@ -3973,7 +4049,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
@@ -3981,36 +4057,36 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="12"/>
       <c r="T6" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>75</v>
@@ -4025,7 +4101,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2">
@@ -4033,14 +4109,14 @@
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="13" t="s">
@@ -4048,26 +4124,26 @@
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>26</v>
@@ -4079,7 +4155,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2">
@@ -4087,43 +4163,43 @@
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="13" t="s">
         <v>27</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>26</v>
@@ -4135,7 +4211,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2">
@@ -4143,41 +4219,41 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="13" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="6" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>26</v>
@@ -4189,7 +4265,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2">
@@ -4197,38 +4273,38 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>25</v>
@@ -4248,14 +4324,14 @@
         <v>112121</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -4269,10 +4345,10 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>69</v>
@@ -4289,15 +4365,15 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -4311,10 +4387,10 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>25</v>
@@ -4335,14 +4411,14 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -4355,10 +4431,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>25</v>
@@ -4379,14 +4455,14 @@
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="13" t="s">
@@ -4401,7 +4477,7 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="Z14" s="15"/>
     </row>
@@ -4427,10 +4503,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77806F8-4095-4D16-96F4-6911E0B4577F}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4448,9 +4524,10 @@
     <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4488,18 +4565,21 @@
         <v>82</v>
       </c>
       <c r="M1" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>25</v>
@@ -4529,15 +4609,18 @@
         <v>33</v>
       </c>
       <c r="L2">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1961</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>25</v>
@@ -4567,15 +4650,18 @@
         <v>33</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>25</v>
@@ -4606,7 +4692,10 @@
       </c>
       <c r="M4" s="13"/>
       <c r="N4" t="s">
-        <v>562</v>
+        <v>684</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4627,8 +4716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D341FF-C706-4B03-BBF1-19B6EBC55B3F}">
   <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4649,6 +4738,7 @@
     <col min="25" max="25" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -4686,25 +4776,25 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>3</v>
@@ -4713,28 +4803,28 @@
         <v>4</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>10</v>
@@ -4742,10 +4832,10 @@
     </row>
     <row r="2" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -4765,25 +4855,25 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>26</v>
@@ -4792,16 +4882,16 @@
         <v>27</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="V2" s="2">
         <v>123456</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -4813,10 +4903,10 @@
     </row>
     <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>69</v>
@@ -4836,25 +4926,25 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S3" s="13" t="s">
         <v>26</v>
@@ -4863,35 +4953,35 @@
         <v>27</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="V3" s="2">
         <v>123456</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X3" s="10"/>
       <c r="Y3" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -4911,23 +5001,23 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S4" s="13" t="s">
         <v>26</v>
@@ -4936,35 +5026,35 @@
         <v>27</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="V4" s="2">
         <v>123456</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X4" s="10"/>
       <c r="Y4" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>69</v>
@@ -4984,25 +5074,25 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S5" s="13" t="s">
         <v>26</v>
@@ -5011,37 +5101,37 @@
         <v>27</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="V5" s="2">
         <v>123456</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X5" s="19" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:29" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>71</v>
@@ -5061,25 +5151,25 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S6" s="13" t="s">
         <v>26</v>
@@ -5088,37 +5178,37 @@
         <v>27</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="V6" s="2">
         <v>123456</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>73</v>
@@ -5138,23 +5228,23 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="S7" s="13" t="s">
         <v>26</v>
@@ -5163,37 +5253,37 @@
         <v>27</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="V7" s="2">
         <v>123456</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X7" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>75</v>
@@ -5213,22 +5303,22 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="13" t="s">
@@ -5238,40 +5328,40 @@
         <v>27</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="V8" s="2">
         <v>123456</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>26</v>
@@ -5288,25 +5378,25 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="S9" s="13" t="s">
         <v>26</v>
@@ -5315,35 +5405,35 @@
         <v>27</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="V9" s="2">
         <v>123456</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
     <row r="10" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
@@ -5363,25 +5453,25 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S10" s="13" t="s">
         <v>26</v>
@@ -5390,37 +5480,37 @@
         <v>27</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="V10" s="2">
         <v>333333</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>69</v>
@@ -5440,25 +5530,25 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S11" s="13" t="s">
         <v>26</v>
@@ -5467,37 +5557,37 @@
         <v>27</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="V11" s="2">
         <v>123</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>71</v>
@@ -5517,25 +5607,25 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S12" s="13" t="s">
         <v>26</v>
@@ -5544,37 +5634,37 @@
         <v>27</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="V12" s="2">
         <v>1234567</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>25</v>
@@ -5594,25 +5684,25 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="S13" s="13" t="s">
         <v>26</v>
@@ -5621,20 +5711,20 @@
         <v>27</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="V13" s="2">
         <v>123456</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X13" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -5642,10 +5732,10 @@
     </row>
     <row r="14" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>69</v>
@@ -5666,16 +5756,16 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -5686,20 +5776,20 @@
         <v>27</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="V14" s="2">
         <v>123456</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X14" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
@@ -5707,10 +5797,10 @@
     </row>
     <row r="15" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>25</v>
@@ -5730,25 +5820,25 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="S15" s="13" t="s">
         <v>26</v>
@@ -5757,16 +5847,16 @@
         <v>27</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="V15" s="2">
         <v>123456</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
@@ -5789,10 +5879,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B0A0B3-8637-430C-83AB-3CD1E7890F66}">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5822,9 +5912,10 @@
     <col min="27" max="27" width="16.5703125" customWidth="1"/>
     <col min="28" max="28" width="34.7109375" customWidth="1"/>
     <col min="29" max="29" width="27.28515625" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5859,66 +5950,69 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>278</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>25</v>
@@ -5948,37 +6042,37 @@
         <v>33</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M2" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="R2" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="V2" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>288</v>
       </c>
       <c r="W2" s="15">
         <v>10</v>
@@ -5988,15 +6082,18 @@
       <c r="Z2" s="15"/>
       <c r="AA2" s="15"/>
       <c r="AB2" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>25</v>
@@ -6029,18 +6126,21 @@
         <v>1</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="Y3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD3" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="B4" t="s">
-        <v>391</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>69</v>
@@ -6074,15 +6174,18 @@
       </c>
       <c r="W4" s="20"/>
       <c r="Y4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+      <c r="AD4" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>25</v>
@@ -6113,7 +6216,7 @@
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="16" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
@@ -6131,15 +6234,18 @@
       <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
       <c r="AC5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="AD5" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>25</v>
@@ -6169,42 +6275,45 @@
         <v>33</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M6" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q6" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="N6" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="P6" s="15" t="s">
+      <c r="R6" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="U6" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y6" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD6" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="Q6" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>290</v>
-      </c>
       <c r="B7" s="15" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>69</v>
@@ -6234,43 +6343,46 @@
         <v>33</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="15"/>
       <c r="R7" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="U7" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y7" t="s">
         <v>283</v>
       </c>
-      <c r="S7" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="AD7" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>71</v>
@@ -6300,43 +6412,46 @@
         <v>33</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M8" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q8" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>388</v>
-      </c>
       <c r="R8" s="15" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="15" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="Y8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="AD8" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>73</v>
@@ -6366,43 +6481,46 @@
         <v>33</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M9" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q9" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="N9" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>388</v>
-      </c>
       <c r="R9" s="15" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="T9" s="15"/>
       <c r="U9" s="17" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="Y9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="AD9" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>75</v>
@@ -6432,35 +6550,38 @@
         <v>33</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M10" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>388</v>
-      </c>
       <c r="R10" s="15" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="T10" s="15" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="U10" s="17"/>
       <c r="Y10" t="s">
-        <v>294</v>
+        <v>286</v>
+      </c>
+      <c r="AD10" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6493,8 +6614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6518,6 +6639,7 @@
     <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -6552,40 +6674,42 @@
         <v>9</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="S1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="15"/>
+      <c r="T1" s="14" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>25</v>
@@ -6608,8 +6732,8 @@
       <c r="I2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="15">
-        <v>123456</v>
+      <c r="J2" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -6620,14 +6744,16 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="T2" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>25</v>
@@ -6650,30 +6776,32 @@
       <c r="I3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="15">
-        <v>123456</v>
+      <c r="J3" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="T3" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>25</v>
@@ -6696,13 +6824,13 @@
       <c r="I4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="15">
-        <v>123456</v>
+      <c r="J4" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
@@ -6710,14 +6838,16 @@
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="T4" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>25</v>
@@ -6740,28 +6870,30 @@
       <c r="I5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="15">
-        <v>123456</v>
+      <c r="J5" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="36" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="T5" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>25</v>
@@ -6784,13 +6916,13 @@
       <c r="I6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="15">
-        <v>123456</v>
+      <c r="J6" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
@@ -6798,14 +6930,16 @@
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
+      <c r="T6" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>25</v>
@@ -6828,30 +6962,32 @@
       <c r="I7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="15">
-        <v>123456</v>
+      <c r="J7" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
+      <c r="T7" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>25</v>
@@ -6874,8 +7010,8 @@
       <c r="I8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="15">
-        <v>123456</v>
+      <c r="J8" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -6889,19 +7025,21 @@
         <v>44845</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="T8" s="15"/>
+        <v>577</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>25</v>
@@ -6924,8 +7062,8 @@
       <c r="I9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="15">
-        <v>123456</v>
+      <c r="J9" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -6939,12 +7077,14 @@
         <v>44845</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>594</v>
-      </c>
-      <c r="T9" s="15"/>
+        <v>580</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
@@ -6978,8 +7118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B863EE-0FB8-4125-A633-87E6E4517058}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7009,6 +7149,7 @@
     <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="66.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -7046,67 +7187,69 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="AD1" s="15"/>
+        <v>570</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>25</v>
@@ -7129,20 +7272,20 @@
       <c r="I2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="15">
-        <v>123456</v>
+      <c r="J2" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>33</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -7159,14 +7302,16 @@
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
       <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
+      <c r="AD2" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>25</v>
@@ -7189,20 +7334,20 @@
       <c r="I3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="15">
-        <v>123456</v>
+      <c r="J3" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -7219,14 +7364,16 @@
       <c r="AA3" s="15"/>
       <c r="AB3" s="15"/>
       <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
+      <c r="AD3" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>25</v>
@@ -7249,23 +7396,23 @@
       <c r="I4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="15">
-        <v>123456</v>
+      <c r="J4" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -7281,14 +7428,16 @@
       <c r="AA4" s="15"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
+      <c r="AD4" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>25</v>
@@ -7311,24 +7460,24 @@
       <c r="I5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="15">
-        <v>123456</v>
+      <c r="J5" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>33</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="15" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="15"/>
@@ -7343,14 +7492,16 @@
       <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
       <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
+      <c r="AD5" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>25</v>
@@ -7373,27 +7524,27 @@
       <c r="I6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="15">
-        <v>123456</v>
+      <c r="J6" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>33</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="N6" s="15"/>
       <c r="O6" s="15" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
@@ -7407,14 +7558,16 @@
       <c r="AA6" s="15"/>
       <c r="AB6" s="15"/>
       <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
+      <c r="AD6" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>25</v>
@@ -7437,24 +7590,24 @@
       <c r="I7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="15">
-        <v>123456</v>
+      <c r="J7" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>33</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="15" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="15"/>
@@ -7469,14 +7622,16 @@
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
+      <c r="AD7" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>25</v>
@@ -7499,8 +7654,8 @@
       <c r="I8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="15">
-        <v>123456</v>
+      <c r="J8" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>33</v>
@@ -7512,7 +7667,7 @@
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="S8" s="15">
         <v>12346</v>
@@ -7524,31 +7679,33 @@
         <v>44818</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="Y8" s="15" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="Z8" s="15" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
+      <c r="AD8" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>25</v>
@@ -7571,8 +7728,8 @@
       <c r="I9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="15">
-        <v>123456</v>
+      <c r="J9" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>33</v>
@@ -7593,18 +7750,20 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
+      <c r="AD9" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>25</v>
@@ -7627,8 +7786,8 @@
       <c r="I10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="15">
-        <v>123456</v>
+      <c r="J10" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>33</v>
@@ -7650,17 +7809,19 @@
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
       <c r="AB10" s="15" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
+      <c r="AD10" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>25</v>
@@ -7683,8 +7844,8 @@
       <c r="I11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="15">
-        <v>123456</v>
+      <c r="J11" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>33</v>
@@ -7707,9 +7868,11 @@
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="15" t="s">
-        <v>586</v>
-      </c>
-      <c r="AD11" s="15"/>
+        <v>572</v>
+      </c>
+      <c r="AD11" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
@@ -7772,10 +7935,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6996C0C-24E0-40BE-A97F-7A279690A8EE}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7795,9 +7958,10 @@
     <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -7829,27 +7993,30 @@
         <v>9</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
@@ -7876,18 +8043,21 @@
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="O2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>25</v>
@@ -7914,15 +8084,18 @@
         <v>32</v>
       </c>
       <c r="M3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>378</v>
-      </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>25</v>
@@ -7949,15 +8122,18 @@
         <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>25</v>
@@ -7984,15 +8160,18 @@
         <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>25</v>
@@ -8019,10 +8198,13 @@
         <v>32</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="N6" t="s">
-        <v>305</v>
+        <v>297</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -8032,10 +8214,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DAABDA-3594-43D7-9AEC-0D8E440ACE4D}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8064,9 +8246,10 @@
     <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="105.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8119,7 +8302,7 @@
         <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>19</v>
@@ -8131,21 +8314,24 @@
         <v>21</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>48</v>
@@ -8195,12 +8381,15 @@
       <c r="W2" s="2"/>
       <c r="X2" s="15"/>
       <c r="Y2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>53</v>
@@ -8249,10 +8438,13 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="15"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>55</v>
@@ -8301,10 +8493,13 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="15"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>57</v>
@@ -8353,10 +8548,13 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="15"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>59</v>
@@ -8405,10 +8603,13 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="15"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>67</v>
@@ -8449,10 +8650,10 @@
         <v>35</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="R7" s="2">
         <v>2</v>
@@ -8465,13 +8666,16 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="15"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>25</v>
@@ -8506,7 +8710,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="R8" s="2">
         <v>2</v>
@@ -8519,10 +8723,13 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="15"/>
-    </row>
-    <row r="9" spans="1:25" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="Z8" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>64</v>
@@ -8568,13 +8775,16 @@
         <v>64</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="X9" s="15"/>
-    </row>
-    <row r="10" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="Z9" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>64</v>
@@ -8619,7 +8829,10 @@
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
       <c r="X10" s="16" t="s">
-        <v>467</v>
+        <v>455</v>
+      </c>
+      <c r="Z10" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -8704,22 +8917,22 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
@@ -8737,7 +8950,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -8746,13 +8959,13 @@
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -8762,10 +8975,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9ECCE6-1FC9-48C7-BBB8-F3E55C223DFA}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8788,7 +9001,7 @@
     <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8820,36 +9033,39 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="R1" s="22" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
@@ -8877,24 +9093,27 @@
       </c>
       <c r="K2" s="6"/>
       <c r="O2" s="32" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="R2" s="32" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>25</v>
@@ -8921,19 +9140,22 @@
         <v>32</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="O3" s="32"/>
       <c r="P3" s="32"/>
       <c r="Q3" s="33"/>
       <c r="R3" s="32"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>25</v>
@@ -8963,18 +9185,21 @@
         <v>50</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>69</v>
@@ -9004,21 +9229,24 @@
         <v>50</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>71</v>
@@ -9048,21 +9276,24 @@
         <v>50</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>73</v>
@@ -9092,13 +9323,16 @@
         <v>50</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -9111,8 +9345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDD6E72-6031-4802-B904-6A5DCC120EE9}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9122,9 +9356,20 @@
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.140625" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -9194,14 +9439,16 @@
       <c r="V1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="W1" s="1"/>
+      <c r="W1" s="1" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>687</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -9224,8 +9471,8 @@
       <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="2">
-        <v>123456</v>
+      <c r="J2" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>33</v>
@@ -9237,25 +9484,25 @@
         <v>51</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>50</v>
@@ -9263,14 +9510,16 @@
       <c r="V2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="2"/>
+      <c r="W2" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
@@ -9293,8 +9542,8 @@
       <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="2">
-        <v>123456</v>
+      <c r="J3" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>33</v>
@@ -9306,25 +9555,25 @@
         <v>51</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>393</v>
+        <v>690</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>421</v>
+        <v>691</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>97</v>
+        <v>686</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>96</v>
+        <v>685</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>50</v>
@@ -9332,14 +9581,16 @@
       <c r="V3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="2"/>
+      <c r="W3" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -9362,8 +9613,8 @@
       <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="2">
-        <v>123456</v>
+      <c r="J4" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>33</v>
@@ -9375,25 +9626,25 @@
         <v>51</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>394</v>
+        <v>692</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>420</v>
+        <v>693</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>50</v>
@@ -9401,14 +9652,16 @@
       <c r="V4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W4" s="2"/>
+      <c r="W4" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>25</v>
@@ -9431,8 +9684,8 @@
       <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="2">
-        <v>123456</v>
+      <c r="J5" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>33</v>
@@ -9444,25 +9697,25 @@
         <v>51</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>105</v>
+        <v>694</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>106</v>
+        <v>695</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>50</v>
@@ -9470,14 +9723,16 @@
       <c r="V5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="2"/>
+      <c r="W5" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>25</v>
@@ -9500,8 +9755,8 @@
       <c r="I6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="2">
-        <v>123456</v>
+      <c r="J6" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>33</v>
@@ -9513,25 +9768,25 @@
         <v>51</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>112</v>
+        <v>696</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>113</v>
+        <v>697</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>50</v>
@@ -9539,14 +9794,16 @@
       <c r="V6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W6" s="2"/>
+      <c r="W6" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
@@ -9569,8 +9826,8 @@
       <c r="I7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="2">
-        <v>123456</v>
+      <c r="J7" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>33</v>
@@ -9582,25 +9839,25 @@
         <v>51</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>112</v>
+        <v>698</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>113</v>
+        <v>699</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>50</v>
@@ -9608,14 +9865,16 @@
       <c r="V7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W7" s="2"/>
+      <c r="W7" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>25</v>
@@ -9638,8 +9897,8 @@
       <c r="I8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="2">
-        <v>123456</v>
+      <c r="J8" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>33</v>
@@ -9651,25 +9910,25 @@
         <v>51</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>121</v>
+        <v>701</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>50</v>
@@ -9677,7 +9936,9 @@
       <c r="V8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W8" s="2"/>
+      <c r="W8" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9694,8 +9955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7608AE-4E83-4A59-A303-21D2C67D6F9E}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9713,6 +9974,7 @@
     <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -9750,23 +10012,25 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="O1" s="15"/>
+        <v>562</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>683</v>
+      </c>
       <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -9789,26 +10053,28 @@
       <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="2">
-        <v>123456</v>
+      <c r="J2" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="M2" s="34"/>
       <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="O2" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="P2" s="15"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
@@ -9831,8 +10097,8 @@
       <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="2">
-        <v>123456</v>
+      <c r="J3" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>33</v>
@@ -9842,15 +10108,17 @@
         <v>12346</v>
       </c>
       <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="O3" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="P3" s="15"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -9873,8 +10141,8 @@
       <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="2">
-        <v>123456</v>
+      <c r="J4" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>33</v>
@@ -9884,9 +10152,11 @@
         <v>12346</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="O4" s="15"/>
+        <v>567</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -9940,10 +10210,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3A334-050A-4737-9B01-1B13EAAB8BDD}">
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AM7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9957,37 +10227,38 @@
     <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10019,96 +10290,99 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>222</v>
+        <v>387</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="AH1" s="1" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="AK1" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AL1" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -10134,52 +10408,55 @@
       <c r="J2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q2" s="2">
+        <v>396</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="R2" s="2">
         <v>7893969587</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>25</v>
+      <c r="S2" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>410</v>
+      <c r="U2" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
@@ -10205,37 +10482,40 @@
       <c r="J3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y3">
+      <c r="M3" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z3">
         <v>1</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>3</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AL3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -10261,16 +10541,19 @@
       <c r="J4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>25</v>
@@ -10296,31 +10579,34 @@
       <c r="J5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>72</v>
       </c>
-      <c r="AD5" t="s">
-        <v>432</v>
-      </c>
-      <c r="AE5" s="27" t="s">
-        <v>433</v>
+      <c r="AE5" t="s">
+        <v>420</v>
       </c>
       <c r="AF5" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="AG5" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>25</v>
@@ -10346,40 +10632,43 @@
       <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>72</v>
       </c>
-      <c r="AD6" t="s">
-        <v>432</v>
-      </c>
-      <c r="AE6" s="27" t="s">
-        <v>433</v>
+      <c r="AE6" t="s">
+        <v>420</v>
       </c>
       <c r="AF6" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>435</v>
+        <v>421</v>
+      </c>
+      <c r="AG6" s="27" t="s">
+        <v>422</v>
       </c>
       <c r="AH6" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="AI6" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="AJ6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
@@ -10405,42 +10694,45 @@
       <c r="J7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>72</v>
       </c>
-      <c r="AD7" t="s">
-        <v>432</v>
-      </c>
-      <c r="AE7" s="27" t="s">
-        <v>433</v>
+      <c r="AE7" t="s">
+        <v>420</v>
       </c>
       <c r="AF7" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>435</v>
+        <v>421</v>
+      </c>
+      <c r="AG7" s="27" t="s">
+        <v>422</v>
       </c>
       <c r="AH7" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="AI7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="AJ7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="AK7" t="s">
-        <v>440</v>
+        <v>426</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{4AE398B1-A8DD-4AAF-9C2F-0AFB3695F2EA}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{8EFE2F55-CB6C-4C6C-B674-A1678B5F9C97}"/>
-    <hyperlink ref="P2" r:id="rId3" xr:uid="{24A5F969-A4AF-44EB-9B7B-2080FDA84173}"/>
+    <hyperlink ref="Q2" r:id="rId3" xr:uid="{24A5F969-A4AF-44EB-9B7B-2080FDA84173}"/>
     <hyperlink ref="D3" r:id="rId4" xr:uid="{A3675C81-6CF2-4ADC-8F7C-F329E0C16CCE}"/>
     <hyperlink ref="E3" r:id="rId5" xr:uid="{165EA1E9-E27F-458E-BA8E-0EC0C1FBEE81}"/>
     <hyperlink ref="D4" r:id="rId6" xr:uid="{89FC2EDD-1F12-4B89-B133-6601B4CC71E2}"/>
@@ -10459,10 +10751,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F404E78-86F3-4010-B1D5-D6F63F40004D}">
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10476,23 +10768,24 @@
     <col min="7" max="7" width="47.140625" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" customWidth="1"/>
     <col min="9" max="9" width="57.5703125" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="42.28515625" customWidth="1"/>
-    <col min="28" max="28" width="30.140625" customWidth="1"/>
-    <col min="32" max="32" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="40" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="42.28515625" customWidth="1"/>
+    <col min="29" max="29" width="30.140625" customWidth="1"/>
+    <col min="33" max="33" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10524,81 +10817,84 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>663</v>
+        <v>410</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>423</v>
+        <v>649</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="V1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>602</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>295</v>
+        <v>592</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>607</v>
+        <v>287</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH1" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -10624,31 +10920,34 @@
       <c r="J2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>72</v>
       </c>
-      <c r="N2" t="s">
-        <v>432</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>433</v>
+      <c r="O2" t="s">
+        <v>420</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="R2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
@@ -10674,40 +10973,43 @@
       <c r="J3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>72</v>
       </c>
-      <c r="N3" t="s">
-        <v>432</v>
-      </c>
-      <c r="O3" s="27" t="s">
-        <v>433</v>
+      <c r="O3" t="s">
+        <v>420</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>435</v>
+        <v>421</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>422</v>
       </c>
       <c r="R3" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="S3" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="T3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="U3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B4" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>69</v>
@@ -10733,40 +11035,43 @@
       <c r="J4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>72</v>
       </c>
-      <c r="N4" t="s">
-        <v>666</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>667</v>
+      <c r="O4" t="s">
+        <v>652</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>666</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>668</v>
+        <v>653</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>652</v>
       </c>
       <c r="R4" t="s">
-        <v>437</v>
+        <v>654</v>
       </c>
       <c r="S4" t="s">
-        <v>666</v>
+        <v>425</v>
       </c>
       <c r="T4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+      <c r="U4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B5" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>71</v>
@@ -10792,40 +11097,43 @@
       <c r="J5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="13" t="s">
-        <v>670</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>671</v>
+      <c r="O5" s="13" t="s">
+        <v>656</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>672</v>
+        <v>657</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>464</v>
       </c>
       <c r="R5" t="s">
-        <v>437</v>
+        <v>658</v>
       </c>
       <c r="S5" t="s">
-        <v>476</v>
+        <v>425</v>
       </c>
       <c r="T5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="U5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>73</v>
@@ -10851,40 +11159,43 @@
       <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="40" t="s">
-        <v>696</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>433</v>
+      <c r="O6" s="40" t="s">
+        <v>682</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>435</v>
+        <v>421</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>422</v>
       </c>
       <c r="R6" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="S6" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="T6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="U6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="B7" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
@@ -10910,40 +11221,43 @@
       <c r="J7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="13" t="s">
-        <v>675</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>433</v>
+      <c r="O7" s="13" t="s">
+        <v>661</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>435</v>
+        <v>421</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>422</v>
       </c>
       <c r="R7" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="S7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="T7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="U7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>25</v>
@@ -10969,43 +11283,46 @@
       <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>72</v>
       </c>
-      <c r="N8" t="s">
-        <v>432</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>433</v>
+      <c r="O8" t="s">
+        <v>420</v>
       </c>
       <c r="P8" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>435</v>
+        <v>421</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>422</v>
       </c>
       <c r="R8" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="S8" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="T8" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="U8" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="V8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="B9" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>25</v>
@@ -11031,47 +11348,50 @@
       <c r="J9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>72</v>
       </c>
-      <c r="N9" t="s">
-        <v>432</v>
-      </c>
-      <c r="O9" s="27"/>
+      <c r="O9" t="s">
+        <v>420</v>
+      </c>
       <c r="P9" s="27"/>
-      <c r="V9" s="33" t="s">
-        <v>610</v>
-      </c>
-      <c r="W9" s="33"/>
+      <c r="Q9" s="27"/>
+      <c r="W9" s="33" t="s">
+        <v>596</v>
+      </c>
       <c r="X9" s="33"/>
       <c r="Y9" s="33"/>
       <c r="Z9" s="33"/>
       <c r="AA9" s="33"/>
-      <c r="AB9" t="s">
-        <v>611</v>
-      </c>
-      <c r="AC9">
+      <c r="AB9" s="33"/>
+      <c r="AC9" t="s">
+        <v>597</v>
+      </c>
+      <c r="AD9">
         <v>260</v>
       </c>
-      <c r="AD9" s="26" t="s">
+      <c r="AE9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AE9" s="26" t="s">
-        <v>612</v>
-      </c>
       <c r="AF9" s="26" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+      <c r="AG9" s="26" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="B10" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
@@ -11097,46 +11417,49 @@
       <c r="J10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>72</v>
       </c>
-      <c r="N10" t="s">
-        <v>432</v>
-      </c>
-      <c r="O10" s="27"/>
+      <c r="O10" t="s">
+        <v>420</v>
+      </c>
       <c r="P10" s="27"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33" t="s">
-        <v>676</v>
-      </c>
+      <c r="Q10" s="27"/>
+      <c r="W10" s="33"/>
       <c r="X10" s="33" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="Y10" s="33" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="Z10" s="33" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="AA10" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>615</v>
-      </c>
-      <c r="AD10" s="26"/>
+        <v>665</v>
+      </c>
+      <c r="AB10" s="33" t="s">
+        <v>666</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>601</v>
+      </c>
       <c r="AE10" s="26"/>
       <c r="AF10" s="26"/>
-    </row>
-    <row r="11" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+      <c r="AG10" s="26"/>
+    </row>
+    <row r="11" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="B11" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>25</v>
@@ -11162,46 +11485,49 @@
       <c r="J11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>72</v>
       </c>
-      <c r="N11" t="s">
-        <v>432</v>
-      </c>
-      <c r="O11" s="27"/>
+      <c r="O11" t="s">
+        <v>420</v>
+      </c>
       <c r="P11" s="27"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33" t="s">
-        <v>681</v>
-      </c>
+      <c r="Q11" s="27"/>
+      <c r="W11" s="33"/>
       <c r="X11" s="33" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="Y11" s="33" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="Z11" s="33" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="AA11" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>617</v>
-      </c>
-      <c r="AD11" s="26"/>
+        <v>670</v>
+      </c>
+      <c r="AB11" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>603</v>
+      </c>
       <c r="AE11" s="26"/>
       <c r="AF11" s="26"/>
-    </row>
-    <row r="12" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+      <c r="AG11" s="26"/>
+    </row>
+    <row r="12" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="B12" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>25</v>
@@ -11227,46 +11553,49 @@
       <c r="J12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>72</v>
       </c>
-      <c r="N12" t="s">
-        <v>432</v>
-      </c>
-      <c r="O12" s="27"/>
+      <c r="O12" t="s">
+        <v>420</v>
+      </c>
       <c r="P12" s="27"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33" t="s">
-        <v>686</v>
-      </c>
+      <c r="Q12" s="27"/>
+      <c r="W12" s="33"/>
       <c r="X12" s="33" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="Y12" s="33" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="Z12" s="33" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="AA12" s="33" t="s">
-        <v>690</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>619</v>
-      </c>
-      <c r="AD12" s="26"/>
+        <v>675</v>
+      </c>
+      <c r="AB12" s="33" t="s">
+        <v>676</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>605</v>
+      </c>
       <c r="AE12" s="26"/>
       <c r="AF12" s="26"/>
-    </row>
-    <row r="13" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+      <c r="AG12" s="26"/>
+    </row>
+    <row r="13" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="B13" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>25</v>
@@ -11292,46 +11621,49 @@
       <c r="J13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>72</v>
       </c>
-      <c r="N13" t="s">
-        <v>432</v>
-      </c>
-      <c r="O13" s="27"/>
+      <c r="O13" t="s">
+        <v>420</v>
+      </c>
       <c r="P13" s="27"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33" t="s">
-        <v>691</v>
-      </c>
+      <c r="Q13" s="27"/>
+      <c r="W13" s="33"/>
       <c r="X13" s="33" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="Y13" s="33" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="Z13" s="33" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="AA13" s="33" t="s">
-        <v>695</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>621</v>
-      </c>
-      <c r="AD13" s="26"/>
+        <v>680</v>
+      </c>
+      <c r="AB13" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>607</v>
+      </c>
       <c r="AE13" s="26"/>
       <c r="AF13" s="26"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG13" s="26"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="B14" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>25</v>
@@ -11357,36 +11689,39 @@
       <c r="J14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>72</v>
       </c>
-      <c r="N14" t="s">
-        <v>432</v>
-      </c>
-      <c r="O14" s="27"/>
+      <c r="O14" t="s">
+        <v>420</v>
+      </c>
       <c r="P14" s="27"/>
-      <c r="V14" s="33"/>
+      <c r="Q14" s="27"/>
       <c r="W14" s="33"/>
       <c r="X14" s="33"/>
       <c r="Y14" s="33"/>
       <c r="Z14" s="33"/>
       <c r="AA14" s="33"/>
-      <c r="AB14" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD14" s="26"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" t="s">
+        <v>597</v>
+      </c>
       <c r="AE14" s="26"/>
       <c r="AF14" s="26"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG14" s="26"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="B15" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>25</v>
@@ -11412,36 +11747,39 @@
       <c r="J15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>72</v>
       </c>
-      <c r="N15" t="s">
-        <v>432</v>
-      </c>
-      <c r="O15" s="27"/>
+      <c r="O15" t="s">
+        <v>420</v>
+      </c>
       <c r="P15" s="27"/>
-      <c r="V15" s="33"/>
+      <c r="Q15" s="27"/>
       <c r="W15" s="33"/>
       <c r="X15" s="33"/>
       <c r="Y15" s="33"/>
       <c r="Z15" s="33"/>
       <c r="AA15" s="33"/>
-      <c r="AB15" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD15" s="26"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" t="s">
+        <v>597</v>
+      </c>
       <c r="AE15" s="26"/>
       <c r="AF15" s="26"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG15" s="26"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="B16" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>25</v>
@@ -11467,36 +11805,39 @@
       <c r="J16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>72</v>
       </c>
-      <c r="N16" t="s">
-        <v>432</v>
-      </c>
-      <c r="O16" s="27"/>
+      <c r="O16" t="s">
+        <v>420</v>
+      </c>
       <c r="P16" s="27"/>
-      <c r="V16" s="33"/>
+      <c r="Q16" s="27"/>
       <c r="W16" s="33"/>
       <c r="X16" s="33"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="33"/>
       <c r="AA16" s="33"/>
-      <c r="AB16" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD16" s="26"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" t="s">
+        <v>597</v>
+      </c>
       <c r="AE16" s="26"/>
       <c r="AF16" s="26"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG16" s="26"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="B17" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>25</v>
@@ -11522,36 +11863,39 @@
       <c r="J17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>72</v>
       </c>
-      <c r="N17" t="s">
-        <v>432</v>
-      </c>
-      <c r="O17" s="27"/>
+      <c r="O17" t="s">
+        <v>420</v>
+      </c>
       <c r="P17" s="27"/>
-      <c r="V17" s="33"/>
+      <c r="Q17" s="27"/>
       <c r="W17" s="33"/>
       <c r="X17" s="33"/>
       <c r="Y17" s="33"/>
       <c r="Z17" s="33"/>
       <c r="AA17" s="33"/>
-      <c r="AB17" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD17" s="26"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" t="s">
+        <v>597</v>
+      </c>
       <c r="AE17" s="26"/>
       <c r="AF17" s="26"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG17" s="26"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B18" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>25</v>
@@ -11577,36 +11921,39 @@
       <c r="J18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>72</v>
       </c>
-      <c r="N18" t="s">
-        <v>432</v>
-      </c>
-      <c r="O18" s="27"/>
+      <c r="O18" t="s">
+        <v>420</v>
+      </c>
       <c r="P18" s="27"/>
-      <c r="V18" s="33"/>
+      <c r="Q18" s="27"/>
       <c r="W18" s="33"/>
       <c r="X18" s="33"/>
       <c r="Y18" s="33"/>
       <c r="Z18" s="33"/>
       <c r="AA18" s="33"/>
-      <c r="AB18" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD18" s="26"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" t="s">
+        <v>597</v>
+      </c>
       <c r="AE18" s="26"/>
       <c r="AF18" s="26"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG18" s="26"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B19" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>25</v>
@@ -11632,36 +11979,39 @@
       <c r="J19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>72</v>
       </c>
-      <c r="N19" t="s">
-        <v>432</v>
-      </c>
-      <c r="O19" s="27"/>
+      <c r="O19" t="s">
+        <v>420</v>
+      </c>
       <c r="P19" s="27"/>
-      <c r="V19" s="33"/>
+      <c r="Q19" s="27"/>
       <c r="W19" s="33"/>
       <c r="X19" s="33"/>
       <c r="Y19" s="33"/>
       <c r="Z19" s="33"/>
       <c r="AA19" s="33"/>
-      <c r="AB19" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD19" s="26"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" t="s">
+        <v>597</v>
+      </c>
       <c r="AE19" s="26"/>
       <c r="AF19" s="26"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG19" s="26"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="B20" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>25</v>
@@ -11687,36 +12037,39 @@
       <c r="J20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>72</v>
       </c>
-      <c r="N20" t="s">
-        <v>432</v>
-      </c>
-      <c r="O20" s="27"/>
+      <c r="O20" t="s">
+        <v>420</v>
+      </c>
       <c r="P20" s="27"/>
-      <c r="V20" s="33"/>
+      <c r="Q20" s="27"/>
       <c r="W20" s="33"/>
       <c r="X20" s="33"/>
       <c r="Y20" s="33"/>
       <c r="Z20" s="33"/>
       <c r="AA20" s="33"/>
-      <c r="AB20" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD20" s="26"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" t="s">
+        <v>597</v>
+      </c>
       <c r="AE20" s="26"/>
       <c r="AF20" s="26"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG20" s="26"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="B21" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>25</v>
@@ -11742,36 +12095,39 @@
       <c r="J21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>72</v>
       </c>
-      <c r="N21" t="s">
-        <v>432</v>
-      </c>
-      <c r="O21" s="27"/>
+      <c r="O21" t="s">
+        <v>420</v>
+      </c>
       <c r="P21" s="27"/>
-      <c r="V21" s="33"/>
+      <c r="Q21" s="27"/>
       <c r="W21" s="33"/>
       <c r="X21" s="33"/>
       <c r="Y21" s="33"/>
       <c r="Z21" s="33"/>
       <c r="AA21" s="33"/>
-      <c r="AB21" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD21" s="26"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" t="s">
+        <v>597</v>
+      </c>
       <c r="AE21" s="26"/>
       <c r="AF21" s="26"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG21" s="26"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="B22" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>25</v>
@@ -11797,39 +12153,42 @@
       <c r="J22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>72</v>
       </c>
-      <c r="N22" t="s">
-        <v>432</v>
-      </c>
-      <c r="O22" s="27"/>
+      <c r="O22" t="s">
+        <v>420</v>
+      </c>
       <c r="P22" s="27"/>
-      <c r="V22" s="33"/>
+      <c r="Q22" s="27"/>
       <c r="W22" s="33"/>
       <c r="X22" s="33"/>
       <c r="Y22" s="33"/>
       <c r="Z22" s="33"/>
       <c r="AA22" s="33"/>
-      <c r="AB22" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD22" s="26"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" t="s">
+        <v>597</v>
+      </c>
       <c r="AE22" s="26"/>
       <c r="AF22" s="26"/>
-      <c r="AG22">
+      <c r="AG22" s="26"/>
+      <c r="AH22">
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="B23" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>25</v>
@@ -11855,29 +12214,32 @@
       <c r="J23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M23" t="s">
-        <v>632</v>
-      </c>
       <c r="N23" t="s">
-        <v>633</v>
-      </c>
-      <c r="O23" s="27"/>
+        <v>618</v>
+      </c>
+      <c r="O23" t="s">
+        <v>619</v>
+      </c>
       <c r="P23" s="27"/>
-      <c r="V23" s="33"/>
+      <c r="Q23" s="27"/>
       <c r="W23" s="33"/>
       <c r="X23" s="33"/>
       <c r="Y23" s="33"/>
       <c r="Z23" s="33"/>
       <c r="AA23" s="33"/>
-      <c r="AB23" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD23" s="26"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" t="s">
+        <v>597</v>
+      </c>
       <c r="AE23" s="26"/>
       <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11891,13 +12253,13 @@
     <hyperlink ref="E4" r:id="rId8" xr:uid="{055890F2-8A4C-472B-A299-325B67E69CCE}"/>
     <hyperlink ref="D5" r:id="rId9" xr:uid="{78448594-B922-425D-840D-AB1963828827}"/>
     <hyperlink ref="E5" r:id="rId10" xr:uid="{104EB418-6C68-4342-8DB2-C8AC93505EE9}"/>
-    <hyperlink ref="N5" r:id="rId11" xr:uid="{D79559B8-E52D-4865-8232-C2043B554841}"/>
+    <hyperlink ref="O5" r:id="rId11" xr:uid="{D79559B8-E52D-4865-8232-C2043B554841}"/>
     <hyperlink ref="D6" r:id="rId12" xr:uid="{848A9BB7-CBB1-44CC-A49C-E3EE522B0D4B}"/>
     <hyperlink ref="E6" r:id="rId13" xr:uid="{B5777304-8566-4776-B8A8-AC532F04636F}"/>
-    <hyperlink ref="N6" r:id="rId14" display="test102@gmail.com" xr:uid="{0B194302-FE1A-455C-B0AD-724AEB7986CF}"/>
+    <hyperlink ref="O6" r:id="rId14" display="test102@gmail.com" xr:uid="{0B194302-FE1A-455C-B0AD-724AEB7986CF}"/>
     <hyperlink ref="D7" r:id="rId15" xr:uid="{ECE66585-5642-455D-A50B-994289897E00}"/>
     <hyperlink ref="E7" r:id="rId16" xr:uid="{FACD8C64-462F-4E13-AAD4-24B5FF8431EB}"/>
-    <hyperlink ref="N7" r:id="rId17" display="test102@gmail.com" xr:uid="{1E011ED9-7354-44D5-90E4-8385C9394A25}"/>
+    <hyperlink ref="O7" r:id="rId17" display="test102@gmail.com" xr:uid="{1E011ED9-7354-44D5-90E4-8385C9394A25}"/>
     <hyperlink ref="D9" r:id="rId18" xr:uid="{6F23A3C9-DCD7-4206-8191-985B9569BB35}"/>
     <hyperlink ref="E9" r:id="rId19" xr:uid="{F586C162-4E11-4AEC-8038-C7FDE66FFAAA}"/>
     <hyperlink ref="D10" r:id="rId20" xr:uid="{A46CBA4E-300F-48C3-ABDE-6E0B92B92070}"/>
@@ -11935,15 +12297,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBCCE70-8886-44A0-B994-06CEF8321F97}">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="41" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11975,88 +12343,93 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>639</v>
+        <v>683</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>272</v>
+        <v>626</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>641</v>
+        <v>265</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>274</v>
+        <v>628</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>459</v>
+        <v>266</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="AG1" s="14" t="s">
-        <v>644</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AI1" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="AJ1" s="15"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="C2" s="15">
         <v>1</v>
@@ -12070,77 +12443,80 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="13" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="Q2" s="18">
         <v>2145551212</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>653</v>
-      </c>
-      <c r="V2" s="15">
-        <v>123456</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>654</v>
+        <v>639</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z2" s="27" t="s">
-        <v>656</v>
-      </c>
-      <c r="AA2" s="39">
+        <v>641</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB2" s="39">
         <v>31547</v>
       </c>
-      <c r="AB2" s="15">
+      <c r="AC2" s="15">
         <v>1233</v>
       </c>
-      <c r="AC2" s="18">
+      <c r="AD2" s="18">
         <v>76052</v>
       </c>
-      <c r="AD2" s="15" t="s">
-        <v>563</v>
-      </c>
       <c r="AE2" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="AF2" s="15"/>
+        <v>549</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>453</v>
+      </c>
       <c r="AG2" s="15"/>
       <c r="AH2" s="15"/>
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK2" s="15"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="C3" s="15">
         <v>1</v>
@@ -12163,90 +12539,95 @@
       <c r="I3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="15">
-        <v>123456</v>
+      <c r="J3" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA3" s="27" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB3" s="39">
+        <v>35026</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>1233</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>76052</v>
+      </c>
+      <c r="AE3" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="AF3" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AH3" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="AI3" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="AJ3" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="AK3" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>648</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>650</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>658</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>652</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>653</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>653</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>653</v>
-      </c>
-      <c r="V3" s="15">
-        <v>123456</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z3" s="27" t="s">
-        <v>656</v>
-      </c>
-      <c r="AA3" s="39">
-        <v>35026</v>
-      </c>
-      <c r="AB3" s="15">
-        <v>1233</v>
-      </c>
-      <c r="AC3" s="18">
-        <v>76052</v>
-      </c>
-      <c r="AD3" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="AE3" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="AF3" s="13" t="s">
-        <v>659</v>
-      </c>
-      <c r="AG3" s="13" t="s">
-        <v>660</v>
-      </c>
-      <c r="AH3" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="AI3" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="AJ3" s="15"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>662</v>
-      </c>
       <c r="B4" s="15" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C4" s="15">
         <v>1</v>
@@ -12269,85 +12650,90 @@
       <c r="I4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="15">
-        <v>123456</v>
+      <c r="J4" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA4" s="27" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB4" s="39">
+        <v>35025</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>1233</v>
+      </c>
+      <c r="AD4" s="18">
+        <v>76052</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="AF4" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="AH4" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="AI4" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="AJ4" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>648</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>650</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>658</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>652</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>653</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>653</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>653</v>
-      </c>
-      <c r="V4" s="15">
-        <v>123456</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z4" s="27" t="s">
-        <v>656</v>
-      </c>
-      <c r="AA4" s="39">
-        <v>35025</v>
-      </c>
-      <c r="AB4" s="15">
-        <v>1233</v>
-      </c>
-      <c r="AC4" s="18">
-        <v>76052</v>
-      </c>
-      <c r="AD4" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="AE4" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="AF4" s="13" t="s">
-        <v>659</v>
-      </c>
-      <c r="AG4" s="13" t="s">
-        <v>660</v>
-      </c>
-      <c r="AH4" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="AI4" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="AJ4" s="15"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK4" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -12384,6 +12770,7 @@
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
       <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12400,8 +12787,8 @@
     <hyperlink ref="S3" r:id="rId11" display="mailto:Cust@123" xr:uid="{C0F6B868-57CA-4C15-8C69-26C6014BB1FF}"/>
     <hyperlink ref="T3" r:id="rId12" display="mailto:Cust@123" xr:uid="{51CA9364-E3FB-458D-A464-3B2828343559}"/>
     <hyperlink ref="U3" r:id="rId13" display="mailto:Cust@123" xr:uid="{C927EA4C-CD49-4D74-857D-A9149B594E1C}"/>
-    <hyperlink ref="AF3" r:id="rId14" display="mailto:Prajwalc@ideyalabs.com" xr:uid="{0BE6A37D-F91A-446F-A0D1-69AF4EEDD520}"/>
-    <hyperlink ref="AG3" r:id="rId15" display="mailto:Admin@123%60%60" xr:uid="{6DDD4350-2BEA-43CE-BE5C-EB9614F3CA69}"/>
+    <hyperlink ref="AG3" r:id="rId14" display="mailto:Prajwalc@ideyalabs.com" xr:uid="{0BE6A37D-F91A-446F-A0D1-69AF4EEDD520}"/>
+    <hyperlink ref="AH3" r:id="rId15" display="mailto:Admin@123%60%60" xr:uid="{6DDD4350-2BEA-43CE-BE5C-EB9614F3CA69}"/>
     <hyperlink ref="D4" r:id="rId16" display="mailto:Santoshp@ideyalabs.com" xr:uid="{718992E1-491E-4782-BA76-8431535F9F06}"/>
     <hyperlink ref="L4" r:id="rId17" xr:uid="{50B39DE0-1042-4504-BCA6-B854D9F42AC4}"/>
     <hyperlink ref="M4" r:id="rId18" xr:uid="{A41C7B53-EB7E-4ECF-AAB9-9F2A277A5BC7}"/>
@@ -12409,8 +12796,8 @@
     <hyperlink ref="S4" r:id="rId20" display="mailto:Cust@123" xr:uid="{060A5CB7-0EDD-41A3-8BE1-6962BD5937A6}"/>
     <hyperlink ref="T4" r:id="rId21" display="mailto:Cust@123" xr:uid="{F4AFF7A6-0357-44E6-BC5F-09619EFB9A67}"/>
     <hyperlink ref="U4" r:id="rId22" display="mailto:Cust@123" xr:uid="{3CC698D2-BA3A-4CCE-AF2E-FA2F57DBA17E}"/>
-    <hyperlink ref="AF4" r:id="rId23" display="mailto:Prajwalc@ideyalabs.com" xr:uid="{6F399244-DD03-4AD5-B707-9A2AEA8C3B61}"/>
-    <hyperlink ref="AG4" r:id="rId24" display="mailto:Admin@123%60%60" xr:uid="{58D3D292-B662-41DA-B7BA-2BBF369401EA}"/>
+    <hyperlink ref="AG4" r:id="rId23" display="mailto:Prajwalc@ideyalabs.com" xr:uid="{6F399244-DD03-4AD5-B707-9A2AEA8C3B61}"/>
+    <hyperlink ref="AH4" r:id="rId24" display="mailto:Admin@123%60%60" xr:uid="{58D3D292-B662-41DA-B7BA-2BBF369401EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12420,8 +12807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B5757B-1D64-4665-A795-38990E29E9FE}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12442,6 +12829,7 @@
     <col min="14" max="14" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -12473,34 +12861,36 @@
         <v>9</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q1" s="22"/>
+        <v>432</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>25</v>
@@ -12527,27 +12917,30 @@
         <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="L2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="O2" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="P2" t="s">
-        <v>449</v>
+        <v>437</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>69</v>
@@ -12556,7 +12949,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>28</v>
@@ -12571,21 +12964,24 @@
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
       </c>
       <c r="L3" t="s">
         <v>27</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>25</v>
@@ -12612,21 +13008,24 @@
         <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="L4" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="M4" t="s">
-        <v>453</v>
+        <v>441</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>69</v>
@@ -12653,18 +13052,21 @@
         <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M5" t="s">
-        <v>554</v>
+        <v>542</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>71</v>
@@ -12691,18 +13093,21 @@
         <v>27</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="M6" t="s">
-        <v>455</v>
+        <v>443</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>73</v>
@@ -12732,7 +13137,10 @@
         <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>456</v>
+        <v>444</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -12757,10 +13165,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C521355-FD3D-4E65-938C-9AA1EB49CB44}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12782,9 +13190,11 @@
     <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -12819,36 +13229,39 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
@@ -12878,30 +13291,33 @@
         <v>33</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="R2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="S2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>25</v>
@@ -12931,13 +13347,16 @@
         <v>33</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="Q3" t="s">
-        <v>506</v>
+        <v>494</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -12955,8 +13374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFB9E42-5696-4F0E-9E81-9692429FA356}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12996,16 +13415,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -13020,141 +13439,141 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="E2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>507</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="V2" s="31" t="s">
         <v>535</v>
-      </c>
-      <c r="F2" t="s">
-        <v>587</v>
-      </c>
-      <c r="G2" t="s">
-        <v>588</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>589</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>518</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>519</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>531</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="U2" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="V2" s="31" t="s">
-        <v>547</v>
       </c>
       <c r="W2" s="30">
         <v>151</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AA2" s="2">
         <v>12345</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="AD2">
         <v>1.01</v>
@@ -13162,89 +13581,89 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B3" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="E3" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="F3" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="G3" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="E4" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="F4" t="s">
+        <v>503</v>
+      </c>
+      <c r="G4" t="s">
+        <v>504</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>506</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>511</v>
+      </c>
+      <c r="N4" t="s">
+        <v>514</v>
+      </c>
+      <c r="O4" t="s">
         <v>515</v>
-      </c>
-      <c r="G4" t="s">
-        <v>516</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>518</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>523</v>
-      </c>
-      <c r="N4" t="s">
-        <v>526</v>
-      </c>
-      <c r="O4" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="B5" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F5" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="G5" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -13265,10 +13684,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13291,9 +13710,10 @@
     <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13325,36 +13745,39 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -13377,26 +13800,29 @@
       <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="2">
-        <v>123456</v>
+      <c r="J2" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="S2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
@@ -13416,21 +13842,22 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>69</v>
@@ -13450,27 +13877,28 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>27</v>
@@ -13486,21 +13914,22 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>73</v>
@@ -13522,21 +13951,22 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
@@ -13557,18 +13987,19 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>25</v>
@@ -13591,22 +14022,25 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>69</v>
@@ -13626,23 +14060,26 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>71</v>
@@ -13662,23 +14099,26 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>73</v>
@@ -13698,23 +14138,26 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>75</v>
@@ -13734,26 +14177,29 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>26</v>
@@ -13770,26 +14216,29 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>26</v>
@@ -13806,29 +14255,32 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>27</v>
@@ -13837,24 +14289,24 @@
         <v>28</v>
       </c>
       <c r="Q15" s="29" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="R15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>27</v>
@@ -13863,10 +14315,10 @@
         <v>28</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="R16" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -13880,6 +14332,7 @@
     <hyperlink ref="D5" r:id="rId7" xr:uid="{9806349F-234E-4086-B757-45348812667D}"/>
     <hyperlink ref="D15" r:id="rId8" xr:uid="{14A2AA38-F240-4D89-A35E-DD435F9E70F4}"/>
     <hyperlink ref="D16" r:id="rId9" xr:uid="{A3E7C781-3868-4B19-8733-80163AA97B47}"/>
+    <hyperlink ref="S12" r:id="rId10" location="$%^" xr:uid="{093A161E-CB03-4693-90EF-B8D6480C7B81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(19-10-2022)Crome\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(20-10-2022)RegressionTestData and test Script\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A608A3A-E8A2-4855-8EBE-D715D9F62431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A41761C-5339-4F52-AD38-A582895DBBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="703">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2199,7 +2199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2737,7 +2737,7 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
@@ -2759,7 +2759,7 @@
     <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="64.5">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="64.5">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="64.5">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="64.5">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="64.5">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="15" t="s">
         <v>47</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="15" t="s">
         <v>52</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="15" t="s">
         <v>56</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="15" t="s">
         <v>63</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" s="15" t="s">
         <v>66</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" s="15" t="s">
         <v>66</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
       <c r="A19" s="15" t="s">
         <v>486</v>
       </c>
@@ -3726,7 +3726,7 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
@@ -3747,7 +3747,7 @@
     <col min="26" max="26" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="51.75">
       <c r="A2" s="2" t="s">
         <v>173</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
         <v>180</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
         <v>180</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
         <v>180</v>
       </c>
@@ -4029,7 +4029,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
         <v>180</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
         <v>180</v>
       </c>
@@ -4135,7 +4135,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
         <v>180</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
         <v>180</v>
       </c>
@@ -4245,7 +4245,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
         <v>180</v>
       </c>
@@ -4299,7 +4299,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="2" t="s">
         <v>201</v>
       </c>
@@ -4343,7 +4343,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="2" t="s">
         <v>201</v>
       </c>
@@ -4385,7 +4385,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="2" t="s">
         <v>205</v>
       </c>
@@ -4429,7 +4429,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="2" t="s">
         <v>207</v>
       </c>
@@ -4509,7 +4509,7 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -4527,7 +4527,7 @@
     <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="24" t="s">
         <v>543</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="24" t="s">
         <v>545</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="24" t="s">
         <v>548</v>
       </c>
@@ -4720,7 +4720,7 @@
       <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
@@ -4741,7 +4741,7 @@
     <col min="29" max="29" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>220</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>220</v>
       </c>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" s="2" t="s">
         <v>231</v>
       </c>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>231</v>
       </c>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" ht="39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="39">
       <c r="A6" s="2" t="s">
         <v>231</v>
       </c>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="16.5">
       <c r="A7" s="2" t="s">
         <v>231</v>
       </c>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="16.5">
       <c r="A8" s="2" t="s">
         <v>231</v>
       </c>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="16.5">
       <c r="A9" s="2" t="s">
         <v>231</v>
       </c>
@@ -5428,7 +5428,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="16.5">
       <c r="A10" s="2" t="s">
         <v>250</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="16.5">
       <c r="A11" s="2" t="s">
         <v>250</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="16.5">
       <c r="A12" s="2" t="s">
         <v>250</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="16.5">
       <c r="A13" s="2" t="s">
         <v>252</v>
       </c>
@@ -5730,7 +5730,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="16.5">
       <c r="A14" s="2" t="s">
         <v>252</v>
       </c>
@@ -5795,7 +5795,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="16.5">
       <c r="A15" s="2" t="s">
         <v>256</v>
       </c>
@@ -5885,7 +5885,7 @@
       <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
@@ -5915,7 +5915,7 @@
     <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="47.25" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>269</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="24" t="s">
         <v>384</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="24" t="s">
         <v>384</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="45">
       <c r="A5" s="24" t="s">
         <v>279</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="45">
       <c r="A6" s="24" t="s">
         <v>282</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="45">
       <c r="A7" s="24" t="s">
         <v>282</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="45">
       <c r="A8" s="24" t="s">
         <v>282</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="45">
       <c r="A9" s="24" t="s">
         <v>282</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="45">
       <c r="A10" s="24" t="s">
         <v>282</v>
       </c>
@@ -6618,7 +6618,7 @@
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -6642,7 +6642,7 @@
     <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="15" t="s">
         <v>121</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="15" t="s">
         <v>291</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="15" t="s">
         <v>294</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="15" t="s">
         <v>296</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="15" t="s">
         <v>298</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="15" t="s">
         <v>300</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="15" t="s">
         <v>576</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="15" t="s">
         <v>578</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -7122,7 +7122,7 @@
       <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
@@ -7152,7 +7152,7 @@
     <col min="30" max="30" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="15" t="s">
         <v>307</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="15" t="s">
         <v>312</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="15" t="s">
         <v>314</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="15" t="s">
         <v>317</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" s="15" t="s">
         <v>320</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" s="15" t="s">
         <v>324</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" s="15" t="s">
         <v>457</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" s="15" t="s">
         <v>483</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" s="15" t="s">
         <v>488</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" s="15" t="s">
         <v>569</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -7941,7 +7941,7 @@
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
@@ -7961,7 +7961,7 @@
     <col min="16" max="16" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="24" t="s">
         <v>368</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="24" t="s">
         <v>369</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="24" t="s">
         <v>370</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>366</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>367</v>
       </c>
@@ -8220,7 +8220,7 @@
       <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -8249,7 +8249,7 @@
     <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="15" t="s">
         <v>328</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
         <v>329</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="15" t="s">
         <v>330</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="15" t="s">
         <v>331</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="15" t="s">
         <v>332</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="15" t="s">
         <v>333</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="15" t="s">
         <v>336</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="102.75">
       <c r="A9" s="15" t="s">
         <v>338</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="409.5">
       <c r="A10" s="24" t="s">
         <v>454</v>
       </c>
@@ -8868,7 +8868,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -8885,7 +8885,7 @@
     <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>342</v>
       </c>
@@ -8981,7 +8981,7 @@
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -9001,7 +9001,7 @@
     <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="74.25" customHeight="1">
       <c r="A2" t="s">
         <v>559</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>349</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>351</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>351</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>351</v>
       </c>
@@ -9349,7 +9349,7 @@
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -9372,7 +9372,7 @@
     <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23">
       <c r="A3" s="2" t="s">
         <v>91</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="A5" s="2" t="s">
         <v>98</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="A6" s="2" t="s">
         <v>103</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="A7" s="2" t="s">
         <v>109</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="A8" s="2" t="s">
         <v>111</v>
       </c>
@@ -9955,11 +9955,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7608AE-4E83-4A59-A303-21D2C67D6F9E}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -9977,7 +9977,7 @@
     <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="P1" s="15"/>
     </row>
-    <row r="2" spans="1:16" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="114.75">
       <c r="A2" s="15" t="s">
         <v>563</v>
       </c>
@@ -10069,7 +10069,7 @@
       </c>
       <c r="P2" s="15"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="15" t="s">
         <v>565</v>
       </c>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="15" t="s">
         <v>566</v>
       </c>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="P4" s="15"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -10177,7 +10177,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -10216,7 +10216,7 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -10258,7 +10258,7 @@
     <col min="39" max="39" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="A2" s="24" t="s">
         <v>385</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39">
       <c r="A3" s="24" t="s">
         <v>404</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39">
       <c r="A4" s="24" t="s">
         <v>406</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
         <v>419</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
         <v>424</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
         <v>427</v>
       </c>
@@ -10757,7 +10757,7 @@
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.85546875" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
@@ -10785,7 +10785,7 @@
     <col min="33" max="33" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>419</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
         <v>424</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>424</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
         <v>424</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
         <v>424</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
         <v>659</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
         <v>427</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="30">
       <c r="A9" t="s">
         <v>595</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="60">
       <c r="A10" t="s">
         <v>600</v>
       </c>
@@ -11454,7 +11454,7 @@
       <c r="AF10" s="26"/>
       <c r="AG10" s="26"/>
     </row>
-    <row r="11" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="60">
       <c r="A11" t="s">
         <v>602</v>
       </c>
@@ -11522,7 +11522,7 @@
       <c r="AF11" s="26"/>
       <c r="AG11" s="26"/>
     </row>
-    <row r="12" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="60">
       <c r="A12" t="s">
         <v>604</v>
       </c>
@@ -11590,7 +11590,7 @@
       <c r="AF12" s="26"/>
       <c r="AG12" s="26"/>
     </row>
-    <row r="13" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="60">
       <c r="A13" t="s">
         <v>606</v>
       </c>
@@ -11658,7 +11658,7 @@
       <c r="AF13" s="26"/>
       <c r="AG13" s="26"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="A14" t="s">
         <v>608</v>
       </c>
@@ -11716,7 +11716,7 @@
       <c r="AF14" s="26"/>
       <c r="AG14" s="26"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34">
       <c r="A15" t="s">
         <v>609</v>
       </c>
@@ -11774,7 +11774,7 @@
       <c r="AF15" s="26"/>
       <c r="AG15" s="26"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="A16" t="s">
         <v>610</v>
       </c>
@@ -11832,7 +11832,7 @@
       <c r="AF16" s="26"/>
       <c r="AG16" s="26"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34">
       <c r="A17" t="s">
         <v>611</v>
       </c>
@@ -11890,7 +11890,7 @@
       <c r="AF17" s="26"/>
       <c r="AG17" s="26"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34">
       <c r="A18" t="s">
         <v>612</v>
       </c>
@@ -11948,7 +11948,7 @@
       <c r="AF18" s="26"/>
       <c r="AG18" s="26"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34">
       <c r="A19" t="s">
         <v>613</v>
       </c>
@@ -12006,7 +12006,7 @@
       <c r="AF19" s="26"/>
       <c r="AG19" s="26"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34">
       <c r="A20" t="s">
         <v>614</v>
       </c>
@@ -12064,7 +12064,7 @@
       <c r="AF20" s="26"/>
       <c r="AG20" s="26"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34">
       <c r="A21" t="s">
         <v>615</v>
       </c>
@@ -12122,7 +12122,7 @@
       <c r="AF21" s="26"/>
       <c r="AG21" s="26"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34">
       <c r="A22" t="s">
         <v>616</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34">
       <c r="A23" t="s">
         <v>617</v>
       </c>
@@ -12303,7 +12303,7 @@
       <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -12311,7 +12311,7 @@
     <col min="37" max="37" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37">
       <c r="A2" s="15" t="s">
         <v>632</v>
       </c>
@@ -12511,7 +12511,7 @@
       <c r="AJ2" s="15"/>
       <c r="AK2" s="15"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37">
       <c r="A3" s="15" t="s">
         <v>643</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37">
       <c r="A4" s="15" t="s">
         <v>648</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -12811,7 +12811,7 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
@@ -12832,7 +12832,7 @@
     <col min="17" max="17" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="30">
       <c r="A2" s="28" t="s">
         <v>433</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="28" t="s">
         <v>433</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="28" t="s">
         <v>438</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="28" t="s">
         <v>438</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="28" t="s">
         <v>438</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="28" t="s">
         <v>438</v>
       </c>
@@ -13171,7 +13171,7 @@
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -13194,7 +13194,7 @@
     <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="28" t="s">
         <v>449</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="45">
       <c r="A3" s="28" t="s">
         <v>491</v>
       </c>
@@ -13378,7 +13378,7 @@
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -13404,7 +13404,7 @@
     <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="24" t="s">
         <v>497</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="24" t="s">
         <v>508</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="24" t="s">
         <v>510</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="24" t="s">
         <v>539</v>
       </c>
@@ -13686,11 +13686,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
@@ -13705,15 +13705,15 @@
     <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="81.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>121</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="26.25">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
@@ -13852,7 +13852,7 @@
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="26.25">
       <c r="A4" s="2" t="s">
         <v>124</v>
       </c>
@@ -13887,7 +13887,7 @@
       </c>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="26.25">
       <c r="A5" s="2" t="s">
         <v>124</v>
       </c>
@@ -13924,7 +13924,7 @@
       </c>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="26.25">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -13961,7 +13961,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
         <v>135</v>
       </c>
@@ -13983,7 +13983,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
@@ -13992,9 +13994,11 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="2" t="s">
         <v>137</v>
       </c>
@@ -14035,7 +14039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="2" t="s">
         <v>137</v>
       </c>
@@ -14074,7 +14078,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
         <v>137</v>
       </c>
@@ -14113,7 +14117,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -14152,7 +14156,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="2" t="s">
         <v>137</v>
       </c>
@@ -14191,7 +14195,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="2" t="s">
         <v>137</v>
       </c>
@@ -14230,7 +14234,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
         <v>137</v>
       </c>
@@ -14269,7 +14273,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="24" t="s">
         <v>472</v>
       </c>
@@ -14295,7 +14299,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="24" t="s">
         <v>472</v>
       </c>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(20-10-2022)RegressionTestData and test Script\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A41761C-5339-4F52-AD38-A582895DBBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2E000F-59CD-474F-823D-9899237540DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -22,17 +22,18 @@
     <sheet name="userDetails" sheetId="19" r:id="rId7"/>
     <sheet name="checkOut" sheetId="20" r:id="rId8"/>
     <sheet name="Login" sheetId="3" r:id="rId9"/>
-    <sheet name="ForgotPassword" sheetId="4" r:id="rId10"/>
-    <sheet name="gobalSearch" sheetId="21" r:id="rId11"/>
-    <sheet name="forgotEmail" sheetId="6" r:id="rId12"/>
-    <sheet name="AddSignetAccount" sheetId="9" r:id="rId13"/>
-    <sheet name="feeStructure" sheetId="10" r:id="rId14"/>
-    <sheet name="TransactionDetails" sheetId="13" r:id="rId15"/>
-    <sheet name="AccountLimits" sheetId="16" r:id="rId16"/>
-    <sheet name="transaction" sheetId="14" r:id="rId17"/>
-    <sheet name="featureControl" sheetId="11" r:id="rId18"/>
-    <sheet name="BalanceReport" sheetId="12" r:id="rId19"/>
-    <sheet name="Disputes" sheetId="22" r:id="rId20"/>
+    <sheet name="exportFile" sheetId="25" r:id="rId10"/>
+    <sheet name="ForgotPassword" sheetId="4" r:id="rId11"/>
+    <sheet name="gobalSearch" sheetId="21" r:id="rId12"/>
+    <sheet name="forgotEmail" sheetId="6" r:id="rId13"/>
+    <sheet name="AddSignetAccount" sheetId="9" r:id="rId14"/>
+    <sheet name="feeStructure" sheetId="10" r:id="rId15"/>
+    <sheet name="TransactionDetails" sheetId="13" r:id="rId16"/>
+    <sheet name="AccountLimits" sheetId="16" r:id="rId17"/>
+    <sheet name="transaction" sheetId="14" r:id="rId18"/>
+    <sheet name="featureControl" sheetId="11" r:id="rId19"/>
+    <sheet name="BalanceReport" sheetId="12" r:id="rId20"/>
+    <sheet name="Disputes" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="711">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2194,12 +2195,36 @@
   <si>
     <t>jhgvdhbsdjkjcxnhjb j</t>
   </si>
+  <si>
+    <t xml:space="preserve">exportFile </t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>exportFile Download</t>
+  </si>
+  <si>
+    <t>export file bulk download</t>
+  </si>
+  <si>
+    <t>Your bulk download has successfully completed.</t>
+  </si>
+  <si>
+    <t>exportFile trash</t>
+  </si>
+  <si>
+    <t>export file bulk trash</t>
+  </si>
+  <si>
+    <t>Selected file has been successfully deleted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2737,7 +2762,7 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
@@ -2759,7 +2784,7 @@
     <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2833,7 +2858,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="64.5">
+    <row r="2" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -2891,7 +2916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="64.5">
+    <row r="3" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -2943,7 +2968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="64.5">
+    <row r="4" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2995,7 +3020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="64.5">
+    <row r="5" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -3036,7 +3061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="64.5">
+    <row r="6" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -3077,7 +3102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>47</v>
       </c>
@@ -3131,7 +3156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>52</v>
       </c>
@@ -3185,7 +3210,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -3239,7 +3264,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>56</v>
       </c>
@@ -3293,7 +3318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -3347,7 +3372,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -3388,7 +3413,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>63</v>
       </c>
@@ -3429,7 +3454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>66</v>
       </c>
@@ -3470,7 +3495,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>66</v>
       </c>
@@ -3511,7 +3536,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
@@ -3552,7 +3577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
@@ -3593,7 +3618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -3634,7 +3659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>486</v>
       </c>
@@ -3719,6 +3744,205 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE7FBCC-0AD2-4CB8-BB75-EACD68A9A988}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>683</v>
+      </c>
+      <c r="M1" t="s">
+        <v>480</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2">
+        <v>123456</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B3" t="s">
+        <v>706</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3">
+        <v>123456</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3">
+        <v>123456</v>
+      </c>
+      <c r="M3" t="s">
+        <v>495</v>
+      </c>
+      <c r="N3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>123456</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4">
+        <v>123456</v>
+      </c>
+      <c r="M4" t="s">
+        <v>495</v>
+      </c>
+      <c r="N4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C474AF-1560-47F8-90E0-FD2FFD96A555}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
@@ -3726,7 +3950,7 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
@@ -3747,7 +3971,7 @@
     <col min="26" max="26" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3827,7 +4051,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="51.75">
+    <row r="2" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>173</v>
       </c>
@@ -3887,7 +4111,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>180</v>
       </c>
@@ -3931,7 +4155,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>180</v>
       </c>
@@ -3977,7 +4201,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>180</v>
       </c>
@@ -4029,7 +4253,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>180</v>
       </c>
@@ -4081,7 +4305,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>180</v>
       </c>
@@ -4135,7 +4359,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>180</v>
       </c>
@@ -4191,7 +4415,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>180</v>
       </c>
@@ -4245,7 +4469,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>180</v>
       </c>
@@ -4299,7 +4523,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>201</v>
       </c>
@@ -4343,7 +4567,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>201</v>
       </c>
@@ -4385,7 +4609,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>205</v>
       </c>
@@ -4429,7 +4653,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>207</v>
       </c>
@@ -4501,7 +4725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77806F8-4095-4D16-96F4-6911E0B4577F}">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -4509,7 +4733,7 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -4527,7 +4751,7 @@
     <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4574,7 +4798,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>543</v>
       </c>
@@ -4615,7 +4839,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>545</v>
       </c>
@@ -4656,7 +4880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>548</v>
       </c>
@@ -4712,7 +4936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D341FF-C706-4B03-BBF1-19B6EBC55B3F}">
   <dimension ref="A1:AC15"/>
   <sheetViews>
@@ -4720,7 +4944,7 @@
       <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
@@ -4741,7 +4965,7 @@
     <col min="29" max="29" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4830,7 +5054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.5">
+    <row r="2" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>220</v>
       </c>
@@ -4901,7 +5125,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.5">
+    <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>220</v>
       </c>
@@ -4976,7 +5200,7 @@
       </c>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>231</v>
       </c>
@@ -5049,7 +5273,7 @@
       </c>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" ht="16.5">
+    <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>231</v>
       </c>
@@ -5126,7 +5350,7 @@
       </c>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" ht="39">
+    <row r="6" spans="1:29" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>231</v>
       </c>
@@ -5203,7 +5427,7 @@
       </c>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="16.5">
+    <row r="7" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>231</v>
       </c>
@@ -5278,7 +5502,7 @@
       </c>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="1:29" ht="16.5">
+    <row r="8" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>231</v>
       </c>
@@ -5353,7 +5577,7 @@
       </c>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" ht="16.5">
+    <row r="9" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>231</v>
       </c>
@@ -5428,7 +5652,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" ht="16.5">
+    <row r="10" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>250</v>
       </c>
@@ -5505,7 +5729,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="16.5">
+    <row r="11" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>250</v>
       </c>
@@ -5582,7 +5806,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="16.5">
+    <row r="12" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>250</v>
       </c>
@@ -5659,7 +5883,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="16.5">
+    <row r="13" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>252</v>
       </c>
@@ -5730,7 +5954,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:29" ht="16.5">
+    <row r="14" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>252</v>
       </c>
@@ -5795,7 +6019,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" ht="16.5">
+    <row r="15" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>256</v>
       </c>
@@ -5877,7 +6101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B0A0B3-8637-430C-83AB-3CD1E7890F66}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
@@ -5885,7 +6109,7 @@
       <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
@@ -5915,7 +6139,7 @@
     <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6007,7 +6231,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="47.25" customHeight="1">
+    <row r="2" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>269</v>
       </c>
@@ -6088,7 +6312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>384</v>
       </c>
@@ -6135,7 +6359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>384</v>
       </c>
@@ -6180,7 +6404,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="45">
+    <row r="5" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>279</v>
       </c>
@@ -6240,7 +6464,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="45">
+    <row r="6" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>282</v>
       </c>
@@ -6308,7 +6532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="45">
+    <row r="7" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>282</v>
       </c>
@@ -6377,7 +6601,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="45">
+    <row r="8" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>282</v>
       </c>
@@ -6446,7 +6670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="45">
+    <row r="9" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>282</v>
       </c>
@@ -6515,7 +6739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="45">
+    <row r="10" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>282</v>
       </c>
@@ -6610,7 +6834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:T10"/>
   <sheetViews>
@@ -6618,7 +6842,7 @@
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -6642,7 +6866,7 @@
     <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6704,7 +6928,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>121</v>
       </c>
@@ -6748,7 +6972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>291</v>
       </c>
@@ -6796,7 +7020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>294</v>
       </c>
@@ -6842,7 +7066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>296</v>
       </c>
@@ -6888,7 +7112,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>298</v>
       </c>
@@ -6934,7 +7158,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>300</v>
       </c>
@@ -6982,7 +7206,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>576</v>
       </c>
@@ -7034,7 +7258,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>578</v>
       </c>
@@ -7086,7 +7310,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -7114,7 +7338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B863EE-0FB8-4125-A633-87E6E4517058}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
@@ -7122,7 +7346,7 @@
       <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
@@ -7152,7 +7376,7 @@
     <col min="30" max="30" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7244,7 +7468,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>307</v>
       </c>
@@ -7306,7 +7530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>312</v>
       </c>
@@ -7368,7 +7592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>314</v>
       </c>
@@ -7432,7 +7656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>317</v>
       </c>
@@ -7496,7 +7720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>320</v>
       </c>
@@ -7562,7 +7786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>324</v>
       </c>
@@ -7626,7 +7850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>457</v>
       </c>
@@ -7700,7 +7924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>483</v>
       </c>
@@ -7758,7 +7982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>488</v>
       </c>
@@ -7816,7 +8040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>569</v>
       </c>
@@ -7874,7 +8098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -7933,7 +8157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6996C0C-24E0-40BE-A97F-7A279690A8EE}">
   <dimension ref="A1:P6"/>
   <sheetViews>
@@ -7941,7 +8165,7 @@
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
@@ -7961,7 +8185,7 @@
     <col min="16" max="16" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -8011,7 +8235,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>368</v>
       </c>
@@ -8052,7 +8276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>369</v>
       </c>
@@ -8090,7 +8314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>370</v>
       </c>
@@ -8128,7 +8352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>366</v>
       </c>
@@ -8166,7 +8390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>367</v>
       </c>
@@ -8212,7 +8436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DAABDA-3594-43D7-9AEC-0D8E440ACE4D}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
@@ -8220,7 +8444,7 @@
       <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -8249,7 +8473,7 @@
     <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8329,7 +8553,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>328</v>
       </c>
@@ -8387,7 +8611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>329</v>
       </c>
@@ -8442,7 +8666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>330</v>
       </c>
@@ -8497,7 +8721,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>331</v>
       </c>
@@ -8552,7 +8776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>332</v>
       </c>
@@ -8607,7 +8831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>333</v>
       </c>
@@ -8670,7 +8894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>336</v>
       </c>
@@ -8727,7 +8951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="102.75">
+    <row r="9" spans="1:26" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>338</v>
       </c>
@@ -8782,7 +9006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="409.5">
+    <row r="10" spans="1:26" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>454</v>
       </c>
@@ -8860,7 +9084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B6D706-4369-43B1-B41D-E358306B83B4}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -8868,7 +9092,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -8885,7 +9109,7 @@
     <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8927,7 +9151,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>342</v>
       </c>
@@ -8970,374 +9194,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9ECCE6-1FC9-48C7-BBB8-F3E55C223DFA}">
-  <dimension ref="A1:S7"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.7109375" customWidth="1"/>
-    <col min="16" max="16" width="33.140625" customWidth="1"/>
-    <col min="17" max="17" width="33.28515625" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="L1" t="s">
-        <v>346</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>553</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>554</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="74.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="O2" s="32" t="s">
-        <v>555</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>557</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>558</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="S5" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
-        <v>351</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="S7" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9349,7 +9205,7 @@
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -9372,7 +9228,7 @@
     <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9443,7 +9299,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -9514,7 +9370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>91</v>
       </c>
@@ -9585,7 +9441,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
@@ -9656,7 +9512,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>98</v>
       </c>
@@ -9727,7 +9583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>103</v>
       </c>
@@ -9798,7 +9654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>109</v>
       </c>
@@ -9869,7 +9725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>111</v>
       </c>
@@ -9952,6 +9808,374 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9ECCE6-1FC9-48C7-BBB8-F3E55C223DFA}">
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" customWidth="1"/>
+    <col min="16" max="16" width="33.140625" customWidth="1"/>
+    <col min="17" max="17" width="33.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" t="s">
+        <v>346</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="O2" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7608AE-4E83-4A59-A303-21D2C67D6F9E}">
   <dimension ref="A1:P6"/>
   <sheetViews>
@@ -9959,7 +10183,7 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -9977,7 +10201,7 @@
     <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10025,7 +10249,7 @@
       </c>
       <c r="P1" s="15"/>
     </row>
-    <row r="2" spans="1:16" ht="114.75">
+    <row r="2" spans="1:16" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>563</v>
       </c>
@@ -10069,7 +10293,7 @@
       </c>
       <c r="P2" s="15"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>565</v>
       </c>
@@ -10113,7 +10337,7 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>566</v>
       </c>
@@ -10159,7 +10383,7 @@
       </c>
       <c r="P4" s="15"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -10177,7 +10401,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -10216,7 +10440,7 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -10258,7 +10482,7 @@
     <col min="39" max="39" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10377,7 +10601,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>385</v>
       </c>
@@ -10451,7 +10675,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>404</v>
       </c>
@@ -10510,7 +10734,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>406</v>
       </c>
@@ -10548,7 +10772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>419</v>
       </c>
@@ -10601,7 +10825,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>424</v>
       </c>
@@ -10663,7 +10887,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>427</v>
       </c>
@@ -10757,7 +10981,7 @@
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.85546875" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
@@ -10785,7 +11009,7 @@
     <col min="33" max="33" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10889,7 +11113,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>419</v>
       </c>
@@ -10942,7 +11166,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>424</v>
       </c>
@@ -11004,7 +11228,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>424</v>
       </c>
@@ -11066,7 +11290,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>424</v>
       </c>
@@ -11128,7 +11352,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>424</v>
       </c>
@@ -11190,7 +11414,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>659</v>
       </c>
@@ -11252,7 +11476,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>427</v>
       </c>
@@ -11317,7 +11541,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="30">
+    <row r="9" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>595</v>
       </c>
@@ -11386,7 +11610,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="60">
+    <row r="10" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>600</v>
       </c>
@@ -11454,7 +11678,7 @@
       <c r="AF10" s="26"/>
       <c r="AG10" s="26"/>
     </row>
-    <row r="11" spans="1:34" ht="60">
+    <row r="11" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>602</v>
       </c>
@@ -11522,7 +11746,7 @@
       <c r="AF11" s="26"/>
       <c r="AG11" s="26"/>
     </row>
-    <row r="12" spans="1:34" ht="60">
+    <row r="12" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>604</v>
       </c>
@@ -11590,7 +11814,7 @@
       <c r="AF12" s="26"/>
       <c r="AG12" s="26"/>
     </row>
-    <row r="13" spans="1:34" ht="60">
+    <row r="13" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>606</v>
       </c>
@@ -11658,7 +11882,7 @@
       <c r="AF13" s="26"/>
       <c r="AG13" s="26"/>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>608</v>
       </c>
@@ -11716,7 +11940,7 @@
       <c r="AF14" s="26"/>
       <c r="AG14" s="26"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>609</v>
       </c>
@@ -11774,7 +11998,7 @@
       <c r="AF15" s="26"/>
       <c r="AG15" s="26"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>610</v>
       </c>
@@ -11832,7 +12056,7 @@
       <c r="AF16" s="26"/>
       <c r="AG16" s="26"/>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>611</v>
       </c>
@@ -11890,7 +12114,7 @@
       <c r="AF17" s="26"/>
       <c r="AG17" s="26"/>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>612</v>
       </c>
@@ -11948,7 +12172,7 @@
       <c r="AF18" s="26"/>
       <c r="AG18" s="26"/>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>613</v>
       </c>
@@ -12006,7 +12230,7 @@
       <c r="AF19" s="26"/>
       <c r="AG19" s="26"/>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>614</v>
       </c>
@@ -12064,7 +12288,7 @@
       <c r="AF20" s="26"/>
       <c r="AG20" s="26"/>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>615</v>
       </c>
@@ -12122,7 +12346,7 @@
       <c r="AF21" s="26"/>
       <c r="AG21" s="26"/>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>616</v>
       </c>
@@ -12183,7 +12407,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>617</v>
       </c>
@@ -12303,7 +12527,7 @@
       <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -12311,7 +12535,7 @@
     <col min="37" max="37" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12424,7 +12648,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>632</v>
       </c>
@@ -12511,7 +12735,7 @@
       <c r="AJ2" s="15"/>
       <c r="AK2" s="15"/>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>643</v>
       </c>
@@ -12622,7 +12846,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>648</v>
       </c>
@@ -12733,7 +12957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -12811,7 +13035,7 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
@@ -12832,7 +13056,7 @@
     <col min="17" max="17" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -12885,7 +13109,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30">
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>433</v>
       </c>
@@ -12935,7 +13159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>433</v>
       </c>
@@ -12976,7 +13200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>438</v>
       </c>
@@ -13020,7 +13244,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>438</v>
       </c>
@@ -13061,7 +13285,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>438</v>
       </c>
@@ -13102,7 +13326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>438</v>
       </c>
@@ -13171,7 +13395,7 @@
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -13194,7 +13418,7 @@
     <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13256,7 +13480,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>449</v>
       </c>
@@ -13312,7 +13536,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="45">
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>491</v>
       </c>
@@ -13378,7 +13602,7 @@
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -13404,7 +13628,7 @@
     <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13496,7 +13720,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>497</v>
       </c>
@@ -13579,7 +13803,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>508</v>
       </c>
@@ -13602,7 +13826,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>510</v>
       </c>
@@ -13646,7 +13870,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>539</v>
       </c>
@@ -13686,11 +13910,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
@@ -13713,7 +13937,7 @@
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13772,7 +13996,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>121</v>
       </c>
@@ -13817,7 +14041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="26.25">
+    <row r="3" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
@@ -13852,7 +14076,7 @@
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="26.25">
+    <row r="4" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>124</v>
       </c>
@@ -13887,7 +14111,7 @@
       </c>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="26.25">
+    <row r="5" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>124</v>
       </c>
@@ -13924,7 +14148,7 @@
       </c>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="26.25">
+    <row r="6" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -13961,7 +14185,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>135</v>
       </c>
@@ -13998,7 +14222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>137</v>
       </c>
@@ -14039,7 +14263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>137</v>
       </c>
@@ -14078,7 +14302,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>137</v>
       </c>
@@ -14117,7 +14341,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -14156,7 +14380,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>137</v>
       </c>
@@ -14195,7 +14419,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>137</v>
       </c>
@@ -14234,7 +14458,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>137</v>
       </c>
@@ -14273,7 +14497,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>472</v>
       </c>
@@ -14299,7 +14523,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>472</v>
       </c>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Web(20-10-2022)RegressionTestData and test Script\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Admin(26-10-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2E000F-59CD-474F-823D-9899237540DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3F1F60-5FAE-4909-B376-E998345690BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="710">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2191,9 +2191,6 @@
   </si>
   <si>
     <t>Batch ID - BDC222920600</t>
-  </si>
-  <si>
-    <t>jhgvdhbsdjkjcxnhjb j</t>
   </si>
   <si>
     <t xml:space="preserve">exportFile </t>
@@ -3747,7 +3744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE7FBCC-0AD2-4CB8-BB75-EACD68A9A988}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -3813,10 +3810,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B2" t="s">
         <v>703</v>
-      </c>
-      <c r="B2" t="s">
-        <v>704</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
@@ -3851,10 +3848,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B3" t="s">
         <v>705</v>
-      </c>
-      <c r="B3" t="s">
-        <v>706</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>25</v>
@@ -3890,15 +3887,15 @@
         <v>495</v>
       </c>
       <c r="N3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>707</v>
+      </c>
+      <c r="B4" t="s">
         <v>708</v>
-      </c>
-      <c r="B4" t="s">
-        <v>709</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>25</v>
@@ -3934,7 +3931,7 @@
         <v>495</v>
       </c>
       <c r="N4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -4729,8 +4726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77806F8-4095-4D16-96F4-6911E0B4577F}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4836,7 +4833,7 @@
         <v>1961</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>702</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Admin(26-10-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3F1F60-5FAE-4909-B376-E998345690BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8EA11F-F272-46DC-A46F-CC39474D03AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="714">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2216,12 +2216,24 @@
   <si>
     <t>Selected file has been successfully deleted</t>
   </si>
+  <si>
+    <t>13/11/2022</t>
+  </si>
+  <si>
+    <t>ID C-755</t>
+  </si>
+  <si>
+    <t>Account ID: C-755</t>
+  </si>
+  <si>
+    <t>Suresh Personal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2373,8 +2385,15 @@
       <color rgb="FFFF8C00"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2385,6 +2404,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2410,7 +2435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2468,10 +2493,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4726,7 +4753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77806F8-4095-4D16-96F4-6911E0B4577F}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -6835,8 +6862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7242,8 +7269,8 @@
       <c r="P8" s="15">
         <v>10</v>
       </c>
-      <c r="Q8" s="37">
-        <v>44845</v>
+      <c r="Q8" s="40" t="s">
+        <v>710</v>
       </c>
       <c r="R8" s="15" t="s">
         <v>495</v>
@@ -7294,8 +7321,8 @@
       <c r="P9" s="15">
         <v>10</v>
       </c>
-      <c r="Q9" s="37">
-        <v>44845</v>
+      <c r="Q9" s="40" t="s">
+        <v>710</v>
       </c>
       <c r="R9" s="21" t="s">
         <v>579</v>
@@ -7893,10 +7920,10 @@
       <c r="S8" s="15">
         <v>12346</v>
       </c>
-      <c r="T8" s="38">
+      <c r="T8" s="37">
         <v>44817</v>
       </c>
-      <c r="U8" s="38">
+      <c r="U8" s="37">
         <v>44818</v>
       </c>
       <c r="V8" s="15" t="s">
@@ -10433,8 +10460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3A334-050A-4737-9B01-1B13EAAB8BDD}">
   <dimension ref="A1:AM7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10769,7 +10796,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>419</v>
       </c>
@@ -10812,17 +10839,17 @@
       <c r="AE5" t="s">
         <v>420</v>
       </c>
-      <c r="AF5" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG5" s="27" t="s">
-        <v>422</v>
+      <c r="AF5" s="42" t="s">
+        <v>711</v>
+      </c>
+      <c r="AG5" s="41" t="s">
+        <v>713</v>
       </c>
       <c r="AH5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>424</v>
       </c>
@@ -10865,14 +10892,14 @@
       <c r="AE6" t="s">
         <v>420</v>
       </c>
-      <c r="AF6" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG6" s="27" t="s">
-        <v>422</v>
+      <c r="AF6" s="42" t="s">
+        <v>711</v>
+      </c>
+      <c r="AG6" s="41" t="s">
+        <v>713</v>
       </c>
       <c r="AH6" t="s">
-        <v>423</v>
+        <v>712</v>
       </c>
       <c r="AI6" t="s">
         <v>425</v>
@@ -10884,7 +10911,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>427</v>
       </c>
@@ -10927,14 +10954,14 @@
       <c r="AE7" t="s">
         <v>420</v>
       </c>
-      <c r="AF7" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG7" s="27" t="s">
-        <v>422</v>
+      <c r="AF7" s="42" t="s">
+        <v>711</v>
+      </c>
+      <c r="AG7" s="41" t="s">
+        <v>713</v>
       </c>
       <c r="AH7" t="s">
-        <v>423</v>
+        <v>712</v>
       </c>
       <c r="AI7" t="s">
         <v>425</v>
@@ -11389,7 +11416,7 @@
       <c r="M6" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="39" t="s">
         <v>682</v>
       </c>
       <c r="P6" s="27" t="s">
@@ -12518,21 +12545,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBCCE70-8886-44A0-B994-06CEF8321F97}">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="41" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12641,11 +12668,8 @@
       <c r="AJ1" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>632</v>
       </c>
@@ -12655,13 +12679,27 @@
       <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="D2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="K2" s="15"/>
       <c r="L2" s="13" t="s">
         <v>633</v>
@@ -12678,8 +12716,8 @@
       <c r="P2" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="Q2" s="18">
-        <v>2145551212</v>
+      <c r="Q2" s="18" t="s">
+        <v>644</v>
       </c>
       <c r="R2" s="13" t="s">
         <v>638</v>
@@ -12711,7 +12749,7 @@
       <c r="AA2" s="27" t="s">
         <v>642</v>
       </c>
-      <c r="AB2" s="39">
+      <c r="AB2" s="38">
         <v>31547</v>
       </c>
       <c r="AC2" s="15">
@@ -12730,9 +12768,8 @@
       <c r="AH2" s="15"/>
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>643</v>
       </c>
@@ -12812,7 +12849,7 @@
       <c r="AA3" s="27" t="s">
         <v>642</v>
       </c>
-      <c r="AB3" s="39">
+      <c r="AB3" s="38">
         <v>35026</v>
       </c>
       <c r="AC3" s="15">
@@ -12839,11 +12876,8 @@
       <c r="AJ3" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="AK3" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>648</v>
       </c>
@@ -12923,7 +12957,7 @@
       <c r="AA4" s="27" t="s">
         <v>642</v>
       </c>
-      <c r="AB4" s="39">
+      <c r="AB4" s="38">
         <v>35025</v>
       </c>
       <c r="AC4" s="15">
@@ -12950,11 +12984,8 @@
       <c r="AJ4" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="AK4" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -12991,7 +13022,6 @@
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
       <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13019,6 +13049,7 @@
     <hyperlink ref="U4" r:id="rId22" display="mailto:Cust@123" xr:uid="{3CC698D2-BA3A-4CCE-AF2E-FA2F57DBA17E}"/>
     <hyperlink ref="AG4" r:id="rId23" display="mailto:Prajwalc@ideyalabs.com" xr:uid="{6F399244-DD03-4AD5-B707-9A2AEA8C3B61}"/>
     <hyperlink ref="AH4" r:id="rId24" display="mailto:Admin@123%60%60" xr:uid="{58D3D292-B662-41DA-B7BA-2BBF369401EA}"/>
+    <hyperlink ref="D2" r:id="rId25" display="mailto:Santoshp@ideyalabs.com" xr:uid="{D1743EA7-B214-4262-9B0A-52C85E80C5AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13907,8 +13938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14182,7 +14213,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>135</v>
       </c>
@@ -14202,8 +14233,12 @@
         <v>28</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="J7" s="7" t="s">
         <v>32</v>
       </c>
@@ -14560,5 +14595,6 @@
     <hyperlink ref="S12" r:id="rId10" location="$%^" xr:uid="{093A161E-CB03-4693-90EF-B8D6480C7B81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\En-Auto-new(11-11-2-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8EA11F-F272-46DC-A46F-CC39474D03AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149C0ADB-8AC3-4BC1-9847-739491F7A6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -26,14 +26,15 @@
     <sheet name="ForgotPassword" sheetId="4" r:id="rId11"/>
     <sheet name="gobalSearch" sheetId="21" r:id="rId12"/>
     <sheet name="forgotEmail" sheetId="6" r:id="rId13"/>
-    <sheet name="AddSignetAccount" sheetId="9" r:id="rId14"/>
-    <sheet name="feeStructure" sheetId="10" r:id="rId15"/>
-    <sheet name="TransactionDetails" sheetId="13" r:id="rId16"/>
-    <sheet name="AccountLimits" sheetId="16" r:id="rId17"/>
-    <sheet name="transaction" sheetId="14" r:id="rId18"/>
-    <sheet name="featureControl" sheetId="11" r:id="rId19"/>
-    <sheet name="BalanceReport" sheetId="12" r:id="rId20"/>
-    <sheet name="Disputes" sheetId="22" r:id="rId21"/>
+    <sheet name="AddCogentAccount" sheetId="9" r:id="rId14"/>
+    <sheet name="SignupPage" sheetId="26" r:id="rId15"/>
+    <sheet name="feeStructure" sheetId="10" r:id="rId16"/>
+    <sheet name="TransactionDetails" sheetId="13" r:id="rId17"/>
+    <sheet name="AccountLimits" sheetId="16" r:id="rId18"/>
+    <sheet name="transaction" sheetId="14" r:id="rId19"/>
+    <sheet name="featureControl" sheetId="11" r:id="rId20"/>
+    <sheet name="BalanceReport" sheetId="12" r:id="rId21"/>
+    <sheet name="Disputes" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="809">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -864,21 +865,6 @@
     <t>removeSignetAccountHeading</t>
   </si>
   <si>
-    <t>testAddSignetAccount</t>
-  </si>
-  <si>
-    <t>Add Signet Account</t>
-  </si>
-  <si>
-    <t>No Signet Accounts Exist</t>
-  </si>
-  <si>
-    <t>Add New Signet Account</t>
-  </si>
-  <si>
-    <t>SignetBank</t>
-  </si>
-  <si>
     <t>345hfgsfd</t>
   </si>
   <si>
@@ -894,16 +880,7 @@
     <t>500008</t>
   </si>
   <si>
-    <t>testRemoveSignetAccount</t>
-  </si>
-  <si>
     <t>Withdraw to Signet Account</t>
-  </si>
-  <si>
-    <t>Remove Signet Account</t>
-  </si>
-  <si>
-    <t>testAddSignetAccountInvalidDataValidations</t>
   </si>
   <si>
     <t>Address Line 1 is required</t>
@@ -1177,41 +1154,17 @@
  from your coyni token account without a Signet account.</t>
   </si>
   <si>
-    <t>Are you sure you want to remove this Signet account? Youcannot make any withdrawals from your coyni token accountwithout a Signet account.</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Insufficient funds.</t>
-  </si>
-  <si>
-    <t>Add Signet Account with empty Name</t>
-  </si>
-  <si>
-    <t>Add Signet Account with empty Address line1</t>
   </si>
   <si>
     <t xml:space="preserve">Name is required
 </t>
   </si>
   <si>
-    <t>Add Signet Account with empty City</t>
-  </si>
-  <si>
     <t>Siddipet</t>
   </si>
   <si>
-    <t>Add Signet Account with empty State</t>
-  </si>
-  <si>
-    <t>Add Signet Account with empty ZipCode</t>
-  </si>
-  <si>
     <t>Invalid Amount</t>
-  </si>
-  <si>
-    <t>testSignetAccountInvalidAmount</t>
   </si>
   <si>
     <t xml:space="preserve">create Api Business </t>
@@ -1456,9 +1409,6 @@
     <t>Mark As Won</t>
   </si>
   <si>
-    <t>Are you sure you want to mark this dispute case as Won? You will not be able to make any more changes to the status once you do so.</t>
-  </si>
-  <si>
     <t>Test Test</t>
   </si>
   <si>
@@ -1868,9 +1818,6 @@
   </si>
   <si>
     <t>Verify Individual Token Account Test Transactions Sent Details List</t>
-  </si>
-  <si>
-    <t>Tokens Sent Transactions</t>
   </si>
   <si>
     <t>Verify Individual Token Account Test Transactions Purchased Details List</t>
@@ -2217,9 +2164,6 @@
     <t>Selected file has been successfully deleted</t>
   </si>
   <si>
-    <t>13/11/2022</t>
-  </si>
-  <si>
     <t>ID C-755</t>
   </si>
   <si>
@@ -2227,13 +2171,355 @@
   </si>
   <si>
     <t>Suresh Personal</t>
+  </si>
+  <si>
+    <t>Are you sure you want to mark this dispute caseas Won? You will not be able to make any morechanges to the status once you do so.</t>
+  </si>
+  <si>
+    <t>Token Sent</t>
+  </si>
+  <si>
+    <t>11/15/2022</t>
+  </si>
+  <si>
+    <t>testAddCogentAccount</t>
+  </si>
+  <si>
+    <t>testCogentAccountInvalidAmount</t>
+  </si>
+  <si>
+    <t>testRemoveCogentAccount</t>
+  </si>
+  <si>
+    <t>testAddCogentAccountInvalidDataValidations</t>
+  </si>
+  <si>
+    <t>Add Cogent Account</t>
+  </si>
+  <si>
+    <t>Remove Cogent Account</t>
+  </si>
+  <si>
+    <t>Add Cogent Account with empty Name</t>
+  </si>
+  <si>
+    <t>Add Cogent Account with empty Address line1</t>
+  </si>
+  <si>
+    <t>Add Cogent Account with empty City</t>
+  </si>
+  <si>
+    <t>Add Cogent Account with empty State</t>
+  </si>
+  <si>
+    <t>Add Cogent Account with empty ZipCode</t>
+  </si>
+  <si>
+    <t>Add New Cogent Account</t>
+  </si>
+  <si>
+    <t>Withdraw to Cogent Account</t>
+  </si>
+  <si>
+    <t>CogentBank</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Are you sure you want to remove this Cogent account? Youcannot make any withdrawals from your coyni token accountwithout a Cogent account.</t>
+  </si>
+  <si>
+    <t>No Cogent Accounts Exist</t>
+  </si>
+  <si>
+    <t>reddy</t>
+  </si>
+  <si>
+    <t>Create a Merchant Account</t>
+  </si>
+  <si>
+    <t>Account Created!</t>
+  </si>
+  <si>
+    <t>errMessage1</t>
+  </si>
+  <si>
+    <t>landingHeading1</t>
+  </si>
+  <si>
+    <t>securityKey1</t>
+  </si>
+  <si>
+    <t>phoneNumber1</t>
+  </si>
+  <si>
+    <t>code1</t>
+  </si>
+  <si>
+    <t>firstName1</t>
+  </si>
+  <si>
+    <t>lastName1</t>
+  </si>
+  <si>
+    <t>verifyPhoneNumber1</t>
+  </si>
+  <si>
+    <t>confirmPassword1</t>
+  </si>
+  <si>
+    <t>createAccountHeading1</t>
+  </si>
+  <si>
+    <t>verificationHeading1</t>
+  </si>
+  <si>
+    <t>emailHeading1</t>
+  </si>
+  <si>
+    <t>newEmail1</t>
+  </si>
+  <si>
+    <t>createdAccountHeading1</t>
+  </si>
+  <si>
+    <t>createPassword1</t>
+  </si>
+  <si>
+    <t>startPageHeading</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>startPageDescription</t>
+  </si>
+  <si>
+    <t>companyInfoHeading</t>
+  </si>
+  <si>
+    <t>companyInfoDescription</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>ssn_ein_tin</t>
+  </si>
+  <si>
+    <t>companyEmail</t>
+  </si>
+  <si>
+    <t>companyPhoneNumber</t>
+  </si>
+  <si>
+    <t>addressline1</t>
+  </si>
+  <si>
+    <t>addressline2</t>
+  </si>
+  <si>
+    <t>businessEntity</t>
+  </si>
+  <si>
+    <t>dbaHeading</t>
+  </si>
+  <si>
+    <t>dbaDescription</t>
+  </si>
+  <si>
+    <t>expInfo</t>
+  </si>
+  <si>
+    <t>yesDes</t>
+  </si>
+  <si>
+    <t>noDes</t>
+  </si>
+  <si>
+    <t>expMessage</t>
+  </si>
+  <si>
+    <t>dbaName</t>
+  </si>
+  <si>
+    <t>monthlyProcessingVolume</t>
+  </si>
+  <si>
+    <t>highTicket</t>
+  </si>
+  <si>
+    <t>averageTicket</t>
+  </si>
+  <si>
+    <t>businessType</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>ownerShip</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>expOwnerLabels</t>
+  </si>
+  <si>
+    <t>ownerName</t>
+  </si>
+  <si>
+    <t>ownerShipLabel</t>
+  </si>
+  <si>
+    <t>bankAccountName</t>
+  </si>
+  <si>
+    <t>routingNumber</t>
+  </si>
+  <si>
+    <t>confirmRoutingNumber</t>
+  </si>
+  <si>
+    <t>accountNumber</t>
+  </si>
+  <si>
+    <t>confirmAccountNumber</t>
+  </si>
+  <si>
+    <t>Welcome Vishnu Pavan</t>
+  </si>
+  <si>
+    <t>Pavan</t>
+  </si>
+  <si>
+    <t>We’re excited to get your business account up and running with coyni. We will walk you through the Merchant Application steps to unlock all account features and maximum account transfer limits.</t>
+  </si>
+  <si>
+    <t>Company Information</t>
+  </si>
+  <si>
+    <t>Please begin your Merchant application By filling out your company information and uploading a copy of the specified required documents below.</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>prajwal39@gmail.com</t>
+  </si>
+  <si>
+    <t>7079687682</t>
+  </si>
+  <si>
+    <t>addline 1</t>
+  </si>
+  <si>
+    <t>addline 2</t>
+  </si>
+  <si>
+    <t>twin hills</t>
+  </si>
+  <si>
+    <t>59576</t>
+  </si>
+  <si>
+    <t>C Corporation</t>
+  </si>
+  <si>
+    <t>DBA Information</t>
+  </si>
+  <si>
+    <t>Business Services, Not Elsewhere Classified (7399)</t>
+  </si>
+  <si>
+    <t>Pacific (PST)</t>
+  </si>
+  <si>
+    <t>mywebsite.com</t>
+  </si>
+  <si>
+    <t>Rachana</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>03/01/1998</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>drivers license,state issued id,passport</t>
+  </si>
+  <si>
+    <t>Beneficial Owner 1:,Beneficial Owner 2:,Beneficial Owner 3:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RachanaK </t>
+  </si>
+  <si>
+    <t>Ownership:</t>
+  </si>
+  <si>
+    <t>51% Ownership</t>
+  </si>
+  <si>
+    <t>Beneficial Owner(s)</t>
+  </si>
+  <si>
+    <t>Please add Beneficial Owners to the application. If beneficial ownership is less than 51%  you will need to add an additional Beneficial Owner until the ownership is 51% or greater</t>
+  </si>
+  <si>
+    <t>122105278</t>
+  </si>
+  <si>
+    <t>0000000016</t>
+  </si>
+  <si>
+    <t>rgba(0 166 162)</t>
+  </si>
+  <si>
+    <t>Verify Underwriting Merchant</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
+    <t>5/15/1986</t>
+  </si>
+  <si>
+    <t>11/23/1995</t>
+  </si>
+  <si>
+    <t>Verify Create Account Merchant with valid credentials</t>
+  </si>
+  <si>
+    <t>Monika1</t>
+  </si>
+  <si>
+    <t>monika1004@gmail.com</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Admin login Page password View</t>
+  </si>
+  <si>
+    <t>password masked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2392,6 +2678,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF767676"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2431,11 +2723,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2494,15 +2787,47 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{BD3367DE-A629-4F15-A702-14592E502171}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2879,7 +3204,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
@@ -3685,10 +4010,10 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>25</v>
@@ -3826,10 +4151,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="M1" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -3837,10 +4162,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="B2" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
@@ -3875,10 +4200,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="B3" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>25</v>
@@ -3911,18 +4236,18 @@
         <v>123456</v>
       </c>
       <c r="M3" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="N3" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="B4" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>25</v>
@@ -3955,10 +4280,10 @@
         <v>123456</v>
       </c>
       <c r="M4" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="N4" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -4072,7 +4397,7 @@
         <v>169</v>
       </c>
       <c r="Z1" s="14" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
@@ -4813,21 +5138,21 @@
         <v>82</v>
       </c>
       <c r="M1" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>25</v>
@@ -4865,10 +5190,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>25</v>
@@ -4898,7 +5223,7 @@
         <v>33</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="O3" s="17" t="s">
         <v>32</v>
@@ -4906,10 +5231,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>25</v>
@@ -4940,7 +5265,7 @@
       </c>
       <c r="M4" s="13"/>
       <c r="N4" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>32</v>
@@ -5109,7 +5434,7 @@
         <v>222</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>223</v>
@@ -5139,7 +5464,7 @@
         <v>227</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -5180,7 +5505,7 @@
         <v>222</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>223</v>
@@ -5328,7 +5653,7 @@
         <v>222</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>223</v>
@@ -5358,7 +5683,7 @@
         <v>227</v>
       </c>
       <c r="X5" s="19" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>234</v>
@@ -5482,7 +5807,7 @@
         <v>222</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>223</v>
@@ -5510,7 +5835,7 @@
         <v>227</v>
       </c>
       <c r="X7" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>241</v>
@@ -5557,7 +5882,7 @@
         <v>222</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>223</v>
@@ -5585,7 +5910,7 @@
         <v>227</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>241</v>
@@ -5632,7 +5957,7 @@
         <v>222</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>223</v>
@@ -5662,7 +5987,7 @@
         <v>227</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>247</v>
@@ -5707,7 +6032,7 @@
         <v>222</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>223</v>
@@ -5737,7 +6062,7 @@
         <v>227</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>140</v>
@@ -5784,7 +6109,7 @@
         <v>222</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>223</v>
@@ -5814,7 +6139,7 @@
         <v>227</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y11" s="2" t="s">
         <v>140</v>
@@ -5861,7 +6186,7 @@
         <v>222</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>223</v>
@@ -5891,7 +6216,7 @@
         <v>227</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y12" s="2" t="s">
         <v>140</v>
@@ -5938,7 +6263,7 @@
         <v>222</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>223</v>
@@ -5968,7 +6293,7 @@
         <v>227</v>
       </c>
       <c r="X13" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2" t="s">
@@ -6007,7 +6332,7 @@
         <v>222</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>223</v>
@@ -6033,7 +6358,7 @@
         <v>227</v>
       </c>
       <c r="X14" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2" t="s">
@@ -6074,7 +6399,7 @@
         <v>222</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>223</v>
@@ -6104,7 +6429,7 @@
         <v>227</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
@@ -6129,8 +6454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B0A0B3-8637-430C-83AB-3CD1E7890F66}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6231,10 +6556,10 @@
         <v>267</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>118</v>
@@ -6246,21 +6571,21 @@
         <v>120</v>
       </c>
       <c r="AB1" s="14" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>268</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>269</v>
+        <v>698</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>270</v>
+        <v>702</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>25</v>
@@ -6290,47 +6615,47 @@
         <v>33</v>
       </c>
       <c r="L2" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="M2" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="N2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="U2" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="P2" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>278</v>
-      </c>
       <c r="V2" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="W2" s="15">
-        <v>10</v>
+        <v>710</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>502</v>
       </c>
       <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
       <c r="Z2" s="15"/>
       <c r="AA2" s="15"/>
       <c r="AB2" s="15" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AD2" s="17" t="s">
         <v>32</v>
@@ -6338,10 +6663,10 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>384</v>
+        <v>699</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>25</v>
@@ -6374,10 +6699,10 @@
         <v>1</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>374</v>
+        <v>712</v>
       </c>
       <c r="Y3" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="AD3" s="17" t="s">
         <v>32</v>
@@ -6385,10 +6710,10 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>384</v>
+        <v>699</v>
       </c>
       <c r="B4" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>69</v>
@@ -6422,18 +6747,18 @@
       </c>
       <c r="W4" s="20"/>
       <c r="Y4" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="AD4" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>279</v>
+        <v>700</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>281</v>
+        <v>703</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>25</v>
@@ -6463,8 +6788,8 @@
         <v>33</v>
       </c>
       <c r="L5" s="15"/>
-      <c r="M5" s="16" t="s">
-        <v>373</v>
+      <c r="M5" s="42" t="s">
+        <v>713</v>
       </c>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
@@ -6482,7 +6807,7 @@
       <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
       <c r="AC5" t="s">
-        <v>281</v>
+        <v>703</v>
       </c>
       <c r="AD5" s="17" t="s">
         <v>32</v>
@@ -6490,10 +6815,10 @@
     </row>
     <row r="6" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>282</v>
+        <v>701</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>376</v>
+        <v>704</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>25</v>
@@ -6523,34 +6848,34 @@
         <v>33</v>
       </c>
       <c r="L6" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="S6" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="M6" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="N6" s="15" t="s">
+      <c r="T6" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="P6" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>277</v>
-      </c>
       <c r="U6" s="17" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Y6" s="26" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="AD6" s="17" t="s">
         <v>32</v>
@@ -6558,10 +6883,10 @@
     </row>
     <row r="7" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>282</v>
+        <v>701</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>377</v>
+        <v>705</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>69</v>
@@ -6591,35 +6916,35 @@
         <v>33</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>271</v>
+        <v>714</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>272</v>
+        <v>709</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>273</v>
+        <v>711</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="15"/>
       <c r="R7" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="U7" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y7" t="s">
         <v>275</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>283</v>
       </c>
       <c r="AD7" s="17" t="s">
         <v>32</v>
@@ -6627,10 +6952,10 @@
     </row>
     <row r="8" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>282</v>
+        <v>701</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>379</v>
+        <v>706</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>71</v>
@@ -6660,35 +6985,35 @@
         <v>33</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>271</v>
+        <v>714</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>272</v>
+        <v>709</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>273</v>
+        <v>711</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Y8" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AD8" s="17" t="s">
         <v>32</v>
@@ -6696,10 +7021,10 @@
     </row>
     <row r="9" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>282</v>
+        <v>701</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>381</v>
+        <v>707</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>73</v>
@@ -6729,35 +7054,35 @@
         <v>33</v>
       </c>
       <c r="L9" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="S9" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="S9" s="15" t="s">
-        <v>276</v>
       </c>
       <c r="T9" s="15"/>
       <c r="U9" s="17" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Y9" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AD9" s="17" t="s">
         <v>32</v>
@@ -6765,10 +7090,10 @@
     </row>
     <row r="10" spans="1:30" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>282</v>
+        <v>701</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>382</v>
+        <v>708</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>75</v>
@@ -6798,35 +7123,35 @@
         <v>33</v>
       </c>
       <c r="L10" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="S10" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="M10" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="N10" s="15" t="s">
+      <c r="T10" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>277</v>
       </c>
       <c r="U10" s="17"/>
       <c r="Y10" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AD10" s="17" t="s">
         <v>32</v>
@@ -6859,11 +7184,520 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77372ADD-3C84-4CC3-8B32-31147894CD0D}">
+  <dimension ref="A1:CB2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="64.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>721</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>722</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>723</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>724</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>725</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>732</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>726</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>719</v>
+      </c>
+      <c r="O1" s="43" t="s">
+        <v>727</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>728</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>729</v>
+      </c>
+      <c r="R1" s="43" t="s">
+        <v>730</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>731</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>757</v>
+      </c>
+      <c r="BK1" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="BL1" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="BM1" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="BN1" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="BO1" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="BP1" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="BQ1" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="BR1" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="BS1" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="BT1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU1" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="BV1" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="BW1" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="BX1" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="BY1" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="BZ1" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CB1" s="1"/>
+    </row>
+    <row r="2" spans="1:80" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>803</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>803</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="55">
+        <v>2025550154</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>804</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>715</v>
+      </c>
+      <c r="K2" s="55">
+        <v>2025550154</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="O2" s="44" t="s">
+        <v>716</v>
+      </c>
+      <c r="P2" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q2" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="S2" s="44" t="s">
+        <v>717</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="AE2" s="46" t="s">
+        <v>770</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="AG2" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="AO2" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="AP2" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="AR2" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="AS2" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="AW2" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="AX2" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="BE2" s="15">
+        <v>10000</v>
+      </c>
+      <c r="BF2" s="15">
+        <v>10</v>
+      </c>
+      <c r="BG2" s="15">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="BI2" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="BJ2" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="BK2" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>786</v>
+      </c>
+      <c r="BM2" s="47" t="s">
+        <v>787</v>
+      </c>
+      <c r="BN2" s="20" t="s">
+        <v>788</v>
+      </c>
+      <c r="BO2" s="33" t="s">
+        <v>789</v>
+      </c>
+      <c r="BP2" s="48" t="s">
+        <v>790</v>
+      </c>
+      <c r="BQ2" s="33" t="s">
+        <v>791</v>
+      </c>
+      <c r="BR2" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="BS2" s="49" t="s">
+        <v>793</v>
+      </c>
+      <c r="BT2" s="50" t="s">
+        <v>794</v>
+      </c>
+      <c r="BU2" s="51" t="s">
+        <v>795</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>380</v>
+      </c>
+      <c r="BW2" s="52" t="s">
+        <v>796</v>
+      </c>
+      <c r="BX2" s="52" t="s">
+        <v>796</v>
+      </c>
+      <c r="BY2" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="BZ2" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="CA2" s="20" t="s">
+        <v>798</v>
+      </c>
+      <c r="CB2" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{3C33A8CF-4FBC-4621-BA7A-099E6903E280}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{B6B6639C-A55F-4399-B5C3-820D7B14CD32}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{797DC6FB-B31E-448B-AFDC-29D22520F711}"/>
+    <hyperlink ref="AJ2" r:id="rId4" xr:uid="{1D4E4318-AF3D-4CE4-B412-D05CD10EC90F}"/>
+    <hyperlink ref="R2" r:id="rId5" xr:uid="{7049CA41-96AB-4C4A-B5CB-C975E59FF450}"/>
+    <hyperlink ref="G2" r:id="rId6" display="https://fakenumber.org/generator-us/washington202-555-0154" xr:uid="{885DBEDF-C9C7-423C-9D7E-262907DDAF08}"/>
+    <hyperlink ref="K2" r:id="rId7" display="https://fakenumber.org/generator-us/washington202-555-0154" xr:uid="{81DEC35B-7FE3-4BDD-B913-1D624831F89F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6922,34 +7756,34 @@
         <v>9</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="S1" s="14" t="s">
         <v>10</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -6998,10 +7832,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>25</v>
@@ -7028,13 +7862,13 @@
         <v>32</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -7046,10 +7880,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>25</v>
@@ -7078,7 +7912,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
@@ -7092,10 +7926,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>25</v>
@@ -7125,7 +7959,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="36" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -7138,10 +7972,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>25</v>
@@ -7170,7 +8004,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
@@ -7184,10 +8018,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>25</v>
@@ -7214,12 +8048,12 @@
         <v>32</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
@@ -7232,10 +8066,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>25</v>
@@ -7266,17 +8100,17 @@
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
-      <c r="P8" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="40" t="s">
-        <v>710</v>
+      <c r="P8" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="39" t="s">
+        <v>697</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="T8" s="17" t="s">
         <v>32</v>
@@ -7284,10 +8118,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>25</v>
@@ -7318,17 +8152,17 @@
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
-      <c r="P9" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="40" t="s">
-        <v>710</v>
+      <c r="P9" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>697</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="T9" s="17" t="s">
         <v>32</v>
@@ -7362,12 +8196,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B863EE-0FB8-4125-A633-87E6E4517058}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7435,69 +8269,69 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>170</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>25</v>
@@ -7527,13 +8361,13 @@
         <v>33</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -7556,10 +8390,10 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>25</v>
@@ -7589,13 +8423,13 @@
         <v>33</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -7618,10 +8452,10 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>25</v>
@@ -7651,16 +8485,16 @@
         <v>33</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -7682,10 +8516,10 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>25</v>
@@ -7715,17 +8549,17 @@
         <v>33</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="15" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="15"/>
@@ -7746,10 +8580,10 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>25</v>
@@ -7779,20 +8613,20 @@
         <v>33</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="N6" s="15"/>
       <c r="O6" s="15" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
@@ -7812,10 +8646,10 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>25</v>
@@ -7845,17 +8679,17 @@
         <v>33</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="15" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="15"/>
@@ -7876,10 +8710,10 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>25</v>
@@ -7915,7 +8749,7 @@
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="S8" s="15">
         <v>12346</v>
@@ -7927,19 +8761,19 @@
         <v>44818</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="Y8" s="15" t="s">
-        <v>463</v>
+        <v>446</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>695</v>
       </c>
       <c r="Z8" s="15" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
@@ -7950,10 +8784,10 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>25</v>
@@ -7998,7 +8832,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
@@ -8008,10 +8842,10 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>25</v>
@@ -8057,7 +8891,7 @@
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
       <c r="AB10" s="15" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="AC10" s="15"/>
       <c r="AD10" s="17" t="s">
@@ -8066,10 +8900,10 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>25</v>
@@ -8116,7 +8950,7 @@
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="15" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="AD11" s="17" t="s">
         <v>32</v>
@@ -8181,7 +9015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6996C0C-24E0-40BE-A97F-7A279690A8EE}">
   <dimension ref="A1:P6"/>
   <sheetViews>
@@ -8241,30 +9075,30 @@
         <v>9</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
@@ -8291,10 +9125,10 @@
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="O2" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="P2" s="20" t="s">
         <v>32</v>
@@ -8302,10 +9136,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>25</v>
@@ -8332,7 +9166,7 @@
         <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="P3" s="20" t="s">
         <v>32</v>
@@ -8340,10 +9174,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>25</v>
@@ -8370,7 +9204,7 @@
         <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>32</v>
@@ -8378,10 +9212,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>25</v>
@@ -8408,7 +9242,7 @@
         <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="P5" s="20" t="s">
         <v>32</v>
@@ -8416,10 +9250,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>25</v>
@@ -8446,10 +9280,10 @@
         <v>32</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="N6" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P6" s="20" t="s">
         <v>32</v>
@@ -8460,7 +9294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DAABDA-3594-43D7-9AEC-0D8E440ACE4D}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
@@ -8550,7 +9384,7 @@
         <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>19</v>
@@ -8562,24 +9396,24 @@
         <v>21</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>170</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>48</v>
@@ -8629,7 +9463,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="15"/>
       <c r="Y2" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="Z2" s="17" t="s">
         <v>32</v>
@@ -8637,7 +9471,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>53</v>
@@ -8692,7 +9526,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>55</v>
@@ -8747,7 +9581,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>57</v>
@@ -8802,7 +9636,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>59</v>
@@ -8857,7 +9691,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>67</v>
@@ -8898,10 +9732,10 @@
         <v>35</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="R7" s="2">
         <v>2</v>
@@ -8920,10 +9754,10 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>25</v>
@@ -8958,7 +9792,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="R8" s="2">
         <v>2</v>
@@ -8977,7 +9811,7 @@
     </row>
     <row r="9" spans="1:26" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>64</v>
@@ -9023,7 +9857,7 @@
         <v>64</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="X9" s="15"/>
       <c r="Z9" s="17" t="s">
@@ -9032,7 +9866,7 @@
     </row>
     <row r="10" spans="1:26" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>64</v>
@@ -9077,7 +9911,7 @@
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
       <c r="X10" s="16" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="Z10" s="17" t="s">
         <v>32</v>
@@ -9108,125 +9942,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B6D706-4369-43B1-B41D-E358306B83B4}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>343</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDD6E72-6031-4802-B904-6A5DCC120EE9}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9320,7 +10041,7 @@
         <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -9328,7 +10049,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>687</v>
+        <v>669</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -9367,10 +10088,10 @@
         <v>86</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>87</v>
@@ -9438,16 +10159,16 @@
         <v>86</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>89</v>
@@ -9509,10 +10230,10 @@
         <v>86</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>96</v>
@@ -9580,10 +10301,10 @@
         <v>86</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>101</v>
@@ -9651,10 +10372,10 @@
         <v>105</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>107</v>
@@ -9722,10 +10443,10 @@
         <v>105</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>107</v>
@@ -9793,10 +10514,10 @@
         <v>105</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>114</v>
@@ -9832,6 +10553,119 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B6D706-4369-43B1-B41D-E358306B83B4}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>393</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>335</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9ECCE6-1FC9-48C7-BBB8-F3E55C223DFA}">
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -9891,36 +10725,36 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="R1" s="22" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -9951,16 +10785,16 @@
       </c>
       <c r="K2" s="6"/>
       <c r="O2" s="32" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="R2" s="32" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="S2" s="20" t="s">
         <v>32</v>
@@ -9968,7 +10802,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -9998,7 +10832,7 @@
         <v>32</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="O3" s="32"/>
       <c r="P3" s="32"/>
@@ -10010,7 +10844,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -10043,10 +10877,10 @@
         <v>50</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="S4" s="20" t="s">
         <v>32</v>
@@ -10054,7 +10888,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -10087,13 +10921,13 @@
         <v>50</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="S5" s="20" t="s">
         <v>32</v>
@@ -10101,7 +10935,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -10134,13 +10968,13 @@
         <v>50</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="S6" s="20" t="s">
         <v>32</v>
@@ -10148,7 +10982,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -10181,13 +11015,13 @@
         <v>50</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="S7" s="20" t="s">
         <v>32</v>
@@ -10199,7 +11033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7608AE-4E83-4A59-A303-21D2C67D6F9E}">
   <dimension ref="A1:P6"/>
   <sheetViews>
@@ -10260,25 +11094,25 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -10308,7 +11142,7 @@
         <v>33</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="M2" s="34"/>
       <c r="N2" s="15"/>
@@ -10319,10 +11153,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
@@ -10363,10 +11197,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -10400,7 +11234,7 @@
         <v>12346</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>32</v>
@@ -10460,8 +11294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3A334-050A-4737-9B01-1B13EAAB8BDD}">
   <dimension ref="A1:AM7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10538,16 +11372,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>214</v>
@@ -10556,28 +11390,28 @@
         <v>215</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>211</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>17</v>
@@ -10586,7 +11420,7 @@
         <v>19</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>12</v>
@@ -10595,42 +11429,42 @@
         <v>76</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="AL1" s="22" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -10663,25 +11497,25 @@
         <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="R2" s="2">
         <v>7893969587</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>25</v>
@@ -10690,21 +11524,21 @@
         <v>25</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
@@ -10737,10 +11571,10 @@
         <v>33</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -10755,15 +11589,15 @@
         <v>51</v>
       </c>
       <c r="AM3" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -10798,10 +11632,10 @@
     </row>
     <row r="5" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>25</v>
@@ -10837,24 +11671,24 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s">
-        <v>420</v>
-      </c>
-      <c r="AF5" s="42" t="s">
-        <v>711</v>
-      </c>
-      <c r="AG5" s="41" t="s">
-        <v>713</v>
+        <v>404</v>
+      </c>
+      <c r="AF5" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="AG5" s="40" t="s">
+        <v>694</v>
       </c>
       <c r="AH5" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>25</v>
@@ -10890,33 +11724,33 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s">
-        <v>420</v>
-      </c>
-      <c r="AF6" s="42" t="s">
-        <v>711</v>
-      </c>
-      <c r="AG6" s="41" t="s">
-        <v>713</v>
+        <v>404</v>
+      </c>
+      <c r="AF6" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="AG6" s="40" t="s">
+        <v>694</v>
       </c>
       <c r="AH6" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="AI6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>422</v>
+        <v>409</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>694</v>
       </c>
       <c r="AK6" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B7" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
@@ -10952,28 +11786,28 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s">
-        <v>420</v>
-      </c>
-      <c r="AF7" s="42" t="s">
-        <v>711</v>
-      </c>
-      <c r="AG7" s="41" t="s">
-        <v>713</v>
+        <v>404</v>
+      </c>
+      <c r="AF7" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="AG7" s="40" t="s">
+        <v>694</v>
       </c>
       <c r="AH7" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="AI7" t="s">
-        <v>425</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>422</v>
+        <v>409</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>694</v>
       </c>
       <c r="AK7" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="AL7" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -11001,8 +11835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F404E78-86F3-4010-B1D5-D6F63F40004D}">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11065,64 +11899,64 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="V1" s="22" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>13</v>
@@ -11134,15 +11968,15 @@
         <v>15</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -11178,24 +12012,24 @@
         <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="Q2" s="27" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="R2" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
@@ -11231,33 +12065,33 @@
         <v>72</v>
       </c>
       <c r="O3" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="R3" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="S3" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="T3" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="U3" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>69</v>
@@ -11293,33 +12127,33 @@
         <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="R4" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="S4" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="T4" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="U4" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>71</v>
@@ -11355,33 +12189,33 @@
         <v>72</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="R5" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="S5" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="T5" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="U5" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>73</v>
@@ -11416,34 +12250,34 @@
       <c r="M6" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="39" t="s">
-        <v>682</v>
+      <c r="O6" s="38" t="s">
+        <v>664</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="R6" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="S6" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="T6" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="U6" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="B7" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
@@ -11479,33 +12313,33 @@
         <v>72</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="R7" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="S7" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="T7" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="U7" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>25</v>
@@ -11541,36 +12375,36 @@
         <v>72</v>
       </c>
       <c r="O8" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P8" s="27" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="R8" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="S8" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="T8" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="U8" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="V8" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="B9" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>25</v>
@@ -11606,12 +12440,12 @@
         <v>72</v>
       </c>
       <c r="O9" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="W9" s="33" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="X9" s="33"/>
       <c r="Y9" s="33"/>
@@ -11619,7 +12453,7 @@
       <c r="AA9" s="33"/>
       <c r="AB9" s="33"/>
       <c r="AC9" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AD9">
         <v>260</v>
@@ -11628,18 +12462,18 @@
         <v>34</v>
       </c>
       <c r="AF9" s="26" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="AG9" s="26" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="B10" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
@@ -11675,28 +12509,28 @@
         <v>72</v>
       </c>
       <c r="O10" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
       <c r="W10" s="33"/>
       <c r="X10" s="33" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="Y10" s="33" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="Z10" s="33" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="AA10" s="33" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="AB10" s="33" t="s">
-        <v>666</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>601</v>
+        <v>648</v>
+      </c>
+      <c r="AC10" s="10" t="s">
+        <v>696</v>
       </c>
       <c r="AE10" s="26"/>
       <c r="AF10" s="26"/>
@@ -11704,10 +12538,10 @@
     </row>
     <row r="11" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="B11" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>25</v>
@@ -11743,28 +12577,28 @@
         <v>72</v>
       </c>
       <c r="O11" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
       <c r="W11" s="33"/>
       <c r="X11" s="33" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="Y11" s="33" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="Z11" s="33" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="AA11" s="33" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="AB11" s="33" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="AC11" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="AE11" s="26"/>
       <c r="AF11" s="26"/>
@@ -11772,10 +12606,10 @@
     </row>
     <row r="12" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="B12" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>25</v>
@@ -11811,28 +12645,28 @@
         <v>72</v>
       </c>
       <c r="O12" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P12" s="27"/>
       <c r="Q12" s="27"/>
       <c r="W12" s="33"/>
       <c r="X12" s="33" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="Y12" s="33" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="Z12" s="33" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="AA12" s="33" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="AB12" s="33" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="AC12" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="AE12" s="26"/>
       <c r="AF12" s="26"/>
@@ -11840,10 +12674,10 @@
     </row>
     <row r="13" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="B13" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>25</v>
@@ -11879,28 +12713,28 @@
         <v>72</v>
       </c>
       <c r="O13" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
       <c r="W13" s="33"/>
       <c r="X13" s="33" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="Y13" s="33" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="Z13" s="33" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="AA13" s="33" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="AB13" s="33" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="AC13" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="AE13" s="26"/>
       <c r="AF13" s="26"/>
@@ -11908,10 +12742,10 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="B14" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>25</v>
@@ -11947,7 +12781,7 @@
         <v>72</v>
       </c>
       <c r="O14" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
@@ -11958,7 +12792,7 @@
       <c r="AA14" s="33"/>
       <c r="AB14" s="33"/>
       <c r="AC14" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AE14" s="26"/>
       <c r="AF14" s="26"/>
@@ -11966,10 +12800,10 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="B15" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>25</v>
@@ -12005,7 +12839,7 @@
         <v>72</v>
       </c>
       <c r="O15" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P15" s="27"/>
       <c r="Q15" s="27"/>
@@ -12016,7 +12850,7 @@
       <c r="AA15" s="33"/>
       <c r="AB15" s="33"/>
       <c r="AC15" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AE15" s="26"/>
       <c r="AF15" s="26"/>
@@ -12024,10 +12858,10 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="B16" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>25</v>
@@ -12063,7 +12897,7 @@
         <v>72</v>
       </c>
       <c r="O16" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
@@ -12074,7 +12908,7 @@
       <c r="AA16" s="33"/>
       <c r="AB16" s="33"/>
       <c r="AC16" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AE16" s="26"/>
       <c r="AF16" s="26"/>
@@ -12082,10 +12916,10 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="B17" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>25</v>
@@ -12121,7 +12955,7 @@
         <v>72</v>
       </c>
       <c r="O17" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
@@ -12132,7 +12966,7 @@
       <c r="AA17" s="33"/>
       <c r="AB17" s="33"/>
       <c r="AC17" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AE17" s="26"/>
       <c r="AF17" s="26"/>
@@ -12140,10 +12974,10 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="B18" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>25</v>
@@ -12179,7 +13013,7 @@
         <v>72</v>
       </c>
       <c r="O18" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
@@ -12190,7 +13024,7 @@
       <c r="AA18" s="33"/>
       <c r="AB18" s="33"/>
       <c r="AC18" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AE18" s="26"/>
       <c r="AF18" s="26"/>
@@ -12198,10 +13032,10 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="B19" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>25</v>
@@ -12237,7 +13071,7 @@
         <v>72</v>
       </c>
       <c r="O19" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
@@ -12248,7 +13082,7 @@
       <c r="AA19" s="33"/>
       <c r="AB19" s="33"/>
       <c r="AC19" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AE19" s="26"/>
       <c r="AF19" s="26"/>
@@ -12256,10 +13090,10 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="B20" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>25</v>
@@ -12295,7 +13129,7 @@
         <v>72</v>
       </c>
       <c r="O20" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
@@ -12306,7 +13140,7 @@
       <c r="AA20" s="33"/>
       <c r="AB20" s="33"/>
       <c r="AC20" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AE20" s="26"/>
       <c r="AF20" s="26"/>
@@ -12314,10 +13148,10 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="B21" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>25</v>
@@ -12353,7 +13187,7 @@
         <v>72</v>
       </c>
       <c r="O21" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
@@ -12364,7 +13198,7 @@
       <c r="AA21" s="33"/>
       <c r="AB21" s="33"/>
       <c r="AC21" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AE21" s="26"/>
       <c r="AF21" s="26"/>
@@ -12372,10 +13206,10 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="B22" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>25</v>
@@ -12411,7 +13245,7 @@
         <v>72</v>
       </c>
       <c r="O22" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
@@ -12422,7 +13256,7 @@
       <c r="AA22" s="33"/>
       <c r="AB22" s="33"/>
       <c r="AC22" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AE22" s="26"/>
       <c r="AF22" s="26"/>
@@ -12433,10 +13267,10 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="B23" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>25</v>
@@ -12469,10 +13303,10 @@
         <v>33</v>
       </c>
       <c r="N23" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="O23" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
@@ -12483,7 +13317,7 @@
       <c r="AA23" s="33"/>
       <c r="AB23" s="33"/>
       <c r="AC23" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AE23" s="26"/>
       <c r="AF23" s="26"/>
@@ -12545,21 +13379,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBCCE70-8886-44A0-B994-06CEF8321F97}">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="41" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12591,16 +13428,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>214</v>
@@ -12612,10 +13449,10 @@
         <v>211</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>167</v>
@@ -12627,13 +13464,13 @@
         <v>9</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>264</v>
@@ -12642,42 +13479,45 @@
         <v>265</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="AJ1" s="15" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>632</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
+        <v>614</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>26</v>
@@ -12702,34 +13542,34 @@
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="13" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="V2" s="17" t="s">
         <v>32</v>
@@ -12738,46 +13578,49 @@
         <v>32</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB2" s="38">
-        <v>31547</v>
-      </c>
-      <c r="AC2" s="15">
-        <v>1233</v>
+        <v>624</v>
+      </c>
+      <c r="AB2" s="53" t="s">
+        <v>801</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>800</v>
       </c>
       <c r="AD2" s="18">
         <v>76052</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="AF2" s="15" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="AG2" s="15"/>
       <c r="AH2" s="15"/>
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="C3" s="15">
-        <v>1</v>
+        <v>625</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>26</v>
@@ -12802,34 +13645,34 @@
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="13" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="V3" s="17" t="s">
         <v>32</v>
@@ -12838,54 +13681,57 @@
         <v>32</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="Y3" s="15" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AA3" s="27" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB3" s="38">
-        <v>35026</v>
-      </c>
-      <c r="AC3" s="15">
-        <v>1233</v>
+        <v>624</v>
+      </c>
+      <c r="AB3" s="53" t="s">
+        <v>802</v>
+      </c>
+      <c r="AC3" s="17" t="s">
+        <v>800</v>
       </c>
       <c r="AD3" s="18">
         <v>76052</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="AF3" s="15" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="AG3" s="13" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="AH3" s="13" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="AI3" s="15" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AJ3" s="15" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="C4" s="15">
-        <v>1</v>
+        <v>630</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>26</v>
@@ -12910,34 +13756,34 @@
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="13" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="V4" s="17" t="s">
         <v>32</v>
@@ -12946,82 +13792,187 @@
         <v>32</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="Z4" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AA4" s="27" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB4" s="38">
-        <v>35025</v>
-      </c>
-      <c r="AC4" s="15">
-        <v>1233</v>
+        <v>624</v>
+      </c>
+      <c r="AB4" s="53" t="s">
+        <v>802</v>
+      </c>
+      <c r="AC4" s="17" t="s">
+        <v>800</v>
       </c>
       <c r="AD4" s="18">
         <v>76052</v>
       </c>
       <c r="AE4" s="15" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="AF4" s="15" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="AG4" s="13" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="AH4" s="13" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="AI4" s="15" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AJ4" s="15" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+        <v>629</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
+      <c r="L5" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA5" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB5" s="53" t="s">
+        <v>802</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>76052</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="AG5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI5" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="AJ5" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13050,6 +14001,14 @@
     <hyperlink ref="AG4" r:id="rId23" display="mailto:Prajwalc@ideyalabs.com" xr:uid="{6F399244-DD03-4AD5-B707-9A2AEA8C3B61}"/>
     <hyperlink ref="AH4" r:id="rId24" display="mailto:Admin@123%60%60" xr:uid="{58D3D292-B662-41DA-B7BA-2BBF369401EA}"/>
     <hyperlink ref="D2" r:id="rId25" display="mailto:Santoshp@ideyalabs.com" xr:uid="{D1743EA7-B214-4262-9B0A-52C85E80C5AE}"/>
+    <hyperlink ref="D5" r:id="rId26" display="mailto:Santoshp@ideyalabs.com" xr:uid="{7312D46A-17DC-44FC-9056-B420EA46A14D}"/>
+    <hyperlink ref="L5" r:id="rId27" xr:uid="{E2393D7D-6602-466C-95CE-BD7AA7DAB04A}"/>
+    <hyperlink ref="M5" r:id="rId28" xr:uid="{18CAC354-16D9-4B5B-A604-5C90096E7FAB}"/>
+    <hyperlink ref="R5" r:id="rId29" display="mailto:jane.doen@gmail.com" xr:uid="{2C8DCC01-9012-41AB-955A-CA622969152D}"/>
+    <hyperlink ref="S5" r:id="rId30" display="mailto:Cust@123" xr:uid="{DDBCDD28-0BAA-430D-9FAF-322B7F56AD29}"/>
+    <hyperlink ref="T5" r:id="rId31" display="mailto:Cust@123" xr:uid="{39A73EC4-6BAE-42B7-972A-CF300A42029E}"/>
+    <hyperlink ref="U5" r:id="rId32" display="mailto:Cust@123" xr:uid="{FFA65B56-5569-44F6-AEA1-33E3009FA018}"/>
+    <hyperlink ref="AG5" r:id="rId33" display="mailto:Santoshp@ideyalabs.com" xr:uid="{EE2A18C9-5610-4D08-BF96-22ABA106BCAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13059,7 +14018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B5757B-1D64-4665-A795-38990E29E9FE}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -13113,10 +14072,10 @@
         <v>9</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L1" s="22" t="s">
         <v>168</v>
@@ -13128,21 +14087,21 @@
         <v>170</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>25</v>
@@ -13169,19 +14128,19 @@
         <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="L2" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="O2" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="P2" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>32</v>
@@ -13189,10 +14148,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>69</v>
@@ -13201,7 +14160,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>28</v>
@@ -13216,7 +14175,7 @@
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
@@ -13230,10 +14189,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>25</v>
@@ -13260,13 +14219,13 @@
         <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="L4" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="M4" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="Q4" s="17" t="s">
         <v>32</v>
@@ -13274,10 +14233,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>69</v>
@@ -13304,10 +14263,10 @@
         <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="M5" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="Q5" s="17" t="s">
         <v>32</v>
@@ -13315,10 +14274,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>71</v>
@@ -13345,10 +14304,10 @@
         <v>27</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="M6" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="Q6" s="17" t="s">
         <v>32</v>
@@ -13356,10 +14315,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>73</v>
@@ -13389,7 +14348,7 @@
         <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="Q7" s="17" t="s">
         <v>32</v>
@@ -13481,39 +14440,39 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>170</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
@@ -13543,22 +14502,22 @@
         <v>33</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="R2" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="S2" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="T2" s="17" t="s">
         <v>32</v>
@@ -13566,10 +14525,10 @@
     </row>
     <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>25</v>
@@ -13599,13 +14558,13 @@
         <v>33</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="Q3" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="T3" s="17" t="s">
         <v>32</v>
@@ -13667,16 +14626,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -13691,40 +14650,40 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>170</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>262</v>
@@ -13742,90 +14701,90 @@
         <v>265</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="E2" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="F2" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="G2" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="R2" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="S2" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>536</v>
-      </c>
       <c r="U2" s="30" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="W2" s="30">
         <v>151</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AA2" s="2">
         <v>12345</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="AD2">
         <v>1.01</v>
@@ -13833,89 +14792,89 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="E3" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="F3" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="G3" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="B4" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="E4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F4" t="s">
+        <v>486</v>
+      </c>
+      <c r="G4" t="s">
+        <v>487</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="E4" t="s">
-        <v>516</v>
-      </c>
-      <c r="F4" t="s">
-        <v>503</v>
-      </c>
-      <c r="G4" t="s">
-        <v>504</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>522</v>
-      </c>
       <c r="I4" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="K4" s="20" t="s">
         <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="N4" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="O4" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="B5" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="F5" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="G5" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -13936,10 +14895,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14015,13 +14974,13 @@
         <v>120</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -14233,10 +15192,10 @@
         <v>28</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="J7" s="7" t="s">
@@ -14278,8 +15237,8 @@
         <v>30</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2">
-        <v>0</v>
+      <c r="J8" s="7" t="s">
+        <v>806</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>139</v>
@@ -14531,16 +15490,16 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>27</v>
@@ -14549,24 +15508,24 @@
         <v>28</v>
       </c>
       <c r="Q15" s="29" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="R15" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>27</v>
@@ -14575,10 +15534,36 @@
         <v>28</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="R16" t="s">
-        <v>479</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -14593,8 +15578,10 @@
     <hyperlink ref="D15" r:id="rId8" xr:uid="{14A2AA38-F240-4D89-A35E-DD435F9E70F4}"/>
     <hyperlink ref="D16" r:id="rId9" xr:uid="{A3E7C781-3868-4B19-8733-80163AA97B47}"/>
     <hyperlink ref="S12" r:id="rId10" location="$%^" xr:uid="{093A161E-CB03-4693-90EF-B8D6480C7B81}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{198A1CF0-9DB0-409B-90A8-528CBE17904D}"/>
+    <hyperlink ref="E17" r:id="rId12" xr:uid="{901AE259-F960-4858-86F7-EB3B91A88A03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\En-Auto-new(11-11-2-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149C0ADB-8AC3-4BC1-9847-739491F7A6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A630EE29-8993-48CD-AF97-9BD6D7F41332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="809">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -14016,10 +14016,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B5757B-1D64-4665-A795-38990E29E9FE}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14043,7 +14043,7 @@
     <col min="17" max="17" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -14095,8 +14095,11 @@
       <c r="Q1" s="1" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R1" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>417</v>
       </c>
@@ -14145,8 +14148,11 @@
       <c r="Q2" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>417</v>
       </c>
@@ -14187,7 +14193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>422</v>
       </c>
@@ -14231,7 +14237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>422</v>
       </c>
@@ -14272,7 +14278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>422</v>
       </c>
@@ -14313,7 +14319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>422</v>
       </c>
@@ -14897,20 +14903,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="57.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\En-Auto-new(11-11-2-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebAutomation\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A630EE29-8993-48CD-AF97-9BD6D7F41332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C5C88D-57DE-45AD-83F4-64D8A843C5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -18,23 +18,24 @@
     <sheet name="profiles" sheetId="17" r:id="rId3"/>
     <sheet name="profilesIndividuals" sheetId="24" r:id="rId4"/>
     <sheet name="underWritings" sheetId="23" r:id="rId5"/>
-    <sheet name="changePassword" sheetId="18" r:id="rId6"/>
-    <sheet name="userDetails" sheetId="19" r:id="rId7"/>
-    <sheet name="checkOut" sheetId="20" r:id="rId8"/>
-    <sheet name="Login" sheetId="3" r:id="rId9"/>
-    <sheet name="exportFile" sheetId="25" r:id="rId10"/>
-    <sheet name="ForgotPassword" sheetId="4" r:id="rId11"/>
-    <sheet name="gobalSearch" sheetId="21" r:id="rId12"/>
-    <sheet name="forgotEmail" sheetId="6" r:id="rId13"/>
-    <sheet name="AddCogentAccount" sheetId="9" r:id="rId14"/>
-    <sheet name="SignupPage" sheetId="26" r:id="rId15"/>
-    <sheet name="feeStructure" sheetId="10" r:id="rId16"/>
-    <sheet name="TransactionDetails" sheetId="13" r:id="rId17"/>
-    <sheet name="AccountLimits" sheetId="16" r:id="rId18"/>
-    <sheet name="transaction" sheetId="14" r:id="rId19"/>
-    <sheet name="featureControl" sheetId="11" r:id="rId20"/>
-    <sheet name="BalanceReport" sheetId="12" r:id="rId21"/>
-    <sheet name="Disputes" sheetId="22" r:id="rId22"/>
+    <sheet name="SignupPageMerchant" sheetId="27" r:id="rId6"/>
+    <sheet name="changePassword" sheetId="18" r:id="rId7"/>
+    <sheet name="userDetails" sheetId="19" r:id="rId8"/>
+    <sheet name="checkOut" sheetId="20" r:id="rId9"/>
+    <sheet name="Login" sheetId="3" r:id="rId10"/>
+    <sheet name="exportFile" sheetId="25" r:id="rId11"/>
+    <sheet name="ForgotPassword" sheetId="4" r:id="rId12"/>
+    <sheet name="gobalSearch" sheetId="21" r:id="rId13"/>
+    <sheet name="forgotEmail" sheetId="6" r:id="rId14"/>
+    <sheet name="AddCogentAccount" sheetId="9" r:id="rId15"/>
+    <sheet name="SignupPage" sheetId="26" r:id="rId16"/>
+    <sheet name="feeStructure" sheetId="10" r:id="rId17"/>
+    <sheet name="TransactionDetails" sheetId="13" r:id="rId18"/>
+    <sheet name="AccountLimits" sheetId="16" r:id="rId19"/>
+    <sheet name="transaction" sheetId="14" r:id="rId20"/>
+    <sheet name="featureControl" sheetId="11" r:id="rId21"/>
+    <sheet name="BalanceReport" sheetId="12" r:id="rId22"/>
+    <sheet name="Disputes" sheetId="22" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="817">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2506,13 +2507,37 @@
     <t>monika1004@gmail.com</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Admin login Page password View</t>
   </si>
   <si>
     <t>password masked</t>
+  </si>
+  <si>
+    <t>987654</t>
+  </si>
+  <si>
+    <t>verify New Verification CodeSend Upto 5Times</t>
+  </si>
+  <si>
+    <t>76052</t>
+  </si>
+  <si>
+    <t>monika1007@gmail.com</t>
+  </si>
+  <si>
+    <t>Merchant Application Under Review</t>
+  </si>
+  <si>
+    <t>2025550875</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>3/1/1998</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -2728,7 +2753,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2823,6 +2848,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4093,6 +4120,721 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="S2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12233</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="S7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="S8" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="S10" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="S11" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="S12" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="S13" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="S14" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="R15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="R16" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>806</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>809</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>809</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{2EDC7676-9FF8-4C4D-AE0A-4312695F15A5}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{74D906B8-3148-4270-A99A-F92D334FDF90}"/>
+    <hyperlink ref="J12" r:id="rId3" location="$%^" xr:uid="{B01CB84A-7636-4DE1-8BFA-BC59B5C6E528}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{E6B2A441-2E4E-4B78-B215-BCBF62DF2FEE}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{589E5191-A442-4A2B-BFDC-0FCA4DCF4C5C}"/>
+    <hyperlink ref="D5:D14" r:id="rId6" display="Santoshp@ideyalabs.com" xr:uid="{D90A91FE-D341-457E-A2FD-4376200009F5}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{9806349F-234E-4086-B757-45348812667D}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{14A2AA38-F240-4D89-A35E-DD435F9E70F4}"/>
+    <hyperlink ref="D16" r:id="rId9" xr:uid="{A3E7C781-3868-4B19-8733-80163AA97B47}"/>
+    <hyperlink ref="S12" r:id="rId10" location="$%^" xr:uid="{093A161E-CB03-4693-90EF-B8D6480C7B81}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{198A1CF0-9DB0-409B-90A8-528CBE17904D}"/>
+    <hyperlink ref="E17" r:id="rId12" xr:uid="{901AE259-F960-4858-86F7-EB3B91A88A03}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{F1D1CBE4-6EFD-449E-B0E4-E807CEF60549}"/>
+    <hyperlink ref="E18" r:id="rId14" xr:uid="{B66B72C9-AF07-4730-A2A2-115447820487}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE7FBCC-0AD2-4CB8-BB75-EACD68A9A988}">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -4291,7 +5033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C474AF-1560-47F8-90E0-FD2FFD96A555}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
@@ -5074,7 +5816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77806F8-4095-4D16-96F4-6911E0B4577F}">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -5285,7 +6027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D341FF-C706-4B03-BBF1-19B6EBC55B3F}">
   <dimension ref="A1:AC15"/>
   <sheetViews>
@@ -6450,7 +7192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B0A0B3-8637-430C-83AB-3CD1E7890F66}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
@@ -7183,7 +7925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77372ADD-3C84-4CC3-8B32-31147894CD0D}">
   <dimension ref="A1:CB2"/>
   <sheetViews>
@@ -7692,7 +8434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290E486-9137-49B5-9733-BAB7620F9D07}">
   <dimension ref="A1:T10"/>
   <sheetViews>
@@ -8196,7 +8938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B863EE-0FB8-4125-A633-87E6E4517058}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
@@ -9015,7 +9757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6996C0C-24E0-40BE-A97F-7A279690A8EE}">
   <dimension ref="A1:P6"/>
   <sheetViews>
@@ -9294,7 +10036,617 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDD6E72-6031-4802-B904-6A5DCC120EE9}">
+  <dimension ref="A1:W8"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{92A74E4F-278C-46C5-B56F-1DEE573A2B71}"/>
+    <hyperlink ref="D3:D8" r:id="rId2" display="santoshp@ideyalabs.com" xr:uid="{CC451CFC-3178-411D-8AF5-CDABD2D340D2}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{886819AD-D182-4E9F-BC94-32AA1035B8BD}"/>
+    <hyperlink ref="E3:E8" r:id="rId4" display="Admin@123" xr:uid="{CBF914E0-82B1-46E2-AFA0-E6B23CE0BEE0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DAABDA-3594-43D7-9AEC-0D8E440ACE4D}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
@@ -9942,617 +11294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDD6E72-6031-4802-B904-6A5DCC120EE9}">
-  <dimension ref="A1:W8"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-    <col min="17" max="17" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{92A74E4F-278C-46C5-B56F-1DEE573A2B71}"/>
-    <hyperlink ref="D3:D8" r:id="rId2" display="santoshp@ideyalabs.com" xr:uid="{CC451CFC-3178-411D-8AF5-CDABD2D340D2}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{886819AD-D182-4E9F-BC94-32AA1035B8BD}"/>
-    <hyperlink ref="E3:E8" r:id="rId4" display="Admin@123" xr:uid="{CBF914E0-82B1-46E2-AFA0-E6B23CE0BEE0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B6D706-4369-43B1-B41D-E358306B83B4}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -10665,7 +11407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9ECCE6-1FC9-48C7-BBB8-F3E55C223DFA}">
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -11033,7 +11775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7608AE-4E83-4A59-A303-21D2C67D6F9E}">
   <dimension ref="A1:P6"/>
   <sheetViews>
@@ -13381,8 +14123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBCCE70-8886-44A0-B994-06CEF8321F97}">
   <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13556,7 +14298,7 @@
       <c r="P2" s="18" t="s">
         <v>619</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="56" t="s">
         <v>626</v>
       </c>
       <c r="R2" s="13" t="s">
@@ -13595,8 +14337,8 @@
       <c r="AC2" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="AD2" s="18">
-        <v>76052</v>
+      <c r="AD2" s="56" t="s">
+        <v>810</v>
       </c>
       <c r="AE2" s="15" t="s">
         <v>532</v>
@@ -13659,7 +14401,7 @@
       <c r="P3" s="18" t="s">
         <v>619</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="56" t="s">
         <v>626</v>
       </c>
       <c r="R3" s="13" t="s">
@@ -13698,8 +14440,8 @@
       <c r="AC3" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="AD3" s="18">
-        <v>76052</v>
+      <c r="AD3" s="56" t="s">
+        <v>810</v>
       </c>
       <c r="AE3" s="15" t="s">
         <v>532</v>
@@ -13770,7 +14512,7 @@
       <c r="P4" s="18" t="s">
         <v>619</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="56" t="s">
         <v>626</v>
       </c>
       <c r="R4" s="13" t="s">
@@ -13809,8 +14551,8 @@
       <c r="AC4" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="AD4" s="18">
-        <v>76052</v>
+      <c r="AD4" s="56" t="s">
+        <v>810</v>
       </c>
       <c r="AE4" s="15" t="s">
         <v>532</v>
@@ -13881,7 +14623,7 @@
       <c r="P5" s="18" t="s">
         <v>619</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="56" t="s">
         <v>626</v>
       </c>
       <c r="R5" s="13" t="s">
@@ -13920,8 +14662,8 @@
       <c r="AC5" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="AD5" s="18">
-        <v>76052</v>
+      <c r="AD5" s="56" t="s">
+        <v>810</v>
       </c>
       <c r="AE5" s="15" t="s">
         <v>532</v>
@@ -13975,50 +14717,776 @@
       <c r="AA6" s="44"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{3A353F43-D3BB-4CB3-B2C2-34736E9EAFB6}"/>
-    <hyperlink ref="M2" r:id="rId2" xr:uid="{60A700CF-AF41-499F-8E9D-760280CC41F5}"/>
-    <hyperlink ref="R2" r:id="rId3" display="mailto:jane.doen@gmail.com" xr:uid="{29E1FC61-90D9-4AE9-85EA-1F623255384D}"/>
-    <hyperlink ref="S2" r:id="rId4" display="mailto:Cust@123" xr:uid="{2B8F6CCC-09B4-43A4-BFD4-AF4369709553}"/>
-    <hyperlink ref="T2" r:id="rId5" display="mailto:Cust@123" xr:uid="{D43B13B9-2D46-4C01-95EF-81ABF1B846F4}"/>
-    <hyperlink ref="U2" r:id="rId6" display="mailto:Cust@123" xr:uid="{80C900F7-BB04-440C-8918-1620C1F95B48}"/>
-    <hyperlink ref="D3" r:id="rId7" display="mailto:Santoshp@ideyalabs.com" xr:uid="{ECB12E28-F45B-4623-94DF-5690BAE04D13}"/>
-    <hyperlink ref="L3" r:id="rId8" xr:uid="{D8D4E6C2-C935-4D67-A757-C132ABB4D6D5}"/>
-    <hyperlink ref="M3" r:id="rId9" xr:uid="{39C04CAA-E9B8-4346-BC43-AA87A5C91124}"/>
-    <hyperlink ref="R3" r:id="rId10" display="mailto:jane.doen@gmail.com" xr:uid="{FD112883-BEA1-4BB8-88AC-1FCB13185A9C}"/>
-    <hyperlink ref="S3" r:id="rId11" display="mailto:Cust@123" xr:uid="{C0F6B868-57CA-4C15-8C69-26C6014BB1FF}"/>
-    <hyperlink ref="T3" r:id="rId12" display="mailto:Cust@123" xr:uid="{51CA9364-E3FB-458D-A464-3B2828343559}"/>
-    <hyperlink ref="U3" r:id="rId13" display="mailto:Cust@123" xr:uid="{C927EA4C-CD49-4D74-857D-A9149B594E1C}"/>
-    <hyperlink ref="AG3" r:id="rId14" display="mailto:Prajwalc@ideyalabs.com" xr:uid="{0BE6A37D-F91A-446F-A0D1-69AF4EEDD520}"/>
-    <hyperlink ref="AH3" r:id="rId15" display="mailto:Admin@123%60%60" xr:uid="{6DDD4350-2BEA-43CE-BE5C-EB9614F3CA69}"/>
-    <hyperlink ref="D4" r:id="rId16" display="mailto:Santoshp@ideyalabs.com" xr:uid="{718992E1-491E-4782-BA76-8431535F9F06}"/>
-    <hyperlink ref="L4" r:id="rId17" xr:uid="{50B39DE0-1042-4504-BCA6-B854D9F42AC4}"/>
-    <hyperlink ref="M4" r:id="rId18" xr:uid="{A41C7B53-EB7E-4ECF-AAB9-9F2A277A5BC7}"/>
-    <hyperlink ref="R4" r:id="rId19" display="mailto:jane.doen@gmail.com" xr:uid="{A0F40DB5-D566-4F6D-8940-D4A9C8E0DC31}"/>
-    <hyperlink ref="S4" r:id="rId20" display="mailto:Cust@123" xr:uid="{060A5CB7-0EDD-41A3-8BE1-6962BD5937A6}"/>
-    <hyperlink ref="T4" r:id="rId21" display="mailto:Cust@123" xr:uid="{F4AFF7A6-0357-44E6-BC5F-09619EFB9A67}"/>
-    <hyperlink ref="U4" r:id="rId22" display="mailto:Cust@123" xr:uid="{3CC698D2-BA3A-4CCE-AF2E-FA2F57DBA17E}"/>
-    <hyperlink ref="AG4" r:id="rId23" display="mailto:Prajwalc@ideyalabs.com" xr:uid="{6F399244-DD03-4AD5-B707-9A2AEA8C3B61}"/>
-    <hyperlink ref="AH4" r:id="rId24" display="mailto:Admin@123%60%60" xr:uid="{58D3D292-B662-41DA-B7BA-2BBF369401EA}"/>
-    <hyperlink ref="D2" r:id="rId25" display="mailto:Santoshp@ideyalabs.com" xr:uid="{D1743EA7-B214-4262-9B0A-52C85E80C5AE}"/>
-    <hyperlink ref="D5" r:id="rId26" display="mailto:Santoshp@ideyalabs.com" xr:uid="{7312D46A-17DC-44FC-9056-B420EA46A14D}"/>
-    <hyperlink ref="L5" r:id="rId27" xr:uid="{E2393D7D-6602-466C-95CE-BD7AA7DAB04A}"/>
-    <hyperlink ref="M5" r:id="rId28" xr:uid="{18CAC354-16D9-4B5B-A604-5C90096E7FAB}"/>
-    <hyperlink ref="R5" r:id="rId29" display="mailto:jane.doen@gmail.com" xr:uid="{2C8DCC01-9012-41AB-955A-CA622969152D}"/>
-    <hyperlink ref="S5" r:id="rId30" display="mailto:Cust@123" xr:uid="{DDBCDD28-0BAA-430D-9FAF-322B7F56AD29}"/>
-    <hyperlink ref="T5" r:id="rId31" display="mailto:Cust@123" xr:uid="{39A73EC4-6BAE-42B7-972A-CF300A42029E}"/>
-    <hyperlink ref="U5" r:id="rId32" display="mailto:Cust@123" xr:uid="{FFA65B56-5569-44F6-AEA1-33E3009FA018}"/>
-    <hyperlink ref="AG5" r:id="rId33" display="mailto:Santoshp@ideyalabs.com" xr:uid="{EE2A18C9-5610-4D08-BF96-22ABA106BCAF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1739BED2-F0C1-4EA3-8C46-0D5DA1996262}">
+  <dimension ref="A1:EB2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="DF1" workbookViewId="0">
+      <selection activeCell="DQ17" sqref="DQ17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:132" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>723</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>730</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>731</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="AC1" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="AD1" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>735</v>
+      </c>
+      <c r="AF1" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="AH1" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="AI1" s="22" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ1" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="AK1" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="AL1" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="AM1" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="AN1" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO1" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="AP1" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ1" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="AR1" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="AS1" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="AT1" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW1" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="AX1" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="AY1" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="AZ1" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="BA1" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="BB1" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="BC1" s="22" t="s">
+        <v>750</v>
+      </c>
+      <c r="BD1" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="BE1" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="BF1" s="22" t="s">
+        <v>753</v>
+      </c>
+      <c r="BG1" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="BH1" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="BI1" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="BJ1" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="BK1" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="BL1" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="BM1" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="BN1" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="BO1" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="BP1" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="BQ1" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="BR1" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="BS1" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="BT1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU1" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="BV1" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="BW1" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="BX1" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="BY1" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="BZ1" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="CA1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="CB1" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="CC1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="CD1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="CE1" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="CF1" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="CG1" s="22" t="s">
+        <v>735</v>
+      </c>
+      <c r="CH1" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="CI1" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="CJ1" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="CK1" s="22" t="s">
+        <v>739</v>
+      </c>
+      <c r="CL1" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="CM1" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="CN1" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="CO1" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="CP1" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="CQ1" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="CR1" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="CS1" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="CT1" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="CU1" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="CV1" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX1" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="CY1" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="CZ1" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="DA1" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="DB1" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="DC1" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="DD1" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="DE1" s="22" t="s">
+        <v>750</v>
+      </c>
+      <c r="DF1" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="DG1" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="DH1" s="22" t="s">
+        <v>753</v>
+      </c>
+      <c r="DI1" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="DJ1" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="DK1" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="DL1" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="DM1" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="DN1" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="DO1" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="DP1" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="DQ1" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="DR1" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="DS1" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="DT1" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="DU1" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="DV1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="DW1" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="DX1" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="DY1" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="DZ1" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="EA1" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="EB1" s="22" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="2" spans="1:132" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>811</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>804</v>
+      </c>
+      <c r="J2" t="s">
+        <v>715</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>421</v>
+      </c>
+      <c r="O2" t="s">
+        <v>716</v>
+      </c>
+      <c r="P2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" t="s">
+        <v>811</v>
+      </c>
+      <c r="S2" t="s">
+        <v>717</v>
+      </c>
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>768</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>769</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>770</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>771</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>772</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI2" s="20" t="s">
+        <v>773</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>774</v>
+      </c>
+      <c r="AK2" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>776</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>777</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>778</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AP2" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>516</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>532</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>780</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>781</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>380</v>
+      </c>
+      <c r="BE2" s="20" t="s">
+        <v>814</v>
+      </c>
+      <c r="BF2" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="BG2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>782</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>783</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>784</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>785</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>786</v>
+      </c>
+      <c r="BM2" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="BN2" s="20" t="s">
+        <v>788</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>789</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>790</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>791</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>792</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>793</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>794</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>795</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>380</v>
+      </c>
+      <c r="BW2" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="BX2" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="BY2" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="BZ2" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>798</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>812</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>768</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>769</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>770</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>771</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>772</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>380</v>
+      </c>
+      <c r="CK2" s="20" t="s">
+        <v>773</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>774</v>
+      </c>
+      <c r="CM2" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>776</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>777</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>778</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>624</v>
+      </c>
+      <c r="CR2" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>516</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>532</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>437</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>780</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>781</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>380</v>
+      </c>
+      <c r="DG2" s="20" t="s">
+        <v>814</v>
+      </c>
+      <c r="DH2" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="DI2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>782</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>783</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>784</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>785</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>786</v>
+      </c>
+      <c r="DO2" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="DP2" s="20" t="s">
+        <v>788</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>789</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>790</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>791</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>792</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>793</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>794</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>795</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>380</v>
+      </c>
+      <c r="DY2" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="DZ2" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="EA2" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="EB2" s="20" t="s">
+        <v>816</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B5757B-1D64-4665-A795-38990E29E9FE}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
@@ -14380,7 +15848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C521355-FD3D-4E65-938C-9AA1EB49CB44}">
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -14587,7 +16055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFB9E42-5696-4F0E-9E81-9692429FA356}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
@@ -14897,697 +16365,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
-  <dimension ref="A1:S17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="81.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="S2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2">
-        <v>12233</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="S7" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="7" t="s">
-        <v>806</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="S9" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="S10" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="S11" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="S12" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="S13" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="S14" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>455</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="29" t="s">
-        <v>458</v>
-      </c>
-      <c r="R15" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>455</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="29" t="s">
-        <v>458</v>
-      </c>
-      <c r="R16" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>807</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{2EDC7676-9FF8-4C4D-AE0A-4312695F15A5}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{74D906B8-3148-4270-A99A-F92D334FDF90}"/>
-    <hyperlink ref="J12" r:id="rId3" location="$%^" xr:uid="{B01CB84A-7636-4DE1-8BFA-BC59B5C6E528}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{E6B2A441-2E4E-4B78-B215-BCBF62DF2FEE}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{589E5191-A442-4A2B-BFDC-0FCA4DCF4C5C}"/>
-    <hyperlink ref="D5:D14" r:id="rId6" display="Santoshp@ideyalabs.com" xr:uid="{D90A91FE-D341-457E-A2FD-4376200009F5}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{9806349F-234E-4086-B757-45348812667D}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{14A2AA38-F240-4D89-A35E-DD435F9E70F4}"/>
-    <hyperlink ref="D16" r:id="rId9" xr:uid="{A3E7C781-3868-4B19-8733-80163AA97B47}"/>
-    <hyperlink ref="S12" r:id="rId10" location="$%^" xr:uid="{093A161E-CB03-4693-90EF-B8D6480C7B81}"/>
-    <hyperlink ref="D17" r:id="rId11" xr:uid="{198A1CF0-9DB0-409B-90A8-528CBE17904D}"/>
-    <hyperlink ref="E17" r:id="rId12" xr:uid="{901AE259-F960-4858-86F7-EB3B91A88A03}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
-</worksheet>
 </file>
--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebAutomation\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C5C88D-57DE-45AD-83F4-64D8A843C5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF53E44-36FC-4FA5-8BEC-72A7197F6B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="819">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2538,6 +2538,12 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>hand symbol with clickable mode and highlighted</t>
+  </si>
+  <si>
+    <t>rgba(0, 166, 162, 1)</t>
   </si>
 </sst>
 </file>
@@ -4121,15 +4127,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:E18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" customWidth="1"/>
@@ -4151,7 +4157,7 @@
     <col min="20" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4209,8 +4215,17 @@
       <c r="S1" s="1" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>121</v>
       </c>
@@ -4255,7 +4270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
@@ -4290,7 +4305,7 @@
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>124</v>
       </c>
@@ -4325,7 +4340,7 @@
       </c>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>124</v>
       </c>
@@ -4362,7 +4377,7 @@
       </c>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -4399,7 +4414,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>135</v>
       </c>
@@ -4444,7 +4459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>137</v>
       </c>
@@ -4483,7 +4498,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>137</v>
       </c>
@@ -4522,7 +4537,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>137</v>
       </c>
@@ -4561,7 +4576,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -4600,7 +4615,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>137</v>
       </c>
@@ -4639,7 +4654,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>137</v>
       </c>
@@ -4678,7 +4693,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>137</v>
       </c>
@@ -4717,7 +4732,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>455</v>
       </c>
@@ -4743,7 +4758,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>455</v>
       </c>
@@ -4769,7 +4784,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>806</v>
       </c>
@@ -4795,7 +4810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>809</v>
       </c>
@@ -4810,6 +4825,60 @@
       </c>
       <c r="E18" s="13" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="S19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>818</v>
+      </c>
+      <c r="U19" t="s">
+        <v>34</v>
+      </c>
+      <c r="V19" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4828,9 +4897,11 @@
     <hyperlink ref="E17" r:id="rId12" xr:uid="{901AE259-F960-4858-86F7-EB3B91A88A03}"/>
     <hyperlink ref="D18" r:id="rId13" xr:uid="{F1D1CBE4-6EFD-449E-B0E4-E807CEF60549}"/>
     <hyperlink ref="E18" r:id="rId14" xr:uid="{B66B72C9-AF07-4730-A2A2-115447820487}"/>
+    <hyperlink ref="E19" r:id="rId15" xr:uid="{2B1CD9CC-FAD0-4966-9996-E22A383C7528}"/>
+    <hyperlink ref="D19" r:id="rId16" xr:uid="{39C2EE9B-988C-402F-AAD2-479163FD82BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -14725,7 +14796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1739BED2-F0C1-4EA3-8C46-0D5DA1996262}">
   <dimension ref="A1:EB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DF1" workbookViewId="0">
+    <sheetView topLeftCell="DF1" workbookViewId="0">
       <selection activeCell="DQ17" sqref="DQ17"/>
     </sheetView>
   </sheetViews>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Admin(17-11-2022)\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF53E44-36FC-4FA5-8BEC-72A7197F6B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCEB0C9-C592-423C-BD59-165AE204F6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="819">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -4129,7 +4129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB4A103-5E7C-460B-A3AA-C11BE99C8FB4}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
@@ -5106,10 +5106,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C474AF-1560-47F8-90E0-FD2FFD96A555}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5133,7 +5133,7 @@
     <col min="26" max="26" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5212,8 +5212,11 @@
       <c r="Z1" s="14" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="AA1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>173</v>
       </c>
@@ -5272,8 +5275,11 @@
       <c r="Z2" s="15" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>180</v>
       </c>
@@ -5317,7 +5323,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>180</v>
       </c>
@@ -5363,7 +5369,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>180</v>
       </c>
@@ -5415,7 +5421,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>180</v>
       </c>
@@ -5467,7 +5473,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>180</v>
       </c>
@@ -5521,7 +5527,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>180</v>
       </c>
@@ -5577,7 +5583,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>180</v>
       </c>
@@ -5631,7 +5637,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>180</v>
       </c>
@@ -5685,7 +5691,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>201</v>
       </c>
@@ -5729,7 +5735,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>201</v>
       </c>
@@ -5771,7 +5777,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>205</v>
       </c>
@@ -5815,7 +5821,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>207</v>
       </c>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\Admin(17-11-2022)\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCEB0C9-C592-423C-BD59-165AE204F6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D4F427-E3EE-4B92-A637-F2F207FA3911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3538" uniqueCount="821">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2544,6 +2544,12 @@
   </si>
   <si>
     <t>rgba(0, 166, 162, 1)</t>
+  </si>
+  <si>
+    <t>headings</t>
+  </si>
+  <si>
+    <t>Date &amp; Time,Type,Description,Amount (CYN),Balance (CYN),Status</t>
   </si>
 </sst>
 </file>
@@ -2759,7 +2765,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2856,6 +2862,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3138,10 +3147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB40DDF-741D-4E62-9E3A-43C63EE95C74}">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3164,9 +3173,10 @@
     <col min="19" max="20" width="15.7109375" customWidth="1"/>
     <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3239,8 +3249,11 @@
       <c r="X1" s="1" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -3297,8 +3310,11 @@
       <c r="X2" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="Y2" s="58" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -3350,7 +3366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -3402,7 +3418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -3443,7 +3459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -3484,7 +3500,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>47</v>
       </c>
@@ -3538,7 +3554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>52</v>
       </c>
@@ -3592,7 +3608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -3646,7 +3662,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>56</v>
       </c>
@@ -3700,7 +3716,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -3754,7 +3770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -3795,7 +3811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>63</v>
       </c>
@@ -3836,7 +3852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>66</v>
       </c>
@@ -3877,7 +3893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>66</v>
       </c>
@@ -3918,7 +3934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
@@ -5108,7 +5124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C474AF-1560-47F8-90E0-FD2FFD96A555}">
   <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D4F427-E3EE-4B92-A637-F2F207FA3911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEB2F63-AB1B-41CE-A90A-2CF4DC332F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2549,7 +2549,7 @@
     <t>headings</t>
   </si>
   <si>
-    <t>Date &amp; Time,Type,Description,Amount (CYN),Balance (CYN),Status</t>
+    <t>DATE &amp; TIME/Type/Description/AMOUNT(CYN)/BALANCE(CYN)/STATUS</t>
   </si>
 </sst>
 </file>
@@ -3150,7 +3150,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Web/coyni/resources/testdata-admin.xlsx
+++ b/Web/coyni/resources/testdata-admin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-web\fix-Features in Admin\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEB2F63-AB1B-41CE-A90A-2CF4DC332F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82EF72D-1074-483D-AA78-C294FCB44D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coyniPortal" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3538" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="824">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2550,6 +2550,15 @@
   </si>
   <si>
     <t>DATE &amp; TIME/Type/Description/AMOUNT(CYN)/BALANCE(CYN)/STATUS</t>
+  </si>
+  <si>
+    <t>Looks like something went wrong. Please try again later.</t>
+  </si>
+  <si>
+    <t>fiveTimeContent</t>
+  </si>
+  <si>
+    <t>swathim@ideyalabs.com</t>
   </si>
 </sst>
 </file>
@@ -3149,7 +3158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB40DDF-741D-4E62-9E3A-43C63EE95C74}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewI